--- a/JPADSandBox_v2/out/ATR-72/AERODYNAMIC_AND_STABILITY_CRUISE/Aerodynamic_and_Stability_CRUISE.xlsx
+++ b/JPADSandBox_v2/out/ATR-72/AERODYNAMIC_AND_STABILITY_CRUISE/Aerodynamic_and_Stability_CRUISE.xlsx
@@ -10,12 +10,13 @@
     <sheet name="HORIZONTAL_TAIL" r:id="rId4" sheetId="2"/>
     <sheet name="VERTICAL_TAIL" r:id="rId5" sheetId="3"/>
     <sheet name="FUSELAGE" r:id="rId6" sheetId="4"/>
+    <sheet name="NACELLE" r:id="rId7" sheetId="5"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="814" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="851" uniqueCount="114">
   <si>
     <t>Description</t>
   </si>
@@ -33155,7 +33156,7 @@
         <v>5</v>
       </c>
       <c r="C18" t="n">
-        <v>-0.017440525689364335</v>
+        <v>-0.08758897794946623</v>
       </c>
     </row>
     <row r="19">
@@ -33412,6 +33413,707 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="35"/>
+  <cols>
+    <col min="2" max="2" width="8.0" customWidth="true"/>
+    <col min="3" max="3" width="15.0" customWidth="true"/>
+    <col min="4" max="4" width="15.0" customWidth="true"/>
+    <col min="5" max="5" width="15.0" customWidth="true"/>
+    <col min="6" max="6" width="15.0" customWidth="true"/>
+    <col min="7" max="7" width="15.0" customWidth="true"/>
+    <col min="8" max="8" width="15.0" customWidth="true"/>
+    <col min="9" max="9" width="15.0" customWidth="true"/>
+    <col min="10" max="10" width="15.0" customWidth="true"/>
+    <col min="11" max="11" width="15.0" customWidth="true"/>
+    <col min="12" max="12" width="15.0" customWidth="true"/>
+    <col min="13" max="13" width="15.0" customWidth="true"/>
+    <col min="14" max="14" width="15.0" customWidth="true"/>
+    <col min="15" max="15" width="15.0" customWidth="true"/>
+    <col min="16" max="16" width="15.0" customWidth="true"/>
+    <col min="17" max="17" width="15.0" customWidth="true"/>
+    <col min="18" max="18" width="15.0" customWidth="true"/>
+    <col min="19" max="19" width="15.0" customWidth="true"/>
+    <col min="20" max="20" width="15.0" customWidth="true"/>
+    <col min="21" max="21" width="15.0" customWidth="true"/>
+    <col min="22" max="22" width="15.0" customWidth="true"/>
+    <col min="23" max="23" width="15.0" customWidth="true"/>
+    <col min="24" max="24" width="15.0" customWidth="true"/>
+    <col min="25" max="25" width="15.0" customWidth="true"/>
+    <col min="26" max="26" width="15.0" customWidth="true"/>
+    <col min="27" max="27" width="15.0" customWidth="true"/>
+    <col min="28" max="28" width="15.0" customWidth="true"/>
+    <col min="29" max="29" width="15.0" customWidth="true"/>
+    <col min="30" max="30" width="15.0" customWidth="true"/>
+    <col min="31" max="31" width="15.0" customWidth="true"/>
+    <col min="32" max="32" width="15.0" customWidth="true"/>
+    <col min="33" max="33" width="15.0" customWidth="true"/>
+    <col min="34" max="34" width="15.0" customWidth="true"/>
+    <col min="35" max="35" width="15.0" customWidth="true"/>
+    <col min="36" max="36" width="15.0" customWidth="true"/>
+    <col min="37" max="37" width="15.0" customWidth="true"/>
+    <col min="38" max="38" width="15.0" customWidth="true"/>
+    <col min="39" max="39" width="15.0" customWidth="true"/>
+    <col min="40" max="40" width="15.0" customWidth="true"/>
+    <col min="41" max="41" width="15.0" customWidth="true"/>
+    <col min="42" max="42" width="15.0" customWidth="true"/>
+    <col min="43" max="43" width="15.0" customWidth="true"/>
+    <col min="44" max="44" width="15.0" customWidth="true"/>
+    <col min="45" max="45" width="15.0" customWidth="true"/>
+    <col min="46" max="46" width="15.0" customWidth="true"/>
+    <col min="47" max="47" width="15.0" customWidth="true"/>
+    <col min="48" max="48" width="15.0" customWidth="true"/>
+    <col min="49" max="49" width="15.0" customWidth="true"/>
+    <col min="50" max="50" width="15.0" customWidth="true"/>
+    <col min="51" max="51" width="15.0" customWidth="true"/>
+    <col min="52" max="52" width="15.0" customWidth="true"/>
+    <col min="53" max="53" width="15.0" customWidth="true"/>
+    <col min="54" max="54" width="15.0" customWidth="true"/>
+    <col min="55" max="55" width="15.0" customWidth="true"/>
+    <col min="56" max="56" width="15.0" customWidth="true"/>
+    <col min="57" max="57" width="15.0" customWidth="true"/>
+    <col min="58" max="58" width="15.0" customWidth="true"/>
+    <col min="59" max="59" width="15.0" customWidth="true"/>
+    <col min="60" max="60" width="15.0" customWidth="true"/>
+    <col min="61" max="61" width="15.0" customWidth="true"/>
+    <col min="62" max="62" width="15.0" customWidth="true"/>
+    <col min="63" max="63" width="15.0" customWidth="true"/>
+    <col min="64" max="64" width="15.0" customWidth="true"/>
+    <col min="65" max="65" width="15.0" customWidth="true"/>
+    <col min="66" max="66" width="15.0" customWidth="true"/>
+    <col min="67" max="67" width="15.0" customWidth="true"/>
+    <col min="68" max="68" width="15.0" customWidth="true"/>
+    <col min="69" max="69" width="15.0" customWidth="true"/>
+    <col min="70" max="70" width="15.0" customWidth="true"/>
+    <col min="71" max="71" width="15.0" customWidth="true"/>
+    <col min="72" max="72" width="15.0" customWidth="true"/>
+    <col min="73" max="73" width="15.0" customWidth="true"/>
+    <col min="74" max="74" width="15.0" customWidth="true"/>
+    <col min="75" max="75" width="15.0" customWidth="true"/>
+    <col min="76" max="76" width="15.0" customWidth="true"/>
+    <col min="77" max="77" width="15.0" customWidth="true"/>
+    <col min="78" max="78" width="15.0" customWidth="true"/>
+    <col min="79" max="79" width="15.0" customWidth="true"/>
+    <col min="80" max="80" width="15.0" customWidth="true"/>
+    <col min="81" max="81" width="15.0" customWidth="true"/>
+    <col min="82" max="82" width="15.0" customWidth="true"/>
+    <col min="83" max="83" width="15.0" customWidth="true"/>
+    <col min="84" max="84" width="15.0" customWidth="true"/>
+    <col min="85" max="85" width="15.0" customWidth="true"/>
+    <col min="86" max="86" width="15.0" customWidth="true"/>
+    <col min="87" max="87" width="15.0" customWidth="true"/>
+    <col min="88" max="88" width="15.0" customWidth="true"/>
+    <col min="89" max="89" width="15.0" customWidth="true"/>
+    <col min="90" max="90" width="15.0" customWidth="true"/>
+    <col min="91" max="91" width="15.0" customWidth="true"/>
+    <col min="92" max="92" width="15.0" customWidth="true"/>
+    <col min="93" max="93" width="15.0" customWidth="true"/>
+    <col min="94" max="94" width="15.0" customWidth="true"/>
+    <col min="95" max="95" width="15.0" customWidth="true"/>
+    <col min="96" max="96" width="15.0" customWidth="true"/>
+    <col min="97" max="97" width="15.0" customWidth="true"/>
+    <col min="98" max="98" width="15.0" customWidth="true"/>
+    <col min="99" max="99" width="15.0" customWidth="true"/>
+    <col min="100" max="100" width="15.0" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.0011625552958951042</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>107</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" t="n">
+        <v>9.96975407110667E-6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>110</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.001265079381909406</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.0036817660153983297</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" t="n">
+        <v>-7.999999999999998</v>
+      </c>
+      <c r="D10" t="n">
+        <v>-6.999999999999998</v>
+      </c>
+      <c r="E10" t="n">
+        <v>-5.999999999999999</v>
+      </c>
+      <c r="F10" t="n">
+        <v>-4.999999999999999</v>
+      </c>
+      <c r="G10" t="n">
+        <v>-3.999999999999999</v>
+      </c>
+      <c r="H10" t="n">
+        <v>-2.999999999999999</v>
+      </c>
+      <c r="I10" t="n">
+        <v>-1.9999999999999996</v>
+      </c>
+      <c r="J10" t="n">
+        <v>-0.9999999999999998</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1.9999999999999998</v>
+      </c>
+      <c r="N10" t="n">
+        <v>2.9999999999999996</v>
+      </c>
+      <c r="O10" t="n">
+        <v>3.9999999999999996</v>
+      </c>
+      <c r="P10" t="n">
+        <v>4.999999999999999</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>5.999999999999999</v>
+      </c>
+      <c r="R10" t="n">
+        <v>6.999999999999999</v>
+      </c>
+      <c r="S10" t="n">
+        <v>7.999999999999999</v>
+      </c>
+      <c r="T10" t="n">
+        <v>8.999999999999998</v>
+      </c>
+      <c r="U10" t="n">
+        <v>9.999999999999998</v>
+      </c>
+      <c r="V10" t="n">
+        <v>10.999999999999998</v>
+      </c>
+      <c r="W10" t="n">
+        <v>11.999999999999998</v>
+      </c>
+      <c r="X10" t="n">
+        <v>12.999999999999998</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>13.999999999999998</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>14.999999999999998</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>15.999999999999998</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>16.999999999999996</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>17.999999999999996</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>18.999999999999996</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>19.999999999999996</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>20.999999999999996</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>21.999999999999996</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>22.999999999999996</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>23.999999999999996</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>24.999999999999996</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>49</v>
+      </c>
+      <c r="B11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.010711629953751833</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.008511643624600678</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.00659940745001889</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.0049766417109604775</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.003645066688379452</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0.0026064026632298216</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0.0018623699164655972</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.0014146887290407888</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0.001265079381909406</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0.0014152621560254586</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0.001866957332342957</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0.0026218851918159104</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0.0036817660153983297</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0.005048320084044223</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0.006723267678707602</v>
+      </c>
+      <c r="R11" t="n">
+        <v>0.008708329080342476</v>
+      </c>
+      <c r="S11" t="n">
+        <v>0.011005224569902857</v>
+      </c>
+      <c r="T11" t="n">
+        <v>0.013615674428342746</v>
+      </c>
+      <c r="U11" t="n">
+        <v>0.01654139893661617</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0.019784118375677118</v>
+      </c>
+      <c r="W11" t="n">
+        <v>0.02334555302647962</v>
+      </c>
+      <c r="X11" t="n">
+        <v>0.027227423169977675</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>0.031431449087125286</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>0.03595935105887648</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>0.04081284936618526</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>0.04599366429000563</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>0.05150351611129158</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>0.05734412511099718</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>0.06351721157007639</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>0.07002449576948326</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>0.07686769799017171</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>0.08404853851309586</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>0.09156873761920967</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>0.09943001558946717</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>112</v>
+      </c>
+      <c r="B16" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" t="n">
+        <v>-0.0022290592726745195</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>57</v>
+      </c>
+      <c r="B17" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" t="n">
+        <v>2.5909929515425085E-5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>58</v>
+      </c>
+      <c r="B18" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" t="n">
+        <v>-0.0021772394136436693</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21" t="s">
+        <v>16</v>
+      </c>
+      <c r="C21" t="n">
+        <v>-7.999999999999998</v>
+      </c>
+      <c r="D21" t="n">
+        <v>-6.999999999999998</v>
+      </c>
+      <c r="E21" t="n">
+        <v>-5.999999999999999</v>
+      </c>
+      <c r="F21" t="n">
+        <v>-4.999999999999999</v>
+      </c>
+      <c r="G21" t="n">
+        <v>-3.999999999999999</v>
+      </c>
+      <c r="H21" t="n">
+        <v>-2.999999999999999</v>
+      </c>
+      <c r="I21" t="n">
+        <v>-1.9999999999999996</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-0.9999999999999998</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="M21" t="n">
+        <v>1.9999999999999998</v>
+      </c>
+      <c r="N21" t="n">
+        <v>2.9999999999999996</v>
+      </c>
+      <c r="O21" t="n">
+        <v>3.9999999999999996</v>
+      </c>
+      <c r="P21" t="n">
+        <v>4.999999999999999</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>5.999999999999999</v>
+      </c>
+      <c r="R21" t="n">
+        <v>6.999999999999999</v>
+      </c>
+      <c r="S21" t="n">
+        <v>7.999999999999999</v>
+      </c>
+      <c r="T21" t="n">
+        <v>8.999999999999998</v>
+      </c>
+      <c r="U21" t="n">
+        <v>9.999999999999998</v>
+      </c>
+      <c r="V21" t="n">
+        <v>10.999999999999998</v>
+      </c>
+      <c r="W21" t="n">
+        <v>11.999999999999998</v>
+      </c>
+      <c r="X21" t="n">
+        <v>12.999999999999998</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>13.999999999999998</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>14.999999999999998</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>15.999999999999998</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>16.999999999999996</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>17.999999999999996</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>18.999999999999996</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>19.999999999999996</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>20.999999999999996</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>21.999999999999996</v>
+      </c>
+      <c r="AH21" t="n">
+        <v>22.999999999999996</v>
+      </c>
+      <c r="AI21" t="n">
+        <v>23.999999999999996</v>
+      </c>
+      <c r="AJ21" t="n">
+        <v>24.999999999999996</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>60</v>
+      </c>
+      <c r="B22" t="s">
+        <v>5</v>
+      </c>
+      <c r="C22" t="n">
+        <v>-0.0024363387087979202</v>
+      </c>
+      <c r="D22" t="n">
+        <v>-0.002410428779282495</v>
+      </c>
+      <c r="E22" t="n">
+        <v>-0.00238451884976707</v>
+      </c>
+      <c r="F22" t="n">
+        <v>-0.0023586089202516447</v>
+      </c>
+      <c r="G22" t="n">
+        <v>-0.00233269899073622</v>
+      </c>
+      <c r="H22" t="n">
+        <v>-0.0023067890612207946</v>
+      </c>
+      <c r="I22" t="n">
+        <v>-0.0022808791317053697</v>
+      </c>
+      <c r="J22" t="n">
+        <v>-0.0022549692021899444</v>
+      </c>
+      <c r="K22" t="n">
+        <v>-0.0022290592726745195</v>
+      </c>
+      <c r="L22" t="n">
+        <v>-0.0022031493431590946</v>
+      </c>
+      <c r="M22" t="n">
+        <v>-0.0021772394136436693</v>
+      </c>
+      <c r="N22" t="n">
+        <v>-0.0021513294841282444</v>
+      </c>
+      <c r="O22" t="n">
+        <v>-0.002125419554612819</v>
+      </c>
+      <c r="P22" t="n">
+        <v>-0.0020995096250973943</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>-0.002073599695581969</v>
+      </c>
+      <c r="R22" t="n">
+        <v>-0.002047689766066544</v>
+      </c>
+      <c r="S22" t="n">
+        <v>-0.0020217798365511188</v>
+      </c>
+      <c r="T22" t="n">
+        <v>-0.001995869907035694</v>
+      </c>
+      <c r="U22" t="n">
+        <v>-0.0019699599775202686</v>
+      </c>
+      <c r="V22" t="n">
+        <v>-0.0019440500480048437</v>
+      </c>
+      <c r="W22" t="n">
+        <v>-0.0019181401184894184</v>
+      </c>
+      <c r="X22" t="n">
+        <v>-0.0018922301889739935</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>-0.0018663202594585684</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>-0.0018404103299431433</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>-0.0018145004004277183</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>-0.0017885904709122932</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>-0.001762680541396868</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>-0.001736770611881443</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>-0.0017108606823660179</v>
+      </c>
+      <c r="AF22" t="n">
+        <v>-0.0016849507528505928</v>
+      </c>
+      <c r="AG22" t="n">
+        <v>-0.0016590408233351677</v>
+      </c>
+      <c r="AH22" t="n">
+        <v>-0.0016331308938197426</v>
+      </c>
+      <c r="AI22" t="n">
+        <v>-0.0016072209643043175</v>
+      </c>
+      <c r="AJ22" t="n">
+        <v>-0.0015813110347888924</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
         <v>5</v>
       </c>
     </row>

--- a/JPADSandBox_v2/out/ATR-72/AERODYNAMIC_AND_STABILITY_CRUISE/Aerodynamic_and_Stability_CRUISE.xlsx
+++ b/JPADSandBox_v2/out/ATR-72/AERODYNAMIC_AND_STABILITY_CRUISE/Aerodynamic_and_Stability_CRUISE.xlsx
@@ -33156,7 +33156,7 @@
         <v>5</v>
       </c>
       <c r="C18" t="n">
-        <v>-0.08758897794946623</v>
+        <v>-0.017440525689364335</v>
       </c>
     </row>
     <row r="19">
@@ -33857,7 +33857,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>-0.0022290592726745195</v>
+        <v>-1.6511597267353904E-4</v>
       </c>
     </row>
     <row r="17">
@@ -33879,7 +33879,7 @@
         <v>5</v>
       </c>
       <c r="C18" t="n">
-        <v>-0.0021772394136436693</v>
+        <v>-1.1329611364268888E-4</v>
       </c>
     </row>
     <row r="19">
@@ -34010,106 +34010,106 @@
         <v>5</v>
       </c>
       <c r="C22" t="n">
-        <v>-0.0024363387087979202</v>
+        <v>-3.7239540879693963E-4</v>
       </c>
       <c r="D22" t="n">
-        <v>-0.002410428779282495</v>
+        <v>-3.464854792815146E-4</v>
       </c>
       <c r="E22" t="n">
-        <v>-0.00238451884976707</v>
+        <v>-3.2057554976608956E-4</v>
       </c>
       <c r="F22" t="n">
-        <v>-0.0023586089202516447</v>
+        <v>-2.9466562025066447E-4</v>
       </c>
       <c r="G22" t="n">
-        <v>-0.00233269899073622</v>
+        <v>-2.687556907352394E-4</v>
       </c>
       <c r="H22" t="n">
-        <v>-0.0023067890612207946</v>
+        <v>-2.4284576121981428E-4</v>
       </c>
       <c r="I22" t="n">
-        <v>-0.0022808791317053697</v>
+        <v>-2.169358317043892E-4</v>
       </c>
       <c r="J22" t="n">
-        <v>-0.0022549692021899444</v>
+        <v>-1.910259021889641E-4</v>
       </c>
       <c r="K22" t="n">
-        <v>-0.0022290592726745195</v>
+        <v>-1.6511597267353904E-4</v>
       </c>
       <c r="L22" t="n">
-        <v>-0.0022031493431590946</v>
+        <v>-1.3920604315811397E-4</v>
       </c>
       <c r="M22" t="n">
-        <v>-0.0021772394136436693</v>
+        <v>-1.1329611364268888E-4</v>
       </c>
       <c r="N22" t="n">
-        <v>-0.0021513294841282444</v>
+        <v>-8.738618412726379E-5</v>
       </c>
       <c r="O22" t="n">
-        <v>-0.002125419554612819</v>
+        <v>-6.147625461183871E-5</v>
       </c>
       <c r="P22" t="n">
-        <v>-0.0020995096250973943</v>
+        <v>-3.5566325096413634E-5</v>
       </c>
       <c r="Q22" t="n">
-        <v>-0.002073599695581969</v>
+        <v>-9.656395580988543E-6</v>
       </c>
       <c r="R22" t="n">
-        <v>-0.002047689766066544</v>
+        <v>1.6253533934436522E-5</v>
       </c>
       <c r="S22" t="n">
-        <v>-0.0020217798365511188</v>
+        <v>4.216346344986161E-5</v>
       </c>
       <c r="T22" t="n">
-        <v>-0.001995869907035694</v>
+        <v>6.807339296528668E-5</v>
       </c>
       <c r="U22" t="n">
-        <v>-0.0019699599775202686</v>
+        <v>9.398332248071177E-5</v>
       </c>
       <c r="V22" t="n">
-        <v>-0.0019440500480048437</v>
+        <v>1.1989325199613686E-4</v>
       </c>
       <c r="W22" t="n">
-        <v>-0.0019181401184894184</v>
+        <v>1.4580318151156195E-4</v>
       </c>
       <c r="X22" t="n">
-        <v>-0.0018922301889739935</v>
+        <v>1.7171311102698704E-4</v>
       </c>
       <c r="Y22" t="n">
-        <v>-0.0018663202594585684</v>
+        <v>1.9762304054241208E-4</v>
       </c>
       <c r="Z22" t="n">
-        <v>-0.0018404103299431433</v>
+        <v>2.2353297005783717E-4</v>
       </c>
       <c r="AA22" t="n">
-        <v>-0.0018145004004277183</v>
+        <v>2.4944289957326224E-4</v>
       </c>
       <c r="AB22" t="n">
-        <v>-0.0017885904709122932</v>
+        <v>2.7535282908868733E-4</v>
       </c>
       <c r="AC22" t="n">
-        <v>-0.001762680541396868</v>
+        <v>3.012627586041124E-4</v>
       </c>
       <c r="AD22" t="n">
-        <v>-0.001736770611881443</v>
+        <v>3.271726881195375E-4</v>
       </c>
       <c r="AE22" t="n">
-        <v>-0.0017108606823660179</v>
+        <v>3.530826176349626E-4</v>
       </c>
       <c r="AF22" t="n">
-        <v>-0.0016849507528505928</v>
+        <v>3.789925471503877E-4</v>
       </c>
       <c r="AG22" t="n">
-        <v>-0.0016590408233351677</v>
+        <v>4.049024766658128E-4</v>
       </c>
       <c r="AH22" t="n">
-        <v>-0.0016331308938197426</v>
+        <v>4.308124061812379E-4</v>
       </c>
       <c r="AI22" t="n">
-        <v>-0.0016072209643043175</v>
+        <v>4.5672233569666297E-4</v>
       </c>
       <c r="AJ22" t="n">
-        <v>-0.0015813110347888924</v>
+        <v>4.8263226521208806E-4</v>
       </c>
     </row>
     <row r="23">

--- a/JPADSandBox_v2/out/ATR-72/AERODYNAMIC_AND_STABILITY_CRUISE/Aerodynamic_and_Stability_CRUISE.xlsx
+++ b/JPADSandBox_v2/out/ATR-72/AERODYNAMIC_AND_STABILITY_CRUISE/Aerodynamic_and_Stability_CRUISE.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="851" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="851" uniqueCount="117">
   <si>
     <t>Description</t>
   </si>
@@ -153,7 +153,7 @@
     <t>Oswald factor</t>
   </si>
   <si>
-    <t>CD_induced</t>
+    <t>CD_induced at Alpha = 3.999999999999999 deg</t>
   </si>
   <si>
     <t>CD_wave</t>
@@ -211,6 +211,9 @@
   </si>
   <si>
     <t>CL at Alpha = -3.4017075784893365 deg</t>
+  </si>
+  <si>
+    <t>CD_induced at Alpha = -3.4017075784893365 deg</t>
   </si>
   <si>
     <t>CD at alpha = -3.4017075784893365 deg</t>
@@ -285,6 +288,9 @@
     <t>CL at Alpha = 0.0 rad</t>
   </si>
   <si>
+    <t>CD_induced at Alpha = 0.0 deg</t>
+  </si>
+  <si>
     <t>CD at alpha = 0.0 deg</t>
   </si>
   <si>
@@ -349,6 +355,9 @@
   </si>
   <si>
     <t>CD0_total</t>
+  </si>
+  <si>
+    <t>CD_induced at Alpha = 1.9999999999999996 deg</t>
   </si>
   <si>
     <t>CD at alpha = 1.9999999999999996 deg</t>
@@ -17120,7 +17129,7 @@
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="B75" t="s">
         <v>5</v>
@@ -17142,7 +17151,7 @@
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B77" t="s">
         <v>5</v>
@@ -19534,7 +19543,7 @@
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B112" t="s">
         <v>5</v>
@@ -20951,7 +20960,7 @@
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="139">
@@ -20961,12 +20970,12 @@
     </row>
     <row r="140">
       <c r="A140" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B141" t="s">
         <v>5</v>
@@ -20977,7 +20986,7 @@
     </row>
     <row r="142">
       <c r="A142" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B142" t="s">
         <v>5</v>
@@ -20993,12 +21002,12 @@
     </row>
     <row r="144">
       <c r="A144" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B145" t="s">
         <v>5</v>
@@ -21009,7 +21018,7 @@
     </row>
     <row r="146">
       <c r="A146" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B146" t="s">
         <v>5</v>
@@ -21020,7 +21029,7 @@
     </row>
     <row r="147">
       <c r="A147" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B147" t="s">
         <v>5</v>
@@ -21031,7 +21040,7 @@
     </row>
     <row r="148">
       <c r="A148" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B148" t="s">
         <v>5</v>
@@ -21047,12 +21056,12 @@
     </row>
     <row r="150">
       <c r="A150" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B151" t="s">
         <v>5</v>
@@ -21063,7 +21072,7 @@
     </row>
     <row r="152">
       <c r="A152" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B152" t="s">
         <v>5</v>
@@ -21074,7 +21083,7 @@
     </row>
     <row r="153">
       <c r="A153" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B153" t="s">
         <v>5</v>
@@ -21085,7 +21094,7 @@
     </row>
     <row r="154">
       <c r="A154" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B154" t="s">
         <v>5</v>
@@ -21096,7 +21105,7 @@
     </row>
     <row r="155">
       <c r="A155" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B155" t="s">
         <v>11</v>
@@ -21112,7 +21121,7 @@
     </row>
     <row r="157">
       <c r="A157" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="158">
@@ -21347,7 +21356,7 @@
     </row>
     <row r="162">
       <c r="A162" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="163">
@@ -21582,7 +21591,7 @@
     </row>
     <row r="167">
       <c r="A167" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="168">
@@ -21812,7 +21821,7 @@
     </row>
     <row r="171">
       <c r="A171" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B171" t="s">
         <v>5</v>
@@ -21823,7 +21832,7 @@
     </row>
     <row r="172">
       <c r="A172" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B172" t="s">
         <v>5</v>
@@ -21832,7 +21841,7 @@
     </row>
     <row r="173">
       <c r="A173" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B173" t="s">
         <v>5</v>
@@ -22098,7 +22107,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B16" t="s">
         <v>5</v>
@@ -28243,7 +28252,7 @@
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>45</v>
+        <v>90</v>
       </c>
       <c r="B75" t="s">
         <v>5</v>
@@ -28265,7 +28274,7 @@
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B77" t="s">
         <v>5</v>
@@ -30579,7 +30588,7 @@
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B112" t="s">
         <v>5</v>
@@ -31957,7 +31966,7 @@
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="139">
@@ -31967,12 +31976,12 @@
     </row>
     <row r="140">
       <c r="A140" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B141" t="s">
         <v>5</v>
@@ -31983,7 +31992,7 @@
     </row>
     <row r="142">
       <c r="A142" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B142" t="s">
         <v>5</v>
@@ -31999,12 +32008,12 @@
     </row>
     <row r="144">
       <c r="A144" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B145" t="s">
         <v>5</v>
@@ -32015,7 +32024,7 @@
     </row>
     <row r="146">
       <c r="A146" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B146" t="s">
         <v>5</v>
@@ -32026,7 +32035,7 @@
     </row>
     <row r="147">
       <c r="A147" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B147" t="s">
         <v>5</v>
@@ -32037,7 +32046,7 @@
     </row>
     <row r="148">
       <c r="A148" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B148" t="s">
         <v>5</v>
@@ -32053,12 +32062,12 @@
     </row>
     <row r="150">
       <c r="A150" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B151" t="s">
         <v>5</v>
@@ -32069,7 +32078,7 @@
     </row>
     <row r="152">
       <c r="A152" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B152" t="s">
         <v>5</v>
@@ -32080,7 +32089,7 @@
     </row>
     <row r="153">
       <c r="A153" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B153" t="s">
         <v>5</v>
@@ -32091,7 +32100,7 @@
     </row>
     <row r="154">
       <c r="A154" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B154" t="s">
         <v>5</v>
@@ -32102,7 +32111,7 @@
     </row>
     <row r="155">
       <c r="A155" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B155" t="s">
         <v>11</v>
@@ -32118,7 +32127,7 @@
     </row>
     <row r="157">
       <c r="A157" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="158">
@@ -32275,7 +32284,7 @@
     </row>
     <row r="162">
       <c r="A162" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="163">
@@ -32471,7 +32480,7 @@
     </row>
     <row r="167">
       <c r="A167" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="168">
@@ -32662,7 +32671,7 @@
     </row>
     <row r="171">
       <c r="A171" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B171" t="s">
         <v>5</v>
@@ -32673,7 +32682,7 @@
     </row>
     <row r="172">
       <c r="A172" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B172" t="s">
         <v>5</v>
@@ -32682,7 +32691,7 @@
     </row>
     <row r="173">
       <c r="A173" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B173" t="s">
         <v>5</v>
@@ -32823,7 +32832,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
@@ -32834,7 +32843,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B4" t="s">
         <v>5</v>
@@ -32845,7 +32854,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B5" t="s">
         <v>5</v>
@@ -32856,7 +32865,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B6" t="s">
         <v>5</v>
@@ -32867,7 +32876,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B7" t="s">
         <v>5</v>
@@ -32878,24 +32887,24 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>45</v>
+        <v>113</v>
       </c>
       <c r="B8" t="s">
         <v>5</v>
       </c>
       <c r="C8" t="n">
-        <v>0.007941461986390229</v>
+        <v>2.4409826849042238E-4</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="B9" t="s">
         <v>5</v>
       </c>
       <c r="C9" t="n">
-        <v>0.015467175300259754</v>
+        <v>0.007769811582359949</v>
       </c>
     </row>
     <row r="10">
@@ -33026,106 +33035,106 @@
         <v>5</v>
       </c>
       <c r="C13" t="n">
-        <v>0.2042314911862415</v>
+        <v>0.009973772233345755</v>
       </c>
       <c r="D13" t="n">
-        <v>0.16698097048613925</v>
+        <v>0.009830412864635183</v>
       </c>
       <c r="E13" t="n">
-        <v>0.1336126934761752</v>
+        <v>0.00958479437032612</v>
       </c>
       <c r="F13" t="n">
-        <v>0.10413581401528632</v>
+        <v>0.009273573382526497</v>
       </c>
       <c r="G13" t="n">
-        <v>0.0785594859624095</v>
+        <v>0.008928747343212536</v>
       </c>
       <c r="H13" t="n">
-        <v>0.05689286317648166</v>
+        <v>0.008578371986873187</v>
       </c>
       <c r="I13" t="n">
-        <v>0.03914509951643974</v>
+        <v>0.008247211316882243</v>
       </c>
       <c r="J13" t="n">
-        <v>0.025325348841220653</v>
+        <v>0.007957321534337976</v>
       </c>
       <c r="K13" t="n">
-        <v>0.015442765009761304</v>
+        <v>0.007728570953215742</v>
       </c>
       <c r="L13" t="n">
-        <v>0.009506501880998624</v>
+        <v>0.007579098436431128</v>
       </c>
       <c r="M13" t="n">
         <v>0.007525713313869527</v>
       </c>
       <c r="N13" t="n">
-        <v>0.009509553167310931</v>
+        <v>0.007584240096527658</v>
       </c>
       <c r="O13" t="n">
-        <v>0.015467175300259754</v>
+        <v>0.007769811582359949</v>
       </c>
       <c r="P13" t="n">
-        <v>0.025407733571652918</v>
+        <v>0.008097114161683527</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.03934038184042733</v>
+        <v>0.008580589276178944</v>
       </c>
       <c r="R13" t="n">
-        <v>0.05727427396551993</v>
+        <v>0.009234595069312023</v>
       </c>
       <c r="S13" t="n">
-        <v>0.07921856380586763</v>
+        <v>0.01007353229156886</v>
       </c>
       <c r="T13" t="n">
-        <v>0.10518240522040735</v>
+        <v>0.011111938495821587</v>
       </c>
       <c r="U13" t="n">
-        <v>0.13517495206807598</v>
+        <v>0.012364554481331134</v>
       </c>
       <c r="V13" t="n">
-        <v>0.16920535820781046</v>
+        <v>0.013846366824489408</v>
       </c>
       <c r="W13" t="n">
-        <v>0.2072827774985477</v>
+        <v>0.015572630175710884</v>
       </c>
       <c r="X13" t="n">
-        <v>0.24941636379922466</v>
+        <v>0.01755887281028817</v>
       </c>
       <c r="Y13" t="n">
-        <v>0.2956152709687782</v>
+        <v>0.019820888701919382</v>
       </c>
       <c r="Z13" t="n">
-        <v>0.3458886528661454</v>
+        <v>0.02237471914632719</v>
       </c>
       <c r="AA13" t="n">
-        <v>0.4002456633502629</v>
+        <v>0.025236626704121076</v>
       </c>
       <c r="AB13" t="n">
-        <v>0.45869545628006764</v>
+        <v>0.02842306396182197</v>
       </c>
       <c r="AC13" t="n">
-        <v>0.5212471855144969</v>
+        <v>0.03195063933254655</v>
       </c>
       <c r="AD13" t="n">
-        <v>0.5879100049124873</v>
+        <v>0.03583608183772886</v>
       </c>
       <c r="AE13" t="n">
-        <v>0.6586930683329758</v>
+        <v>0.04009620653260476</v>
       </c>
       <c r="AF13" t="n">
-        <v>0.7336055296348993</v>
+        <v>0.04474788196480744</v>
       </c>
       <c r="AG13" t="n">
-        <v>0.8126565426771948</v>
+        <v>0.04980800079074602</v>
       </c>
       <c r="AH13" t="n">
-        <v>0.8958552613187993</v>
+        <v>0.05529345442148915</v>
       </c>
       <c r="AI13" t="n">
-        <v>0.9832108394186491</v>
+        <v>0.06122111233125784</v>
       </c>
       <c r="AJ13" t="n">
-        <v>1.0747324308356825</v>
+        <v>0.06760780643954489</v>
       </c>
     </row>
     <row r="14">
@@ -33150,7 +33159,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="B18" t="s">
         <v>5</v>
@@ -33172,7 +33181,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B20" t="s">
         <v>5</v>
@@ -33548,7 +33557,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
@@ -33559,7 +33568,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B4" t="s">
         <v>5</v>
@@ -33570,7 +33579,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B5" t="s">
         <v>5</v>
@@ -33596,7 +33605,7 @@
         <v>5</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0036817660153983297</v>
+        <v>0.001469022454230565</v>
       </c>
     </row>
     <row r="8">
@@ -33727,106 +33736,106 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>0.010711629953751833</v>
+        <v>0.0019802630368380638</v>
       </c>
       <c r="D11" t="n">
-        <v>0.008511643624600678</v>
+        <v>0.0018206210889198803</v>
       </c>
       <c r="E11" t="n">
-        <v>0.00659940745001889</v>
+        <v>0.0016787680455926063</v>
       </c>
       <c r="F11" t="n">
-        <v>0.0049766417109604775</v>
+        <v>0.0015560101734016262</v>
       </c>
       <c r="G11" t="n">
-        <v>0.003645066688379452</v>
+        <v>0.0014535004768833114</v>
       </c>
       <c r="H11" t="n">
-        <v>0.0026064026632298216</v>
+        <v>0.0013722658861158718</v>
       </c>
       <c r="I11" t="n">
-        <v>0.0018623699164655972</v>
+        <v>0.0013132314638122234</v>
       </c>
       <c r="J11" t="n">
-        <v>0.0014146887290407888</v>
+        <v>0.0012772417499649763</v>
       </c>
       <c r="K11" t="n">
         <v>0.001265079381909406</v>
       </c>
       <c r="L11" t="n">
-        <v>0.0014152621560254586</v>
+        <v>0.0012774811441100301</v>
       </c>
       <c r="M11" t="n">
-        <v>0.001866957332342957</v>
+        <v>0.0013151516150805116</v>
       </c>
       <c r="N11" t="n">
-        <v>0.0026218851918159104</v>
+        <v>0.0013787745887294106</v>
       </c>
       <c r="O11" t="n">
-        <v>0.0036817660153983297</v>
+        <v>0.001469022454230565</v>
       </c>
       <c r="P11" t="n">
-        <v>0.005048320084044223</v>
+        <v>0.0015865637224180304</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.006723267678707602</v>
+        <v>0.0017320688878958894</v>
       </c>
       <c r="R11" t="n">
-        <v>0.008708329080342476</v>
+        <v>0.0019062148147461042</v>
       </c>
       <c r="S11" t="n">
-        <v>0.011005224569902857</v>
+        <v>0.002109687830141267</v>
       </c>
       <c r="T11" t="n">
-        <v>0.013615674428342746</v>
+        <v>0.002343185704563141</v>
       </c>
       <c r="U11" t="n">
-        <v>0.01654139893661617</v>
+        <v>0.0026074186899392197</v>
       </c>
       <c r="V11" t="n">
-        <v>0.019784118375677118</v>
+        <v>0.0029031097780888833</v>
       </c>
       <c r="W11" t="n">
-        <v>0.02334555302647962</v>
+        <v>0.0032309943316692286</v>
       </c>
       <c r="X11" t="n">
-        <v>0.027227423169977675</v>
+        <v>0.0035918192285763007</v>
       </c>
       <c r="Y11" t="n">
-        <v>0.031431449087125286</v>
+        <v>0.003986341648732616</v>
       </c>
       <c r="Z11" t="n">
-        <v>0.03595935105887648</v>
+        <v>0.004415327619609878</v>
       </c>
       <c r="AA11" t="n">
-        <v>0.04081284936618526</v>
+        <v>0.00487955042391914</v>
       </c>
       <c r="AB11" t="n">
-        <v>0.04599366429000563</v>
+        <v>0.0053797889598583785</v>
       </c>
       <c r="AC11" t="n">
-        <v>0.05150351611129158</v>
+        <v>0.005916826131333463</v>
       </c>
       <c r="AD11" t="n">
-        <v>0.05734412511099718</v>
+        <v>0.006491447332840166</v>
       </c>
       <c r="AE11" t="n">
-        <v>0.06351721157007639</v>
+        <v>0.007104439081371603</v>
       </c>
       <c r="AF11" t="n">
-        <v>0.07002449576948326</v>
+        <v>0.007756587835938212</v>
       </c>
       <c r="AG11" t="n">
-        <v>0.07686769799017171</v>
+        <v>0.008448679034177413</v>
       </c>
       <c r="AH11" t="n">
-        <v>0.08404853851309586</v>
+        <v>0.009181496365189803</v>
       </c>
       <c r="AI11" t="n">
-        <v>0.09156873761920967</v>
+        <v>0.00995582128825031</v>
       </c>
       <c r="AJ11" t="n">
-        <v>0.09943001558946717</v>
+        <v>0.01077243279847009</v>
       </c>
     </row>
     <row r="12">
@@ -33851,7 +33860,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="B16" t="s">
         <v>5</v>

--- a/JPADSandBox_v2/out/ATR-72/AERODYNAMIC_AND_STABILITY_CRUISE/Aerodynamic_and_Stability_CRUISE.xlsx
+++ b/JPADSandBox_v2/out/ATR-72/AERODYNAMIC_AND_STABILITY_CRUISE/Aerodynamic_and_Stability_CRUISE.xlsx
@@ -32893,7 +32893,7 @@
         <v>5</v>
       </c>
       <c r="C8" t="n">
-        <v>2.4409826849042238E-4</v>
+        <v>2.3907597433886919E-4</v>
       </c>
     </row>
     <row r="9">
@@ -32904,7 +32904,7 @@
         <v>5</v>
       </c>
       <c r="C9" t="n">
-        <v>0.007769811582359949</v>
+        <v>0.007764789288208396</v>
       </c>
     </row>
     <row r="10">
@@ -33035,106 +33035,106 @@
         <v>5</v>
       </c>
       <c r="C13" t="n">
-        <v>0.009973772233345755</v>
+        <v>0.010758594167941888</v>
       </c>
       <c r="D13" t="n">
-        <v>0.009830412864635183</v>
+        <v>0.010385959212082702</v>
       </c>
       <c r="E13" t="n">
-        <v>0.00958479437032612</v>
+        <v>0.00996443339393489</v>
       </c>
       <c r="F13" t="n">
-        <v>0.009273573382526497</v>
+        <v>0.009521541488445433</v>
       </c>
       <c r="G13" t="n">
-        <v>0.008928747343212536</v>
+        <v>0.009081309772405967</v>
       </c>
       <c r="H13" t="n">
-        <v>0.008578371986873187</v>
+        <v>0.008664804768663078</v>
       </c>
       <c r="I13" t="n">
-        <v>0.008247211316882243</v>
+        <v>0.008290621301139566</v>
       </c>
       <c r="J13" t="n">
-        <v>0.007957321534337976</v>
+        <v>0.007975320956007007</v>
       </c>
       <c r="K13" t="n">
-        <v>0.007728570953215742</v>
+        <v>0.0077338224761858455</v>
       </c>
       <c r="L13" t="n">
-        <v>0.007579098436431128</v>
+        <v>0.007579745992354634</v>
       </c>
       <c r="M13" t="n">
         <v>0.007525713313869527</v>
       </c>
       <c r="N13" t="n">
-        <v>0.007584240096527658</v>
+        <v>0.007583606768123509</v>
       </c>
       <c r="O13" t="n">
-        <v>0.007769811582359949</v>
+        <v>0.007764789288208396</v>
       </c>
       <c r="P13" t="n">
-        <v>0.008097114161683527</v>
+        <v>0.008080288608125286</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.008580589276178944</v>
+        <v>0.008540948534555512</v>
       </c>
       <c r="R13" t="n">
-        <v>0.009234595069312023</v>
+        <v>0.00915755032711915</v>
       </c>
       <c r="S13" t="n">
-        <v>0.01007353229156886</v>
+        <v>0.009940907238245674</v>
       </c>
       <c r="T13" t="n">
-        <v>0.011111938495821587</v>
+        <v>0.010901935242700767</v>
       </c>
       <c r="U13" t="n">
-        <v>0.012364554481331134</v>
+        <v>0.01205170292913712</v>
       </c>
       <c r="V13" t="n">
-        <v>0.013846366824489408</v>
+        <v>0.01340146343562804</v>
       </c>
       <c r="W13" t="n">
-        <v>0.015572630175710884</v>
+        <v>0.014962671191983582</v>
       </c>
       <c r="X13" t="n">
-        <v>0.01755887281028817</v>
+        <v>0.016746986087783487</v>
       </c>
       <c r="Y13" t="n">
-        <v>0.019820888701919382</v>
+        <v>0.018766267520538123</v>
       </c>
       <c r="Z13" t="n">
-        <v>0.02237471914632719</v>
+        <v>0.02103256059720997</v>
       </c>
       <c r="AA13" t="n">
-        <v>0.025236626704121076</v>
+        <v>0.023558076568399453</v>
       </c>
       <c r="AB13" t="n">
-        <v>0.02842306396182197</v>
+        <v>0.026355169371586454</v>
       </c>
       <c r="AC13" t="n">
-        <v>0.03195063933254655</v>
+        <v>0.029436309951507984</v>
       </c>
       <c r="AD13" t="n">
-        <v>0.03583608183772886</v>
+        <v>0.03281405981541598</v>
       </c>
       <c r="AE13" t="n">
-        <v>0.04009620653260476</v>
+        <v>0.03650104507172447</v>
       </c>
       <c r="AF13" t="n">
-        <v>0.04474788196480744</v>
+        <v>0.04050993199528157</v>
       </c>
       <c r="AG13" t="n">
-        <v>0.04980800079074602</v>
+        <v>0.044853404963761424</v>
       </c>
       <c r="AH13" t="n">
-        <v>0.05529345442148915</v>
+        <v>0.04954414741973539</v>
       </c>
       <c r="AI13" t="n">
-        <v>0.06122111233125784</v>
+        <v>0.054594826333808966</v>
       </c>
       <c r="AJ13" t="n">
-        <v>0.06760780643954489</v>
+        <v>0.0600180804774492</v>
       </c>
     </row>
     <row r="14">

--- a/JPADSandBox_v2/out/ATR-72/AERODYNAMIC_AND_STABILITY_CRUISE/Aerodynamic_and_Stability_CRUISE.xlsx
+++ b/JPADSandBox_v2/out/ATR-72/AERODYNAMIC_AND_STABILITY_CRUISE/Aerodynamic_and_Stability_CRUISE.xlsx
@@ -32893,7 +32893,7 @@
         <v>5</v>
       </c>
       <c r="C8" t="n">
-        <v>2.3907597433886919E-4</v>
+        <v>2.4409826849042238E-4</v>
       </c>
     </row>
     <row r="9">
@@ -32904,7 +32904,7 @@
         <v>5</v>
       </c>
       <c r="C9" t="n">
-        <v>0.007764789288208396</v>
+        <v>0.007769811582359949</v>
       </c>
     </row>
     <row r="10">
@@ -33035,106 +33035,106 @@
         <v>5</v>
       </c>
       <c r="C13" t="n">
-        <v>0.010758594167941888</v>
+        <v>0.009973772233345755</v>
       </c>
       <c r="D13" t="n">
-        <v>0.010385959212082702</v>
+        <v>0.009830412864635183</v>
       </c>
       <c r="E13" t="n">
-        <v>0.00996443339393489</v>
+        <v>0.00958479437032612</v>
       </c>
       <c r="F13" t="n">
-        <v>0.009521541488445433</v>
+        <v>0.009273573382526497</v>
       </c>
       <c r="G13" t="n">
-        <v>0.009081309772405967</v>
+        <v>0.008928747343212536</v>
       </c>
       <c r="H13" t="n">
-        <v>0.008664804768663078</v>
+        <v>0.008578371986873187</v>
       </c>
       <c r="I13" t="n">
-        <v>0.008290621301139566</v>
+        <v>0.008247211316882243</v>
       </c>
       <c r="J13" t="n">
-        <v>0.007975320956007007</v>
+        <v>0.007957321534337976</v>
       </c>
       <c r="K13" t="n">
-        <v>0.0077338224761858455</v>
+        <v>0.007728570953215742</v>
       </c>
       <c r="L13" t="n">
-        <v>0.007579745992354634</v>
+        <v>0.007579098436431128</v>
       </c>
       <c r="M13" t="n">
         <v>0.007525713313869527</v>
       </c>
       <c r="N13" t="n">
-        <v>0.007583606768123509</v>
+        <v>0.007584240096527658</v>
       </c>
       <c r="O13" t="n">
-        <v>0.007764789288208396</v>
+        <v>0.007769811582359949</v>
       </c>
       <c r="P13" t="n">
-        <v>0.008080288608125286</v>
+        <v>0.008097114161683527</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.008540948534555512</v>
+        <v>0.008580589276178944</v>
       </c>
       <c r="R13" t="n">
-        <v>0.00915755032711915</v>
+        <v>0.009234595069312023</v>
       </c>
       <c r="S13" t="n">
-        <v>0.009940907238245674</v>
+        <v>0.01007353229156886</v>
       </c>
       <c r="T13" t="n">
-        <v>0.010901935242700767</v>
+        <v>0.011111938495821587</v>
       </c>
       <c r="U13" t="n">
-        <v>0.01205170292913712</v>
+        <v>0.012364554481331134</v>
       </c>
       <c r="V13" t="n">
-        <v>0.01340146343562804</v>
+        <v>0.013846366824489408</v>
       </c>
       <c r="W13" t="n">
-        <v>0.014962671191983582</v>
+        <v>0.015572630175710884</v>
       </c>
       <c r="X13" t="n">
-        <v>0.016746986087783487</v>
+        <v>0.01755887281028817</v>
       </c>
       <c r="Y13" t="n">
-        <v>0.018766267520538123</v>
+        <v>0.019820888701919382</v>
       </c>
       <c r="Z13" t="n">
-        <v>0.02103256059720997</v>
+        <v>0.02237471914632719</v>
       </c>
       <c r="AA13" t="n">
-        <v>0.023558076568399453</v>
+        <v>0.025236626704121076</v>
       </c>
       <c r="AB13" t="n">
-        <v>0.026355169371586454</v>
+        <v>0.02842306396182197</v>
       </c>
       <c r="AC13" t="n">
-        <v>0.029436309951507984</v>
+        <v>0.03195063933254655</v>
       </c>
       <c r="AD13" t="n">
-        <v>0.03281405981541598</v>
+        <v>0.03583608183772886</v>
       </c>
       <c r="AE13" t="n">
-        <v>0.03650104507172447</v>
+        <v>0.04009620653260476</v>
       </c>
       <c r="AF13" t="n">
-        <v>0.04050993199528157</v>
+        <v>0.04474788196480744</v>
       </c>
       <c r="AG13" t="n">
-        <v>0.044853404963761424</v>
+        <v>0.04980800079074602</v>
       </c>
       <c r="AH13" t="n">
-        <v>0.04954414741973539</v>
+        <v>0.05529345442148915</v>
       </c>
       <c r="AI13" t="n">
-        <v>0.054594826333808966</v>
+        <v>0.06122111233125784</v>
       </c>
       <c r="AJ13" t="n">
-        <v>0.0600180804774492</v>
+        <v>0.06760780643954489</v>
       </c>
     </row>
     <row r="14">

--- a/JPADSandBox_v2/out/ATR-72/AERODYNAMIC_AND_STABILITY_CRUISE/Aerodynamic_and_Stability_CRUISE.xlsx
+++ b/JPADSandBox_v2/out/ATR-72/AERODYNAMIC_AND_STABILITY_CRUISE/Aerodynamic_and_Stability_CRUISE.xlsx
@@ -11,12 +11,14 @@
     <sheet name="VERTICAL_TAIL" r:id="rId5" sheetId="3"/>
     <sheet name="FUSELAGE" r:id="rId6" sheetId="4"/>
     <sheet name="NACELLE" r:id="rId7" sheetId="5"/>
+    <sheet name="DOWNWASH" r:id="rId8" sheetId="6"/>
+    <sheet name="TOTAL AIRCRAFT CURVES" r:id="rId9" sheetId="7"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="851" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="997" uniqueCount="136">
   <si>
     <t>Description</t>
   </si>
@@ -368,6 +370,63 @@
   <si>
     <t>CM at alpha = 1.9999999999999996 deg</t>
   </si>
+  <si>
+    <t>Alpha body</t>
+  </si>
+  <si>
+    <t>CONSTANT</t>
+  </si>
+  <si>
+    <t>Downwash gradient (SLINGERLAND)</t>
+  </si>
+  <si>
+    <t>Downwash angle (SLINGERLAND)</t>
+  </si>
+  <si>
+    <t>Downwash gradient (SLINGERLAND) at Alpha = 1.9999999999999996 deg</t>
+  </si>
+  <si>
+    <t>Downwash angle (SLINGERLAND) at Alpha = 1.9999999999999996 deg</t>
+  </si>
+  <si>
+    <t>NON LINEAR</t>
+  </si>
+  <si>
+    <t>Delta_elevator = 0.0 deg</t>
+  </si>
+  <si>
+    <t>CL total</t>
+  </si>
+  <si>
+    <t>CD total</t>
+  </si>
+  <si>
+    <t>Xcg = 15.0 %</t>
+  </si>
+  <si>
+    <t>CM total</t>
+  </si>
+  <si>
+    <t>Xcg = 25.0 %</t>
+  </si>
+  <si>
+    <t>Xcg = 33.0 %</t>
+  </si>
+  <si>
+    <t>Delta_elevator = -5.0 deg</t>
+  </si>
+  <si>
+    <t>Delta_elevator = -10.0 deg</t>
+  </si>
+  <si>
+    <t>Delta_elevator = -15.0 deg</t>
+  </si>
+  <si>
+    <t>Delta_elevator = -20.0 deg</t>
+  </si>
+  <si>
+    <t>Delta_elevator = -25.0 deg</t>
+  </si>
 </sst>
 </file>
 
@@ -34129,4 +34188,2578 @@
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="45"/>
+  <cols>
+    <col min="2" max="2" width="8.0" customWidth="true"/>
+    <col min="3" max="3" width="15.0" customWidth="true"/>
+    <col min="4" max="4" width="15.0" customWidth="true"/>
+    <col min="5" max="5" width="15.0" customWidth="true"/>
+    <col min="6" max="6" width="15.0" customWidth="true"/>
+    <col min="7" max="7" width="15.0" customWidth="true"/>
+    <col min="8" max="8" width="15.0" customWidth="true"/>
+    <col min="9" max="9" width="15.0" customWidth="true"/>
+    <col min="10" max="10" width="15.0" customWidth="true"/>
+    <col min="11" max="11" width="15.0" customWidth="true"/>
+    <col min="12" max="12" width="15.0" customWidth="true"/>
+    <col min="13" max="13" width="15.0" customWidth="true"/>
+    <col min="14" max="14" width="15.0" customWidth="true"/>
+    <col min="15" max="15" width="15.0" customWidth="true"/>
+    <col min="16" max="16" width="15.0" customWidth="true"/>
+    <col min="17" max="17" width="15.0" customWidth="true"/>
+    <col min="18" max="18" width="15.0" customWidth="true"/>
+    <col min="19" max="19" width="15.0" customWidth="true"/>
+    <col min="20" max="20" width="15.0" customWidth="true"/>
+    <col min="21" max="21" width="15.0" customWidth="true"/>
+    <col min="22" max="22" width="15.0" customWidth="true"/>
+    <col min="23" max="23" width="15.0" customWidth="true"/>
+    <col min="24" max="24" width="15.0" customWidth="true"/>
+    <col min="25" max="25" width="15.0" customWidth="true"/>
+    <col min="26" max="26" width="15.0" customWidth="true"/>
+    <col min="27" max="27" width="15.0" customWidth="true"/>
+    <col min="28" max="28" width="15.0" customWidth="true"/>
+    <col min="29" max="29" width="15.0" customWidth="true"/>
+    <col min="30" max="30" width="15.0" customWidth="true"/>
+    <col min="31" max="31" width="15.0" customWidth="true"/>
+    <col min="32" max="32" width="15.0" customWidth="true"/>
+    <col min="33" max="33" width="15.0" customWidth="true"/>
+    <col min="34" max="34" width="15.0" customWidth="true"/>
+    <col min="35" max="35" width="15.0" customWidth="true"/>
+    <col min="36" max="36" width="15.0" customWidth="true"/>
+    <col min="37" max="37" width="15.0" customWidth="true"/>
+    <col min="38" max="38" width="15.0" customWidth="true"/>
+    <col min="39" max="39" width="15.0" customWidth="true"/>
+    <col min="40" max="40" width="15.0" customWidth="true"/>
+    <col min="41" max="41" width="15.0" customWidth="true"/>
+    <col min="42" max="42" width="15.0" customWidth="true"/>
+    <col min="43" max="43" width="15.0" customWidth="true"/>
+    <col min="44" max="44" width="15.0" customWidth="true"/>
+    <col min="45" max="45" width="15.0" customWidth="true"/>
+    <col min="46" max="46" width="15.0" customWidth="true"/>
+    <col min="47" max="47" width="15.0" customWidth="true"/>
+    <col min="48" max="48" width="15.0" customWidth="true"/>
+    <col min="49" max="49" width="15.0" customWidth="true"/>
+    <col min="50" max="50" width="15.0" customWidth="true"/>
+    <col min="51" max="51" width="15.0" customWidth="true"/>
+    <col min="52" max="52" width="15.0" customWidth="true"/>
+    <col min="53" max="53" width="15.0" customWidth="true"/>
+    <col min="54" max="54" width="15.0" customWidth="true"/>
+    <col min="55" max="55" width="15.0" customWidth="true"/>
+    <col min="56" max="56" width="15.0" customWidth="true"/>
+    <col min="57" max="57" width="15.0" customWidth="true"/>
+    <col min="58" max="58" width="15.0" customWidth="true"/>
+    <col min="59" max="59" width="15.0" customWidth="true"/>
+    <col min="60" max="60" width="15.0" customWidth="true"/>
+    <col min="61" max="61" width="15.0" customWidth="true"/>
+    <col min="62" max="62" width="15.0" customWidth="true"/>
+    <col min="63" max="63" width="15.0" customWidth="true"/>
+    <col min="64" max="64" width="15.0" customWidth="true"/>
+    <col min="65" max="65" width="15.0" customWidth="true"/>
+    <col min="66" max="66" width="15.0" customWidth="true"/>
+    <col min="67" max="67" width="15.0" customWidth="true"/>
+    <col min="68" max="68" width="15.0" customWidth="true"/>
+    <col min="69" max="69" width="15.0" customWidth="true"/>
+    <col min="70" max="70" width="15.0" customWidth="true"/>
+    <col min="71" max="71" width="15.0" customWidth="true"/>
+    <col min="72" max="72" width="15.0" customWidth="true"/>
+    <col min="73" max="73" width="15.0" customWidth="true"/>
+    <col min="74" max="74" width="15.0" customWidth="true"/>
+    <col min="75" max="75" width="15.0" customWidth="true"/>
+    <col min="76" max="76" width="15.0" customWidth="true"/>
+    <col min="77" max="77" width="15.0" customWidth="true"/>
+    <col min="78" max="78" width="15.0" customWidth="true"/>
+    <col min="79" max="79" width="15.0" customWidth="true"/>
+    <col min="80" max="80" width="15.0" customWidth="true"/>
+    <col min="81" max="81" width="15.0" customWidth="true"/>
+    <col min="82" max="82" width="15.0" customWidth="true"/>
+    <col min="83" max="83" width="15.0" customWidth="true"/>
+    <col min="84" max="84" width="15.0" customWidth="true"/>
+    <col min="85" max="85" width="15.0" customWidth="true"/>
+    <col min="86" max="86" width="15.0" customWidth="true"/>
+    <col min="87" max="87" width="15.0" customWidth="true"/>
+    <col min="88" max="88" width="15.0" customWidth="true"/>
+    <col min="89" max="89" width="15.0" customWidth="true"/>
+    <col min="90" max="90" width="15.0" customWidth="true"/>
+    <col min="91" max="91" width="15.0" customWidth="true"/>
+    <col min="92" max="92" width="15.0" customWidth="true"/>
+    <col min="93" max="93" width="15.0" customWidth="true"/>
+    <col min="94" max="94" width="15.0" customWidth="true"/>
+    <col min="95" max="95" width="15.0" customWidth="true"/>
+    <col min="96" max="96" width="15.0" customWidth="true"/>
+    <col min="97" max="97" width="15.0" customWidth="true"/>
+    <col min="98" max="98" width="15.0" customWidth="true"/>
+    <col min="99" max="99" width="15.0" customWidth="true"/>
+    <col min="100" max="100" width="15.0" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-10.0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>-9.0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>-8.0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>-7.0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>-6.0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>-5.0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>-4.0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-3.0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>-2.0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="R2" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="S2" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="T2" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="U2" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="V2" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="W2" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="X2" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>23.0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>119</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.21737552043107455</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.21737552043107433</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.21737552043107433</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.2173755204310745</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.2173755204310745</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.2173755204310745</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.2173755204310744</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.2173755204310744</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.21737552043107444</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0.21737552043107444</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0.21737552043107444</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0.2173755204310745</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0.21737552043107444</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0.21737552043107455</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0.21737552043107455</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0.21737552043107433</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0.21737552043107433</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0.21737552043107433</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0.21737552043107455</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0.21737552043107433</v>
+      </c>
+      <c r="W5" t="n">
+        <v>0.21737552043107433</v>
+      </c>
+      <c r="X5" t="n">
+        <v>0.21737552043107478</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>0.21737552043107455</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>0.21737552043107455</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>0.21737552043107433</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>0.21737552043107433</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>0.21737552043107433</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>0.21737552043107433</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>0.21737552043107433</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>0.21737552043107478</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>0.21737552043107433</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>0.2173755204310739</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>0.21737552043107433</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>0.2173755204310739</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>120</v>
+      </c>
+      <c r="B6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" t="n">
+        <v>-1.6056463508491166</v>
+      </c>
+      <c r="D6" t="n">
+        <v>-1.388270830418042</v>
+      </c>
+      <c r="E6" t="n">
+        <v>-1.170895309986968</v>
+      </c>
+      <c r="F6" t="n">
+        <v>-0.9535197895558933</v>
+      </c>
+      <c r="G6" t="n">
+        <v>-0.7361442691248189</v>
+      </c>
+      <c r="H6" t="n">
+        <v>-0.5187687486937443</v>
+      </c>
+      <c r="I6" t="n">
+        <v>-0.3013932282626699</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-0.08401770783159554</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.1333578125994789</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0.3507333330305533</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0.5681088534616278</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0.7854843738927022</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1.0028598943237768</v>
+      </c>
+      <c r="P6" t="n">
+        <v>1.220235414754851</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>1.4376109351859259</v>
+      </c>
+      <c r="R6" t="n">
+        <v>1.6549864556170002</v>
+      </c>
+      <c r="S6" t="n">
+        <v>1.8723619760480745</v>
+      </c>
+      <c r="T6" t="n">
+        <v>2.089737496479149</v>
+      </c>
+      <c r="U6" t="n">
+        <v>2.307113016910223</v>
+      </c>
+      <c r="V6" t="n">
+        <v>2.524488537341298</v>
+      </c>
+      <c r="W6" t="n">
+        <v>2.741864057772372</v>
+      </c>
+      <c r="X6" t="n">
+        <v>2.9592395782034466</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>3.1766150986345214</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>3.3939906190655957</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>3.6113661394966705</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>3.8287416599277444</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>4.046117180358819</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>4.263492700789893</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>4.480868221220968</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>4.698243741652042</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>4.915619262083117</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>5.13299478251419</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>5.350370302945265</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>5.567745823376339</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>121</v>
+      </c>
+      <c r="B8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.21737552043107444</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>122</v>
+      </c>
+      <c r="B9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1.0028598943237768</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>119</v>
+      </c>
+      <c r="B12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.17217206222720038</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.17217206222720036</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.1721720622272004</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.17217206222720036</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.1721720622272003</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0.17217206222720038</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0.17778864957359575</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0.17217206222720033</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0.1665554748808049</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0.17521723517627186</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0.1814334688932735</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0.187704139509133</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0.19396331552771495</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0.20024632537805487</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>0.20648616642284545</v>
+      </c>
+      <c r="R12" t="n">
+        <v>0.21271814882670426</v>
+      </c>
+      <c r="S12" t="n">
+        <v>0.21887627533062082</v>
+      </c>
+      <c r="T12" t="n">
+        <v>0.22499478003526274</v>
+      </c>
+      <c r="U12" t="n">
+        <v>0.23101069964581455</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0.23695616856904334</v>
+      </c>
+      <c r="W12" t="n">
+        <v>0.24277312500920356</v>
+      </c>
+      <c r="X12" t="n">
+        <v>0.2484905597103504</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>0.2540328144190127</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>0.2547123499337687</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>0.2428671349783187</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>0.20846594485103864</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>0.16415636916624265</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>0.12222369346825701</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>0.09242035516932834</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>0.09552865190242787</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>0.14038559475175116</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>0.24463283227446908</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>0.35056425239636724</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>0.38632954637862404</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>120</v>
+      </c>
+      <c r="B13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" t="n">
+        <v>-0.5879108362889363</v>
+      </c>
+      <c r="D13" t="n">
+        <v>-0.41573877406173587</v>
+      </c>
+      <c r="E13" t="n">
+        <v>-0.24356671183453554</v>
+      </c>
+      <c r="F13" t="n">
+        <v>-0.07139464960733505</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.10077741261986517</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0.27294947484706555</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0.44512153707426594</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0.628526773994257</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0.7894656615286666</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0.9616377237558669</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1.1399001318812103</v>
+      </c>
+      <c r="N13" t="n">
+        <v>1.3245046615424139</v>
+      </c>
+      <c r="O13" t="n">
+        <v>1.5153084108994763</v>
+      </c>
+      <c r="P13" t="n">
+        <v>1.7124312925978438</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>1.915801061655586</v>
+      </c>
+      <c r="R13" t="n">
+        <v>2.1254036254435347</v>
+      </c>
+      <c r="S13" t="n">
+        <v>2.3412373593089946</v>
+      </c>
+      <c r="T13" t="n">
+        <v>2.5631561761047763</v>
+      </c>
+      <c r="U13" t="n">
+        <v>2.79122691937952</v>
+      </c>
+      <c r="V13" t="n">
+        <v>3.0251775753964054</v>
+      </c>
+      <c r="W13" t="n">
+        <v>3.2651392565176067</v>
+      </c>
+      <c r="X13" t="n">
+        <v>3.5107238254148125</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>3.7621203759383075</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>4.018789454252838</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>4.271545075805845</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>4.504523724209475</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>4.688476965507922</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>4.832836462541961</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>4.932924352444436</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>5.017677172880617</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>5.123981656249292</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>5.29844836238412</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>5.61324732079823</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>5.999576867176854</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>121</v>
+      </c>
+      <c r="B15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.19396331552771495</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>122</v>
+      </c>
+      <c r="B16" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1.5153084108994763</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="35"/>
+  <cols>
+    <col min="2" max="2" width="8.0" customWidth="true"/>
+    <col min="3" max="3" width="15.0" customWidth="true"/>
+    <col min="4" max="4" width="15.0" customWidth="true"/>
+    <col min="5" max="5" width="15.0" customWidth="true"/>
+    <col min="6" max="6" width="15.0" customWidth="true"/>
+    <col min="7" max="7" width="15.0" customWidth="true"/>
+    <col min="8" max="8" width="15.0" customWidth="true"/>
+    <col min="9" max="9" width="15.0" customWidth="true"/>
+    <col min="10" max="10" width="15.0" customWidth="true"/>
+    <col min="11" max="11" width="15.0" customWidth="true"/>
+    <col min="12" max="12" width="15.0" customWidth="true"/>
+    <col min="13" max="13" width="15.0" customWidth="true"/>
+    <col min="14" max="14" width="15.0" customWidth="true"/>
+    <col min="15" max="15" width="15.0" customWidth="true"/>
+    <col min="16" max="16" width="15.0" customWidth="true"/>
+    <col min="17" max="17" width="15.0" customWidth="true"/>
+    <col min="18" max="18" width="15.0" customWidth="true"/>
+    <col min="19" max="19" width="15.0" customWidth="true"/>
+    <col min="20" max="20" width="15.0" customWidth="true"/>
+    <col min="21" max="21" width="15.0" customWidth="true"/>
+    <col min="22" max="22" width="15.0" customWidth="true"/>
+    <col min="23" max="23" width="15.0" customWidth="true"/>
+    <col min="24" max="24" width="15.0" customWidth="true"/>
+    <col min="25" max="25" width="15.0" customWidth="true"/>
+    <col min="26" max="26" width="15.0" customWidth="true"/>
+    <col min="27" max="27" width="15.0" customWidth="true"/>
+    <col min="28" max="28" width="15.0" customWidth="true"/>
+    <col min="29" max="29" width="15.0" customWidth="true"/>
+    <col min="30" max="30" width="15.0" customWidth="true"/>
+    <col min="31" max="31" width="15.0" customWidth="true"/>
+    <col min="32" max="32" width="15.0" customWidth="true"/>
+    <col min="33" max="33" width="15.0" customWidth="true"/>
+    <col min="34" max="34" width="15.0" customWidth="true"/>
+    <col min="35" max="35" width="15.0" customWidth="true"/>
+    <col min="36" max="36" width="15.0" customWidth="true"/>
+    <col min="37" max="37" width="15.0" customWidth="true"/>
+    <col min="38" max="38" width="15.0" customWidth="true"/>
+    <col min="39" max="39" width="15.0" customWidth="true"/>
+    <col min="40" max="40" width="15.0" customWidth="true"/>
+    <col min="41" max="41" width="15.0" customWidth="true"/>
+    <col min="42" max="42" width="15.0" customWidth="true"/>
+    <col min="43" max="43" width="15.0" customWidth="true"/>
+    <col min="44" max="44" width="15.0" customWidth="true"/>
+    <col min="45" max="45" width="15.0" customWidth="true"/>
+    <col min="46" max="46" width="15.0" customWidth="true"/>
+    <col min="47" max="47" width="15.0" customWidth="true"/>
+    <col min="48" max="48" width="15.0" customWidth="true"/>
+    <col min="49" max="49" width="15.0" customWidth="true"/>
+    <col min="50" max="50" width="15.0" customWidth="true"/>
+    <col min="51" max="51" width="15.0" customWidth="true"/>
+    <col min="52" max="52" width="15.0" customWidth="true"/>
+    <col min="53" max="53" width="15.0" customWidth="true"/>
+    <col min="54" max="54" width="15.0" customWidth="true"/>
+    <col min="55" max="55" width="15.0" customWidth="true"/>
+    <col min="56" max="56" width="15.0" customWidth="true"/>
+    <col min="57" max="57" width="15.0" customWidth="true"/>
+    <col min="58" max="58" width="15.0" customWidth="true"/>
+    <col min="59" max="59" width="15.0" customWidth="true"/>
+    <col min="60" max="60" width="15.0" customWidth="true"/>
+    <col min="61" max="61" width="15.0" customWidth="true"/>
+    <col min="62" max="62" width="15.0" customWidth="true"/>
+    <col min="63" max="63" width="15.0" customWidth="true"/>
+    <col min="64" max="64" width="15.0" customWidth="true"/>
+    <col min="65" max="65" width="15.0" customWidth="true"/>
+    <col min="66" max="66" width="15.0" customWidth="true"/>
+    <col min="67" max="67" width="15.0" customWidth="true"/>
+    <col min="68" max="68" width="15.0" customWidth="true"/>
+    <col min="69" max="69" width="15.0" customWidth="true"/>
+    <col min="70" max="70" width="15.0" customWidth="true"/>
+    <col min="71" max="71" width="15.0" customWidth="true"/>
+    <col min="72" max="72" width="15.0" customWidth="true"/>
+    <col min="73" max="73" width="15.0" customWidth="true"/>
+    <col min="74" max="74" width="15.0" customWidth="true"/>
+    <col min="75" max="75" width="15.0" customWidth="true"/>
+    <col min="76" max="76" width="15.0" customWidth="true"/>
+    <col min="77" max="77" width="15.0" customWidth="true"/>
+    <col min="78" max="78" width="15.0" customWidth="true"/>
+    <col min="79" max="79" width="15.0" customWidth="true"/>
+    <col min="80" max="80" width="15.0" customWidth="true"/>
+    <col min="81" max="81" width="15.0" customWidth="true"/>
+    <col min="82" max="82" width="15.0" customWidth="true"/>
+    <col min="83" max="83" width="15.0" customWidth="true"/>
+    <col min="84" max="84" width="15.0" customWidth="true"/>
+    <col min="85" max="85" width="15.0" customWidth="true"/>
+    <col min="86" max="86" width="15.0" customWidth="true"/>
+    <col min="87" max="87" width="15.0" customWidth="true"/>
+    <col min="88" max="88" width="15.0" customWidth="true"/>
+    <col min="89" max="89" width="15.0" customWidth="true"/>
+    <col min="90" max="90" width="15.0" customWidth="true"/>
+    <col min="91" max="91" width="15.0" customWidth="true"/>
+    <col min="92" max="92" width="15.0" customWidth="true"/>
+    <col min="93" max="93" width="15.0" customWidth="true"/>
+    <col min="94" max="94" width="15.0" customWidth="true"/>
+    <col min="95" max="95" width="15.0" customWidth="true"/>
+    <col min="96" max="96" width="15.0" customWidth="true"/>
+    <col min="97" max="97" width="15.0" customWidth="true"/>
+    <col min="98" max="98" width="15.0" customWidth="true"/>
+    <col min="99" max="99" width="15.0" customWidth="true"/>
+    <col min="100" max="100" width="15.0" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-10.0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>-9.0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>-8.0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>-7.0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>-6.0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>-5.0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>-4.0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-3.0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>-2.0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="R2" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="S2" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="T2" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="U2" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="V2" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="W2" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="X2" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>23.0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>125</v>
+      </c>
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" t="n">
+        <v>2.1279330606562032</v>
+      </c>
+      <c r="D6"/>
+      <c r="E6"/>
+      <c r="F6"/>
+      <c r="G6"/>
+      <c r="H6"/>
+      <c r="I6"/>
+      <c r="J6"/>
+      <c r="K6"/>
+      <c r="L6"/>
+      <c r="M6"/>
+      <c r="N6"/>
+      <c r="O6"/>
+      <c r="P6"/>
+      <c r="Q6"/>
+      <c r="R6"/>
+      <c r="S6"/>
+      <c r="T6"/>
+      <c r="U6"/>
+      <c r="V6"/>
+      <c r="W6"/>
+      <c r="X6"/>
+      <c r="Y6"/>
+      <c r="Z6"/>
+      <c r="AA6"/>
+      <c r="AB6"/>
+      <c r="AC6"/>
+      <c r="AD6"/>
+      <c r="AE6"/>
+      <c r="AF6"/>
+      <c r="AG6"/>
+      <c r="AH6"/>
+      <c r="AI6"/>
+      <c r="AJ6"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>126</v>
+      </c>
+      <c r="B7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.23580177942190442</v>
+      </c>
+      <c r="D7"/>
+      <c r="E7"/>
+      <c r="F7"/>
+      <c r="G7"/>
+      <c r="H7"/>
+      <c r="I7"/>
+      <c r="J7"/>
+      <c r="K7"/>
+      <c r="L7"/>
+      <c r="M7"/>
+      <c r="N7"/>
+      <c r="O7"/>
+      <c r="P7"/>
+      <c r="Q7"/>
+      <c r="R7"/>
+      <c r="S7"/>
+      <c r="T7"/>
+      <c r="U7"/>
+      <c r="V7"/>
+      <c r="W7"/>
+      <c r="X7"/>
+      <c r="Y7"/>
+      <c r="Z7"/>
+      <c r="AA7"/>
+      <c r="AB7"/>
+      <c r="AC7"/>
+      <c r="AD7"/>
+      <c r="AE7"/>
+      <c r="AF7"/>
+      <c r="AG7"/>
+      <c r="AH7"/>
+      <c r="AI7"/>
+      <c r="AJ7"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>128</v>
+      </c>
+      <c r="B10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" t="n">
+        <v>-1.317110713981138</v>
+      </c>
+      <c r="D10"/>
+      <c r="E10"/>
+      <c r="F10"/>
+      <c r="G10"/>
+      <c r="H10"/>
+      <c r="I10"/>
+      <c r="J10"/>
+      <c r="K10"/>
+      <c r="L10"/>
+      <c r="M10"/>
+      <c r="N10"/>
+      <c r="O10"/>
+      <c r="P10"/>
+      <c r="Q10"/>
+      <c r="R10"/>
+      <c r="S10"/>
+      <c r="T10"/>
+      <c r="U10"/>
+      <c r="V10"/>
+      <c r="W10"/>
+      <c r="X10"/>
+      <c r="Y10"/>
+      <c r="Z10"/>
+      <c r="AA10"/>
+      <c r="AB10"/>
+      <c r="AC10"/>
+      <c r="AD10"/>
+      <c r="AE10"/>
+      <c r="AF10"/>
+      <c r="AG10"/>
+      <c r="AH10"/>
+      <c r="AI10"/>
+      <c r="AJ10"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>128</v>
+      </c>
+      <c r="B13" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" t="n">
+        <v>-1.1124581121824981</v>
+      </c>
+      <c r="D13"/>
+      <c r="E13"/>
+      <c r="F13"/>
+      <c r="G13"/>
+      <c r="H13"/>
+      <c r="I13"/>
+      <c r="J13"/>
+      <c r="K13"/>
+      <c r="L13"/>
+      <c r="M13"/>
+      <c r="N13"/>
+      <c r="O13"/>
+      <c r="P13"/>
+      <c r="Q13"/>
+      <c r="R13"/>
+      <c r="S13"/>
+      <c r="T13"/>
+      <c r="U13"/>
+      <c r="V13"/>
+      <c r="W13"/>
+      <c r="X13"/>
+      <c r="Y13"/>
+      <c r="Z13"/>
+      <c r="AA13"/>
+      <c r="AB13"/>
+      <c r="AC13"/>
+      <c r="AD13"/>
+      <c r="AE13"/>
+      <c r="AF13"/>
+      <c r="AG13"/>
+      <c r="AH13"/>
+      <c r="AI13"/>
+      <c r="AJ13"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>128</v>
+      </c>
+      <c r="B16" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" t="n">
+        <v>-0.9487360307435881</v>
+      </c>
+      <c r="D16"/>
+      <c r="E16"/>
+      <c r="F16"/>
+      <c r="G16"/>
+      <c r="H16"/>
+      <c r="I16"/>
+      <c r="J16"/>
+      <c r="K16"/>
+      <c r="L16"/>
+      <c r="M16"/>
+      <c r="N16"/>
+      <c r="O16"/>
+      <c r="P16"/>
+      <c r="Q16"/>
+      <c r="R16"/>
+      <c r="S16"/>
+      <c r="T16"/>
+      <c r="U16"/>
+      <c r="V16"/>
+      <c r="W16"/>
+      <c r="X16"/>
+      <c r="Y16"/>
+      <c r="Z16"/>
+      <c r="AA16"/>
+      <c r="AB16"/>
+      <c r="AC16"/>
+      <c r="AD16"/>
+      <c r="AE16"/>
+      <c r="AF16"/>
+      <c r="AG16"/>
+      <c r="AH16"/>
+      <c r="AI16"/>
+      <c r="AJ16"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>125</v>
+      </c>
+      <c r="B20" t="s">
+        <v>5</v>
+      </c>
+      <c r="C20"/>
+      <c r="D20" t="n">
+        <v>2.1279330606562032</v>
+      </c>
+      <c r="E20"/>
+      <c r="F20"/>
+      <c r="G20"/>
+      <c r="H20"/>
+      <c r="I20"/>
+      <c r="J20"/>
+      <c r="K20"/>
+      <c r="L20"/>
+      <c r="M20"/>
+      <c r="N20"/>
+      <c r="O20"/>
+      <c r="P20"/>
+      <c r="Q20"/>
+      <c r="R20"/>
+      <c r="S20"/>
+      <c r="T20"/>
+      <c r="U20"/>
+      <c r="V20"/>
+      <c r="W20"/>
+      <c r="X20"/>
+      <c r="Y20"/>
+      <c r="Z20"/>
+      <c r="AA20"/>
+      <c r="AB20"/>
+      <c r="AC20"/>
+      <c r="AD20"/>
+      <c r="AE20"/>
+      <c r="AF20"/>
+      <c r="AG20"/>
+      <c r="AH20"/>
+      <c r="AI20"/>
+      <c r="AJ20"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>126</v>
+      </c>
+      <c r="B21" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21"/>
+      <c r="D21" t="n">
+        <v>0.23587426090316096</v>
+      </c>
+      <c r="E21"/>
+      <c r="F21"/>
+      <c r="G21"/>
+      <c r="H21"/>
+      <c r="I21"/>
+      <c r="J21"/>
+      <c r="K21"/>
+      <c r="L21"/>
+      <c r="M21"/>
+      <c r="N21"/>
+      <c r="O21"/>
+      <c r="P21"/>
+      <c r="Q21"/>
+      <c r="R21"/>
+      <c r="S21"/>
+      <c r="T21"/>
+      <c r="U21"/>
+      <c r="V21"/>
+      <c r="W21"/>
+      <c r="X21"/>
+      <c r="Y21"/>
+      <c r="Z21"/>
+      <c r="AA21"/>
+      <c r="AB21"/>
+      <c r="AC21"/>
+      <c r="AD21"/>
+      <c r="AE21"/>
+      <c r="AF21"/>
+      <c r="AG21"/>
+      <c r="AH21"/>
+      <c r="AI21"/>
+      <c r="AJ21"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>128</v>
+      </c>
+      <c r="B24" t="s">
+        <v>5</v>
+      </c>
+      <c r="C24"/>
+      <c r="D24" t="n">
+        <v>-1.3169804660536704</v>
+      </c>
+      <c r="E24"/>
+      <c r="F24"/>
+      <c r="G24"/>
+      <c r="H24"/>
+      <c r="I24"/>
+      <c r="J24"/>
+      <c r="K24"/>
+      <c r="L24"/>
+      <c r="M24"/>
+      <c r="N24"/>
+      <c r="O24"/>
+      <c r="P24"/>
+      <c r="Q24"/>
+      <c r="R24"/>
+      <c r="S24"/>
+      <c r="T24"/>
+      <c r="U24"/>
+      <c r="V24"/>
+      <c r="W24"/>
+      <c r="X24"/>
+      <c r="Y24"/>
+      <c r="Z24"/>
+      <c r="AA24"/>
+      <c r="AB24"/>
+      <c r="AC24"/>
+      <c r="AD24"/>
+      <c r="AE24"/>
+      <c r="AF24"/>
+      <c r="AG24"/>
+      <c r="AH24"/>
+      <c r="AI24"/>
+      <c r="AJ24"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>128</v>
+      </c>
+      <c r="B27" t="s">
+        <v>5</v>
+      </c>
+      <c r="C27"/>
+      <c r="D27" t="n">
+        <v>-1.1123278642550307</v>
+      </c>
+      <c r="E27"/>
+      <c r="F27"/>
+      <c r="G27"/>
+      <c r="H27"/>
+      <c r="I27"/>
+      <c r="J27"/>
+      <c r="K27"/>
+      <c r="L27"/>
+      <c r="M27"/>
+      <c r="N27"/>
+      <c r="O27"/>
+      <c r="P27"/>
+      <c r="Q27"/>
+      <c r="R27"/>
+      <c r="S27"/>
+      <c r="T27"/>
+      <c r="U27"/>
+      <c r="V27"/>
+      <c r="W27"/>
+      <c r="X27"/>
+      <c r="Y27"/>
+      <c r="Z27"/>
+      <c r="AA27"/>
+      <c r="AB27"/>
+      <c r="AC27"/>
+      <c r="AD27"/>
+      <c r="AE27"/>
+      <c r="AF27"/>
+      <c r="AG27"/>
+      <c r="AH27"/>
+      <c r="AI27"/>
+      <c r="AJ27"/>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>128</v>
+      </c>
+      <c r="B30" t="s">
+        <v>5</v>
+      </c>
+      <c r="C30"/>
+      <c r="D30" t="n">
+        <v>-0.9486057828161205</v>
+      </c>
+      <c r="E30"/>
+      <c r="F30"/>
+      <c r="G30"/>
+      <c r="H30"/>
+      <c r="I30"/>
+      <c r="J30"/>
+      <c r="K30"/>
+      <c r="L30"/>
+      <c r="M30"/>
+      <c r="N30"/>
+      <c r="O30"/>
+      <c r="P30"/>
+      <c r="Q30"/>
+      <c r="R30"/>
+      <c r="S30"/>
+      <c r="T30"/>
+      <c r="U30"/>
+      <c r="V30"/>
+      <c r="W30"/>
+      <c r="X30"/>
+      <c r="Y30"/>
+      <c r="Z30"/>
+      <c r="AA30"/>
+      <c r="AB30"/>
+      <c r="AC30"/>
+      <c r="AD30"/>
+      <c r="AE30"/>
+      <c r="AF30"/>
+      <c r="AG30"/>
+      <c r="AH30"/>
+      <c r="AI30"/>
+      <c r="AJ30"/>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>125</v>
+      </c>
+      <c r="B34" t="s">
+        <v>5</v>
+      </c>
+      <c r="C34"/>
+      <c r="D34"/>
+      <c r="E34" t="n">
+        <v>2.1279330606562032</v>
+      </c>
+      <c r="F34"/>
+      <c r="G34"/>
+      <c r="H34"/>
+      <c r="I34"/>
+      <c r="J34"/>
+      <c r="K34"/>
+      <c r="L34"/>
+      <c r="M34"/>
+      <c r="N34"/>
+      <c r="O34"/>
+      <c r="P34"/>
+      <c r="Q34"/>
+      <c r="R34"/>
+      <c r="S34"/>
+      <c r="T34"/>
+      <c r="U34"/>
+      <c r="V34"/>
+      <c r="W34"/>
+      <c r="X34"/>
+      <c r="Y34"/>
+      <c r="Z34"/>
+      <c r="AA34"/>
+      <c r="AB34"/>
+      <c r="AC34"/>
+      <c r="AD34"/>
+      <c r="AE34"/>
+      <c r="AF34"/>
+      <c r="AG34"/>
+      <c r="AH34"/>
+      <c r="AI34"/>
+      <c r="AJ34"/>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>126</v>
+      </c>
+      <c r="B35" t="s">
+        <v>5</v>
+      </c>
+      <c r="C35"/>
+      <c r="D35"/>
+      <c r="E35" t="n">
+        <v>0.23609552016173355</v>
+      </c>
+      <c r="F35"/>
+      <c r="G35"/>
+      <c r="H35"/>
+      <c r="I35"/>
+      <c r="J35"/>
+      <c r="K35"/>
+      <c r="L35"/>
+      <c r="M35"/>
+      <c r="N35"/>
+      <c r="O35"/>
+      <c r="P35"/>
+      <c r="Q35"/>
+      <c r="R35"/>
+      <c r="S35"/>
+      <c r="T35"/>
+      <c r="U35"/>
+      <c r="V35"/>
+      <c r="W35"/>
+      <c r="X35"/>
+      <c r="Y35"/>
+      <c r="Z35"/>
+      <c r="AA35"/>
+      <c r="AB35"/>
+      <c r="AC35"/>
+      <c r="AD35"/>
+      <c r="AE35"/>
+      <c r="AF35"/>
+      <c r="AG35"/>
+      <c r="AH35"/>
+      <c r="AI35"/>
+      <c r="AJ35"/>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>128</v>
+      </c>
+      <c r="B38" t="s">
+        <v>5</v>
+      </c>
+      <c r="C38"/>
+      <c r="D38"/>
+      <c r="E38" t="n">
+        <v>-1.31658286711719</v>
+      </c>
+      <c r="F38"/>
+      <c r="G38"/>
+      <c r="H38"/>
+      <c r="I38"/>
+      <c r="J38"/>
+      <c r="K38"/>
+      <c r="L38"/>
+      <c r="M38"/>
+      <c r="N38"/>
+      <c r="O38"/>
+      <c r="P38"/>
+      <c r="Q38"/>
+      <c r="R38"/>
+      <c r="S38"/>
+      <c r="T38"/>
+      <c r="U38"/>
+      <c r="V38"/>
+      <c r="W38"/>
+      <c r="X38"/>
+      <c r="Y38"/>
+      <c r="Z38"/>
+      <c r="AA38"/>
+      <c r="AB38"/>
+      <c r="AC38"/>
+      <c r="AD38"/>
+      <c r="AE38"/>
+      <c r="AF38"/>
+      <c r="AG38"/>
+      <c r="AH38"/>
+      <c r="AI38"/>
+      <c r="AJ38"/>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>128</v>
+      </c>
+      <c r="B41" t="s">
+        <v>5</v>
+      </c>
+      <c r="C41"/>
+      <c r="D41"/>
+      <c r="E41" t="n">
+        <v>-1.1119302653185503</v>
+      </c>
+      <c r="F41"/>
+      <c r="G41"/>
+      <c r="H41"/>
+      <c r="I41"/>
+      <c r="J41"/>
+      <c r="K41"/>
+      <c r="L41"/>
+      <c r="M41"/>
+      <c r="N41"/>
+      <c r="O41"/>
+      <c r="P41"/>
+      <c r="Q41"/>
+      <c r="R41"/>
+      <c r="S41"/>
+      <c r="T41"/>
+      <c r="U41"/>
+      <c r="V41"/>
+      <c r="W41"/>
+      <c r="X41"/>
+      <c r="Y41"/>
+      <c r="Z41"/>
+      <c r="AA41"/>
+      <c r="AB41"/>
+      <c r="AC41"/>
+      <c r="AD41"/>
+      <c r="AE41"/>
+      <c r="AF41"/>
+      <c r="AG41"/>
+      <c r="AH41"/>
+      <c r="AI41"/>
+      <c r="AJ41"/>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s">
+        <v>128</v>
+      </c>
+      <c r="B44" t="s">
+        <v>5</v>
+      </c>
+      <c r="C44"/>
+      <c r="D44"/>
+      <c r="E44" t="n">
+        <v>-0.9482081838796401</v>
+      </c>
+      <c r="F44"/>
+      <c r="G44"/>
+      <c r="H44"/>
+      <c r="I44"/>
+      <c r="J44"/>
+      <c r="K44"/>
+      <c r="L44"/>
+      <c r="M44"/>
+      <c r="N44"/>
+      <c r="O44"/>
+      <c r="P44"/>
+      <c r="Q44"/>
+      <c r="R44"/>
+      <c r="S44"/>
+      <c r="T44"/>
+      <c r="U44"/>
+      <c r="V44"/>
+      <c r="W44"/>
+      <c r="X44"/>
+      <c r="Y44"/>
+      <c r="Z44"/>
+      <c r="AA44"/>
+      <c r="AB44"/>
+      <c r="AC44"/>
+      <c r="AD44"/>
+      <c r="AE44"/>
+      <c r="AF44"/>
+      <c r="AG44"/>
+      <c r="AH44"/>
+      <c r="AI44"/>
+      <c r="AJ44"/>
+    </row>
+    <row r="45">
+      <c r="A45" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s">
+        <v>125</v>
+      </c>
+      <c r="B48" t="s">
+        <v>5</v>
+      </c>
+      <c r="C48"/>
+      <c r="D48"/>
+      <c r="E48"/>
+      <c r="F48" t="n">
+        <v>2.1279330606562032</v>
+      </c>
+      <c r="G48"/>
+      <c r="H48"/>
+      <c r="I48"/>
+      <c r="J48"/>
+      <c r="K48"/>
+      <c r="L48"/>
+      <c r="M48"/>
+      <c r="N48"/>
+      <c r="O48"/>
+      <c r="P48"/>
+      <c r="Q48"/>
+      <c r="R48"/>
+      <c r="S48"/>
+      <c r="T48"/>
+      <c r="U48"/>
+      <c r="V48"/>
+      <c r="W48"/>
+      <c r="X48"/>
+      <c r="Y48"/>
+      <c r="Z48"/>
+      <c r="AA48"/>
+      <c r="AB48"/>
+      <c r="AC48"/>
+      <c r="AD48"/>
+      <c r="AE48"/>
+      <c r="AF48"/>
+      <c r="AG48"/>
+      <c r="AH48"/>
+      <c r="AI48"/>
+      <c r="AJ48"/>
+    </row>
+    <row r="49">
+      <c r="A49" t="s">
+        <v>126</v>
+      </c>
+      <c r="B49" t="s">
+        <v>5</v>
+      </c>
+      <c r="C49"/>
+      <c r="D49"/>
+      <c r="E49"/>
+      <c r="F49" t="n">
+        <v>0.2364655571976222</v>
+      </c>
+      <c r="G49"/>
+      <c r="H49"/>
+      <c r="I49"/>
+      <c r="J49"/>
+      <c r="K49"/>
+      <c r="L49"/>
+      <c r="M49"/>
+      <c r="N49"/>
+      <c r="O49"/>
+      <c r="P49"/>
+      <c r="Q49"/>
+      <c r="R49"/>
+      <c r="S49"/>
+      <c r="T49"/>
+      <c r="U49"/>
+      <c r="V49"/>
+      <c r="W49"/>
+      <c r="X49"/>
+      <c r="Y49"/>
+      <c r="Z49"/>
+      <c r="AA49"/>
+      <c r="AB49"/>
+      <c r="AC49"/>
+      <c r="AD49"/>
+      <c r="AE49"/>
+      <c r="AF49"/>
+      <c r="AG49"/>
+      <c r="AH49"/>
+      <c r="AI49"/>
+      <c r="AJ49"/>
+    </row>
+    <row r="50">
+      <c r="A50" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s">
+        <v>128</v>
+      </c>
+      <c r="B52" t="s">
+        <v>5</v>
+      </c>
+      <c r="C52"/>
+      <c r="D52"/>
+      <c r="E52"/>
+      <c r="F52" t="n">
+        <v>-1.3159179171716968</v>
+      </c>
+      <c r="G52"/>
+      <c r="H52"/>
+      <c r="I52"/>
+      <c r="J52"/>
+      <c r="K52"/>
+      <c r="L52"/>
+      <c r="M52"/>
+      <c r="N52"/>
+      <c r="O52"/>
+      <c r="P52"/>
+      <c r="Q52"/>
+      <c r="R52"/>
+      <c r="S52"/>
+      <c r="T52"/>
+      <c r="U52"/>
+      <c r="V52"/>
+      <c r="W52"/>
+      <c r="X52"/>
+      <c r="Y52"/>
+      <c r="Z52"/>
+      <c r="AA52"/>
+      <c r="AB52"/>
+      <c r="AC52"/>
+      <c r="AD52"/>
+      <c r="AE52"/>
+      <c r="AF52"/>
+      <c r="AG52"/>
+      <c r="AH52"/>
+      <c r="AI52"/>
+      <c r="AJ52"/>
+    </row>
+    <row r="53">
+      <c r="A53" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s">
+        <v>128</v>
+      </c>
+      <c r="B55" t="s">
+        <v>5</v>
+      </c>
+      <c r="C55"/>
+      <c r="D55"/>
+      <c r="E55"/>
+      <c r="F55" t="n">
+        <v>-1.111265315373057</v>
+      </c>
+      <c r="G55"/>
+      <c r="H55"/>
+      <c r="I55"/>
+      <c r="J55"/>
+      <c r="K55"/>
+      <c r="L55"/>
+      <c r="M55"/>
+      <c r="N55"/>
+      <c r="O55"/>
+      <c r="P55"/>
+      <c r="Q55"/>
+      <c r="R55"/>
+      <c r="S55"/>
+      <c r="T55"/>
+      <c r="U55"/>
+      <c r="V55"/>
+      <c r="W55"/>
+      <c r="X55"/>
+      <c r="Y55"/>
+      <c r="Z55"/>
+      <c r="AA55"/>
+      <c r="AB55"/>
+      <c r="AC55"/>
+      <c r="AD55"/>
+      <c r="AE55"/>
+      <c r="AF55"/>
+      <c r="AG55"/>
+      <c r="AH55"/>
+      <c r="AI55"/>
+      <c r="AJ55"/>
+    </row>
+    <row r="56">
+      <c r="A56" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s">
+        <v>128</v>
+      </c>
+      <c r="B58" t="s">
+        <v>5</v>
+      </c>
+      <c r="C58"/>
+      <c r="D58"/>
+      <c r="E58"/>
+      <c r="F58" t="n">
+        <v>-0.947543233934147</v>
+      </c>
+      <c r="G58"/>
+      <c r="H58"/>
+      <c r="I58"/>
+      <c r="J58"/>
+      <c r="K58"/>
+      <c r="L58"/>
+      <c r="M58"/>
+      <c r="N58"/>
+      <c r="O58"/>
+      <c r="P58"/>
+      <c r="Q58"/>
+      <c r="R58"/>
+      <c r="S58"/>
+      <c r="T58"/>
+      <c r="U58"/>
+      <c r="V58"/>
+      <c r="W58"/>
+      <c r="X58"/>
+      <c r="Y58"/>
+      <c r="Z58"/>
+      <c r="AA58"/>
+      <c r="AB58"/>
+      <c r="AC58"/>
+      <c r="AD58"/>
+      <c r="AE58"/>
+      <c r="AF58"/>
+      <c r="AG58"/>
+      <c r="AH58"/>
+      <c r="AI58"/>
+      <c r="AJ58"/>
+    </row>
+    <row r="59">
+      <c r="A59" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s">
+        <v>125</v>
+      </c>
+      <c r="B62" t="s">
+        <v>5</v>
+      </c>
+      <c r="C62"/>
+      <c r="D62"/>
+      <c r="E62"/>
+      <c r="F62"/>
+      <c r="G62" t="n">
+        <v>2.1279330606562032</v>
+      </c>
+      <c r="H62"/>
+      <c r="I62"/>
+      <c r="J62"/>
+      <c r="K62"/>
+      <c r="L62"/>
+      <c r="M62"/>
+      <c r="N62"/>
+      <c r="O62"/>
+      <c r="P62"/>
+      <c r="Q62"/>
+      <c r="R62"/>
+      <c r="S62"/>
+      <c r="T62"/>
+      <c r="U62"/>
+      <c r="V62"/>
+      <c r="W62"/>
+      <c r="X62"/>
+      <c r="Y62"/>
+      <c r="Z62"/>
+      <c r="AA62"/>
+      <c r="AB62"/>
+      <c r="AC62"/>
+      <c r="AD62"/>
+      <c r="AE62"/>
+      <c r="AF62"/>
+      <c r="AG62"/>
+      <c r="AH62"/>
+      <c r="AI62"/>
+      <c r="AJ62"/>
+    </row>
+    <row r="63">
+      <c r="A63" t="s">
+        <v>126</v>
+      </c>
+      <c r="B63" t="s">
+        <v>5</v>
+      </c>
+      <c r="C63"/>
+      <c r="D63"/>
+      <c r="E63"/>
+      <c r="F63"/>
+      <c r="G63" t="n">
+        <v>0.2369843720108269</v>
+      </c>
+      <c r="H63"/>
+      <c r="I63"/>
+      <c r="J63"/>
+      <c r="K63"/>
+      <c r="L63"/>
+      <c r="M63"/>
+      <c r="N63"/>
+      <c r="O63"/>
+      <c r="P63"/>
+      <c r="Q63"/>
+      <c r="R63"/>
+      <c r="S63"/>
+      <c r="T63"/>
+      <c r="U63"/>
+      <c r="V63"/>
+      <c r="W63"/>
+      <c r="X63"/>
+      <c r="Y63"/>
+      <c r="Z63"/>
+      <c r="AA63"/>
+      <c r="AB63"/>
+      <c r="AC63"/>
+      <c r="AD63"/>
+      <c r="AE63"/>
+      <c r="AF63"/>
+      <c r="AG63"/>
+      <c r="AH63"/>
+      <c r="AI63"/>
+      <c r="AJ63"/>
+    </row>
+    <row r="64">
+      <c r="A64" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s">
+        <v>128</v>
+      </c>
+      <c r="B66" t="s">
+        <v>5</v>
+      </c>
+      <c r="C66"/>
+      <c r="D66"/>
+      <c r="E66"/>
+      <c r="F66"/>
+      <c r="G66" t="n">
+        <v>-1.3149856162171911</v>
+      </c>
+      <c r="H66"/>
+      <c r="I66"/>
+      <c r="J66"/>
+      <c r="K66"/>
+      <c r="L66"/>
+      <c r="M66"/>
+      <c r="N66"/>
+      <c r="O66"/>
+      <c r="P66"/>
+      <c r="Q66"/>
+      <c r="R66"/>
+      <c r="S66"/>
+      <c r="T66"/>
+      <c r="U66"/>
+      <c r="V66"/>
+      <c r="W66"/>
+      <c r="X66"/>
+      <c r="Y66"/>
+      <c r="Z66"/>
+      <c r="AA66"/>
+      <c r="AB66"/>
+      <c r="AC66"/>
+      <c r="AD66"/>
+      <c r="AE66"/>
+      <c r="AF66"/>
+      <c r="AG66"/>
+      <c r="AH66"/>
+      <c r="AI66"/>
+      <c r="AJ66"/>
+    </row>
+    <row r="67">
+      <c r="A67" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s">
+        <v>128</v>
+      </c>
+      <c r="B69" t="s">
+        <v>5</v>
+      </c>
+      <c r="C69"/>
+      <c r="D69"/>
+      <c r="E69"/>
+      <c r="F69"/>
+      <c r="G69" t="n">
+        <v>-1.1103330144185515</v>
+      </c>
+      <c r="H69"/>
+      <c r="I69"/>
+      <c r="J69"/>
+      <c r="K69"/>
+      <c r="L69"/>
+      <c r="M69"/>
+      <c r="N69"/>
+      <c r="O69"/>
+      <c r="P69"/>
+      <c r="Q69"/>
+      <c r="R69"/>
+      <c r="S69"/>
+      <c r="T69"/>
+      <c r="U69"/>
+      <c r="V69"/>
+      <c r="W69"/>
+      <c r="X69"/>
+      <c r="Y69"/>
+      <c r="Z69"/>
+      <c r="AA69"/>
+      <c r="AB69"/>
+      <c r="AC69"/>
+      <c r="AD69"/>
+      <c r="AE69"/>
+      <c r="AF69"/>
+      <c r="AG69"/>
+      <c r="AH69"/>
+      <c r="AI69"/>
+      <c r="AJ69"/>
+    </row>
+    <row r="70">
+      <c r="A70" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s">
+        <v>128</v>
+      </c>
+      <c r="B72" t="s">
+        <v>5</v>
+      </c>
+      <c r="C72"/>
+      <c r="D72"/>
+      <c r="E72"/>
+      <c r="F72"/>
+      <c r="G72" t="n">
+        <v>-0.9466109329796413</v>
+      </c>
+      <c r="H72"/>
+      <c r="I72"/>
+      <c r="J72"/>
+      <c r="K72"/>
+      <c r="L72"/>
+      <c r="M72"/>
+      <c r="N72"/>
+      <c r="O72"/>
+      <c r="P72"/>
+      <c r="Q72"/>
+      <c r="R72"/>
+      <c r="S72"/>
+      <c r="T72"/>
+      <c r="U72"/>
+      <c r="V72"/>
+      <c r="W72"/>
+      <c r="X72"/>
+      <c r="Y72"/>
+      <c r="Z72"/>
+      <c r="AA72"/>
+      <c r="AB72"/>
+      <c r="AC72"/>
+      <c r="AD72"/>
+      <c r="AE72"/>
+      <c r="AF72"/>
+      <c r="AG72"/>
+      <c r="AH72"/>
+      <c r="AI72"/>
+      <c r="AJ72"/>
+    </row>
+    <row r="73">
+      <c r="A73" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s">
+        <v>125</v>
+      </c>
+      <c r="B76" t="s">
+        <v>5</v>
+      </c>
+      <c r="C76"/>
+      <c r="D76"/>
+      <c r="E76"/>
+      <c r="F76"/>
+      <c r="G76"/>
+      <c r="H76" t="n">
+        <v>2.1279330606562032</v>
+      </c>
+      <c r="I76"/>
+      <c r="J76"/>
+      <c r="K76"/>
+      <c r="L76"/>
+      <c r="M76"/>
+      <c r="N76"/>
+      <c r="O76"/>
+      <c r="P76"/>
+      <c r="Q76"/>
+      <c r="R76"/>
+      <c r="S76"/>
+      <c r="T76"/>
+      <c r="U76"/>
+      <c r="V76"/>
+      <c r="W76"/>
+      <c r="X76"/>
+      <c r="Y76"/>
+      <c r="Z76"/>
+      <c r="AA76"/>
+      <c r="AB76"/>
+      <c r="AC76"/>
+      <c r="AD76"/>
+      <c r="AE76"/>
+      <c r="AF76"/>
+      <c r="AG76"/>
+      <c r="AH76"/>
+      <c r="AI76"/>
+      <c r="AJ76"/>
+    </row>
+    <row r="77">
+      <c r="A77" t="s">
+        <v>126</v>
+      </c>
+      <c r="B77" t="s">
+        <v>5</v>
+      </c>
+      <c r="C77"/>
+      <c r="D77"/>
+      <c r="E77"/>
+      <c r="F77"/>
+      <c r="G77"/>
+      <c r="H77" t="n">
+        <v>0.23765196460134763</v>
+      </c>
+      <c r="I77"/>
+      <c r="J77"/>
+      <c r="K77"/>
+      <c r="L77"/>
+      <c r="M77"/>
+      <c r="N77"/>
+      <c r="O77"/>
+      <c r="P77"/>
+      <c r="Q77"/>
+      <c r="R77"/>
+      <c r="S77"/>
+      <c r="T77"/>
+      <c r="U77"/>
+      <c r="V77"/>
+      <c r="W77"/>
+      <c r="X77"/>
+      <c r="Y77"/>
+      <c r="Z77"/>
+      <c r="AA77"/>
+      <c r="AB77"/>
+      <c r="AC77"/>
+      <c r="AD77"/>
+      <c r="AE77"/>
+      <c r="AF77"/>
+      <c r="AG77"/>
+      <c r="AH77"/>
+      <c r="AI77"/>
+      <c r="AJ77"/>
+    </row>
+    <row r="78">
+      <c r="A78" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="s">
+        <v>128</v>
+      </c>
+      <c r="B80" t="s">
+        <v>5</v>
+      </c>
+      <c r="C80"/>
+      <c r="D80"/>
+      <c r="E80"/>
+      <c r="F80"/>
+      <c r="G80"/>
+      <c r="H80" t="n">
+        <v>-1.3137859642536727</v>
+      </c>
+      <c r="I80"/>
+      <c r="J80"/>
+      <c r="K80"/>
+      <c r="L80"/>
+      <c r="M80"/>
+      <c r="N80"/>
+      <c r="O80"/>
+      <c r="P80"/>
+      <c r="Q80"/>
+      <c r="R80"/>
+      <c r="S80"/>
+      <c r="T80"/>
+      <c r="U80"/>
+      <c r="V80"/>
+      <c r="W80"/>
+      <c r="X80"/>
+      <c r="Y80"/>
+      <c r="Z80"/>
+      <c r="AA80"/>
+      <c r="AB80"/>
+      <c r="AC80"/>
+      <c r="AD80"/>
+      <c r="AE80"/>
+      <c r="AF80"/>
+      <c r="AG80"/>
+      <c r="AH80"/>
+      <c r="AI80"/>
+      <c r="AJ80"/>
+    </row>
+    <row r="81">
+      <c r="A81" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="s">
+        <v>128</v>
+      </c>
+      <c r="B83" t="s">
+        <v>5</v>
+      </c>
+      <c r="C83"/>
+      <c r="D83"/>
+      <c r="E83"/>
+      <c r="F83"/>
+      <c r="G83"/>
+      <c r="H83" t="n">
+        <v>-1.109133362455033</v>
+      </c>
+      <c r="I83"/>
+      <c r="J83"/>
+      <c r="K83"/>
+      <c r="L83"/>
+      <c r="M83"/>
+      <c r="N83"/>
+      <c r="O83"/>
+      <c r="P83"/>
+      <c r="Q83"/>
+      <c r="R83"/>
+      <c r="S83"/>
+      <c r="T83"/>
+      <c r="U83"/>
+      <c r="V83"/>
+      <c r="W83"/>
+      <c r="X83"/>
+      <c r="Y83"/>
+      <c r="Z83"/>
+      <c r="AA83"/>
+      <c r="AB83"/>
+      <c r="AC83"/>
+      <c r="AD83"/>
+      <c r="AE83"/>
+      <c r="AF83"/>
+      <c r="AG83"/>
+      <c r="AH83"/>
+      <c r="AI83"/>
+      <c r="AJ83"/>
+    </row>
+    <row r="84">
+      <c r="A84" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="s">
+        <v>128</v>
+      </c>
+      <c r="B86" t="s">
+        <v>5</v>
+      </c>
+      <c r="C86"/>
+      <c r="D86"/>
+      <c r="E86"/>
+      <c r="F86"/>
+      <c r="G86"/>
+      <c r="H86" t="n">
+        <v>-0.9454112810161228</v>
+      </c>
+      <c r="I86"/>
+      <c r="J86"/>
+      <c r="K86"/>
+      <c r="L86"/>
+      <c r="M86"/>
+      <c r="N86"/>
+      <c r="O86"/>
+      <c r="P86"/>
+      <c r="Q86"/>
+      <c r="R86"/>
+      <c r="S86"/>
+      <c r="T86"/>
+      <c r="U86"/>
+      <c r="V86"/>
+      <c r="W86"/>
+      <c r="X86"/>
+      <c r="Y86"/>
+      <c r="Z86"/>
+      <c r="AA86"/>
+      <c r="AB86"/>
+      <c r="AC86"/>
+      <c r="AD86"/>
+      <c r="AE86"/>
+      <c r="AF86"/>
+      <c r="AG86"/>
+      <c r="AH86"/>
+      <c r="AI86"/>
+      <c r="AJ86"/>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
 </file>
--- a/JPADSandBox_v2/out/ATR-72/AERODYNAMIC_AND_STABILITY_CRUISE/Aerodynamic_and_Stability_CRUISE.xlsx
+++ b/JPADSandBox_v2/out/ATR-72/AERODYNAMIC_AND_STABILITY_CRUISE/Aerodynamic_and_Stability_CRUISE.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="997" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="978" uniqueCount="135">
   <si>
     <t>Description</t>
   </si>
@@ -374,7 +374,7 @@
     <t>Alpha body</t>
   </si>
   <si>
-    <t>CONSTANT</t>
+    <t>LINEAR</t>
   </si>
   <si>
     <t>Downwash gradient (SLINGERLAND)</t>
@@ -392,7 +392,7 @@
     <t>NON LINEAR</t>
   </si>
   <si>
-    <t>Delta_elevator = 0.0 deg</t>
+    <t>Delta elevator = -5.0 deg</t>
   </si>
   <si>
     <t>CL total</t>
@@ -413,19 +413,16 @@
     <t>Xcg = 33.0 %</t>
   </si>
   <si>
-    <t>Delta_elevator = -5.0 deg</t>
+    <t>Delta elevator = -10.0 deg</t>
   </si>
   <si>
-    <t>Delta_elevator = -10.0 deg</t>
+    <t>Delta elevator = -15.0 deg</t>
   </si>
   <si>
-    <t>Delta_elevator = -15.0 deg</t>
+    <t>Delta elevator = -20.0 deg</t>
   </si>
   <si>
-    <t>Delta_elevator = -20.0 deg</t>
-  </si>
-  <si>
-    <t>Delta_elevator = -25.0 deg</t>
+    <t>Delta elevator = -25.0 deg</t>
   </si>
 </sst>
 </file>
@@ -34196,7 +34193,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="45"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="55"/>
   <cols>
     <col min="2" max="2" width="8.0" customWidth="true"/>
     <col min="3" max="3" width="15.0" customWidth="true"/>
@@ -35175,12 +35172,12 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s">
+      <c r="A4" s="2" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="s">
+      <c r="A5" t="s">
         <v>5</v>
       </c>
     </row>
@@ -35192,41 +35189,107 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>2.1279330606562032</v>
-      </c>
-      <c r="D6"/>
-      <c r="E6"/>
-      <c r="F6"/>
-      <c r="G6"/>
-      <c r="H6"/>
-      <c r="I6"/>
-      <c r="J6"/>
-      <c r="K6"/>
-      <c r="L6"/>
-      <c r="M6"/>
-      <c r="N6"/>
-      <c r="O6"/>
-      <c r="P6"/>
-      <c r="Q6"/>
-      <c r="R6"/>
-      <c r="S6"/>
-      <c r="T6"/>
-      <c r="U6"/>
-      <c r="V6"/>
-      <c r="W6"/>
-      <c r="X6"/>
-      <c r="Y6"/>
-      <c r="Z6"/>
-      <c r="AA6"/>
-      <c r="AB6"/>
-      <c r="AC6"/>
-      <c r="AD6"/>
-      <c r="AE6"/>
-      <c r="AF6"/>
-      <c r="AG6"/>
-      <c r="AH6"/>
-      <c r="AI6"/>
-      <c r="AJ6"/>
+        <v>-0.25822555558609545</v>
+      </c>
+      <c r="D6" t="n">
+        <v>-0.17624212974219086</v>
+      </c>
+      <c r="E6" t="n">
+        <v>-0.09425870389828633</v>
+      </c>
+      <c r="F6" t="n">
+        <v>-0.012275278054381812</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.06970814778952272</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.15169157363342725</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.2336749994773318</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.3156584253212363</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.39764185116514084</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0.4796252770090454</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0.56160870285295</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0.6435921286968546</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0.7255755545407592</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0.8075589803846637</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0.8895424062285683</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0.9715258320724728</v>
+      </c>
+      <c r="S6" t="n">
+        <v>1.0535092579163774</v>
+      </c>
+      <c r="T6" t="n">
+        <v>1.135492683760282</v>
+      </c>
+      <c r="U6" t="n">
+        <v>1.2174791887380318</v>
+      </c>
+      <c r="V6" t="n">
+        <v>1.299575271729088</v>
+      </c>
+      <c r="W6" t="n">
+        <v>1.3819580096034845</v>
+      </c>
+      <c r="X6" t="n">
+        <v>1.464702003805689</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>1.5477685736688123</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>1.631004988411515</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>1.7117483382456982</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>1.781167633837226</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>1.8330460153187187</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>1.8656544451984984</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>1.881751708360643</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>1.8885844120647777</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>1.8978869859463923</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>1.9258816820165021</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>1.9932785746618114</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>2.125275560644947</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
@@ -35236,41 +35299,107 @@
         <v>5</v>
       </c>
       <c r="C7" t="n">
-        <v>0.23580177942190442</v>
-      </c>
-      <c r="D7"/>
-      <c r="E7"/>
-      <c r="F7"/>
-      <c r="G7"/>
-      <c r="H7"/>
-      <c r="I7"/>
-      <c r="J7"/>
-      <c r="K7"/>
-      <c r="L7"/>
-      <c r="M7"/>
-      <c r="N7"/>
-      <c r="O7"/>
-      <c r="P7"/>
-      <c r="Q7"/>
-      <c r="R7"/>
-      <c r="S7"/>
-      <c r="T7"/>
-      <c r="U7"/>
-      <c r="V7"/>
-      <c r="W7"/>
-      <c r="X7"/>
-      <c r="Y7"/>
-      <c r="Z7"/>
-      <c r="AA7"/>
-      <c r="AB7"/>
-      <c r="AC7"/>
-      <c r="AD7"/>
-      <c r="AE7"/>
-      <c r="AF7"/>
-      <c r="AG7"/>
-      <c r="AH7"/>
-      <c r="AI7"/>
-      <c r="AJ7"/>
+        <v>0.04181854803610063</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.03877114676452681</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.035149602171193416</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.032187674693049166</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.029775044416883403</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.028083829444735038</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.027282845491576627</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.027101586491643136</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0.02757344944116517</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0.029134498942457676</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0.031367137165368666</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0.034289354242445655</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0.0382420963386501</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0.04303508142688414</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>0.04856689436799548</v>
+      </c>
+      <c r="R7" t="n">
+        <v>0.055024841424400533</v>
+      </c>
+      <c r="S7" t="n">
+        <v>0.06250734124192786</v>
+      </c>
+      <c r="T7" t="n">
+        <v>0.07077492364716137</v>
+      </c>
+      <c r="U7" t="n">
+        <v>0.07986948411149433</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0.09017148874331482</v>
+      </c>
+      <c r="W7" t="n">
+        <v>0.10131003488227065</v>
+      </c>
+      <c r="X7" t="n">
+        <v>0.11329839989783642</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>0.12642299873501503</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>0.14045489833215524</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>0.15537970223046235</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>0.17139405109646044</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>0.18494056983899904</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>0.1956209545272052</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>0.20275091550454688</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>0.20908483036337222</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>0.21550661883762273</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>0.2220758616434309</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>0.22881074473406635</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>0.23587426090316096</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
@@ -35290,41 +35419,107 @@
         <v>5</v>
       </c>
       <c r="C10" t="n">
-        <v>-1.317110713981138</v>
-      </c>
-      <c r="D10"/>
-      <c r="E10"/>
-      <c r="F10"/>
-      <c r="G10"/>
-      <c r="H10"/>
-      <c r="I10"/>
-      <c r="J10"/>
-      <c r="K10"/>
-      <c r="L10"/>
-      <c r="M10"/>
-      <c r="N10"/>
-      <c r="O10"/>
-      <c r="P10"/>
-      <c r="Q10"/>
-      <c r="R10"/>
-      <c r="S10"/>
-      <c r="T10"/>
-      <c r="U10"/>
-      <c r="V10"/>
-      <c r="W10"/>
-      <c r="X10"/>
-      <c r="Y10"/>
-      <c r="Z10"/>
-      <c r="AA10"/>
-      <c r="AB10"/>
-      <c r="AC10"/>
-      <c r="AD10"/>
-      <c r="AE10"/>
-      <c r="AF10"/>
-      <c r="AG10"/>
-      <c r="AH10"/>
-      <c r="AI10"/>
-      <c r="AJ10"/>
+        <v>0.019046610189771607</v>
+      </c>
+      <c r="D10" t="n">
+        <v>-0.04518599359849379</v>
+      </c>
+      <c r="E10" t="n">
+        <v>-0.10938013206220071</v>
+      </c>
+      <c r="F10" t="n">
+        <v>-0.17353128545592134</v>
+      </c>
+      <c r="G10" t="n">
+        <v>-0.2376469222351753</v>
+      </c>
+      <c r="H10" t="n">
+        <v>-0.3013532142948492</v>
+      </c>
+      <c r="I10" t="n">
+        <v>-0.34563036395638846</v>
+      </c>
+      <c r="J10" t="n">
+        <v>-0.3892542153366424</v>
+      </c>
+      <c r="K10" t="n">
+        <v>-0.432912341205487</v>
+      </c>
+      <c r="L10" t="n">
+        <v>-0.47661282030973096</v>
+      </c>
+      <c r="M10" t="n">
+        <v>-0.5203661253398457</v>
+      </c>
+      <c r="N10" t="n">
+        <v>-0.5641806323481622</v>
+      </c>
+      <c r="O10" t="n">
+        <v>-0.6080645754940914</v>
+      </c>
+      <c r="P10" t="n">
+        <v>-0.6520257184272797</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>-0.696069211771414</v>
+      </c>
+      <c r="R10" t="n">
+        <v>-0.7402047298769785</v>
+      </c>
+      <c r="S10" t="n">
+        <v>-0.784440972909223</v>
+      </c>
+      <c r="T10" t="n">
+        <v>-0.8287828117814316</v>
+      </c>
+      <c r="U10" t="n">
+        <v>-0.8732564155417297</v>
+      </c>
+      <c r="V10" t="n">
+        <v>-0.9185437909359849</v>
+      </c>
+      <c r="W10" t="n">
+        <v>-0.96670772773049</v>
+      </c>
+      <c r="X10" t="n">
+        <v>-1.028743214501821</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>-1.1276145676879308</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>-1.2699268239310473</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>-1.4303937073663784</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>-1.518820674626278</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>-1.5747188208041043</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>-1.528236659382138</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>-1.5189963098697368</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>-1.5339130057293748</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>-1.5247547360133347</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>-1.4862794586346866</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>-1.4132270123204091</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>-1.2999931370993876</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
@@ -35344,41 +35539,107 @@
         <v>5</v>
       </c>
       <c r="C13" t="n">
-        <v>-1.1124581121824981</v>
-      </c>
-      <c r="D13"/>
-      <c r="E13"/>
-      <c r="F13"/>
-      <c r="G13"/>
-      <c r="H13"/>
-      <c r="I13"/>
-      <c r="J13"/>
-      <c r="K13"/>
-      <c r="L13"/>
-      <c r="M13"/>
-      <c r="N13"/>
-      <c r="O13"/>
-      <c r="P13"/>
-      <c r="Q13"/>
-      <c r="R13"/>
-      <c r="S13"/>
-      <c r="T13"/>
-      <c r="U13"/>
-      <c r="V13"/>
-      <c r="W13"/>
-      <c r="X13"/>
-      <c r="Y13"/>
-      <c r="Z13"/>
-      <c r="AA13"/>
-      <c r="AB13"/>
-      <c r="AC13"/>
-      <c r="AD13"/>
-      <c r="AE13"/>
-      <c r="AF13"/>
-      <c r="AG13"/>
-      <c r="AH13"/>
-      <c r="AI13"/>
-      <c r="AJ13"/>
+        <v>-0.006960930812886512</v>
+      </c>
+      <c r="D13" t="n">
+        <v>-0.06304243810100985</v>
+      </c>
+      <c r="E13" t="n">
+        <v>-0.11904763612826638</v>
+      </c>
+      <c r="F13" t="n">
+        <v>-0.17499522873118478</v>
+      </c>
+      <c r="G13" t="n">
+        <v>-0.23089370189642427</v>
+      </c>
+      <c r="H13" t="n">
+        <v>-0.28637371701433406</v>
+      </c>
+      <c r="I13" t="n">
+        <v>-0.3224189607382103</v>
+      </c>
+      <c r="J13" t="n">
+        <v>-0.35780547028654697</v>
+      </c>
+      <c r="K13" t="n">
+        <v>-0.39322411713343397</v>
+      </c>
+      <c r="L13" t="n">
+        <v>-0.4286868896279905</v>
+      </c>
+      <c r="M13" t="n">
+        <v>-0.4642052550545501</v>
+      </c>
+      <c r="N13" t="n">
+        <v>-0.49979085478052054</v>
+      </c>
+      <c r="O13" t="n">
+        <v>-0.53545404356239</v>
+      </c>
+      <c r="P13" t="n">
+        <v>-0.5712052114698574</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>-0.6070529514976089</v>
+      </c>
+      <c r="R13" t="n">
+        <v>-0.6430086639678381</v>
+      </c>
+      <c r="S13" t="n">
+        <v>-0.6790825059855566</v>
+      </c>
+      <c r="T13" t="n">
+        <v>-0.7152843486490075</v>
+      </c>
+      <c r="U13" t="n">
+        <v>-0.7516429047351633</v>
+      </c>
+      <c r="V13" t="n">
+        <v>-0.7888269041878219</v>
+      </c>
+      <c r="W13" t="n">
+        <v>-0.8288893408995863</v>
+      </c>
+      <c r="X13" t="n">
+        <v>-0.8828209891504886</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>-0.973587001965258</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>-1.107813534522447</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>-1.2604789070651374</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>-1.342238300481436</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>-1.3932877636832766</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>-1.343950406285627</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>-1.3336028575459022</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>-1.348388263135543</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>-1.338943569196534</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>-1.2985311978493312</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>-1.220026743105731</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>-1.0956062853018733</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
@@ -35398,41 +35659,107 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>-0.9487360307435881</v>
-      </c>
-      <c r="D16"/>
-      <c r="E16"/>
-      <c r="F16"/>
-      <c r="G16"/>
-      <c r="H16"/>
-      <c r="I16"/>
-      <c r="J16"/>
-      <c r="K16"/>
-      <c r="L16"/>
-      <c r="M16"/>
-      <c r="N16"/>
-      <c r="O16"/>
-      <c r="P16"/>
-      <c r="Q16"/>
-      <c r="R16"/>
-      <c r="S16"/>
-      <c r="T16"/>
-      <c r="U16"/>
-      <c r="V16"/>
-      <c r="W16"/>
-      <c r="X16"/>
-      <c r="Y16"/>
-      <c r="Z16"/>
-      <c r="AA16"/>
-      <c r="AB16"/>
-      <c r="AC16"/>
-      <c r="AD16"/>
-      <c r="AE16"/>
-      <c r="AF16"/>
-      <c r="AG16"/>
-      <c r="AH16"/>
-      <c r="AI16"/>
-      <c r="AJ16"/>
+        <v>-0.027766963615012963</v>
+      </c>
+      <c r="D16" t="n">
+        <v>-0.07732759370302256</v>
+      </c>
+      <c r="E16" t="n">
+        <v>-0.12678163938111878</v>
+      </c>
+      <c r="F16" t="n">
+        <v>-0.1761663833513955</v>
+      </c>
+      <c r="G16" t="n">
+        <v>-0.22549112562542356</v>
+      </c>
+      <c r="H16" t="n">
+        <v>-0.27439011918992207</v>
+      </c>
+      <c r="I16" t="n">
+        <v>-0.30384983816366795</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-0.33264647424647087</v>
+      </c>
+      <c r="K16" t="n">
+        <v>-0.36147353787579195</v>
+      </c>
+      <c r="L16" t="n">
+        <v>-0.3903461450825985</v>
+      </c>
+      <c r="M16" t="n">
+        <v>-0.41927655882631426</v>
+      </c>
+      <c r="N16" t="n">
+        <v>-0.44827903272640784</v>
+      </c>
+      <c r="O16" t="n">
+        <v>-0.4773656180170295</v>
+      </c>
+      <c r="P16" t="n">
+        <v>-0.5065488059039203</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>-0.5358399432785653</v>
+      </c>
+      <c r="R16" t="n">
+        <v>-0.5652518112405265</v>
+      </c>
+      <c r="S16" t="n">
+        <v>-0.5947957324466244</v>
+      </c>
+      <c r="T16" t="n">
+        <v>-0.6244855781430693</v>
+      </c>
+      <c r="U16" t="n">
+        <v>-0.6543520960899111</v>
+      </c>
+      <c r="V16" t="n">
+        <v>-0.6850533947892925</v>
+      </c>
+      <c r="W16" t="n">
+        <v>-0.7186346314348646</v>
+      </c>
+      <c r="X16" t="n">
+        <v>-0.7660832088694236</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>-0.850364949387121</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>-0.9781229029955676</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>-1.1245470668241462</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>-1.2009724011655636</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>-1.2481429179866157</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>-1.1965214038084198</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>-1.185288095686836</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>-1.1999684690604795</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>-1.1902946357430948</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>-1.1483325892210487</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>-1.06546652773399</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>-0.932096803863864</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
@@ -35440,12 +35767,12 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="s">
+      <c r="A18" s="2" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="2" t="s">
+      <c r="A19" t="s">
         <v>5</v>
       </c>
     </row>
@@ -35456,42 +35783,108 @@
       <c r="B20" t="s">
         <v>5</v>
       </c>
-      <c r="C20"/>
+      <c r="C20" t="n">
+        <v>-0.29381042841264404</v>
+      </c>
       <c r="D20" t="n">
-        <v>2.1279330606562032</v>
-      </c>
-      <c r="E20"/>
-      <c r="F20"/>
-      <c r="G20"/>
-      <c r="H20"/>
-      <c r="I20"/>
-      <c r="J20"/>
-      <c r="K20"/>
-      <c r="L20"/>
-      <c r="M20"/>
-      <c r="N20"/>
-      <c r="O20"/>
-      <c r="P20"/>
-      <c r="Q20"/>
-      <c r="R20"/>
-      <c r="S20"/>
-      <c r="T20"/>
-      <c r="U20"/>
-      <c r="V20"/>
-      <c r="W20"/>
-      <c r="X20"/>
-      <c r="Y20"/>
-      <c r="Z20"/>
-      <c r="AA20"/>
-      <c r="AB20"/>
-      <c r="AC20"/>
-      <c r="AD20"/>
-      <c r="AE20"/>
-      <c r="AF20"/>
-      <c r="AG20"/>
-      <c r="AH20"/>
-      <c r="AI20"/>
-      <c r="AJ20"/>
+        <v>-0.21075511390952173</v>
+      </c>
+      <c r="E20" t="n">
+        <v>-0.12769979940639942</v>
+      </c>
+      <c r="F20" t="n">
+        <v>-0.0446444849032771</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.03841082959984522</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0.12146614410296754</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0.2045214586060899</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0.28757677310921215</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0.3706320876123345</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0.45368740211545683</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0.5367427166185792</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0.6197980311217015</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0.7028533456248239</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0.7859086601279462</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>0.8689639746310687</v>
+      </c>
+      <c r="R20" t="n">
+        <v>0.9520192891341909</v>
+      </c>
+      <c r="S20" t="n">
+        <v>1.0350746036373133</v>
+      </c>
+      <c r="T20" t="n">
+        <v>1.1181299181404356</v>
+      </c>
+      <c r="U20" t="n">
+        <v>1.201185232643558</v>
+      </c>
+      <c r="V20" t="n">
+        <v>1.2842413326522197</v>
+      </c>
+      <c r="W20" t="n">
+        <v>1.3673962353938929</v>
+      </c>
+      <c r="X20" t="n">
+        <v>1.450873171691921</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>1.5347700279645398</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>1.619029164365748</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>1.701041285892987</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>1.7719875418478734</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>1.8256217348489878</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>1.8601440137408178</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>1.878200873593817</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>1.8868851557041917</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>1.8977360475942275</v>
+      </c>
+      <c r="AH20" t="n">
+        <v>1.926739083011932</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>1.9943261419312222</v>
+      </c>
+      <c r="AJ20" t="n">
+        <v>2.1253754505521414</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
@@ -35500,42 +35893,108 @@
       <c r="B21" t="s">
         <v>5</v>
       </c>
-      <c r="C21"/>
+      <c r="C21" t="n">
+        <v>0.042039807294673215</v>
+      </c>
       <c r="D21" t="n">
-        <v>0.23587426090316096</v>
-      </c>
-      <c r="E21"/>
-      <c r="F21"/>
-      <c r="G21"/>
-      <c r="H21"/>
-      <c r="I21"/>
-      <c r="J21"/>
-      <c r="K21"/>
-      <c r="L21"/>
-      <c r="M21"/>
-      <c r="N21"/>
-      <c r="O21"/>
-      <c r="P21"/>
-      <c r="Q21"/>
-      <c r="R21"/>
-      <c r="S21"/>
-      <c r="T21"/>
-      <c r="U21"/>
-      <c r="V21"/>
-      <c r="W21"/>
-      <c r="X21"/>
-      <c r="Y21"/>
-      <c r="Z21"/>
-      <c r="AA21"/>
-      <c r="AB21"/>
-      <c r="AC21"/>
-      <c r="AD21"/>
-      <c r="AE21"/>
-      <c r="AF21"/>
-      <c r="AG21"/>
-      <c r="AH21"/>
-      <c r="AI21"/>
-      <c r="AJ21"/>
+        <v>0.0389924060230994</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.035370861429766004</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.032408933951621754</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.02999630367545599</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0.028305088703307626</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0.027504104750149215</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0.027322845750215725</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0.027794708699737755</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0.029355758201030265</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0.031588396423941255</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0.03451061350101824</v>
+      </c>
+      <c r="O21" t="n">
+        <v>0.038463355597222686</v>
+      </c>
+      <c r="P21" t="n">
+        <v>0.04325634068545674</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>0.048788153626568076</v>
+      </c>
+      <c r="R21" t="n">
+        <v>0.05524610068297313</v>
+      </c>
+      <c r="S21" t="n">
+        <v>0.06272860050050046</v>
+      </c>
+      <c r="T21" t="n">
+        <v>0.07099618290573396</v>
+      </c>
+      <c r="U21" t="n">
+        <v>0.08009074337006691</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0.0903927480018874</v>
+      </c>
+      <c r="W21" t="n">
+        <v>0.10153129414084325</v>
+      </c>
+      <c r="X21" t="n">
+        <v>0.113519659156409</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>0.1266442579935876</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>0.14067615759072782</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>0.15560096148903493</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>0.17161531035503302</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>0.18516182909757162</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>0.1958422137857778</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>0.20297217476311946</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>0.2093060896219448</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>0.2157278780961953</v>
+      </c>
+      <c r="AH21" t="n">
+        <v>0.2222971209020035</v>
+      </c>
+      <c r="AI21" t="n">
+        <v>0.22903200399263893</v>
+      </c>
+      <c r="AJ21" t="n">
+        <v>0.23609552016173355</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
@@ -35554,42 +36013,108 @@
       <c r="B24" t="s">
         <v>5</v>
       </c>
-      <c r="C24"/>
+      <c r="C24" t="n">
+        <v>0.24026938161101935</v>
+      </c>
       <c r="D24" t="n">
-        <v>-1.3169804660536704</v>
-      </c>
-      <c r="E24"/>
-      <c r="F24"/>
-      <c r="G24"/>
-      <c r="H24"/>
-      <c r="I24"/>
-      <c r="J24"/>
-      <c r="K24"/>
-      <c r="L24"/>
-      <c r="M24"/>
-      <c r="N24"/>
-      <c r="O24"/>
-      <c r="P24"/>
-      <c r="Q24"/>
-      <c r="R24"/>
-      <c r="S24"/>
-      <c r="T24"/>
-      <c r="U24"/>
-      <c r="V24"/>
-      <c r="W24"/>
-      <c r="X24"/>
-      <c r="Y24"/>
-      <c r="Z24"/>
-      <c r="AA24"/>
-      <c r="AB24"/>
-      <c r="AC24"/>
-      <c r="AD24"/>
-      <c r="AE24"/>
-      <c r="AF24"/>
-      <c r="AG24"/>
-      <c r="AH24"/>
-      <c r="AI24"/>
-      <c r="AJ24"/>
+        <v>0.16938507502729971</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.09853923376813872</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.027736377578963856</v>
+      </c>
+      <c r="G24" t="n">
+        <v>-0.04303096199574413</v>
+      </c>
+      <c r="H24" t="n">
+        <v>-0.11338895685087214</v>
+      </c>
+      <c r="I24" t="n">
+        <v>-0.1643178093078656</v>
+      </c>
+      <c r="J24" t="n">
+        <v>-0.21459336348357366</v>
+      </c>
+      <c r="K24" t="n">
+        <v>-0.2649031921478724</v>
+      </c>
+      <c r="L24" t="n">
+        <v>-0.31525537404757065</v>
+      </c>
+      <c r="M24" t="n">
+        <v>-0.36566038187313943</v>
+      </c>
+      <c r="N24" t="n">
+        <v>-0.41612659167690985</v>
+      </c>
+      <c r="O24" t="n">
+        <v>-0.46666223761829345</v>
+      </c>
+      <c r="P24" t="n">
+        <v>-0.5172750833469358</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>-0.5679702794865245</v>
+      </c>
+      <c r="R24" t="n">
+        <v>-0.618757500387543</v>
+      </c>
+      <c r="S24" t="n">
+        <v>-0.6696454462152418</v>
+      </c>
+      <c r="T24" t="n">
+        <v>-0.7206389878829043</v>
+      </c>
+      <c r="U24" t="n">
+        <v>-0.7717451865928628</v>
+      </c>
+      <c r="V24" t="n">
+        <v>-0.8229900351115679</v>
+      </c>
+      <c r="W24" t="n">
+        <v>-0.8759457113857717</v>
+      </c>
+      <c r="X24" t="n">
+        <v>-0.9425295371527342</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>-1.0465533083475396</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>-1.1952121570807903</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>-1.3635525189272562</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>-1.4614551779300964</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>-1.528249172564684</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>-1.4936435756665194</v>
+      </c>
+      <c r="AE24" t="n">
+        <v>-1.4965636820694113</v>
+      </c>
+      <c r="AF24" t="n">
+        <v>-1.5229705165314837</v>
+      </c>
+      <c r="AG24" t="n">
+        <v>-1.5234204753719267</v>
+      </c>
+      <c r="AH24" t="n">
+        <v>-1.491202539741866</v>
+      </c>
+      <c r="AI24" t="n">
+        <v>-1.419330187577632</v>
+      </c>
+      <c r="AJ24" t="n">
+        <v>-1.3002154140886446</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
@@ -35608,42 +36133,108 @@
       <c r="B27" t="s">
         <v>5</v>
       </c>
-      <c r="C27"/>
+      <c r="C27" t="n">
+        <v>0.21070335332570633</v>
+      </c>
       <c r="D27" t="n">
-        <v>-1.1123278642550307</v>
-      </c>
-      <c r="E27"/>
-      <c r="F27"/>
-      <c r="G27"/>
-      <c r="H27"/>
-      <c r="I27"/>
-      <c r="J27"/>
-      <c r="K27"/>
-      <c r="L27"/>
-      <c r="M27"/>
-      <c r="N27"/>
-      <c r="O27"/>
-      <c r="P27"/>
-      <c r="Q27"/>
-      <c r="R27"/>
-      <c r="S27"/>
-      <c r="T27"/>
-      <c r="U27"/>
-      <c r="V27"/>
-      <c r="W27"/>
-      <c r="X27"/>
-      <c r="Y27"/>
-      <c r="Z27"/>
-      <c r="AA27"/>
-      <c r="AB27"/>
-      <c r="AC27"/>
-      <c r="AD27"/>
-      <c r="AE27"/>
-      <c r="AF27"/>
-      <c r="AG27"/>
-      <c r="AH27"/>
-      <c r="AI27"/>
-      <c r="AJ27"/>
+        <v>0.14807733210805074</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0.08552762015126175</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0.0230355136188109</v>
+      </c>
+      <c r="G27" t="n">
+        <v>-0.039407473475960825</v>
+      </c>
+      <c r="H27" t="n">
+        <v>-0.10143200252340304</v>
+      </c>
+      <c r="I27" t="n">
+        <v>-0.14402176017681165</v>
+      </c>
+      <c r="J27" t="n">
+        <v>-0.18595278365468063</v>
+      </c>
+      <c r="K27" t="n">
+        <v>-0.22791594443110003</v>
+      </c>
+      <c r="L27" t="n">
+        <v>-0.269923230855189</v>
+      </c>
+      <c r="M27" t="n">
+        <v>-0.3119861102112809</v>
+      </c>
+      <c r="N27" t="n">
+        <v>-0.3541162238667837</v>
+      </c>
+      <c r="O27" t="n">
+        <v>-0.3963239265781855</v>
+      </c>
+      <c r="P27" t="n">
+        <v>-0.4386196084151853</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>-0.4810118623724692</v>
+      </c>
+      <c r="R27" t="n">
+        <v>-0.5235120887722307</v>
+      </c>
+      <c r="S27" t="n">
+        <v>-0.5661304447194817</v>
+      </c>
+      <c r="T27" t="n">
+        <v>-0.6088768013124647</v>
+      </c>
+      <c r="U27" t="n">
+        <v>-0.6517610713957439</v>
+      </c>
+      <c r="V27" t="n">
+        <v>-0.6948065422710917</v>
+      </c>
+      <c r="W27" t="n">
+        <v>-0.7395835019758272</v>
+      </c>
+      <c r="X27" t="n">
+        <v>-0.7979901950127781</v>
+      </c>
+      <c r="Y27" t="n">
+        <v>-0.8938255971952941</v>
+      </c>
+      <c r="Z27" t="n">
+        <v>-1.0342964500767664</v>
+      </c>
+      <c r="AA27" t="n">
+        <v>-1.1947084238612864</v>
+      </c>
+      <c r="AB27" t="n">
+        <v>-1.2857908129841897</v>
+      </c>
+      <c r="AC27" t="n">
+        <v>-1.3475605434908293</v>
+      </c>
+      <c r="AD27" t="n">
+        <v>-1.3099083657157764</v>
+      </c>
+      <c r="AE27" t="n">
+        <v>-1.3115253132222593</v>
+      </c>
+      <c r="AF27" t="n">
+        <v>-1.3376156995737105</v>
+      </c>
+      <c r="AG27" t="n">
+        <v>-1.3376244023903423</v>
+      </c>
+      <c r="AH27" t="n">
+        <v>-1.303368538856968</v>
+      </c>
+      <c r="AI27" t="n">
+        <v>-1.2260251616360134</v>
+      </c>
+      <c r="AJ27" t="n">
+        <v>-1.095818573300411</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
@@ -35662,42 +36253,108 @@
       <c r="B30" t="s">
         <v>5</v>
       </c>
-      <c r="C30"/>
+      <c r="C30" t="n">
+        <v>0.18705053069745597</v>
+      </c>
       <c r="D30" t="n">
-        <v>-0.9486057828161205</v>
-      </c>
-      <c r="E30"/>
-      <c r="F30"/>
-      <c r="G30"/>
-      <c r="H30"/>
-      <c r="I30"/>
-      <c r="J30"/>
-      <c r="K30"/>
-      <c r="L30"/>
-      <c r="M30"/>
-      <c r="N30"/>
-      <c r="O30"/>
-      <c r="P30"/>
-      <c r="Q30"/>
-      <c r="R30"/>
-      <c r="S30"/>
-      <c r="T30"/>
-      <c r="U30"/>
-      <c r="V30"/>
-      <c r="W30"/>
-      <c r="X30"/>
-      <c r="Y30"/>
-      <c r="Z30"/>
-      <c r="AA30"/>
-      <c r="AB30"/>
-      <c r="AC30"/>
-      <c r="AD30"/>
-      <c r="AE30"/>
-      <c r="AF30"/>
-      <c r="AG30"/>
-      <c r="AH30"/>
-      <c r="AI30"/>
-      <c r="AJ30"/>
+        <v>0.13103113777265146</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0.0751183292577603</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0.019274822450688567</v>
+      </c>
+      <c r="G30" t="n">
+        <v>-0.03650868266013435</v>
+      </c>
+      <c r="H30" t="n">
+        <v>-0.09186643906142783</v>
+      </c>
+      <c r="I30" t="n">
+        <v>-0.1277849208719687</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-0.16304031979156647</v>
+      </c>
+      <c r="K30" t="n">
+        <v>-0.1983261462576825</v>
+      </c>
+      <c r="L30" t="n">
+        <v>-0.23365751630128404</v>
+      </c>
+      <c r="M30" t="n">
+        <v>-0.26904669288179467</v>
+      </c>
+      <c r="N30" t="n">
+        <v>-0.3045079296186832</v>
+      </c>
+      <c r="O30" t="n">
+        <v>-0.3400532777460996</v>
+      </c>
+      <c r="P30" t="n">
+        <v>-0.3756952284697855</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>-0.4114451286812256</v>
+      </c>
+      <c r="R30" t="n">
+        <v>-0.44731575947998153</v>
+      </c>
+      <c r="S30" t="n">
+        <v>-0.48331844352287456</v>
+      </c>
+      <c r="T30" t="n">
+        <v>-0.5194670520561141</v>
+      </c>
+      <c r="U30" t="n">
+        <v>-0.5557737792380496</v>
+      </c>
+      <c r="V30" t="n">
+        <v>-0.5922597479987115</v>
+      </c>
+      <c r="W30" t="n">
+        <v>-0.6304937344478729</v>
+      </c>
+      <c r="X30" t="n">
+        <v>-0.6823587213008149</v>
+      </c>
+      <c r="Y30" t="n">
+        <v>-0.7716434282734992</v>
+      </c>
+      <c r="Z30" t="n">
+        <v>-0.9055638844735487</v>
+      </c>
+      <c r="AA30" t="n">
+        <v>-1.059633147808512</v>
+      </c>
+      <c r="AB30" t="n">
+        <v>-1.1452593210274657</v>
+      </c>
+      <c r="AC30" t="n">
+        <v>-1.203009640231747</v>
+      </c>
+      <c r="AD30" t="n">
+        <v>-1.1629201977551837</v>
+      </c>
+      <c r="AE30" t="n">
+        <v>-1.163494618144539</v>
+      </c>
+      <c r="AF30" t="n">
+        <v>-1.1893318460074935</v>
+      </c>
+      <c r="AG30" t="n">
+        <v>-1.1889875440050766</v>
+      </c>
+      <c r="AH30" t="n">
+        <v>-1.1531013381490507</v>
+      </c>
+      <c r="AI30" t="n">
+        <v>-1.0713811408827194</v>
+      </c>
+      <c r="AJ30" t="n">
+        <v>-0.9323011006698263</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
@@ -35705,12 +36362,12 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="s">
+      <c r="A32" s="2" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="2" t="s">
+      <c r="A33" t="s">
         <v>5</v>
       </c>
     </row>
@@ -35721,42 +36378,108 @@
       <c r="B34" t="s">
         <v>5</v>
       </c>
-      <c r="C34"/>
-      <c r="D34"/>
+      <c r="C34" t="n">
+        <v>-0.32933436272453664</v>
+      </c>
+      <c r="D34" t="n">
+        <v>-0.24521308239598566</v>
+      </c>
       <c r="E34" t="n">
-        <v>2.1279330606562032</v>
-      </c>
-      <c r="F34"/>
-      <c r="G34"/>
-      <c r="H34"/>
-      <c r="I34"/>
-      <c r="J34"/>
-      <c r="K34"/>
-      <c r="L34"/>
-      <c r="M34"/>
-      <c r="N34"/>
-      <c r="O34"/>
-      <c r="P34"/>
-      <c r="Q34"/>
-      <c r="R34"/>
-      <c r="S34"/>
-      <c r="T34"/>
-      <c r="U34"/>
-      <c r="V34"/>
-      <c r="W34"/>
-      <c r="X34"/>
-      <c r="Y34"/>
-      <c r="Z34"/>
-      <c r="AA34"/>
-      <c r="AB34"/>
-      <c r="AC34"/>
-      <c r="AD34"/>
-      <c r="AE34"/>
-      <c r="AF34"/>
-      <c r="AG34"/>
-      <c r="AH34"/>
-      <c r="AI34"/>
-      <c r="AJ34"/>
+        <v>-0.16109180206743468</v>
+      </c>
+      <c r="F34" t="n">
+        <v>-0.07697052173888372</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0.0071507585896672665</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0.09127203891821825</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0.17539331924676926</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0.2595145995753202</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0.3436358799038712</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0.4277571602324222</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0.5118784405609732</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0.5959997208895242</v>
+      </c>
+      <c r="O34" t="n">
+        <v>0.6801210012180753</v>
+      </c>
+      <c r="P34" t="n">
+        <v>0.7642422815466262</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>0.8483635618751773</v>
+      </c>
+      <c r="R34" t="n">
+        <v>0.9324848422037283</v>
+      </c>
+      <c r="S34" t="n">
+        <v>1.0166061225322793</v>
+      </c>
+      <c r="T34" t="n">
+        <v>1.1007274028608303</v>
+      </c>
+      <c r="U34" t="n">
+        <v>1.1848486831893812</v>
+      </c>
+      <c r="V34" t="n">
+        <v>1.2689699635179321</v>
+      </c>
+      <c r="W34" t="n">
+        <v>1.3530918512059138</v>
+      </c>
+      <c r="X34" t="n">
+        <v>1.4373265421870578</v>
+      </c>
+      <c r="Y34" t="n">
+        <v>1.5219428448436014</v>
+      </c>
+      <c r="Z34" t="n">
+        <v>1.607043046529951</v>
+      </c>
+      <c r="AA34" t="n">
+        <v>1.6901244445470538</v>
+      </c>
+      <c r="AB34" t="n">
+        <v>1.7624214456031406</v>
+      </c>
+      <c r="AC34" t="n">
+        <v>1.8176877748265052</v>
+      </c>
+      <c r="AD34" t="n">
+        <v>1.8540701686744492</v>
+      </c>
+      <c r="AE34" t="n">
+        <v>1.8741083749333471</v>
+      </c>
+      <c r="AF34" t="n">
+        <v>1.8847351527184208</v>
+      </c>
+      <c r="AG34" t="n">
+        <v>1.897276272474085</v>
+      </c>
+      <c r="AH34" t="n">
+        <v>1.9274505159735718</v>
+      </c>
+      <c r="AI34" t="n">
+        <v>1.99536967631912</v>
+      </c>
+      <c r="AJ34" t="n">
+        <v>2.125538557942201</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
@@ -35765,42 +36488,108 @@
       <c r="B35" t="s">
         <v>5</v>
       </c>
-      <c r="C35"/>
-      <c r="D35"/>
+      <c r="C35" t="n">
+        <v>0.04240984433056186</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0.039362443058988034</v>
+      </c>
       <c r="E35" t="n">
-        <v>0.23609552016173355</v>
-      </c>
-      <c r="F35"/>
-      <c r="G35"/>
-      <c r="H35"/>
-      <c r="I35"/>
-      <c r="J35"/>
-      <c r="K35"/>
-      <c r="L35"/>
-      <c r="M35"/>
-      <c r="N35"/>
-      <c r="O35"/>
-      <c r="P35"/>
-      <c r="Q35"/>
-      <c r="R35"/>
-      <c r="S35"/>
-      <c r="T35"/>
-      <c r="U35"/>
-      <c r="V35"/>
-      <c r="W35"/>
-      <c r="X35"/>
-      <c r="Y35"/>
-      <c r="Z35"/>
-      <c r="AA35"/>
-      <c r="AB35"/>
-      <c r="AC35"/>
-      <c r="AD35"/>
-      <c r="AE35"/>
-      <c r="AF35"/>
-      <c r="AG35"/>
-      <c r="AH35"/>
-      <c r="AI35"/>
-      <c r="AJ35"/>
+        <v>0.03574089846565464</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0.0327789709875104</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0.03036634071134463</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0.028675125739196262</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0.02787414178603785</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0.027692882786104364</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0.028164745735626395</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0.029725795236918904</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0.0319584334598299</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0.034880650536906886</v>
+      </c>
+      <c r="O35" t="n">
+        <v>0.03883339263311133</v>
+      </c>
+      <c r="P35" t="n">
+        <v>0.043626377721345366</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>0.049158190662456705</v>
+      </c>
+      <c r="R35" t="n">
+        <v>0.05561613771886177</v>
+      </c>
+      <c r="S35" t="n">
+        <v>0.0630986375363891</v>
+      </c>
+      <c r="T35" t="n">
+        <v>0.07136621994162261</v>
+      </c>
+      <c r="U35" t="n">
+        <v>0.08046078040595556</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0.09076278503777604</v>
+      </c>
+      <c r="W35" t="n">
+        <v>0.10190133117673189</v>
+      </c>
+      <c r="X35" t="n">
+        <v>0.11388969619229765</v>
+      </c>
+      <c r="Y35" t="n">
+        <v>0.12701429502947625</v>
+      </c>
+      <c r="Z35" t="n">
+        <v>0.14104619462661647</v>
+      </c>
+      <c r="AA35" t="n">
+        <v>0.15597099852492358</v>
+      </c>
+      <c r="AB35" t="n">
+        <v>0.17198534739092167</v>
+      </c>
+      <c r="AC35" t="n">
+        <v>0.18553186613346026</v>
+      </c>
+      <c r="AD35" t="n">
+        <v>0.19621225082166643</v>
+      </c>
+      <c r="AE35" t="n">
+        <v>0.2033422117990081</v>
+      </c>
+      <c r="AF35" t="n">
+        <v>0.20967612665783344</v>
+      </c>
+      <c r="AG35" t="n">
+        <v>0.21609791513208396</v>
+      </c>
+      <c r="AH35" t="n">
+        <v>0.22266715793789213</v>
+      </c>
+      <c r="AI35" t="n">
+        <v>0.22940204102852757</v>
+      </c>
+      <c r="AJ35" t="n">
+        <v>0.2364655571976222</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
@@ -35819,42 +36608,108 @@
       <c r="B38" t="s">
         <v>5</v>
       </c>
-      <c r="C38"/>
-      <c r="D38"/>
+      <c r="C38" t="n">
+        <v>0.4613813445330111</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0.3838820898388817</v>
+      </c>
       <c r="E38" t="n">
-        <v>-1.31658286711719</v>
-      </c>
-      <c r="F38"/>
-      <c r="G38"/>
-      <c r="H38"/>
-      <c r="I38"/>
-      <c r="J38"/>
-      <c r="K38"/>
-      <c r="L38"/>
-      <c r="M38"/>
-      <c r="N38"/>
-      <c r="O38"/>
-      <c r="P38"/>
-      <c r="Q38"/>
-      <c r="R38"/>
-      <c r="S38"/>
-      <c r="T38"/>
-      <c r="U38"/>
-      <c r="V38"/>
-      <c r="W38"/>
-      <c r="X38"/>
-      <c r="Y38"/>
-      <c r="Z38"/>
-      <c r="AA38"/>
-      <c r="AB38"/>
-      <c r="AC38"/>
-      <c r="AD38"/>
-      <c r="AE38"/>
-      <c r="AF38"/>
-      <c r="AG38"/>
-      <c r="AH38"/>
-      <c r="AI38"/>
-      <c r="AJ38"/>
+        <v>0.3064213004693108</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0.22900349616972637</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0.15162120848460853</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0.07464826551907061</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0.017104464951667314</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-0.03978603733445049</v>
+      </c>
+      <c r="K38" t="n">
+        <v>-0.09671081410915908</v>
+      </c>
+      <c r="L38" t="n">
+        <v>-0.15367794411926713</v>
+      </c>
+      <c r="M38" t="n">
+        <v>-0.2106979000552458</v>
+      </c>
+      <c r="N38" t="n">
+        <v>-0.26777905796942614</v>
+      </c>
+      <c r="O38" t="n">
+        <v>-0.32492965202121954</v>
+      </c>
+      <c r="P38" t="n">
+        <v>-0.3821574458602717</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>-0.43946759011027003</v>
+      </c>
+      <c r="R38" t="n">
+        <v>-0.4968697591216988</v>
+      </c>
+      <c r="S38" t="n">
+        <v>-0.5543726530598074</v>
+      </c>
+      <c r="T38" t="n">
+        <v>-0.6119811428378799</v>
+      </c>
+      <c r="U38" t="n">
+        <v>-0.6697022896582479</v>
+      </c>
+      <c r="V38" t="n">
+        <v>-0.7275572117611243</v>
+      </c>
+      <c r="W38" t="n">
+        <v>-0.7865136012765864</v>
+      </c>
+      <c r="X38" t="n">
+        <v>-0.8577997428117072</v>
+      </c>
+      <c r="Y38" t="n">
+        <v>-0.9662881041315958</v>
+      </c>
+      <c r="Z38" t="n">
+        <v>-1.1201662601690372</v>
+      </c>
+      <c r="AA38" t="n">
+        <v>-1.2951421147558884</v>
+      </c>
+      <c r="AB38" t="n">
+        <v>-1.4014269456273598</v>
+      </c>
+      <c r="AC38" t="n">
+        <v>-1.4783493103857872</v>
+      </c>
+      <c r="AD38" t="n">
+        <v>-1.4552868264285488</v>
+      </c>
+      <c r="AE38" t="n">
+        <v>-1.4705023585862929</v>
+      </c>
+      <c r="AF38" t="n">
+        <v>-1.5089635270488593</v>
+      </c>
+      <c r="AG38" t="n">
+        <v>-1.519902349002155</v>
+      </c>
+      <c r="AH38" t="n">
+        <v>-1.4949524518989088</v>
+      </c>
+      <c r="AI38" t="n">
+        <v>-1.4251409854119492</v>
+      </c>
+      <c r="AJ38" t="n">
+        <v>-1.3005626419221503</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
@@ -35873,42 +36728,108 @@
       <c r="B41" t="s">
         <v>5</v>
       </c>
-      <c r="C41"/>
-      <c r="D41"/>
+      <c r="C41" t="n">
+        <v>0.4282629228165087</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0.3591285500709862</v>
+      </c>
       <c r="E41" t="n">
-        <v>-1.1119302653185503</v>
-      </c>
-      <c r="F41"/>
-      <c r="G41"/>
-      <c r="H41"/>
-      <c r="I41"/>
-      <c r="J41"/>
-      <c r="K41"/>
-      <c r="L41"/>
-      <c r="M41"/>
-      <c r="N41"/>
-      <c r="O41"/>
-      <c r="P41"/>
-      <c r="Q41"/>
-      <c r="R41"/>
-      <c r="S41"/>
-      <c r="T41"/>
-      <c r="U41"/>
-      <c r="V41"/>
-      <c r="W41"/>
-      <c r="X41"/>
-      <c r="Y41"/>
-      <c r="Z41"/>
-      <c r="AA41"/>
-      <c r="AB41"/>
-      <c r="AC41"/>
-      <c r="AD41"/>
-      <c r="AE41"/>
-      <c r="AF41"/>
-      <c r="AG41"/>
-      <c r="AH41"/>
-      <c r="AI41"/>
-      <c r="AJ41"/>
+        <v>0.2900704865863304</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0.22107002852601254</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0.15211868990337385</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0.08358580932806475</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0.03448770014678923</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-0.013951674858946689</v>
+      </c>
+      <c r="K41" t="n">
+        <v>-0.0624231871632331</v>
+      </c>
+      <c r="L41" t="n">
+        <v>-0.11093882511518899</v>
+      </c>
+      <c r="M41" t="n">
+        <v>-0.15951005599914797</v>
+      </c>
+      <c r="N41" t="n">
+        <v>-0.2081485211825177</v>
+      </c>
+      <c r="O41" t="n">
+        <v>-0.2568645754217864</v>
+      </c>
+      <c r="P41" t="n">
+        <v>-0.30566860878665314</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>-0.354569214271804</v>
+      </c>
+      <c r="R41" t="n">
+        <v>-0.4035777921994327</v>
+      </c>
+      <c r="S41" t="n">
+        <v>-0.45270449967455084</v>
+      </c>
+      <c r="T41" t="n">
+        <v>-0.5019592077954008</v>
+      </c>
+      <c r="U41" t="n">
+        <v>-0.5513518294065467</v>
+      </c>
+      <c r="V41" t="n">
+        <v>-0.6009008558340768</v>
+      </c>
+      <c r="W41" t="n">
+        <v>-0.6515818302854397</v>
+      </c>
+      <c r="X41" t="n">
+        <v>-0.7146150636222377</v>
+      </c>
+      <c r="Y41" t="n">
+        <v>-0.8148431112914442</v>
+      </c>
+      <c r="Z41" t="n">
+        <v>-0.9604491649485929</v>
+      </c>
+      <c r="AA41" t="n">
+        <v>-1.127389703824512</v>
+      </c>
+      <c r="AB41" t="n">
+        <v>-1.2267191903059258</v>
+      </c>
+      <c r="AC41" t="n">
+        <v>-1.2984540773141806</v>
+      </c>
+      <c r="AD41" t="n">
+        <v>-1.272159000984443</v>
+      </c>
+      <c r="AE41" t="n">
+        <v>-1.2858732396051877</v>
+      </c>
+      <c r="AF41" t="n">
+        <v>-1.3238237103896633</v>
+      </c>
+      <c r="AG41" t="n">
+        <v>-1.3341522535325843</v>
+      </c>
+      <c r="AH41" t="n">
+        <v>-1.3070473077178466</v>
+      </c>
+      <c r="AI41" t="n">
+        <v>-1.23173160603154</v>
+      </c>
+      <c r="AJ41" t="n">
+        <v>-1.096149490394911</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
@@ -35927,42 +36848,108 @@
       <c r="B44" t="s">
         <v>5</v>
       </c>
-      <c r="C44"/>
-      <c r="D44"/>
+      <c r="C44" t="n">
+        <v>0.401768185443307</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0.33932571825666985</v>
+      </c>
       <c r="E44" t="n">
-        <v>-0.9482081838796401</v>
-      </c>
-      <c r="F44"/>
-      <c r="G44"/>
-      <c r="H44"/>
-      <c r="I44"/>
-      <c r="J44"/>
-      <c r="K44"/>
-      <c r="L44"/>
-      <c r="M44"/>
-      <c r="N44"/>
-      <c r="O44"/>
-      <c r="P44"/>
-      <c r="Q44"/>
-      <c r="R44"/>
-      <c r="S44"/>
-      <c r="T44"/>
-      <c r="U44"/>
-      <c r="V44"/>
-      <c r="W44"/>
-      <c r="X44"/>
-      <c r="Y44"/>
-      <c r="Z44"/>
-      <c r="AA44"/>
-      <c r="AB44"/>
-      <c r="AC44"/>
-      <c r="AD44"/>
-      <c r="AE44"/>
-      <c r="AF44"/>
-      <c r="AG44"/>
-      <c r="AH44"/>
-      <c r="AI44"/>
-      <c r="AJ44"/>
+        <v>0.27698983547994604</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0.21472325441104173</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0.15251667503838623</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0.09073584437525997</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0.04839428830288656</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0.006715815121456109</v>
+      </c>
+      <c r="K44" t="n">
+        <v>-0.034993085606492634</v>
+      </c>
+      <c r="L44" t="n">
+        <v>-0.07674752991192685</v>
+      </c>
+      <c r="M44" t="n">
+        <v>-0.11855978075427015</v>
+      </c>
+      <c r="N44" t="n">
+        <v>-0.16044409175299146</v>
+      </c>
+      <c r="O44" t="n">
+        <v>-0.20241251414224054</v>
+      </c>
+      <c r="P44" t="n">
+        <v>-0.244477539127759</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>-0.28665051360103166</v>
+      </c>
+      <c r="R44" t="n">
+        <v>-0.32894421866162066</v>
+      </c>
+      <c r="S44" t="n">
+        <v>-0.37136997696634655</v>
+      </c>
+      <c r="T44" t="n">
+        <v>-0.4139416597614185</v>
+      </c>
+      <c r="U44" t="n">
+        <v>-0.45667146120518654</v>
+      </c>
+      <c r="V44" t="n">
+        <v>-0.49957577109244</v>
+      </c>
+      <c r="W44" t="n">
+        <v>-0.5436364134925238</v>
+      </c>
+      <c r="X44" t="n">
+        <v>-0.6000673202706635</v>
+      </c>
+      <c r="Y44" t="n">
+        <v>-0.6936871170193242</v>
+      </c>
+      <c r="Z44" t="n">
+        <v>-0.8326754887722392</v>
+      </c>
+      <c r="AA44" t="n">
+        <v>-0.9931877750794122</v>
+      </c>
+      <c r="AB44" t="n">
+        <v>-1.0869529860487805</v>
+      </c>
+      <c r="AC44" t="n">
+        <v>-1.1545378908568973</v>
+      </c>
+      <c r="AD44" t="n">
+        <v>-1.1256567406291595</v>
+      </c>
+      <c r="AE44" t="n">
+        <v>-1.138169944420305</v>
+      </c>
+      <c r="AF44" t="n">
+        <v>-1.1757118570623075</v>
+      </c>
+      <c r="AG44" t="n">
+        <v>-1.18555217715693</v>
+      </c>
+      <c r="AH44" t="n">
+        <v>-1.1567231923729981</v>
+      </c>
+      <c r="AI44" t="n">
+        <v>-1.0770041025272148</v>
+      </c>
+      <c r="AJ44" t="n">
+        <v>-0.9326189691731208</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
@@ -35970,12 +36957,12 @@
       </c>
     </row>
     <row r="46">
-      <c r="A46" t="s">
+      <c r="A46" s="2" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="2" t="s">
+      <c r="A47" t="s">
         <v>5</v>
       </c>
     </row>
@@ -35986,42 +36973,108 @@
       <c r="B48" t="s">
         <v>5</v>
       </c>
-      <c r="C48"/>
-      <c r="D48"/>
-      <c r="E48"/>
+      <c r="C48" t="n">
+        <v>-0.36480213579753723</v>
+      </c>
+      <c r="D48" t="n">
+        <v>-0.27962034815670356</v>
+      </c>
+      <c r="E48" t="n">
+        <v>-0.19443856051586994</v>
+      </c>
       <c r="F48" t="n">
-        <v>2.1279330606562032</v>
-      </c>
-      <c r="G48"/>
-      <c r="H48"/>
-      <c r="I48"/>
-      <c r="J48"/>
-      <c r="K48"/>
-      <c r="L48"/>
-      <c r="M48"/>
-      <c r="N48"/>
-      <c r="O48"/>
-      <c r="P48"/>
-      <c r="Q48"/>
-      <c r="R48"/>
-      <c r="S48"/>
-      <c r="T48"/>
-      <c r="U48"/>
-      <c r="V48"/>
-      <c r="W48"/>
-      <c r="X48"/>
-      <c r="Y48"/>
-      <c r="Z48"/>
-      <c r="AA48"/>
-      <c r="AB48"/>
-      <c r="AC48"/>
-      <c r="AD48"/>
-      <c r="AE48"/>
-      <c r="AF48"/>
-      <c r="AG48"/>
-      <c r="AH48"/>
-      <c r="AI48"/>
-      <c r="AJ48"/>
+        <v>-0.10925677287503632</v>
+      </c>
+      <c r="G48" t="n">
+        <v>-0.024074985234202706</v>
+      </c>
+      <c r="H48" t="n">
+        <v>0.061106802406630925</v>
+      </c>
+      <c r="I48" t="n">
+        <v>0.14628859004746458</v>
+      </c>
+      <c r="J48" t="n">
+        <v>0.23147037768829815</v>
+      </c>
+      <c r="K48" t="n">
+        <v>0.31665216532913176</v>
+      </c>
+      <c r="L48" t="n">
+        <v>0.40183395296996544</v>
+      </c>
+      <c r="M48" t="n">
+        <v>0.48701574061079905</v>
+      </c>
+      <c r="N48" t="n">
+        <v>0.5721975282516327</v>
+      </c>
+      <c r="O48" t="n">
+        <v>0.6573793158924665</v>
+      </c>
+      <c r="P48" t="n">
+        <v>0.7425611035333</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>0.8277428911741337</v>
+      </c>
+      <c r="R48" t="n">
+        <v>0.9129246788149673</v>
+      </c>
+      <c r="S48" t="n">
+        <v>0.998106466455801</v>
+      </c>
+      <c r="T48" t="n">
+        <v>1.0832882540966347</v>
+      </c>
+      <c r="U48" t="n">
+        <v>1.1684700417374683</v>
+      </c>
+      <c r="V48" t="n">
+        <v>1.2536518293783019</v>
+      </c>
+      <c r="W48" t="n">
+        <v>1.3388336170191355</v>
+      </c>
+      <c r="X48" t="n">
+        <v>1.4240173007069168</v>
+      </c>
+      <c r="Y48" t="n">
+        <v>1.50936175553901</v>
+      </c>
+      <c r="Z48" t="n">
+        <v>1.5951772054419302</v>
+      </c>
+      <c r="AA48" t="n">
+        <v>1.6791397631516762</v>
+      </c>
+      <c r="AB48" t="n">
+        <v>1.752594580205257</v>
+      </c>
+      <c r="AC48" t="n">
+        <v>1.8093380559534549</v>
+      </c>
+      <c r="AD48" t="n">
+        <v>1.847491530469796</v>
+      </c>
+      <c r="AE48" t="n">
+        <v>1.8695012845505796</v>
+      </c>
+      <c r="AF48" t="n">
+        <v>1.8821385397147095</v>
+      </c>
+      <c r="AG48" t="n">
+        <v>1.8964994582039492</v>
+      </c>
+      <c r="AH48" t="n">
+        <v>1.9280051429826481</v>
+      </c>
+      <c r="AI48" t="n">
+        <v>1.9964016377378644</v>
+      </c>
+      <c r="AJ48" t="n">
+        <v>2.1257599268796072</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
@@ -36030,42 +37083,108 @@
       <c r="B49" t="s">
         <v>5</v>
       </c>
-      <c r="C49"/>
-      <c r="D49"/>
-      <c r="E49"/>
+      <c r="C49" t="n">
+        <v>0.04292865914376655</v>
+      </c>
+      <c r="D49" t="n">
+        <v>0.039881257872192724</v>
+      </c>
+      <c r="E49" t="n">
+        <v>0.03625971327885933</v>
+      </c>
       <c r="F49" t="n">
-        <v>0.2364655571976222</v>
-      </c>
-      <c r="G49"/>
-      <c r="H49"/>
-      <c r="I49"/>
-      <c r="J49"/>
-      <c r="K49"/>
-      <c r="L49"/>
-      <c r="M49"/>
-      <c r="N49"/>
-      <c r="O49"/>
-      <c r="P49"/>
-      <c r="Q49"/>
-      <c r="R49"/>
-      <c r="S49"/>
-      <c r="T49"/>
-      <c r="U49"/>
-      <c r="V49"/>
-      <c r="W49"/>
-      <c r="X49"/>
-      <c r="Y49"/>
-      <c r="Z49"/>
-      <c r="AA49"/>
-      <c r="AB49"/>
-      <c r="AC49"/>
-      <c r="AD49"/>
-      <c r="AE49"/>
-      <c r="AF49"/>
-      <c r="AG49"/>
-      <c r="AH49"/>
-      <c r="AI49"/>
-      <c r="AJ49"/>
+        <v>0.03329778580071508</v>
+      </c>
+      <c r="G49" t="n">
+        <v>0.030885155524549318</v>
+      </c>
+      <c r="H49" t="n">
+        <v>0.029193940552400953</v>
+      </c>
+      <c r="I49" t="n">
+        <v>0.02839295659924254</v>
+      </c>
+      <c r="J49" t="n">
+        <v>0.02821169759930905</v>
+      </c>
+      <c r="K49" t="n">
+        <v>0.028683560548831085</v>
+      </c>
+      <c r="L49" t="n">
+        <v>0.030244610050123594</v>
+      </c>
+      <c r="M49" t="n">
+        <v>0.03247724827303458</v>
+      </c>
+      <c r="N49" t="n">
+        <v>0.03539946535011158</v>
+      </c>
+      <c r="O49" t="n">
+        <v>0.03935220744631601</v>
+      </c>
+      <c r="P49" t="n">
+        <v>0.04414519253455006</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>0.049677005475661395</v>
+      </c>
+      <c r="R49" t="n">
+        <v>0.05613495253206646</v>
+      </c>
+      <c r="S49" t="n">
+        <v>0.06361745234959378</v>
+      </c>
+      <c r="T49" t="n">
+        <v>0.0718850347548273</v>
+      </c>
+      <c r="U49" t="n">
+        <v>0.08097959521916023</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0.09128159985098074</v>
+      </c>
+      <c r="W49" t="n">
+        <v>0.10242014598993658</v>
+      </c>
+      <c r="X49" t="n">
+        <v>0.11440851100550234</v>
+      </c>
+      <c r="Y49" t="n">
+        <v>0.12753310984268093</v>
+      </c>
+      <c r="Z49" t="n">
+        <v>0.14156500943982114</v>
+      </c>
+      <c r="AA49" t="n">
+        <v>0.15648981333812828</v>
+      </c>
+      <c r="AB49" t="n">
+        <v>0.17250416220412637</v>
+      </c>
+      <c r="AC49" t="n">
+        <v>0.18605068094666496</v>
+      </c>
+      <c r="AD49" t="n">
+        <v>0.19673106563487114</v>
+      </c>
+      <c r="AE49" t="n">
+        <v>0.2038610266122128</v>
+      </c>
+      <c r="AF49" t="n">
+        <v>0.21019494147103815</v>
+      </c>
+      <c r="AG49" t="n">
+        <v>0.21661672994528866</v>
+      </c>
+      <c r="AH49" t="n">
+        <v>0.22318597275109683</v>
+      </c>
+      <c r="AI49" t="n">
+        <v>0.22992085584173227</v>
+      </c>
+      <c r="AJ49" t="n">
+        <v>0.2369843720108269</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
@@ -36084,42 +37203,108 @@
       <c r="B52" t="s">
         <v>5</v>
       </c>
-      <c r="C52"/>
-      <c r="D52"/>
-      <c r="E52"/>
+      <c r="C52" t="n">
+        <v>0.6824121447760296</v>
+      </c>
+      <c r="D52" t="n">
+        <v>0.5983318152724534</v>
+      </c>
+      <c r="E52" t="n">
+        <v>0.5142899510934357</v>
+      </c>
       <c r="F52" t="n">
-        <v>-1.3159179171716968</v>
-      </c>
-      <c r="G52"/>
-      <c r="H52"/>
-      <c r="I52"/>
-      <c r="J52"/>
-      <c r="K52"/>
-      <c r="L52"/>
-      <c r="M52"/>
-      <c r="N52"/>
-      <c r="O52"/>
-      <c r="P52"/>
-      <c r="Q52"/>
-      <c r="R52"/>
-      <c r="S52"/>
-      <c r="T52"/>
-      <c r="U52"/>
-      <c r="V52"/>
-      <c r="W52"/>
-      <c r="X52"/>
-      <c r="Y52"/>
-      <c r="Z52"/>
-      <c r="AA52"/>
-      <c r="AB52"/>
-      <c r="AC52"/>
-      <c r="AD52"/>
-      <c r="AE52"/>
-      <c r="AF52"/>
-      <c r="AG52"/>
-      <c r="AH52"/>
-      <c r="AI52"/>
-      <c r="AJ52"/>
+        <v>0.43029107198440397</v>
+      </c>
+      <c r="G52" t="n">
+        <v>0.34632770948983926</v>
+      </c>
+      <c r="H52" t="n">
+        <v>0.26277369171485454</v>
+      </c>
+      <c r="I52" t="n">
+        <v>0.19864881633800413</v>
+      </c>
+      <c r="J52" t="n">
+        <v>0.13517723924243943</v>
+      </c>
+      <c r="K52" t="n">
+        <v>0.07167138765828401</v>
+      </c>
+      <c r="L52" t="n">
+        <v>0.00812318283872901</v>
+      </c>
+      <c r="M52" t="n">
+        <v>-0.055477847906696486</v>
+      </c>
+      <c r="N52" t="n">
+        <v>-0.11914008063032366</v>
+      </c>
+      <c r="O52" t="n">
+        <v>-0.18287174949156385</v>
+      </c>
+      <c r="P52" t="n">
+        <v>-0.2466806181400629</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>-0.310571837199508</v>
+      </c>
+      <c r="R52" t="n">
+        <v>-0.37455508102038354</v>
+      </c>
+      <c r="S52" t="n">
+        <v>-0.438639049767939</v>
+      </c>
+      <c r="T52" t="n">
+        <v>-0.5028286143554587</v>
+      </c>
+      <c r="U52" t="n">
+        <v>-0.567130835985274</v>
+      </c>
+      <c r="V52" t="n">
+        <v>-0.6315668328975974</v>
+      </c>
+      <c r="W52" t="n">
+        <v>-0.6971005281981887</v>
+      </c>
+      <c r="X52" t="n">
+        <v>-0.7742757304909933</v>
+      </c>
+      <c r="Y52" t="n">
+        <v>-0.8872827065195712</v>
+      </c>
+      <c r="Z52" t="n">
+        <v>-1.0455994005718452</v>
+      </c>
+      <c r="AA52" t="n">
+        <v>-1.2260433719639197</v>
+      </c>
+      <c r="AB52" t="n">
+        <v>-1.339513135562238</v>
+      </c>
+      <c r="AC52" t="n">
+        <v>-1.4256020677472685</v>
+      </c>
+      <c r="AD52" t="n">
+        <v>-1.413530186341557</v>
+      </c>
+      <c r="AE52" t="n">
+        <v>-1.4409803382477522</v>
+      </c>
+      <c r="AF52" t="n">
+        <v>-1.4919177073748777</v>
+      </c>
+      <c r="AG52" t="n">
+        <v>-1.5141494562746363</v>
+      </c>
+      <c r="AH52" t="n">
+        <v>-1.497461939412805</v>
+      </c>
+      <c r="AI52" t="n">
+        <v>-1.430612615122099</v>
+      </c>
+      <c r="AJ52" t="n">
+        <v>-1.30100406609022</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
@@ -36138,42 +37323,108 @@
       <c r="B55" t="s">
         <v>5</v>
       </c>
-      <c r="C55"/>
-      <c r="D55"/>
-      <c r="E55"/>
+      <c r="C55" t="n">
+        <v>0.6457469457522269</v>
+      </c>
+      <c r="D55" t="n">
+        <v>0.5701375489284861</v>
+      </c>
+      <c r="E55" t="n">
+        <v>0.49460446136561154</v>
+      </c>
       <c r="F55" t="n">
-        <v>-1.111265315373057</v>
-      </c>
-      <c r="G55"/>
-      <c r="H55"/>
-      <c r="I55"/>
-      <c r="J55"/>
-      <c r="K55"/>
-      <c r="L55"/>
-      <c r="M55"/>
-      <c r="N55"/>
-      <c r="O55"/>
-      <c r="P55"/>
-      <c r="Q55"/>
-      <c r="R55"/>
-      <c r="S55"/>
-      <c r="T55"/>
-      <c r="U55"/>
-      <c r="V55"/>
-      <c r="W55"/>
-      <c r="X55"/>
-      <c r="Y55"/>
-      <c r="Z55"/>
-      <c r="AA55"/>
-      <c r="AB55"/>
-      <c r="AC55"/>
-      <c r="AD55"/>
-      <c r="AE55"/>
-      <c r="AF55"/>
-      <c r="AG55"/>
-      <c r="AH55"/>
-      <c r="AI55"/>
-      <c r="AJ55"/>
+        <v>0.41912897922707504</v>
+      </c>
+      <c r="G55" t="n">
+        <v>0.3437026165262177</v>
+      </c>
+      <c r="H55" t="n">
+        <v>0.2686947118726899</v>
+      </c>
+      <c r="I55" t="n">
+        <v>0.21312157861319564</v>
+      </c>
+      <c r="J55" t="n">
+        <v>0.15820717952924104</v>
+      </c>
+      <c r="K55" t="n">
+        <v>0.10326064314673608</v>
+      </c>
+      <c r="L55" t="n">
+        <v>0.04826998111656146</v>
+      </c>
+      <c r="M55" t="n">
+        <v>-0.006776273845616064</v>
+      </c>
+      <c r="N55" t="n">
+        <v>-0.06188976310720436</v>
+      </c>
+      <c r="O55" t="n">
+        <v>-0.11708084142469163</v>
+      </c>
+      <c r="P55" t="n">
+        <v>-0.172359898867777</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>-0.22773552843114625</v>
+      </c>
+      <c r="R55" t="n">
+        <v>-0.28321913043699376</v>
+      </c>
+      <c r="S55" t="n">
+        <v>-0.33882086199033035</v>
+      </c>
+      <c r="T55" t="n">
+        <v>-0.3945505941893993</v>
+      </c>
+      <c r="U55" t="n">
+        <v>-0.45041823987876384</v>
+      </c>
+      <c r="V55" t="n">
+        <v>-0.5064422903845129</v>
+      </c>
+      <c r="W55" t="n">
+        <v>-0.5635945806257199</v>
+      </c>
+      <c r="X55" t="n">
+        <v>-0.6324219754495379</v>
+      </c>
+      <c r="Y55" t="n">
+        <v>-0.7370958226098786</v>
+      </c>
+      <c r="Z55" t="n">
+        <v>-0.8870688894602032</v>
+      </c>
+      <c r="AA55" t="n">
+        <v>-1.059389429172081</v>
+      </c>
+      <c r="AB55" t="n">
+        <v>-1.1657880667805929</v>
+      </c>
+      <c r="AC55" t="n">
+        <v>-1.2465418065629668</v>
+      </c>
+      <c r="AD55" t="n">
+        <v>-1.231060224717916</v>
+      </c>
+      <c r="AE55" t="n">
+        <v>-1.256811928304924</v>
+      </c>
+      <c r="AF55" t="n">
+        <v>-1.3070375520160527</v>
+      </c>
+      <c r="AG55" t="n">
+        <v>-1.3284770422320795</v>
+      </c>
+      <c r="AH55" t="n">
+        <v>-1.3095013325308353</v>
+      </c>
+      <c r="AI55" t="n">
+        <v>-1.2371000395998157</v>
+      </c>
+      <c r="AJ55" t="n">
+        <v>-1.0965687776692397</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
@@ -36192,42 +37443,108 @@
       <c r="B58" t="s">
         <v>5</v>
       </c>
-      <c r="C58"/>
-      <c r="D58"/>
-      <c r="E58"/>
+      <c r="C58" t="n">
+        <v>0.6164147865331853</v>
+      </c>
+      <c r="D58" t="n">
+        <v>0.5475821358533122</v>
+      </c>
+      <c r="E58" t="n">
+        <v>0.47885606958335225</v>
+      </c>
       <c r="F58" t="n">
-        <v>-0.947543233934147</v>
-      </c>
-      <c r="G58"/>
-      <c r="H58"/>
-      <c r="I58"/>
-      <c r="J58"/>
-      <c r="K58"/>
-      <c r="L58"/>
-      <c r="M58"/>
-      <c r="N58"/>
-      <c r="O58"/>
-      <c r="P58"/>
-      <c r="Q58"/>
-      <c r="R58"/>
-      <c r="S58"/>
-      <c r="T58"/>
-      <c r="U58"/>
-      <c r="V58"/>
-      <c r="W58"/>
-      <c r="X58"/>
-      <c r="Y58"/>
-      <c r="Z58"/>
-      <c r="AA58"/>
-      <c r="AB58"/>
-      <c r="AC58"/>
-      <c r="AD58"/>
-      <c r="AE58"/>
-      <c r="AF58"/>
-      <c r="AG58"/>
-      <c r="AH58"/>
-      <c r="AI58"/>
-      <c r="AJ58"/>
+        <v>0.410199305021212</v>
+      </c>
+      <c r="G58" t="n">
+        <v>0.3416025421553203</v>
+      </c>
+      <c r="H58" t="n">
+        <v>0.2734315279989582</v>
+      </c>
+      <c r="I58" t="n">
+        <v>0.22469978843334854</v>
+      </c>
+      <c r="J58" t="n">
+        <v>0.17663113175868203</v>
+      </c>
+      <c r="K58" t="n">
+        <v>0.1285320475374974</v>
+      </c>
+      <c r="L58" t="n">
+        <v>0.08038741973882707</v>
+      </c>
+      <c r="M58" t="n">
+        <v>0.032184985403247816</v>
+      </c>
+      <c r="N58" t="n">
+        <v>-0.016089509088709417</v>
+      </c>
+      <c r="O58" t="n">
+        <v>-0.06444811497119446</v>
+      </c>
+      <c r="P58" t="n">
+        <v>-0.11290332344994891</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>-0.16146648141645747</v>
+      </c>
+      <c r="R58" t="n">
+        <v>-0.21015036997028247</v>
+      </c>
+      <c r="S58" t="n">
+        <v>-0.25896631176824425</v>
+      </c>
+      <c r="T58" t="n">
+        <v>-0.3079281780565527</v>
+      </c>
+      <c r="U58" t="n">
+        <v>-0.3570481629935569</v>
+      </c>
+      <c r="V58" t="n">
+        <v>-0.4063426563740462</v>
+      </c>
+      <c r="W58" t="n">
+        <v>-0.45678982256774603</v>
+      </c>
+      <c r="X58" t="n">
+        <v>-0.5189389714163748</v>
+      </c>
+      <c r="Y58" t="n">
+        <v>-0.616946315482126</v>
+      </c>
+      <c r="Z58" t="n">
+        <v>-0.7602444805708908</v>
+      </c>
+      <c r="AA58" t="n">
+        <v>-0.9260662749386115</v>
+      </c>
+      <c r="AB58" t="n">
+        <v>-1.026808011755278</v>
+      </c>
+      <c r="AC58" t="n">
+        <v>-1.1032935976155271</v>
+      </c>
+      <c r="AD58" t="n">
+        <v>-1.0850842554190052</v>
+      </c>
+      <c r="AE58" t="n">
+        <v>-1.1094772003506626</v>
+      </c>
+      <c r="AF58" t="n">
+        <v>-1.1591334277289942</v>
+      </c>
+      <c r="AG58" t="n">
+        <v>-1.1799391109980362</v>
+      </c>
+      <c r="AH58" t="n">
+        <v>-1.159132847025261</v>
+      </c>
+      <c r="AI58" t="n">
+        <v>-1.0822899791819909</v>
+      </c>
+      <c r="AJ58" t="n">
+        <v>-0.9330205469324575</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
@@ -36235,12 +37552,12 @@
       </c>
     </row>
     <row r="60">
-      <c r="A60" t="s">
+      <c r="A60" s="2" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="2" t="s">
+      <c r="A61" t="s">
         <v>5</v>
       </c>
     </row>
@@ -36251,42 +37568,108 @@
       <c r="B62" t="s">
         <v>5</v>
       </c>
-      <c r="C62"/>
-      <c r="D62"/>
-      <c r="E62"/>
-      <c r="F62"/>
+      <c r="C62" t="n">
+        <v>-0.4002202313382346</v>
+      </c>
+      <c r="D62" t="n">
+        <v>-0.31398276472346137</v>
+      </c>
+      <c r="E62" t="n">
+        <v>-0.2277452981086882</v>
+      </c>
+      <c r="F62" t="n">
+        <v>-0.14150783149391505</v>
+      </c>
       <c r="G62" t="n">
-        <v>2.1279330606562032</v>
-      </c>
-      <c r="H62"/>
-      <c r="I62"/>
-      <c r="J62"/>
-      <c r="K62"/>
-      <c r="L62"/>
-      <c r="M62"/>
-      <c r="N62"/>
-      <c r="O62"/>
-      <c r="P62"/>
-      <c r="Q62"/>
-      <c r="R62"/>
-      <c r="S62"/>
-      <c r="T62"/>
-      <c r="U62"/>
-      <c r="V62"/>
-      <c r="W62"/>
-      <c r="X62"/>
-      <c r="Y62"/>
-      <c r="Z62"/>
-      <c r="AA62"/>
-      <c r="AB62"/>
-      <c r="AC62"/>
-      <c r="AD62"/>
-      <c r="AE62"/>
-      <c r="AF62"/>
-      <c r="AG62"/>
-      <c r="AH62"/>
-      <c r="AI62"/>
-      <c r="AJ62"/>
+        <v>-0.05527036487914186</v>
+      </c>
+      <c r="H62" t="n">
+        <v>0.030967101735631303</v>
+      </c>
+      <c r="I62" t="n">
+        <v>0.11720456835040452</v>
+      </c>
+      <c r="J62" t="n">
+        <v>0.20344203496517763</v>
+      </c>
+      <c r="K62" t="n">
+        <v>0.2896795015799508</v>
+      </c>
+      <c r="L62" t="n">
+        <v>0.37591696819472403</v>
+      </c>
+      <c r="M62" t="n">
+        <v>0.4621544348094972</v>
+      </c>
+      <c r="N62" t="n">
+        <v>0.5483919014242704</v>
+      </c>
+      <c r="O62" t="n">
+        <v>0.6346293680390437</v>
+      </c>
+      <c r="P62" t="n">
+        <v>0.7208668346538168</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>0.80710430126859</v>
+      </c>
+      <c r="R62" t="n">
+        <v>0.8933417678833632</v>
+      </c>
+      <c r="S62" t="n">
+        <v>0.9795792344981364</v>
+      </c>
+      <c r="T62" t="n">
+        <v>1.0658167011129096</v>
+      </c>
+      <c r="U62" t="n">
+        <v>1.1520541677276828</v>
+      </c>
+      <c r="V62" t="n">
+        <v>1.238291634342456</v>
+      </c>
+      <c r="W62" t="n">
+        <v>1.324529100957229</v>
+      </c>
+      <c r="X62" t="n">
+        <v>1.4107665675720025</v>
+      </c>
+      <c r="Y62" t="n">
+        <v>1.4970132947563326</v>
+      </c>
+      <c r="Z62" t="n">
+        <v>1.5835194340002752</v>
+      </c>
+      <c r="AA62" t="n">
+        <v>1.66821477227021</v>
+      </c>
+      <c r="AB62" t="n">
+        <v>1.742633463122703</v>
+      </c>
+      <c r="AC62" t="n">
+        <v>1.8006746152979383</v>
+      </c>
+      <c r="AD62" t="n">
+        <v>1.8404759856287032</v>
+      </c>
+      <c r="AE62" t="n">
+        <v>1.8644139790404308</v>
+      </c>
+      <c r="AF62" t="n">
+        <v>1.8791036485509867</v>
+      </c>
+      <c r="AG62" t="n">
+        <v>1.8953986952710014</v>
+      </c>
+      <c r="AH62" t="n">
+        <v>1.9283914684034855</v>
+      </c>
+      <c r="AI62" t="n">
+        <v>1.9974129652440868</v>
+      </c>
+      <c r="AJ62" t="n">
+        <v>2.1260328311812344</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
@@ -36295,42 +37678,108 @@
       <c r="B63" t="s">
         <v>5</v>
       </c>
-      <c r="C63"/>
-      <c r="D63"/>
-      <c r="E63"/>
-      <c r="F63"/>
+      <c r="C63" t="n">
+        <v>0.043596251734287286</v>
+      </c>
+      <c r="D63" t="n">
+        <v>0.04054885046271346</v>
+      </c>
+      <c r="E63" t="n">
+        <v>0.036927305869380075</v>
+      </c>
+      <c r="F63" t="n">
+        <v>0.033965378391235826</v>
+      </c>
       <c r="G63" t="n">
-        <v>0.2369843720108269</v>
-      </c>
-      <c r="H63"/>
-      <c r="I63"/>
-      <c r="J63"/>
-      <c r="K63"/>
-      <c r="L63"/>
-      <c r="M63"/>
-      <c r="N63"/>
-      <c r="O63"/>
-      <c r="P63"/>
-      <c r="Q63"/>
-      <c r="R63"/>
-      <c r="S63"/>
-      <c r="T63"/>
-      <c r="U63"/>
-      <c r="V63"/>
-      <c r="W63"/>
-      <c r="X63"/>
-      <c r="Y63"/>
-      <c r="Z63"/>
-      <c r="AA63"/>
-      <c r="AB63"/>
-      <c r="AC63"/>
-      <c r="AD63"/>
-      <c r="AE63"/>
-      <c r="AF63"/>
-      <c r="AG63"/>
-      <c r="AH63"/>
-      <c r="AI63"/>
-      <c r="AJ63"/>
+        <v>0.031552748115070056</v>
+      </c>
+      <c r="H63" t="n">
+        <v>0.02986153314292169</v>
+      </c>
+      <c r="I63" t="n">
+        <v>0.029060549189763283</v>
+      </c>
+      <c r="J63" t="n">
+        <v>0.028879290189829793</v>
+      </c>
+      <c r="K63" t="n">
+        <v>0.029351153139351827</v>
+      </c>
+      <c r="L63" t="n">
+        <v>0.030912202640644332</v>
+      </c>
+      <c r="M63" t="n">
+        <v>0.033144840863555326</v>
+      </c>
+      <c r="N63" t="n">
+        <v>0.036067057940632315</v>
+      </c>
+      <c r="O63" t="n">
+        <v>0.04001980003683676</v>
+      </c>
+      <c r="P63" t="n">
+        <v>0.044812785125070795</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>0.050344598066182134</v>
+      </c>
+      <c r="R63" t="n">
+        <v>0.0568025451225872</v>
+      </c>
+      <c r="S63" t="n">
+        <v>0.06428504494011453</v>
+      </c>
+      <c r="T63" t="n">
+        <v>0.07255262734534804</v>
+      </c>
+      <c r="U63" t="n">
+        <v>0.08164718780968097</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0.09194919244150147</v>
+      </c>
+      <c r="W63" t="n">
+        <v>0.10308773858045732</v>
+      </c>
+      <c r="X63" t="n">
+        <v>0.11507610359602308</v>
+      </c>
+      <c r="Y63" t="n">
+        <v>0.12820070243320167</v>
+      </c>
+      <c r="Z63" t="n">
+        <v>0.14223260203034188</v>
+      </c>
+      <c r="AA63" t="n">
+        <v>0.15715740592864902</v>
+      </c>
+      <c r="AB63" t="n">
+        <v>0.1731717547946471</v>
+      </c>
+      <c r="AC63" t="n">
+        <v>0.1867182735371857</v>
+      </c>
+      <c r="AD63" t="n">
+        <v>0.19739865822539188</v>
+      </c>
+      <c r="AE63" t="n">
+        <v>0.20452861920273355</v>
+      </c>
+      <c r="AF63" t="n">
+        <v>0.2108625340615589</v>
+      </c>
+      <c r="AG63" t="n">
+        <v>0.2172843225358094</v>
+      </c>
+      <c r="AH63" t="n">
+        <v>0.22385356534161757</v>
+      </c>
+      <c r="AI63" t="n">
+        <v>0.230588448432253</v>
+      </c>
+      <c r="AJ63" t="n">
+        <v>0.23765196460134763</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
@@ -36349,42 +37798,108 @@
       <c r="B66" t="s">
         <v>5</v>
       </c>
-      <c r="C66"/>
-      <c r="D66"/>
-      <c r="E66"/>
-      <c r="F66"/>
+      <c r="C66" t="n">
+        <v>0.9034020175724111</v>
+      </c>
+      <c r="D66" t="n">
+        <v>0.8127705759531599</v>
+      </c>
+      <c r="E66" t="n">
+        <v>0.7221775996584676</v>
+      </c>
+      <c r="F66" t="n">
+        <v>0.6316276084337614</v>
+      </c>
       <c r="G66" t="n">
-        <v>-1.3149856162171911</v>
-      </c>
-      <c r="H66"/>
-      <c r="I66"/>
-      <c r="J66"/>
-      <c r="K66"/>
-      <c r="L66"/>
-      <c r="M66"/>
-      <c r="N66"/>
-      <c r="O66"/>
-      <c r="P66"/>
-      <c r="Q66"/>
-      <c r="R66"/>
-      <c r="S66"/>
-      <c r="T66"/>
-      <c r="U66"/>
-      <c r="V66"/>
-      <c r="W66"/>
-      <c r="X66"/>
-      <c r="Y66"/>
-      <c r="Z66"/>
-      <c r="AA66"/>
-      <c r="AB66"/>
-      <c r="AC66"/>
-      <c r="AD66"/>
-      <c r="AE66"/>
-      <c r="AF66"/>
-      <c r="AG66"/>
-      <c r="AH66"/>
-      <c r="AI66"/>
-      <c r="AJ66"/>
+        <v>0.5411131338235219</v>
+      </c>
+      <c r="H66" t="n">
+        <v>0.45100800393286267</v>
+      </c>
+      <c r="I66" t="n">
+        <v>0.3803320164403377</v>
+      </c>
+      <c r="J66" t="n">
+        <v>0.3103093272290983</v>
+      </c>
+      <c r="K66" t="n">
+        <v>0.24025236352926843</v>
+      </c>
+      <c r="L66" t="n">
+        <v>0.17015304659403868</v>
+      </c>
+      <c r="M66" t="n">
+        <v>0.10000090373293852</v>
+      </c>
+      <c r="N66" t="n">
+        <v>0.02978755889363675</v>
+      </c>
+      <c r="O66" t="n">
+        <v>-0.040495222083278146</v>
+      </c>
+      <c r="P66" t="n">
+        <v>-0.11085520284745193</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>-0.18129753402257162</v>
+      </c>
+      <c r="R66" t="n">
+        <v>-0.2518318899591214</v>
+      </c>
+      <c r="S66" t="n">
+        <v>-0.32246697082235165</v>
+      </c>
+      <c r="T66" t="n">
+        <v>-0.39320764752554593</v>
+      </c>
+      <c r="U66" t="n">
+        <v>-0.4640609812710356</v>
+      </c>
+      <c r="V66" t="n">
+        <v>-0.5350480902990336</v>
+      </c>
+      <c r="W66" t="n">
+        <v>-0.6071328977152995</v>
+      </c>
+      <c r="X66" t="n">
+        <v>-0.6908474460315885</v>
+      </c>
+      <c r="Y66" t="n">
+        <v>-0.8094535553992721</v>
+      </c>
+      <c r="Z66" t="n">
+        <v>-0.9720563851252099</v>
+      </c>
+      <c r="AA66" t="n">
+        <v>-1.1570476930888083</v>
+      </c>
+      <c r="AB66" t="n">
+        <v>-1.2764988634195846</v>
+      </c>
+      <c r="AC66" t="n">
+        <v>-1.3706406449776243</v>
+      </c>
+      <c r="AD66" t="n">
+        <v>-1.3687949312817378</v>
+      </c>
+      <c r="AE66" t="n">
+        <v>-1.4082109481475509</v>
+      </c>
+      <c r="AF66" t="n">
+        <v>-1.4718847616135076</v>
+      </c>
+      <c r="AG66" t="n">
+        <v>-1.5061189195776563</v>
+      </c>
+      <c r="AH66" t="n">
+        <v>-1.4986596650683521</v>
+      </c>
+      <c r="AI66" t="n">
+        <v>-1.4356888481979548</v>
+      </c>
+      <c r="AJ66" t="n">
+        <v>-1.3014979466502647</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
@@ -36403,42 +37918,108 @@
       <c r="B69" t="s">
         <v>5</v>
       </c>
-      <c r="C69"/>
-      <c r="D69"/>
-      <c r="E69"/>
-      <c r="F69"/>
+      <c r="C69" t="n">
+        <v>0.8631950089945386</v>
+      </c>
+      <c r="D69" t="n">
+        <v>0.7811400679525167</v>
+      </c>
+      <c r="E69" t="n">
+        <v>0.6991614361713617</v>
+      </c>
+      <c r="F69" t="n">
+        <v>0.6172404098145444</v>
+      </c>
       <c r="G69" t="n">
-        <v>-1.1103330144185515</v>
-      </c>
-      <c r="H69"/>
-      <c r="I69"/>
-      <c r="J69"/>
-      <c r="K69"/>
-      <c r="L69"/>
-      <c r="M69"/>
-      <c r="N69"/>
-      <c r="O69"/>
-      <c r="P69"/>
-      <c r="Q69"/>
-      <c r="R69"/>
-      <c r="S69"/>
-      <c r="T69"/>
-      <c r="U69"/>
-      <c r="V69"/>
-      <c r="W69"/>
-      <c r="X69"/>
-      <c r="Y69"/>
-      <c r="Z69"/>
-      <c r="AA69"/>
-      <c r="AB69"/>
-      <c r="AC69"/>
-      <c r="AD69"/>
-      <c r="AE69"/>
-      <c r="AF69"/>
-      <c r="AG69"/>
-      <c r="AH69"/>
-      <c r="AI69"/>
-      <c r="AJ69"/>
+        <v>0.5353685028954066</v>
+      </c>
+      <c r="H69" t="n">
+        <v>0.4539150540235981</v>
+      </c>
+      <c r="I69" t="n">
+        <v>0.39189637654582316</v>
+      </c>
+      <c r="J69" t="n">
+        <v>0.33053643324358783</v>
+      </c>
+      <c r="K69" t="n">
+        <v>0.26914435264280234</v>
+      </c>
+      <c r="L69" t="n">
+        <v>0.20770814639434704</v>
+      </c>
+      <c r="M69" t="n">
+        <v>0.14621634721388874</v>
+      </c>
+      <c r="N69" t="n">
+        <v>0.08465731373401983</v>
+      </c>
+      <c r="O69" t="n">
+        <v>0.023020691198251772</v>
+      </c>
+      <c r="P69" t="n">
+        <v>-0.03870391046311436</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>-0.1005250842447642</v>
+      </c>
+      <c r="R69" t="n">
+        <v>-0.16245423046889207</v>
+      </c>
+      <c r="S69" t="n">
+        <v>-0.22450150624050963</v>
+      </c>
+      <c r="T69" t="n">
+        <v>-0.286676782657859</v>
+      </c>
+      <c r="U69" t="n">
+        <v>-0.34898997256550424</v>
+      </c>
+      <c r="V69" t="n">
+        <v>-0.4114595672895337</v>
+      </c>
+      <c r="W69" t="n">
+        <v>-0.47505740174902145</v>
+      </c>
+      <c r="X69" t="n">
+        <v>-0.5503187643036245</v>
+      </c>
+      <c r="Y69" t="n">
+        <v>-0.6605015175678474</v>
+      </c>
+      <c r="Z69" t="n">
+        <v>-0.8146916511577333</v>
+      </c>
+      <c r="AA69" t="n">
+        <v>-0.9914862493851164</v>
+      </c>
+      <c r="AB69" t="n">
+        <v>-1.1037699063461945</v>
+      </c>
+      <c r="AC69" t="n">
+        <v>-1.1924467278588744</v>
+      </c>
+      <c r="AD69" t="n">
+        <v>-1.1870265241422064</v>
+      </c>
+      <c r="AE69" t="n">
+        <v>-1.2245512687557372</v>
+      </c>
+      <c r="AF69" t="n">
+        <v>-1.2873080953710547</v>
+      </c>
+      <c r="AG69" t="n">
+        <v>-1.3205565818283942</v>
+      </c>
+      <c r="AH69" t="n">
+        <v>-1.3106604256442989</v>
+      </c>
+      <c r="AI69" t="n">
+        <v>-1.2420751399250496</v>
+      </c>
+      <c r="AJ69" t="n">
+        <v>-1.0970353677991218</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
@@ -36457,307 +38038,108 @@
       <c r="B72" t="s">
         <v>5</v>
       </c>
-      <c r="C72"/>
-      <c r="D72"/>
-      <c r="E72"/>
-      <c r="F72"/>
+      <c r="C72" t="n">
+        <v>0.8310294021322413</v>
+      </c>
+      <c r="D72" t="n">
+        <v>0.7558356615520021</v>
+      </c>
+      <c r="E72" t="n">
+        <v>0.6807485053816772</v>
+      </c>
+      <c r="F72" t="n">
+        <v>0.6057306509191711</v>
+      </c>
       <c r="G72" t="n">
-        <v>-0.9466109329796413</v>
-      </c>
-      <c r="H72"/>
-      <c r="I72"/>
-      <c r="J72"/>
-      <c r="K72"/>
-      <c r="L72"/>
-      <c r="M72"/>
-      <c r="N72"/>
-      <c r="O72"/>
-      <c r="P72"/>
-      <c r="Q72"/>
-      <c r="R72"/>
-      <c r="S72"/>
-      <c r="T72"/>
-      <c r="U72"/>
-      <c r="V72"/>
-      <c r="W72"/>
-      <c r="X72"/>
-      <c r="Y72"/>
-      <c r="Z72"/>
-      <c r="AA72"/>
-      <c r="AB72"/>
-      <c r="AC72"/>
-      <c r="AD72"/>
-      <c r="AE72"/>
-      <c r="AF72"/>
-      <c r="AG72"/>
-      <c r="AH72"/>
-      <c r="AI72"/>
-      <c r="AJ72"/>
-    </row>
-    <row r="73">
-      <c r="A73" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="s">
-        <v>125</v>
-      </c>
-      <c r="B76" t="s">
-        <v>5</v>
-      </c>
-      <c r="C76"/>
-      <c r="D76"/>
-      <c r="E76"/>
-      <c r="F76"/>
-      <c r="G76"/>
-      <c r="H76" t="n">
-        <v>2.1279330606562032</v>
-      </c>
-      <c r="I76"/>
-      <c r="J76"/>
-      <c r="K76"/>
-      <c r="L76"/>
-      <c r="M76"/>
-      <c r="N76"/>
-      <c r="O76"/>
-      <c r="P76"/>
-      <c r="Q76"/>
-      <c r="R76"/>
-      <c r="S76"/>
-      <c r="T76"/>
-      <c r="U76"/>
-      <c r="V76"/>
-      <c r="W76"/>
-      <c r="X76"/>
-      <c r="Y76"/>
-      <c r="Z76"/>
-      <c r="AA76"/>
-      <c r="AB76"/>
-      <c r="AC76"/>
-      <c r="AD76"/>
-      <c r="AE76"/>
-      <c r="AF76"/>
-      <c r="AG76"/>
-      <c r="AH76"/>
-      <c r="AI76"/>
-      <c r="AJ76"/>
-    </row>
-    <row r="77">
-      <c r="A77" t="s">
-        <v>126</v>
-      </c>
-      <c r="B77" t="s">
-        <v>5</v>
-      </c>
-      <c r="C77"/>
-      <c r="D77"/>
-      <c r="E77"/>
-      <c r="F77"/>
-      <c r="G77"/>
-      <c r="H77" t="n">
-        <v>0.23765196460134763</v>
-      </c>
-      <c r="I77"/>
-      <c r="J77"/>
-      <c r="K77"/>
-      <c r="L77"/>
-      <c r="M77"/>
-      <c r="N77"/>
-      <c r="O77"/>
-      <c r="P77"/>
-      <c r="Q77"/>
-      <c r="R77"/>
-      <c r="S77"/>
-      <c r="T77"/>
-      <c r="U77"/>
-      <c r="V77"/>
-      <c r="W77"/>
-      <c r="X77"/>
-      <c r="Y77"/>
-      <c r="Z77"/>
-      <c r="AA77"/>
-      <c r="AB77"/>
-      <c r="AC77"/>
-      <c r="AD77"/>
-      <c r="AE77"/>
-      <c r="AF77"/>
-      <c r="AG77"/>
-      <c r="AH77"/>
-      <c r="AI77"/>
-      <c r="AJ77"/>
-    </row>
-    <row r="78">
-      <c r="A78" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="s">
-        <v>128</v>
-      </c>
-      <c r="B80" t="s">
-        <v>5</v>
-      </c>
-      <c r="C80"/>
-      <c r="D80"/>
-      <c r="E80"/>
-      <c r="F80"/>
-      <c r="G80"/>
-      <c r="H80" t="n">
-        <v>-1.3137859642536727</v>
-      </c>
-      <c r="I80"/>
-      <c r="J80"/>
-      <c r="K80"/>
-      <c r="L80"/>
-      <c r="M80"/>
-      <c r="N80"/>
-      <c r="O80"/>
-      <c r="P80"/>
-      <c r="Q80"/>
-      <c r="R80"/>
-      <c r="S80"/>
-      <c r="T80"/>
-      <c r="U80"/>
-      <c r="V80"/>
-      <c r="W80"/>
-      <c r="X80"/>
-      <c r="Y80"/>
-      <c r="Z80"/>
-      <c r="AA80"/>
-      <c r="AB80"/>
-      <c r="AC80"/>
-      <c r="AD80"/>
-      <c r="AE80"/>
-      <c r="AF80"/>
-      <c r="AG80"/>
-      <c r="AH80"/>
-      <c r="AI80"/>
-      <c r="AJ80"/>
-    </row>
-    <row r="81">
-      <c r="A81" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" t="s">
-        <v>128</v>
-      </c>
-      <c r="B83" t="s">
-        <v>5</v>
-      </c>
-      <c r="C83"/>
-      <c r="D83"/>
-      <c r="E83"/>
-      <c r="F83"/>
-      <c r="G83"/>
-      <c r="H83" t="n">
-        <v>-1.109133362455033</v>
-      </c>
-      <c r="I83"/>
-      <c r="J83"/>
-      <c r="K83"/>
-      <c r="L83"/>
-      <c r="M83"/>
-      <c r="N83"/>
-      <c r="O83"/>
-      <c r="P83"/>
-      <c r="Q83"/>
-      <c r="R83"/>
-      <c r="S83"/>
-      <c r="T83"/>
-      <c r="U83"/>
-      <c r="V83"/>
-      <c r="W83"/>
-      <c r="X83"/>
-      <c r="Y83"/>
-      <c r="Z83"/>
-      <c r="AA83"/>
-      <c r="AB83"/>
-      <c r="AC83"/>
-      <c r="AD83"/>
-      <c r="AE83"/>
-      <c r="AF83"/>
-      <c r="AG83"/>
-      <c r="AH83"/>
-      <c r="AI83"/>
-      <c r="AJ83"/>
-    </row>
-    <row r="84">
-      <c r="A84" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="s">
-        <v>128</v>
-      </c>
-      <c r="B86" t="s">
-        <v>5</v>
-      </c>
-      <c r="C86"/>
-      <c r="D86"/>
-      <c r="E86"/>
-      <c r="F86"/>
-      <c r="G86"/>
-      <c r="H86" t="n">
-        <v>-0.9454112810161228</v>
-      </c>
-      <c r="I86"/>
-      <c r="J86"/>
-      <c r="K86"/>
-      <c r="L86"/>
-      <c r="M86"/>
-      <c r="N86"/>
-      <c r="O86"/>
-      <c r="P86"/>
-      <c r="Q86"/>
-      <c r="R86"/>
-      <c r="S86"/>
-      <c r="T86"/>
-      <c r="U86"/>
-      <c r="V86"/>
-      <c r="W86"/>
-      <c r="X86"/>
-      <c r="Y86"/>
-      <c r="Z86"/>
-      <c r="AA86"/>
-      <c r="AB86"/>
-      <c r="AC86"/>
-      <c r="AD86"/>
-      <c r="AE86"/>
-      <c r="AF86"/>
-      <c r="AG86"/>
-      <c r="AH86"/>
-      <c r="AI86"/>
-      <c r="AJ86"/>
+        <v>0.530772798152914</v>
+      </c>
+      <c r="H72" t="n">
+        <v>0.4562406940961864</v>
+      </c>
+      <c r="I72" t="n">
+        <v>0.4011478646302112</v>
+      </c>
+      <c r="J72" t="n">
+        <v>0.34671811805517927</v>
+      </c>
+      <c r="K72" t="n">
+        <v>0.29225794393362914</v>
+      </c>
+      <c r="L72" t="n">
+        <v>0.2377522262345933</v>
+      </c>
+      <c r="M72" t="n">
+        <v>0.18318870199864848</v>
+      </c>
+      <c r="N72" t="n">
+        <v>0.12855311760632576</v>
+      </c>
+      <c r="O72" t="n">
+        <v>0.07383342182347513</v>
+      </c>
+      <c r="P72" t="n">
+        <v>0.019017123444355077</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>-0.03590712442251898</v>
+      </c>
+      <c r="R72" t="n">
+        <v>-0.09095210287670924</v>
+      </c>
+      <c r="S72" t="n">
+        <v>-0.14612913457503668</v>
+      </c>
+      <c r="T72" t="n">
+        <v>-0.2014520907637104</v>
+      </c>
+      <c r="U72" t="n">
+        <v>-0.2569331656010799</v>
+      </c>
+      <c r="V72" t="n">
+        <v>-0.3125887488819348</v>
+      </c>
+      <c r="W72" t="n">
+        <v>-0.36939700497600014</v>
+      </c>
+      <c r="X72" t="n">
+        <v>-0.43789581892125473</v>
+      </c>
+      <c r="Y72" t="n">
+        <v>-0.5413398873027089</v>
+      </c>
+      <c r="Z72" t="n">
+        <v>-0.6887998639837534</v>
+      </c>
+      <c r="AA72" t="n">
+        <v>-0.8590370944221641</v>
+      </c>
+      <c r="AB72" t="n">
+        <v>-0.9655867406874844</v>
+      </c>
+      <c r="AC72" t="n">
+        <v>-1.049891594163876</v>
+      </c>
+      <c r="AD72" t="n">
+        <v>-1.0416117984305828</v>
+      </c>
+      <c r="AE72" t="n">
+        <v>-1.0776235252422879</v>
+      </c>
+      <c r="AF72" t="n">
+        <v>-1.1396467623770943</v>
+      </c>
+      <c r="AG72" t="n">
+        <v>-1.1721067116289863</v>
+      </c>
+      <c r="AH72" t="n">
+        <v>-1.1602610341050577</v>
+      </c>
+      <c r="AI72" t="n">
+        <v>-1.087184173306727</v>
+      </c>
+      <c r="AJ72" t="n">
+        <v>-0.9334653047182091</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>

--- a/JPADSandBox_v2/out/ATR-72/AERODYNAMIC_AND_STABILITY_CRUISE/Aerodynamic_and_Stability_CRUISE.xlsx
+++ b/JPADSandBox_v2/out/ATR-72/AERODYNAMIC_AND_STABILITY_CRUISE/Aerodynamic_and_Stability_CRUISE.xlsx
@@ -35189,106 +35189,106 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.25822555558609545</v>
+        <v>-0.186955579098393</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.17624212974219086</v>
+        <v>-0.10704536974151237</v>
       </c>
       <c r="E6" t="n">
-        <v>-0.09425870389828633</v>
+        <v>-0.027135160384631762</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.012275278054381812</v>
+        <v>0.05277504897224886</v>
       </c>
       <c r="G6" t="n">
-        <v>0.06970814778952272</v>
+        <v>0.13268525832912947</v>
       </c>
       <c r="H6" t="n">
-        <v>0.15169157363342725</v>
+        <v>0.21259546768601012</v>
       </c>
       <c r="I6" t="n">
-        <v>0.2336749994773318</v>
+        <v>0.29250567704289077</v>
       </c>
       <c r="J6" t="n">
-        <v>0.3156584253212363</v>
+        <v>0.3724158863997713</v>
       </c>
       <c r="K6" t="n">
-        <v>0.39764185116514084</v>
+        <v>0.45232609575665195</v>
       </c>
       <c r="L6" t="n">
-        <v>0.4796252770090454</v>
+        <v>0.5322363051135326</v>
       </c>
       <c r="M6" t="n">
-        <v>0.56160870285295</v>
+        <v>0.6121465144704132</v>
       </c>
       <c r="N6" t="n">
-        <v>0.6435921286968546</v>
+        <v>0.6920567238272939</v>
       </c>
       <c r="O6" t="n">
-        <v>0.7255755545407592</v>
+        <v>0.7719669331841745</v>
       </c>
       <c r="P6" t="n">
-        <v>0.8075589803846637</v>
+        <v>0.8518771425410552</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.8895424062285683</v>
+        <v>0.9317873518979358</v>
       </c>
       <c r="R6" t="n">
-        <v>0.9715258320724728</v>
+        <v>1.0116977685249442</v>
       </c>
       <c r="S6" t="n">
-        <v>1.0535092579163774</v>
+        <v>1.091652804733644</v>
       </c>
       <c r="T6" t="n">
-        <v>1.135492683760282</v>
+        <v>1.1717721755378383</v>
       </c>
       <c r="U6" t="n">
-        <v>1.2174791887380318</v>
+        <v>1.2521337595591233</v>
       </c>
       <c r="V6" t="n">
-        <v>1.299575271729088</v>
+        <v>1.3327570725769333</v>
       </c>
       <c r="W6" t="n">
-        <v>1.3819580096034845</v>
+        <v>1.4136032675285373</v>
       </c>
       <c r="X6" t="n">
-        <v>1.464702003805689</v>
+        <v>1.4945751345090426</v>
       </c>
       <c r="Y6" t="n">
-        <v>1.5477685736688123</v>
+        <v>1.575517100771391</v>
       </c>
       <c r="Z6" t="n">
-        <v>1.631004988411515</v>
+        <v>1.6562144627232755</v>
       </c>
       <c r="AA6" t="n">
-        <v>1.7117483382456982</v>
+        <v>1.7339972570348157</v>
       </c>
       <c r="AB6" t="n">
-        <v>1.781167633837226</v>
+        <v>1.8000823600992957</v>
       </c>
       <c r="AC6" t="n">
-        <v>1.8330460153187187</v>
+        <v>1.8483556970459438</v>
       </c>
       <c r="AD6" t="n">
-        <v>1.8656544451984984</v>
+        <v>1.8772459346488912</v>
       </c>
       <c r="AE6" t="n">
-        <v>1.881751708360643</v>
+        <v>1.8897244813272143</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.8885844120647777</v>
+        <v>1.8933054871447341</v>
       </c>
       <c r="AG6" t="n">
-        <v>1.8978869859463923</v>
+        <v>1.9000458438103294</v>
       </c>
       <c r="AH6" t="n">
-        <v>1.9258816820165021</v>
+        <v>1.926545184677597</v>
       </c>
       <c r="AI6" t="n">
-        <v>1.9932785746618114</v>
+        <v>1.9939458847450218</v>
       </c>
       <c r="AJ6" t="n">
-        <v>2.125275560644947</v>
+        <v>2.1279330606562032</v>
       </c>
     </row>
     <row r="7">
@@ -35419,106 +35419,106 @@
         <v>5</v>
       </c>
       <c r="C10" t="n">
-        <v>0.019046610189771607</v>
+        <v>-0.42372169672024607</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.04518599359849379</v>
+        <v>-0.47508876658973476</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.10938013206220071</v>
+        <v>-0.5264173711346648</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.17353128545592134</v>
+        <v>-0.5777029906096087</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.2376469222351753</v>
+        <v>-0.628953093470086</v>
       </c>
       <c r="H10" t="n">
-        <v>-0.3013532142948492</v>
+        <v>-0.679793851610983</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.34563036395638846</v>
+        <v>-0.7112054673537456</v>
       </c>
       <c r="J10" t="n">
-        <v>-0.3892542153366424</v>
+        <v>-0.7419637848152227</v>
       </c>
       <c r="K10" t="n">
-        <v>-0.432912341205487</v>
+        <v>-0.7727563767652905</v>
       </c>
       <c r="L10" t="n">
-        <v>-0.47661282030973096</v>
+        <v>-0.8035913219507578</v>
       </c>
       <c r="M10" t="n">
-        <v>-0.5203661253398457</v>
+        <v>-0.8344790930620956</v>
       </c>
       <c r="N10" t="n">
-        <v>-0.5641806323481622</v>
+        <v>-0.8654280661516355</v>
       </c>
       <c r="O10" t="n">
-        <v>-0.6080645754940914</v>
+        <v>-0.8964464753787877</v>
       </c>
       <c r="P10" t="n">
-        <v>-0.6520257184272797</v>
+        <v>-0.9275420843931991</v>
       </c>
       <c r="Q10" t="n">
-        <v>-0.696069211771414</v>
+        <v>-0.9587200438185567</v>
       </c>
       <c r="R10" t="n">
-        <v>-0.7402047298769785</v>
+        <v>-0.9899913142390191</v>
       </c>
       <c r="S10" t="n">
-        <v>-0.784440972909223</v>
+        <v>-1.021640200468171</v>
       </c>
       <c r="T10" t="n">
-        <v>-0.8287828117814316</v>
+        <v>-1.0544144758514915</v>
       </c>
       <c r="U10" t="n">
-        <v>-0.8732564155417297</v>
+        <v>-1.0888044844775735</v>
       </c>
       <c r="V10" t="n">
-        <v>-0.9185437909359849</v>
+        <v>-1.1249524515350982</v>
       </c>
       <c r="W10" t="n">
-        <v>-0.96670772773049</v>
+        <v>-1.1635812311404847</v>
       </c>
       <c r="X10" t="n">
-        <v>-1.028743214501821</v>
+        <v>-1.2146196208783606</v>
       </c>
       <c r="Y10" t="n">
-        <v>-1.1276145676879308</v>
+        <v>-1.3003065527265145</v>
       </c>
       <c r="Z10" t="n">
-        <v>-1.2699268239310473</v>
+        <v>-1.426862485398845</v>
       </c>
       <c r="AA10" t="n">
-        <v>-1.4303937073663784</v>
+        <v>-1.5689573716339889</v>
       </c>
       <c r="AB10" t="n">
-        <v>-1.518820674626278</v>
+        <v>-1.6366937031995699</v>
       </c>
       <c r="AC10" t="n">
-        <v>-1.5747188208041043</v>
+        <v>-1.67022041685598</v>
       </c>
       <c r="AD10" t="n">
-        <v>-1.528236659382138</v>
+        <v>-1.600664674284372</v>
       </c>
       <c r="AE10" t="n">
-        <v>-1.5189963098697368</v>
+        <v>-1.5689680497247505</v>
       </c>
       <c r="AF10" t="n">
-        <v>-1.5339130057293748</v>
+        <v>-1.563706037902051</v>
       </c>
       <c r="AG10" t="n">
-        <v>-1.5247547360133347</v>
+        <v>-1.5386476956628121</v>
       </c>
       <c r="AH10" t="n">
-        <v>-1.4862794586346866</v>
+        <v>-1.4908928552461516</v>
       </c>
       <c r="AI10" t="n">
-        <v>-1.4132270123204091</v>
+        <v>-1.4178640362369221</v>
       </c>
       <c r="AJ10" t="n">
-        <v>-1.2999931370993876</v>
+        <v>-1.3169804660536704</v>
       </c>
     </row>
     <row r="11">
@@ -35539,106 +35539,106 @@
         <v>5</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.006960930812886512</v>
+        <v>-0.44260224007413396</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.06304243810100985</v>
+        <v>-0.4860255350921828</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.11904763612826638</v>
+        <v>-0.5293725208493649</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.17499522873118478</v>
+        <v>-0.5726619011822089</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.23089370189642427</v>
+        <v>-0.6159021620773741</v>
       </c>
       <c r="H13" t="n">
-        <v>-0.28637371701433406</v>
+        <v>-0.6587239649252096</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.3224189607382103</v>
+        <v>-0.6821109963790114</v>
       </c>
       <c r="J13" t="n">
-        <v>-0.35780547028654697</v>
+        <v>-0.7048392936572737</v>
       </c>
       <c r="K13" t="n">
-        <v>-0.39322411713343397</v>
+        <v>-0.7275997282340864</v>
       </c>
       <c r="L13" t="n">
-        <v>-0.4286868896279905</v>
+        <v>-0.7504042884585687</v>
       </c>
       <c r="M13" t="n">
-        <v>-0.4642052550545501</v>
+        <v>-0.7732644416150537</v>
       </c>
       <c r="N13" t="n">
-        <v>-0.49979085478052054</v>
+        <v>-0.7961918290709497</v>
       </c>
       <c r="O13" t="n">
-        <v>-0.53545404356239</v>
+        <v>-0.8191968055827447</v>
       </c>
       <c r="P13" t="n">
-        <v>-0.5712052114698574</v>
+        <v>-0.8422897612201375</v>
       </c>
       <c r="Q13" t="n">
-        <v>-0.6070529514976089</v>
+        <v>-0.8654792889778147</v>
       </c>
       <c r="R13" t="n">
-        <v>-0.6430086639678381</v>
+        <v>-0.8887780546846316</v>
       </c>
       <c r="S13" t="n">
-        <v>-0.6790825059855566</v>
+        <v>-0.912467378862778</v>
       </c>
       <c r="T13" t="n">
-        <v>-0.7152843486490075</v>
+        <v>-0.9372880635413119</v>
       </c>
       <c r="U13" t="n">
-        <v>-0.7516429047351633</v>
+        <v>-0.9637255165888979</v>
       </c>
       <c r="V13" t="n">
-        <v>-0.7888269041878219</v>
+        <v>-0.9919173847021504</v>
       </c>
       <c r="W13" t="n">
-        <v>-0.8288893408995863</v>
+        <v>-1.022598318517076</v>
       </c>
       <c r="X13" t="n">
-        <v>-0.8828209891504886</v>
+        <v>-1.0657100824566927</v>
       </c>
       <c r="Y13" t="n">
-        <v>-0.973587001965258</v>
+        <v>-1.1435041342935839</v>
       </c>
       <c r="Z13" t="n">
-        <v>-1.107813534522447</v>
+        <v>-1.2622282485590683</v>
       </c>
       <c r="AA13" t="n">
-        <v>-1.2604789070651374</v>
+        <v>-1.396817679453836</v>
       </c>
       <c r="AB13" t="n">
-        <v>-1.342238300481436</v>
+        <v>-1.4582198564285207</v>
       </c>
       <c r="AC13" t="n">
-        <v>-1.3932877636832766</v>
+        <v>-1.4872583915624298</v>
       </c>
       <c r="AD13" t="n">
-        <v>-1.343950406285627</v>
+        <v>-1.415219272242822</v>
       </c>
       <c r="AE13" t="n">
-        <v>-1.3336028575459022</v>
+        <v>-1.382777320104259</v>
       </c>
       <c r="AF13" t="n">
-        <v>-1.348388263135543</v>
+        <v>-1.377709187800224</v>
       </c>
       <c r="AG13" t="n">
-        <v>-1.338943569196534</v>
+        <v>-1.3526206430596175</v>
       </c>
       <c r="AH13" t="n">
-        <v>-1.2985311978493312</v>
+        <v>-1.303078244194687</v>
       </c>
       <c r="AI13" t="n">
-        <v>-1.220026743105731</v>
+        <v>-1.2245970360139227</v>
       </c>
       <c r="AJ13" t="n">
-        <v>-1.0956062853018733</v>
+        <v>-1.1123278642550307</v>
       </c>
     </row>
     <row r="14">
@@ -35659,106 +35659,106 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>-0.027766963615012963</v>
+        <v>-0.45770667475724414</v>
       </c>
       <c r="D16" t="n">
-        <v>-0.07732759370302256</v>
+        <v>-0.4947749498941413</v>
       </c>
       <c r="E16" t="n">
-        <v>-0.12678163938111878</v>
+        <v>-0.531736640621125</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.1761663833513955</v>
+        <v>-0.5686290296402894</v>
       </c>
       <c r="G16" t="n">
-        <v>-0.22549112562542356</v>
+        <v>-0.6054614169632049</v>
       </c>
       <c r="H16" t="n">
-        <v>-0.27439011918992207</v>
+        <v>-0.641868055576591</v>
       </c>
       <c r="I16" t="n">
-        <v>-0.30384983816366795</v>
+        <v>-0.6588354195992244</v>
       </c>
       <c r="J16" t="n">
-        <v>-0.33264647424647087</v>
+        <v>-0.6751397007309149</v>
       </c>
       <c r="K16" t="n">
-        <v>-0.36147353787579195</v>
+        <v>-0.6914744094091234</v>
       </c>
       <c r="L16" t="n">
-        <v>-0.3903461450825985</v>
+        <v>-0.7078546616648177</v>
       </c>
       <c r="M16" t="n">
-        <v>-0.41927655882631426</v>
+        <v>-0.7242927204574207</v>
       </c>
       <c r="N16" t="n">
-        <v>-0.44827903272640784</v>
+        <v>-0.740802839406402</v>
       </c>
       <c r="O16" t="n">
-        <v>-0.4773656180170295</v>
+        <v>-0.7573970697459109</v>
       </c>
       <c r="P16" t="n">
-        <v>-0.5065488059039203</v>
+        <v>-0.7740879026816891</v>
       </c>
       <c r="Q16" t="n">
-        <v>-0.5358399432785653</v>
+        <v>-0.7908866851052219</v>
       </c>
       <c r="R16" t="n">
-        <v>-0.5652518112405265</v>
+        <v>-0.8078074470411221</v>
       </c>
       <c r="S16" t="n">
-        <v>-0.5947957324466244</v>
+        <v>-0.8251291215784643</v>
       </c>
       <c r="T16" t="n">
-        <v>-0.6244855781430693</v>
+        <v>-0.8435869336931688</v>
       </c>
       <c r="U16" t="n">
-        <v>-0.6543520960899111</v>
+        <v>-0.8636623422779585</v>
       </c>
       <c r="V16" t="n">
-        <v>-0.6850533947892925</v>
+        <v>-0.8854893312357934</v>
       </c>
       <c r="W16" t="n">
-        <v>-0.7186346314348646</v>
+        <v>-0.90981198841835</v>
       </c>
       <c r="X16" t="n">
-        <v>-0.7660832088694236</v>
+        <v>-0.9465824517193595</v>
       </c>
       <c r="Y16" t="n">
-        <v>-0.850364949387121</v>
+        <v>-1.0180621995472405</v>
       </c>
       <c r="Z16" t="n">
-        <v>-0.9781229029955676</v>
+        <v>-1.1305208590872486</v>
       </c>
       <c r="AA16" t="n">
-        <v>-1.1245470668241462</v>
+        <v>-1.2591059257097152</v>
       </c>
       <c r="AB16" t="n">
-        <v>-1.2009724011655636</v>
+        <v>-1.3154407790116829</v>
       </c>
       <c r="AC16" t="n">
-        <v>-1.2481429179866157</v>
+        <v>-1.340888771327591</v>
       </c>
       <c r="AD16" t="n">
-        <v>-1.1965214038084198</v>
+        <v>-1.2668629506095834</v>
       </c>
       <c r="AE16" t="n">
-        <v>-1.185288095686836</v>
+        <v>-1.2338247364078667</v>
       </c>
       <c r="AF16" t="n">
-        <v>-1.1999684690604795</v>
+        <v>-1.2289117077187637</v>
       </c>
       <c r="AG16" t="n">
-        <v>-1.1902946357430948</v>
+        <v>-1.2037990009770634</v>
       </c>
       <c r="AH16" t="n">
-        <v>-1.1483325892210487</v>
+        <v>-1.1528265553535164</v>
       </c>
       <c r="AI16" t="n">
-        <v>-1.06546652773399</v>
+        <v>-1.0699834358355256</v>
       </c>
       <c r="AJ16" t="n">
-        <v>-0.932096803863864</v>
+        <v>-0.9486057828161205</v>
       </c>
     </row>
     <row r="17">
@@ -35784,106 +35784,106 @@
         <v>5</v>
       </c>
       <c r="C20" t="n">
-        <v>-0.29381042841264404</v>
+        <v>-0.1520759780249906</v>
       </c>
       <c r="D20" t="n">
-        <v>-0.21075511390952173</v>
+        <v>-0.0729983496577026</v>
       </c>
       <c r="E20" t="n">
-        <v>-0.12769979940639942</v>
+        <v>0.006079278709585363</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.0446444849032771</v>
+        <v>0.08515690707687332</v>
       </c>
       <c r="G20" t="n">
-        <v>0.03841082959984522</v>
+        <v>0.16423453544416128</v>
       </c>
       <c r="H20" t="n">
-        <v>0.12146614410296754</v>
+        <v>0.24331216381144927</v>
       </c>
       <c r="I20" t="n">
-        <v>0.2045214586060899</v>
+        <v>0.32238979217873726</v>
       </c>
       <c r="J20" t="n">
-        <v>0.28757677310921215</v>
+        <v>0.40146742054602513</v>
       </c>
       <c r="K20" t="n">
-        <v>0.3706320876123345</v>
+        <v>0.4805450489133132</v>
       </c>
       <c r="L20" t="n">
-        <v>0.45368740211545683</v>
+        <v>0.5596226772806011</v>
       </c>
       <c r="M20" t="n">
-        <v>0.5367427166185792</v>
+        <v>0.6387003056478892</v>
       </c>
       <c r="N20" t="n">
-        <v>0.6197980311217015</v>
+        <v>0.7177779340151771</v>
       </c>
       <c r="O20" t="n">
-        <v>0.7028533456248239</v>
+        <v>0.7968555623824652</v>
       </c>
       <c r="P20" t="n">
-        <v>0.7859086601279462</v>
+        <v>0.8759331907497532</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.8689639746310687</v>
+        <v>0.9550151212034692</v>
       </c>
       <c r="R20" t="n">
-        <v>0.9520192891341909</v>
+        <v>1.0341696177367081</v>
       </c>
       <c r="S20" t="n">
-        <v>1.0350746036373133</v>
+        <v>1.1134896977213764</v>
       </c>
       <c r="T20" t="n">
-        <v>1.1181299181404356</v>
+        <v>1.1930267516051387</v>
       </c>
       <c r="U20" t="n">
-        <v>1.201185232643558</v>
+        <v>1.2727886784794045</v>
       </c>
       <c r="V20" t="n">
-        <v>1.2842413326522197</v>
+        <v>1.3527398860793294</v>
       </c>
       <c r="W20" t="n">
-        <v>1.3673962353938929</v>
+        <v>1.4328012907838146</v>
       </c>
       <c r="X20" t="n">
-        <v>1.450873171691921</v>
+        <v>1.5128503176155064</v>
       </c>
       <c r="Y20" t="n">
-        <v>1.5347700279645398</v>
+        <v>1.592720900240796</v>
       </c>
       <c r="Z20" t="n">
-        <v>1.619029164365748</v>
+        <v>1.6722027129667345</v>
       </c>
       <c r="AA20" t="n">
-        <v>1.701041285892987</v>
+        <v>1.7486450418487072</v>
       </c>
       <c r="AB20" t="n">
-        <v>1.7719875418478734</v>
+        <v>1.8132988841511732</v>
       </c>
       <c r="AC20" t="n">
-        <v>1.8256217348489878</v>
+        <v>1.8600991573604466</v>
       </c>
       <c r="AD20" t="n">
-        <v>1.8601440137408178</v>
+        <v>1.8875383920936508</v>
       </c>
       <c r="AE20" t="n">
-        <v>1.878200873593817</v>
+        <v>1.8986667320987636</v>
       </c>
       <c r="AF20" t="n">
-        <v>1.8868851557041917</v>
+        <v>1.901091934254417</v>
       </c>
       <c r="AG20" t="n">
-        <v>1.8977360475942275</v>
+        <v>1.9069793685702103</v>
       </c>
       <c r="AH20" t="n">
-        <v>1.926739083011932</v>
+        <v>1.9330520181863684</v>
       </c>
       <c r="AI20" t="n">
-        <v>1.9943261419312222</v>
+        <v>2.0005904793739133</v>
       </c>
       <c r="AJ20" t="n">
-        <v>2.1253754505521414</v>
+        <v>2.135432961534891</v>
       </c>
     </row>
     <row r="21">
@@ -36014,106 +36014,106 @@
         <v>5</v>
       </c>
       <c r="C24" t="n">
-        <v>0.24026938161101935</v>
+        <v>-0.6411452281280793</v>
       </c>
       <c r="D24" t="n">
-        <v>0.16938507502729971</v>
+        <v>-0.6873456407628913</v>
       </c>
       <c r="E24" t="n">
-        <v>0.09853923376813872</v>
+        <v>-0.7335075880731448</v>
       </c>
       <c r="F24" t="n">
-        <v>0.027736377578963856</v>
+        <v>-0.7796265503134121</v>
       </c>
       <c r="G24" t="n">
-        <v>-0.04303096199574413</v>
+        <v>-0.8257099959392126</v>
       </c>
       <c r="H24" t="n">
-        <v>-0.11338895685087214</v>
+        <v>-0.871384096845433</v>
       </c>
       <c r="I24" t="n">
-        <v>-0.1643178093078656</v>
+        <v>-0.8976290553535191</v>
       </c>
       <c r="J24" t="n">
-        <v>-0.21459336348357366</v>
+        <v>-0.9232207155803195</v>
       </c>
       <c r="K24" t="n">
-        <v>-0.2649031921478724</v>
+        <v>-0.9488466502957108</v>
       </c>
       <c r="L24" t="n">
-        <v>-0.31525537404757065</v>
+        <v>-0.9745149382465013</v>
       </c>
       <c r="M24" t="n">
-        <v>-0.36566038187313943</v>
+        <v>-1.0002360521231628</v>
       </c>
       <c r="N24" t="n">
-        <v>-0.41612659167690985</v>
+        <v>-1.0260183679780257</v>
       </c>
       <c r="O24" t="n">
-        <v>-0.46666223761829345</v>
+        <v>-1.051870119970502</v>
       </c>
       <c r="P24" t="n">
-        <v>-0.5172750833469358</v>
+        <v>-1.0777990717502364</v>
       </c>
       <c r="Q24" t="n">
-        <v>-0.5679702794865245</v>
+        <v>-1.103837070930454</v>
       </c>
       <c r="R24" t="n">
-        <v>-0.618757500387543</v>
+        <v>-1.1304174102942</v>
       </c>
       <c r="S24" t="n">
-        <v>-0.6696454462152418</v>
+        <v>-1.1581260177881876</v>
       </c>
       <c r="T24" t="n">
-        <v>-0.7206389878829043</v>
+        <v>-1.1872866724337854</v>
       </c>
       <c r="U24" t="n">
-        <v>-0.7717451865928628</v>
+        <v>-1.217955453965206</v>
       </c>
       <c r="V24" t="n">
-        <v>-0.8229900351115679</v>
+        <v>-1.249932609578332</v>
       </c>
       <c r="W24" t="n">
-        <v>-0.8759457113857717</v>
+        <v>-1.283691301758394</v>
       </c>
       <c r="X24" t="n">
-        <v>-0.9425295371527342</v>
+        <v>-1.3290029228204088</v>
       </c>
       <c r="Y24" t="n">
-        <v>-1.0465533083475396</v>
+        <v>-1.4080412858341576</v>
       </c>
       <c r="Z24" t="n">
-        <v>-1.1952121570807903</v>
+        <v>-1.527054016967123</v>
       </c>
       <c r="AA24" t="n">
-        <v>-1.3635525189272562</v>
+        <v>-1.660830522773118</v>
       </c>
       <c r="AB24" t="n">
-        <v>-1.4614551779300964</v>
+        <v>-1.719685035196534</v>
       </c>
       <c r="AC24" t="n">
-        <v>-1.528249172564684</v>
+        <v>-1.7440705175361315</v>
       </c>
       <c r="AD24" t="n">
-        <v>-1.4936435756665194</v>
+        <v>-1.6655104443730169</v>
       </c>
       <c r="AE24" t="n">
-        <v>-1.4965636820694113</v>
+        <v>-1.6254349892087436</v>
       </c>
       <c r="AF24" t="n">
-        <v>-1.5229705165314837</v>
+        <v>-1.6130005323913914</v>
       </c>
       <c r="AG24" t="n">
-        <v>-1.5234204753719267</v>
+        <v>-1.5826493027522386</v>
       </c>
       <c r="AH24" t="n">
-        <v>-1.491202539741866</v>
+        <v>-1.532246590876735</v>
       </c>
       <c r="AI24" t="n">
-        <v>-1.419330187577632</v>
+        <v>-1.460072661057655</v>
       </c>
       <c r="AJ24" t="n">
-        <v>-1.3002154140886446</v>
+        <v>-1.3644967717830632</v>
       </c>
     </row>
     <row r="25">
@@ -36134,106 +36134,106 @@
         <v>5</v>
       </c>
       <c r="C27" t="n">
-        <v>0.21070335332570633</v>
+        <v>-0.656537811374627</v>
       </c>
       <c r="D27" t="n">
-        <v>0.14807733210805074</v>
+        <v>-0.6948777072569585</v>
       </c>
       <c r="E27" t="n">
-        <v>0.08552762015126175</v>
+        <v>-0.7331412938784232</v>
       </c>
       <c r="F27" t="n">
-        <v>0.0230355136188109</v>
+        <v>-0.77134727507555</v>
       </c>
       <c r="G27" t="n">
-        <v>-0.039407473475960825</v>
+        <v>-0.8095041368349978</v>
       </c>
       <c r="H27" t="n">
-        <v>-0.10143200252340304</v>
+        <v>-0.8472425405471158</v>
       </c>
       <c r="I27" t="n">
-        <v>-0.14402176017681165</v>
+        <v>-0.8655461728652003</v>
       </c>
       <c r="J27" t="n">
-        <v>-0.18595278365468063</v>
+        <v>-0.8831910710077451</v>
       </c>
       <c r="K27" t="n">
-        <v>-0.22791594443110003</v>
+        <v>-0.9008681064488404</v>
       </c>
       <c r="L27" t="n">
-        <v>-0.269923230855189</v>
+        <v>-0.9185892675376053</v>
       </c>
       <c r="M27" t="n">
-        <v>-0.3119861102112809</v>
+        <v>-0.9363660215583732</v>
       </c>
       <c r="N27" t="n">
-        <v>-0.3541162238667837</v>
+        <v>-0.9542100098785519</v>
       </c>
       <c r="O27" t="n">
-        <v>-0.3963239265781855</v>
+        <v>-0.9721315872546298</v>
       </c>
       <c r="P27" t="n">
-        <v>-0.4386196084151853</v>
+        <v>-0.9901411437563054</v>
       </c>
       <c r="Q27" t="n">
-        <v>-0.4810118623724692</v>
+        <v>-1.0082735391591584</v>
       </c>
       <c r="R27" t="n">
-        <v>-0.5235120887722307</v>
+        <v>-1.026956965818636</v>
       </c>
       <c r="S27" t="n">
-        <v>-0.5661304447194817</v>
+        <v>-1.0467695068840213</v>
       </c>
       <c r="T27" t="n">
-        <v>-0.6088768013124647</v>
+        <v>-1.0680348025168758</v>
       </c>
       <c r="U27" t="n">
-        <v>-0.6517610713957439</v>
+        <v>-1.0908109941845021</v>
       </c>
       <c r="V27" t="n">
-        <v>-0.6948065422710917</v>
+        <v>-1.114899261395145</v>
       </c>
       <c r="W27" t="n">
-        <v>-0.7395835019758272</v>
+        <v>-1.1407885868094574</v>
       </c>
       <c r="X27" t="n">
-        <v>-0.7979901950127781</v>
+        <v>-1.1782658660880945</v>
       </c>
       <c r="Y27" t="n">
-        <v>-0.8938255971952941</v>
+        <v>-1.2495184874542864</v>
       </c>
       <c r="Z27" t="n">
-        <v>-1.0342964500767664</v>
+        <v>-1.3608209551030008</v>
       </c>
       <c r="AA27" t="n">
-        <v>-1.1947084238612864</v>
+        <v>-1.487226052111576</v>
       </c>
       <c r="AB27" t="n">
-        <v>-1.2857908129841897</v>
+        <v>-1.539889536020297</v>
       </c>
       <c r="AC27" t="n">
-        <v>-1.3475605434908293</v>
+        <v>-1.559934146211131</v>
       </c>
       <c r="AD27" t="n">
-        <v>-1.3099083657157764</v>
+        <v>-1.4790357965869907</v>
       </c>
       <c r="AE27" t="n">
-        <v>-1.3115253132222593</v>
+        <v>-1.4383500345110969</v>
       </c>
       <c r="AF27" t="n">
-        <v>-1.3376156995737105</v>
+        <v>-1.4262250375785959</v>
       </c>
       <c r="AG27" t="n">
-        <v>-1.3376244023903423</v>
+        <v>-1.395928897673056</v>
       </c>
       <c r="AH27" t="n">
-        <v>-1.303368538856968</v>
+        <v>-1.3437812964743931</v>
       </c>
       <c r="AI27" t="n">
-        <v>-1.2260251616360134</v>
+        <v>-1.2661412013717666</v>
       </c>
       <c r="AJ27" t="n">
-        <v>-1.095818573300411</v>
+        <v>-1.1590941798965546</v>
       </c>
     </row>
     <row r="28">
@@ -36254,106 +36254,106 @@
         <v>5</v>
       </c>
       <c r="C30" t="n">
-        <v>0.18705053069745597</v>
+        <v>-0.6688518779718648</v>
       </c>
       <c r="D30" t="n">
-        <v>0.13103113777265146</v>
+        <v>-0.7009033604522121</v>
       </c>
       <c r="E30" t="n">
-        <v>0.0751183292577603</v>
+        <v>-0.7328482585226459</v>
       </c>
       <c r="F30" t="n">
-        <v>0.019274822450688567</v>
+        <v>-0.7647238548852603</v>
       </c>
       <c r="G30" t="n">
-        <v>-0.03650868266013435</v>
+        <v>-0.796539449551626</v>
       </c>
       <c r="H30" t="n">
-        <v>-0.09186643906142783</v>
+        <v>-0.8279292955084621</v>
       </c>
       <c r="I30" t="n">
-        <v>-0.1277849208719687</v>
+        <v>-0.8398798668745455</v>
       </c>
       <c r="J30" t="n">
-        <v>-0.16304031979156647</v>
+        <v>-0.851167355349686</v>
       </c>
       <c r="K30" t="n">
-        <v>-0.1983261462576825</v>
+        <v>-0.8624852713713447</v>
       </c>
       <c r="L30" t="n">
-        <v>-0.23365751630128404</v>
+        <v>-0.8738487309704888</v>
       </c>
       <c r="M30" t="n">
-        <v>-0.26904669288179467</v>
+        <v>-0.8852699971065421</v>
       </c>
       <c r="N30" t="n">
-        <v>-0.3045079296186832</v>
+        <v>-0.8967633233989735</v>
       </c>
       <c r="O30" t="n">
-        <v>-0.3400532777460996</v>
+        <v>-0.9083407610819326</v>
       </c>
       <c r="P30" t="n">
-        <v>-0.3756952284697855</v>
+        <v>-0.9200148013611609</v>
       </c>
       <c r="Q30" t="n">
-        <v>-0.4114451286812256</v>
+        <v>-0.9318227137421229</v>
       </c>
       <c r="R30" t="n">
-        <v>-0.44731575947998153</v>
+        <v>-0.9441886102381856</v>
       </c>
       <c r="S30" t="n">
-        <v>-0.48331844352287456</v>
+        <v>-0.9576842981606889</v>
       </c>
       <c r="T30" t="n">
-        <v>-0.5194670520561141</v>
+        <v>-0.9726333065833489</v>
       </c>
       <c r="U30" t="n">
-        <v>-0.5557737792380496</v>
+        <v>-0.9890954263599402</v>
       </c>
       <c r="V30" t="n">
-        <v>-0.5922597479987115</v>
+        <v>-1.006872582848596</v>
       </c>
       <c r="W30" t="n">
-        <v>-0.6304937344478729</v>
+        <v>-1.0264664148503093</v>
       </c>
       <c r="X30" t="n">
-        <v>-0.6823587213008149</v>
+        <v>-1.0576762207022445</v>
       </c>
       <c r="Y30" t="n">
-        <v>-0.7716434282734992</v>
+        <v>-1.1227002487503908</v>
       </c>
       <c r="Z30" t="n">
-        <v>-0.9055638844735487</v>
+        <v>-1.227834505611704</v>
       </c>
       <c r="AA30" t="n">
-        <v>-1.059633147808512</v>
+        <v>-1.3483424755823443</v>
       </c>
       <c r="AB30" t="n">
-        <v>-1.1452593210274657</v>
+        <v>-1.396053136679309</v>
       </c>
       <c r="AC30" t="n">
-        <v>-1.203009640231747</v>
+        <v>-1.412625049151132</v>
       </c>
       <c r="AD30" t="n">
-        <v>-1.1629201977551837</v>
+        <v>-1.3298560783581717</v>
       </c>
       <c r="AE30" t="n">
-        <v>-1.163494618144539</v>
+        <v>-1.288682070752981</v>
       </c>
       <c r="AF30" t="n">
-        <v>-1.1893318460074935</v>
+        <v>-1.2768046417283605</v>
       </c>
       <c r="AG30" t="n">
-        <v>-1.1889875440050766</v>
+        <v>-1.2465525736097116</v>
       </c>
       <c r="AH30" t="n">
-        <v>-1.1531013381490507</v>
+        <v>-1.1930090609525208</v>
       </c>
       <c r="AI30" t="n">
-        <v>-1.0713811408827194</v>
+        <v>-1.1109960336230578</v>
       </c>
       <c r="AJ30" t="n">
-        <v>-0.9323011006698263</v>
+        <v>-0.9947721063873496</v>
       </c>
     </row>
     <row r="31">
@@ -36379,106 +36379,106 @@
         <v>5</v>
       </c>
       <c r="C34" t="n">
-        <v>-0.32933436272453664</v>
+        <v>-0.12326657628229143</v>
       </c>
       <c r="D34" t="n">
-        <v>-0.24521308239598566</v>
+        <v>-0.044756104435859964</v>
       </c>
       <c r="E34" t="n">
-        <v>-0.16109180206743468</v>
+        <v>0.03375436741057145</v>
       </c>
       <c r="F34" t="n">
-        <v>-0.07697052173888372</v>
+        <v>0.1122648392570029</v>
       </c>
       <c r="G34" t="n">
-        <v>0.0071507585896672665</v>
+        <v>0.19077531110343432</v>
       </c>
       <c r="H34" t="n">
-        <v>0.09127203891821825</v>
+        <v>0.26928578294986577</v>
       </c>
       <c r="I34" t="n">
-        <v>0.17539331924676926</v>
+        <v>0.3477962547962973</v>
       </c>
       <c r="J34" t="n">
-        <v>0.2595145995753202</v>
+        <v>0.4263067266427286</v>
       </c>
       <c r="K34" t="n">
-        <v>0.3436358799038712</v>
+        <v>0.5048171984891601</v>
       </c>
       <c r="L34" t="n">
-        <v>0.4277571602324222</v>
+        <v>0.5833276703355916</v>
       </c>
       <c r="M34" t="n">
-        <v>0.5118784405609732</v>
+        <v>0.661838142182023</v>
       </c>
       <c r="N34" t="n">
-        <v>0.5959997208895242</v>
+        <v>0.7403486140284545</v>
       </c>
       <c r="O34" t="n">
-        <v>0.6801210012180753</v>
+        <v>0.818859085874886</v>
       </c>
       <c r="P34" t="n">
-        <v>0.7642422815466262</v>
+        <v>0.897373662889515</v>
       </c>
       <c r="Q34" t="n">
-        <v>0.8483635618751773</v>
+        <v>0.9759526955073328</v>
       </c>
       <c r="R34" t="n">
-        <v>0.9324848422037283</v>
+        <v>1.0546772579339208</v>
       </c>
       <c r="S34" t="n">
-        <v>1.0166061225322793</v>
+        <v>1.13359441371446</v>
       </c>
       <c r="T34" t="n">
-        <v>1.1007274028608303</v>
+        <v>1.2127158509146108</v>
       </c>
       <c r="U34" t="n">
-        <v>1.1848486831893812</v>
+        <v>1.2920178821205142</v>
       </c>
       <c r="V34" t="n">
-        <v>1.2689699635179321</v>
+        <v>1.3714414444387906</v>
       </c>
       <c r="W34" t="n">
-        <v>1.3530918512059138</v>
+        <v>1.4508920994965404</v>
       </c>
       <c r="X34" t="n">
-        <v>1.4373265421870578</v>
+        <v>1.5302400334413442</v>
       </c>
       <c r="Y34" t="n">
-        <v>1.5219428448436014</v>
+        <v>1.6093200569412622</v>
       </c>
       <c r="Z34" t="n">
-        <v>1.607043046529951</v>
+        <v>1.6879308371817467</v>
       </c>
       <c r="AA34" t="n">
-        <v>1.6901244445470538</v>
+        <v>1.7634387689733217</v>
       </c>
       <c r="AB34" t="n">
-        <v>1.7624214456031406</v>
+        <v>1.8271200742123175</v>
       </c>
       <c r="AC34" t="n">
-        <v>1.8176877748265052</v>
+        <v>1.872943010893654</v>
       </c>
       <c r="AD34" t="n">
-        <v>1.8540701686744492</v>
+        <v>1.8994415660197954</v>
       </c>
       <c r="AE34" t="n">
-        <v>1.8741083749333471</v>
+        <v>1.9097154556007943</v>
       </c>
       <c r="AF34" t="n">
-        <v>1.8847351527184208</v>
+        <v>1.9114301246540921</v>
       </c>
       <c r="AG34" t="n">
-        <v>1.897276272474085</v>
+        <v>1.9168167472048312</v>
       </c>
       <c r="AH34" t="n">
-        <v>1.9274505159735718</v>
+        <v>1.9426722262855158</v>
       </c>
       <c r="AI34" t="n">
-        <v>1.99536967631912</v>
+        <v>2.0103591939361793</v>
       </c>
       <c r="AJ34" t="n">
-        <v>2.125538557942201</v>
+        <v>2.1458060112046153</v>
       </c>
     </row>
     <row r="35">
@@ -36609,106 +36609,106 @@
         <v>5</v>
       </c>
       <c r="C38" t="n">
-        <v>0.4613813445330111</v>
+        <v>-0.8210319837545976</v>
       </c>
       <c r="D38" t="n">
-        <v>0.3838820898388817</v>
+        <v>-0.8637128548933795</v>
       </c>
       <c r="E38" t="n">
-        <v>0.3064213004693108</v>
+        <v>-0.9063552607076024</v>
       </c>
       <c r="F38" t="n">
-        <v>0.22900349616972637</v>
+        <v>-0.9489546814518393</v>
       </c>
       <c r="G38" t="n">
-        <v>0.15162120848460853</v>
+        <v>-0.9915185855816092</v>
       </c>
       <c r="H38" t="n">
-        <v>0.07464826551907061</v>
+        <v>-1.0336731449917993</v>
       </c>
       <c r="I38" t="n">
-        <v>0.017104464951667314</v>
+        <v>-1.0563985620038547</v>
       </c>
       <c r="J38" t="n">
-        <v>-0.03978603733445049</v>
+        <v>-1.078470680734625</v>
       </c>
       <c r="K38" t="n">
-        <v>-0.09671081410915908</v>
+        <v>-1.1005770739539855</v>
       </c>
       <c r="L38" t="n">
-        <v>-0.15367794411926713</v>
+        <v>-1.122725820408746</v>
       </c>
       <c r="M38" t="n">
-        <v>-0.2106979000552458</v>
+        <v>-1.1449273927893768</v>
       </c>
       <c r="N38" t="n">
-        <v>-0.26777905796942614</v>
+        <v>-1.1671901671482092</v>
       </c>
       <c r="O38" t="n">
-        <v>-0.32492965202121954</v>
+        <v>-1.1895223776446548</v>
       </c>
       <c r="P38" t="n">
-        <v>-0.3821574458602717</v>
+        <v>-1.211957262923865</v>
       </c>
       <c r="Q38" t="n">
-        <v>-0.43946759011027003</v>
+        <v>-1.23487448373582</v>
       </c>
       <c r="R38" t="n">
-        <v>-0.4968697591216988</v>
+        <v>-1.2587868278050192</v>
       </c>
       <c r="S38" t="n">
-        <v>-0.5543726530598074</v>
+        <v>-1.283995052416965</v>
       </c>
       <c r="T38" t="n">
-        <v>-0.6119811428378799</v>
+        <v>-1.3105765598419632</v>
       </c>
       <c r="U38" t="n">
-        <v>-0.6697022896582479</v>
+        <v>-1.3383914168761348</v>
       </c>
       <c r="V38" t="n">
-        <v>-0.7275572117611243</v>
+        <v>-1.3670942215902495</v>
       </c>
       <c r="W38" t="n">
-        <v>-0.7865136012765864</v>
+        <v>-1.3970628511573957</v>
       </c>
       <c r="X38" t="n">
-        <v>-0.8577997428117072</v>
+        <v>-1.4380237763934183</v>
       </c>
       <c r="Y38" t="n">
-        <v>-0.9662881041315958</v>
+        <v>-1.512156252681912</v>
       </c>
       <c r="Z38" t="n">
-        <v>-1.1201662601690372</v>
+        <v>-1.6257637123171356</v>
       </c>
       <c r="AA38" t="n">
-        <v>-1.2951421147558884</v>
+        <v>-1.7537417317926571</v>
       </c>
       <c r="AB38" t="n">
-        <v>-1.4014269456273598</v>
+        <v>-1.8065610768055989</v>
       </c>
       <c r="AC38" t="n">
-        <v>-1.4783493103857872</v>
+        <v>-1.8248816082204238</v>
       </c>
       <c r="AD38" t="n">
-        <v>-1.4552868264285488</v>
+        <v>-1.7404840619969146</v>
       </c>
       <c r="AE38" t="n">
-        <v>-1.4705023585862929</v>
+        <v>-1.6951062368282757</v>
       </c>
       <c r="AF38" t="n">
-        <v>-1.5089635270488593</v>
+        <v>-1.6782625020672124</v>
       </c>
       <c r="AG38" t="n">
-        <v>-1.519902349002155</v>
+        <v>-1.6448034393626025</v>
       </c>
       <c r="AH38" t="n">
-        <v>-1.4949524518989088</v>
+        <v>-1.5930530559304714</v>
       </c>
       <c r="AI38" t="n">
-        <v>-1.4251409854119492</v>
+        <v>-1.5218006965071362</v>
       </c>
       <c r="AJ38" t="n">
-        <v>-1.3005626419221503</v>
+        <v>-1.4299750638371838</v>
       </c>
     </row>
     <row r="39">
@@ -36729,106 +36729,106 @@
         <v>5</v>
       </c>
       <c r="C41" t="n">
-        <v>0.4282629228165087</v>
+        <v>-0.8335436268268754</v>
       </c>
       <c r="D41" t="n">
-        <v>0.3591285500709862</v>
+        <v>-0.8684206968652621</v>
       </c>
       <c r="E41" t="n">
-        <v>0.2900704865863304</v>
+        <v>-0.9032214576427823</v>
       </c>
       <c r="F41" t="n">
-        <v>0.22107002852601254</v>
+        <v>-0.9379646129959641</v>
       </c>
       <c r="G41" t="n">
-        <v>0.15211868990337385</v>
+        <v>-0.9726586489114669</v>
       </c>
       <c r="H41" t="n">
-        <v>0.08358580932806475</v>
+        <v>-1.0069342267796402</v>
       </c>
       <c r="I41" t="n">
-        <v>0.03448770014678923</v>
+        <v>-1.0217750332537798</v>
       </c>
       <c r="J41" t="n">
-        <v>-0.013951674858946689</v>
+        <v>-1.0359571055523802</v>
       </c>
       <c r="K41" t="n">
-        <v>-0.0624231871632331</v>
+        <v>-1.0501713151495307</v>
       </c>
       <c r="L41" t="n">
-        <v>-0.11093882511518899</v>
+        <v>-1.0644296503943507</v>
       </c>
       <c r="M41" t="n">
-        <v>-0.15951005599914797</v>
+        <v>-1.0787435785711739</v>
       </c>
       <c r="N41" t="n">
-        <v>-0.2081485211825177</v>
+        <v>-1.0931247410474079</v>
       </c>
       <c r="O41" t="n">
-        <v>-0.2568645754217864</v>
+        <v>-1.107583492579541</v>
       </c>
       <c r="P41" t="n">
-        <v>-0.30566860878665314</v>
+        <v>-1.1221552877159577</v>
       </c>
       <c r="Q41" t="n">
-        <v>-0.354569214271804</v>
+        <v>-1.1372171945341383</v>
       </c>
       <c r="R41" t="n">
-        <v>-0.4035777921994327</v>
+        <v>-1.1532756193097338</v>
       </c>
       <c r="S41" t="n">
-        <v>-0.45270449967455084</v>
+        <v>-1.1706280699134906</v>
       </c>
       <c r="T41" t="n">
-        <v>-0.5019592077954008</v>
+        <v>-1.1893557799941064</v>
       </c>
       <c r="U41" t="n">
-        <v>-0.5513518294065467</v>
+        <v>-1.2093240367313203</v>
       </c>
       <c r="V41" t="n">
-        <v>-0.6009008558340768</v>
+        <v>-1.2301907175711166</v>
       </c>
       <c r="W41" t="n">
-        <v>-0.6515818302854397</v>
+        <v>-1.252351055337186</v>
       </c>
       <c r="X41" t="n">
-        <v>-0.7146150636222377</v>
+        <v>-1.2855477480785198</v>
       </c>
       <c r="Y41" t="n">
-        <v>-0.8148431112914442</v>
+        <v>-1.3519735386319947</v>
       </c>
       <c r="Z41" t="n">
-        <v>-0.9604491649485929</v>
+        <v>-1.4579578380315117</v>
       </c>
       <c r="AA41" t="n">
-        <v>-1.127389703824512</v>
+        <v>-1.5786578884186537</v>
       </c>
       <c r="AB41" t="n">
-        <v>-1.2267191903059258</v>
+        <v>-1.6253834586232474</v>
       </c>
       <c r="AC41" t="n">
-        <v>-1.2984540773141806</v>
+        <v>-1.6394608515421025</v>
       </c>
       <c r="AD41" t="n">
-        <v>-1.272159000984443</v>
+        <v>-1.5528190968182742</v>
       </c>
       <c r="AE41" t="n">
-        <v>-1.2858732396051877</v>
+        <v>-1.5069164097804255</v>
       </c>
       <c r="AF41" t="n">
-        <v>-1.3238237103896633</v>
+        <v>-1.4904531882144494</v>
       </c>
       <c r="AG41" t="n">
-        <v>-1.3341522535325843</v>
+        <v>-1.4570992964199574</v>
       </c>
       <c r="AH41" t="n">
-        <v>-1.3070473077178466</v>
+        <v>-1.403625740718214</v>
       </c>
       <c r="AI41" t="n">
-        <v>-1.23173160603154</v>
+        <v>-1.3268923653650213</v>
       </c>
       <c r="AJ41" t="n">
-        <v>-1.096149490394911</v>
+        <v>-1.2235351669837025</v>
       </c>
     </row>
     <row r="42">
@@ -36849,106 +36849,106 @@
         <v>5</v>
       </c>
       <c r="C44" t="n">
-        <v>0.401768185443307</v>
+        <v>-0.8435529412846974</v>
       </c>
       <c r="D44" t="n">
-        <v>0.33932571825666985</v>
+        <v>-0.8721869704427683</v>
       </c>
       <c r="E44" t="n">
-        <v>0.27698983547994604</v>
+        <v>-0.900714415190926</v>
       </c>
       <c r="F44" t="n">
-        <v>0.21472325441104173</v>
+        <v>-0.929172558231264</v>
       </c>
       <c r="G44" t="n">
-        <v>0.15251667503838623</v>
+        <v>-0.9575706995753532</v>
       </c>
       <c r="H44" t="n">
-        <v>0.09073584437525997</v>
+        <v>-0.9855430922099132</v>
       </c>
       <c r="I44" t="n">
-        <v>0.04839428830288656</v>
+        <v>-0.9940762102537204</v>
       </c>
       <c r="J44" t="n">
-        <v>0.006715815121456109</v>
+        <v>-1.0019462454065848</v>
       </c>
       <c r="K44" t="n">
-        <v>-0.034993085606492634</v>
+        <v>-1.009846708105967</v>
       </c>
       <c r="L44" t="n">
-        <v>-0.07674752991192685</v>
+        <v>-1.0177927143828354</v>
       </c>
       <c r="M44" t="n">
-        <v>-0.11855978075427015</v>
+        <v>-1.0257965271966123</v>
       </c>
       <c r="N44" t="n">
-        <v>-0.16044409175299146</v>
+        <v>-1.0338724001667667</v>
       </c>
       <c r="O44" t="n">
-        <v>-0.20241251414224054</v>
+        <v>-1.0420323845274502</v>
       </c>
       <c r="P44" t="n">
-        <v>-0.244477539127759</v>
+        <v>-1.0503137075496325</v>
       </c>
       <c r="Q44" t="n">
-        <v>-0.28665051360103166</v>
+        <v>-1.0590913631727936</v>
       </c>
       <c r="R44" t="n">
-        <v>-0.32894421866162066</v>
+        <v>-1.0688666525135064</v>
       </c>
       <c r="S44" t="n">
-        <v>-0.37136997696634655</v>
+        <v>-1.0799344839107117</v>
       </c>
       <c r="T44" t="n">
-        <v>-0.4139416597614185</v>
+        <v>-1.0923791561158214</v>
       </c>
       <c r="U44" t="n">
-        <v>-0.45667146120518654</v>
+        <v>-1.1060701326154696</v>
       </c>
       <c r="V44" t="n">
-        <v>-0.49957577109244</v>
+        <v>-1.1206679143558107</v>
       </c>
       <c r="W44" t="n">
-        <v>-0.5436364134925238</v>
+        <v>-1.1365816186810203</v>
       </c>
       <c r="X44" t="n">
-        <v>-0.6000673202706635</v>
+        <v>-1.1635669254266028</v>
       </c>
       <c r="Y44" t="n">
-        <v>-0.6936871170193242</v>
+        <v>-1.2238273673920614</v>
       </c>
       <c r="Z44" t="n">
-        <v>-0.8326754887722392</v>
+        <v>-1.323713138603014</v>
       </c>
       <c r="AA44" t="n">
-        <v>-0.9931877750794122</v>
+        <v>-1.4385908137194525</v>
       </c>
       <c r="AB44" t="n">
-        <v>-1.0869529860487805</v>
+        <v>-1.4804413640773677</v>
       </c>
       <c r="AC44" t="n">
-        <v>-1.1545378908568973</v>
+        <v>-1.4911242461994467</v>
       </c>
       <c r="AD44" t="n">
-        <v>-1.1256567406291595</v>
+        <v>-1.4026871246753636</v>
       </c>
       <c r="AE44" t="n">
-        <v>-1.138169944420305</v>
+        <v>-1.3563645481421474</v>
       </c>
       <c r="AF44" t="n">
-        <v>-1.1757118570623075</v>
+        <v>-1.3402057371322407</v>
       </c>
       <c r="AG44" t="n">
-        <v>-1.18555217715693</v>
+        <v>-1.3069359820658435</v>
       </c>
       <c r="AH44" t="n">
-        <v>-1.1567231923729981</v>
+        <v>-1.2520838885484107</v>
       </c>
       <c r="AI44" t="n">
-        <v>-1.0770041025272148</v>
+        <v>-1.1709657004513314</v>
       </c>
       <c r="AJ44" t="n">
-        <v>-0.9326189691731208</v>
+        <v>-1.0583832495009193</v>
       </c>
     </row>
     <row r="45">
@@ -36974,106 +36974,106 @@
         <v>5</v>
       </c>
       <c r="C48" t="n">
-        <v>-0.36480213579753723</v>
+        <v>-0.11852275184897333</v>
       </c>
       <c r="D48" t="n">
-        <v>-0.27962034815670356</v>
+        <v>-0.03978052578869623</v>
       </c>
       <c r="E48" t="n">
-        <v>-0.19443856051586994</v>
+        <v>0.03896170027158082</v>
       </c>
       <c r="F48" t="n">
-        <v>-0.10925677287503632</v>
+        <v>0.11770392633185789</v>
       </c>
       <c r="G48" t="n">
-        <v>-0.024074985234202706</v>
+        <v>0.19644615239213498</v>
       </c>
       <c r="H48" t="n">
-        <v>0.061106802406630925</v>
+        <v>0.27518837845241206</v>
       </c>
       <c r="I48" t="n">
-        <v>0.14628859004746458</v>
+        <v>0.3539306045126891</v>
       </c>
       <c r="J48" t="n">
-        <v>0.23147037768829815</v>
+        <v>0.4326728305729661</v>
       </c>
       <c r="K48" t="n">
-        <v>0.31665216532913176</v>
+        <v>0.5114150566332433</v>
       </c>
       <c r="L48" t="n">
-        <v>0.40183395296996544</v>
+        <v>0.5901572826935203</v>
       </c>
       <c r="M48" t="n">
-        <v>0.48701574061079905</v>
+        <v>0.6688995087537974</v>
       </c>
       <c r="N48" t="n">
-        <v>0.5721975282516327</v>
+        <v>0.7476417348140745</v>
       </c>
       <c r="O48" t="n">
-        <v>0.6573793158924665</v>
+        <v>0.8263839608743517</v>
       </c>
       <c r="P48" t="n">
-        <v>0.7425611035333</v>
+        <v>0.9051261880288781</v>
       </c>
       <c r="Q48" t="n">
-        <v>0.8277428911741337</v>
+        <v>0.9838908622839224</v>
       </c>
       <c r="R48" t="n">
-        <v>0.9129246788149673</v>
+        <v>1.0627669786291254</v>
       </c>
       <c r="S48" t="n">
-        <v>0.998106466455801</v>
+        <v>1.1418251509969255</v>
       </c>
       <c r="T48" t="n">
-        <v>1.0832882540966347</v>
+        <v>1.2210966983311398</v>
       </c>
       <c r="U48" t="n">
-        <v>1.1684700417374683</v>
+        <v>1.3005736445869651</v>
       </c>
       <c r="V48" t="n">
-        <v>1.2536518293783019</v>
+        <v>1.3802087187309766</v>
       </c>
       <c r="W48" t="n">
-        <v>1.3388336170191355</v>
+        <v>1.4599153547411292</v>
       </c>
       <c r="X48" t="n">
-        <v>1.4240173007069168</v>
+        <v>1.5395676916067567</v>
       </c>
       <c r="Y48" t="n">
-        <v>1.50936175553901</v>
+        <v>1.619000573328572</v>
       </c>
       <c r="Z48" t="n">
-        <v>1.5951772054419302</v>
+        <v>1.6980087809155786</v>
       </c>
       <c r="AA48" t="n">
-        <v>1.6791397631516762</v>
+        <v>1.7739509034927514</v>
       </c>
       <c r="AB48" t="n">
-        <v>1.752594580205257</v>
+        <v>1.8380914377617714</v>
       </c>
       <c r="AC48" t="n">
-        <v>1.8093380559534549</v>
+        <v>1.884382997013807</v>
       </c>
       <c r="AD48" t="n">
-        <v>1.847491530469796</v>
+        <v>1.9113400040384714</v>
       </c>
       <c r="AE48" t="n">
-        <v>1.8695012845505796</v>
+        <v>1.9220386911238634</v>
       </c>
       <c r="AF48" t="n">
-        <v>1.8821385397147095</v>
+        <v>1.9241171000563726</v>
       </c>
       <c r="AG48" t="n">
-        <v>1.8964994582039492</v>
+        <v>1.9297750821209865</v>
       </c>
       <c r="AH48" t="n">
-        <v>1.9280051429826481</v>
+        <v>1.955774298100954</v>
       </c>
       <c r="AI48" t="n">
-        <v>1.9964016377378644</v>
+        <v>2.023438218277954</v>
       </c>
       <c r="AJ48" t="n">
-        <v>2.1257599268796072</v>
+        <v>2.158652122432321</v>
       </c>
     </row>
     <row r="49">
@@ -37204,106 +37204,106 @@
         <v>5</v>
       </c>
       <c r="C52" t="n">
-        <v>0.6824121447760296</v>
+        <v>-0.8516117221056614</v>
       </c>
       <c r="D52" t="n">
-        <v>0.5983318152724534</v>
+        <v>-0.8957307651467562</v>
       </c>
       <c r="E52" t="n">
-        <v>0.5142899510934357</v>
+        <v>-0.9398113428632926</v>
       </c>
       <c r="F52" t="n">
-        <v>0.43029107198440397</v>
+        <v>-0.9838489355098426</v>
       </c>
       <c r="G52" t="n">
-        <v>0.34632770948983926</v>
+        <v>-1.0278510115419262</v>
       </c>
       <c r="H52" t="n">
-        <v>0.26277369171485454</v>
+        <v>-1.0714437428544292</v>
       </c>
       <c r="I52" t="n">
-        <v>0.19864881633800413</v>
+        <v>-1.0956073317687982</v>
       </c>
       <c r="J52" t="n">
-        <v>0.13517723924243943</v>
+        <v>-1.1191176224018815</v>
       </c>
       <c r="K52" t="n">
-        <v>0.07167138765828401</v>
+        <v>-1.1426621875235556</v>
       </c>
       <c r="L52" t="n">
-        <v>0.00812318283872901</v>
+        <v>-1.166249105880629</v>
       </c>
       <c r="M52" t="n">
-        <v>-0.055477847906696486</v>
+        <v>-1.1898888501635732</v>
       </c>
       <c r="N52" t="n">
-        <v>-0.11914008063032366</v>
+        <v>-1.2135897964247189</v>
       </c>
       <c r="O52" t="n">
-        <v>-0.18287174949156385</v>
+        <v>-1.2373601788234778</v>
       </c>
       <c r="P52" t="n">
-        <v>-0.2466806181400629</v>
+        <v>-1.26120776779996</v>
       </c>
       <c r="Q52" t="n">
-        <v>-0.310571837199508</v>
+        <v>-1.2852770047160822</v>
       </c>
       <c r="R52" t="n">
-        <v>-0.37455508102038354</v>
+        <v>-1.3101298304439353</v>
       </c>
       <c r="S52" t="n">
-        <v>-0.438639049767939</v>
+        <v>-1.3362131463441624</v>
       </c>
       <c r="T52" t="n">
-        <v>-0.5028286143554587</v>
+        <v>-1.3637261758911543</v>
       </c>
       <c r="U52" t="n">
-        <v>-0.567130835985274</v>
+        <v>-1.3926264842140645</v>
       </c>
       <c r="V52" t="n">
-        <v>-0.6315668328975974</v>
+        <v>-1.4226418448456388</v>
       </c>
       <c r="W52" t="n">
-        <v>-0.6971005281981887</v>
+        <v>-1.4541989875498884</v>
       </c>
       <c r="X52" t="n">
-        <v>-0.7742757304909933</v>
+        <v>-1.4970489128625286</v>
       </c>
       <c r="Y52" t="n">
-        <v>-0.8872827065195712</v>
+        <v>-1.5733710830159673</v>
       </c>
       <c r="Z52" t="n">
-        <v>-1.0455994005718452</v>
+        <v>-1.6894448142822203</v>
       </c>
       <c r="AA52" t="n">
-        <v>-1.2260433719639197</v>
+        <v>-1.8201172442615619</v>
       </c>
       <c r="AB52" t="n">
-        <v>-1.339513135562238</v>
+        <v>-1.8757863768867675</v>
       </c>
       <c r="AC52" t="n">
-        <v>-1.4256020677472685</v>
+        <v>-1.8970149883868945</v>
       </c>
       <c r="AD52" t="n">
-        <v>-1.413530186341557</v>
+        <v>-1.8154624072152687</v>
       </c>
       <c r="AE52" t="n">
-        <v>-1.4409803382477522</v>
+        <v>-1.7727207016875792</v>
       </c>
       <c r="AF52" t="n">
-        <v>-1.4919177073748777</v>
+        <v>-1.7581341879079702</v>
       </c>
       <c r="AG52" t="n">
-        <v>-1.5141494562746363</v>
+        <v>-1.7263590714056936</v>
       </c>
       <c r="AH52" t="n">
-        <v>-1.497461939412805</v>
+        <v>-1.6755006604060985</v>
       </c>
       <c r="AI52" t="n">
-        <v>-1.430612615122099</v>
+        <v>-1.6041052777837765</v>
       </c>
       <c r="AJ52" t="n">
-        <v>-1.30100406609022</v>
+        <v>-1.5108342815505262</v>
       </c>
     </row>
     <row r="53">
@@ -37324,106 +37324,106 @@
         <v>5</v>
       </c>
       <c r="C55" t="n">
-        <v>0.6457469457522269</v>
+        <v>-0.8636489827346072</v>
       </c>
       <c r="D55" t="n">
-        <v>0.5701375489284861</v>
+        <v>-0.8999410492539227</v>
       </c>
       <c r="E55" t="n">
-        <v>0.49460446136561154</v>
+        <v>-0.9361568065123714</v>
       </c>
       <c r="F55" t="n">
-        <v>0.41912897922707504</v>
+        <v>-0.9723149583464822</v>
       </c>
       <c r="G55" t="n">
-        <v>0.3437026165262177</v>
+        <v>-1.0084239907429136</v>
       </c>
       <c r="H55" t="n">
-        <v>0.2686947118726899</v>
+        <v>-1.0441145650920158</v>
       </c>
       <c r="I55" t="n">
-        <v>0.21312157861319564</v>
+        <v>-1.0603703680470842</v>
       </c>
       <c r="J55" t="n">
-        <v>0.15820717952924104</v>
+        <v>-1.075967436826613</v>
       </c>
       <c r="K55" t="n">
-        <v>0.10326064314673608</v>
+        <v>-1.0915966429046922</v>
       </c>
       <c r="L55" t="n">
-        <v>0.04826998111656146</v>
+        <v>-1.1072699746304413</v>
       </c>
       <c r="M55" t="n">
-        <v>-0.006776273845616064</v>
+        <v>-1.122998899288193</v>
       </c>
       <c r="N55" t="n">
-        <v>-0.06188976310720436</v>
+        <v>-1.1387950582453554</v>
       </c>
       <c r="O55" t="n">
-        <v>-0.11708084142469163</v>
+        <v>-1.1546688062584174</v>
       </c>
       <c r="P55" t="n">
-        <v>-0.172359898867777</v>
+        <v>-1.1706305400781163</v>
       </c>
       <c r="Q55" t="n">
-        <v>-0.22773552843114625</v>
+        <v>-1.1868258988367413</v>
       </c>
       <c r="R55" t="n">
-        <v>-0.28321913043699376</v>
+        <v>-1.2038096498791295</v>
       </c>
       <c r="S55" t="n">
-        <v>-0.33882086199033035</v>
+        <v>-1.2220230901124411</v>
       </c>
       <c r="T55" t="n">
-        <v>-0.3945505941893993</v>
+        <v>-1.2416673113016445</v>
       </c>
       <c r="U55" t="n">
-        <v>-0.45041823987876384</v>
+        <v>-1.2627035278226049</v>
       </c>
       <c r="V55" t="n">
-        <v>-0.5064422903845129</v>
+        <v>-1.2848616133972866</v>
       </c>
       <c r="W55" t="n">
-        <v>-0.5635945806257199</v>
+        <v>-1.3085848662052202</v>
       </c>
       <c r="X55" t="n">
-        <v>-0.6324219754495379</v>
+        <v>-1.3436401187310891</v>
       </c>
       <c r="Y55" t="n">
-        <v>-0.7370958226098786</v>
+        <v>-1.4122203173273191</v>
       </c>
       <c r="Z55" t="n">
-        <v>-0.8870688894602032</v>
+        <v>-1.520631145623213</v>
       </c>
       <c r="AA55" t="n">
-        <v>-1.059389429172081</v>
+        <v>-1.643982187435616</v>
       </c>
       <c r="AB55" t="n">
-        <v>-1.1657880667805929</v>
+        <v>-1.6935116223494708</v>
       </c>
       <c r="AC55" t="n">
-        <v>-1.2465418065629668</v>
+        <v>-1.7104502330965576</v>
       </c>
       <c r="AD55" t="n">
-        <v>-1.231060224717916</v>
+        <v>-1.6266075982347608</v>
       </c>
       <c r="AE55" t="n">
-        <v>-1.256811928304924</v>
+        <v>-1.583298551087422</v>
       </c>
       <c r="AF55" t="n">
-        <v>-1.3070375520160527</v>
+        <v>-1.5690561765149789</v>
       </c>
       <c r="AG55" t="n">
-        <v>-1.3284770422320795</v>
+        <v>-1.5373590949714329</v>
       </c>
       <c r="AH55" t="n">
-        <v>-1.3095013325308353</v>
+        <v>-1.4847631380122979</v>
       </c>
       <c r="AI55" t="n">
-        <v>-1.2371000395998157</v>
+        <v>-1.4078890442074843</v>
       </c>
       <c r="AJ55" t="n">
-        <v>-1.0965687776692397</v>
+        <v>-1.303109773574275</v>
       </c>
     </row>
     <row r="56">
@@ -37444,106 +37444,106 @@
         <v>5</v>
       </c>
       <c r="C58" t="n">
-        <v>0.6164147865331853</v>
+        <v>-0.8732787912377639</v>
       </c>
       <c r="D58" t="n">
-        <v>0.5475821358533122</v>
+        <v>-0.903309276539656</v>
       </c>
       <c r="E58" t="n">
-        <v>0.47885606958335225</v>
+        <v>-0.9332331774316345</v>
       </c>
       <c r="F58" t="n">
-        <v>0.410199305021212</v>
+        <v>-0.9630877766157937</v>
       </c>
       <c r="G58" t="n">
-        <v>0.3416025421553203</v>
+        <v>-0.9928823741037041</v>
       </c>
       <c r="H58" t="n">
-        <v>0.2734315279989582</v>
+        <v>-1.022251222882085</v>
       </c>
       <c r="I58" t="n">
-        <v>0.22469978843334854</v>
+        <v>-1.0321807970697132</v>
       </c>
       <c r="J58" t="n">
-        <v>0.17663113175868203</v>
+        <v>-1.0414472883663985</v>
       </c>
       <c r="K58" t="n">
-        <v>0.1285320475374974</v>
+        <v>-1.0507442072096018</v>
       </c>
       <c r="L58" t="n">
-        <v>0.08038741973882707</v>
+        <v>-1.0600866696302913</v>
       </c>
       <c r="M58" t="n">
-        <v>0.032184985403247816</v>
+        <v>-1.0694869385878891</v>
       </c>
       <c r="N58" t="n">
-        <v>-0.016089509088709417</v>
+        <v>-1.0789592677018651</v>
       </c>
       <c r="O58" t="n">
-        <v>-0.06444811497119446</v>
+        <v>-1.0885157082063692</v>
       </c>
       <c r="P58" t="n">
-        <v>-0.11290332344994891</v>
+        <v>-1.0981687579006418</v>
       </c>
       <c r="Q58" t="n">
-        <v>-0.16146648141645747</v>
+        <v>-1.1080650141332695</v>
       </c>
       <c r="R58" t="n">
-        <v>-0.21015036997028247</v>
+        <v>-1.1187535054272857</v>
       </c>
       <c r="S58" t="n">
-        <v>-0.25896631176824425</v>
+        <v>-1.1306710451270652</v>
       </c>
       <c r="T58" t="n">
-        <v>-0.3079281780565527</v>
+        <v>-1.1440202196300375</v>
       </c>
       <c r="U58" t="n">
-        <v>-0.3570481629935569</v>
+        <v>-1.1587651627094382</v>
       </c>
       <c r="V58" t="n">
-        <v>-0.4063426563740462</v>
+        <v>-1.1746374282386063</v>
       </c>
       <c r="W58" t="n">
-        <v>-0.45678982256774603</v>
+        <v>-1.192093569129487</v>
       </c>
       <c r="X58" t="n">
-        <v>-0.5189389714163748</v>
+        <v>-1.220913083425939</v>
       </c>
       <c r="Y58" t="n">
-        <v>-0.616946315482126</v>
+        <v>-1.283299704776401</v>
       </c>
       <c r="Z58" t="n">
-        <v>-0.7602444805708908</v>
+        <v>-1.3855802106960085</v>
       </c>
       <c r="AA58" t="n">
-        <v>-0.9260662749386115</v>
+        <v>-1.5030741419748603</v>
       </c>
       <c r="AB58" t="n">
-        <v>-1.026808011755278</v>
+        <v>-1.5476918187196347</v>
       </c>
       <c r="AC58" t="n">
-        <v>-1.1032935976155271</v>
+        <v>-1.56119842886429</v>
       </c>
       <c r="AD58" t="n">
-        <v>-1.0850842554190052</v>
+        <v>-1.475523751050356</v>
       </c>
       <c r="AE58" t="n">
-        <v>-1.1094772003506626</v>
+        <v>-1.4317608306072982</v>
       </c>
       <c r="AF58" t="n">
-        <v>-1.1591334277289942</v>
+        <v>-1.4177937674005876</v>
       </c>
       <c r="AG58" t="n">
-        <v>-1.1799391109980362</v>
+        <v>-1.3861591138240268</v>
       </c>
       <c r="AH58" t="n">
-        <v>-1.159132847025261</v>
+        <v>-1.3321731200972584</v>
       </c>
       <c r="AI58" t="n">
-        <v>-1.0822899791819909</v>
+        <v>-1.2509160573464522</v>
       </c>
       <c r="AJ58" t="n">
-        <v>-0.9330205469324575</v>
+        <v>-1.1369301671932754</v>
       </c>
     </row>
     <row r="59">
@@ -37569,106 +37569,106 @@
         <v>5</v>
       </c>
       <c r="C62" t="n">
-        <v>-0.4002202313382346</v>
+        <v>-0.11165800671331873</v>
       </c>
       <c r="D62" t="n">
-        <v>-0.31398276472346137</v>
+        <v>-0.03271155764081961</v>
       </c>
       <c r="E62" t="n">
-        <v>-0.2277452981086882</v>
+        <v>0.04623489143167949</v>
       </c>
       <c r="F62" t="n">
-        <v>-0.14150783149391505</v>
+        <v>0.1251813405041786</v>
       </c>
       <c r="G62" t="n">
-        <v>-0.05527036487914186</v>
+        <v>0.2041277895766777</v>
       </c>
       <c r="H62" t="n">
-        <v>0.030967101735631303</v>
+        <v>0.2830742386491768</v>
       </c>
       <c r="I62" t="n">
-        <v>0.11720456835040452</v>
+        <v>0.36202068772167595</v>
       </c>
       <c r="J62" t="n">
-        <v>0.20344203496517763</v>
+        <v>0.440967136794175</v>
       </c>
       <c r="K62" t="n">
-        <v>0.2896795015799508</v>
+        <v>0.5199135858666741</v>
       </c>
       <c r="L62" t="n">
-        <v>0.37591696819472403</v>
+        <v>0.5988600349391733</v>
       </c>
       <c r="M62" t="n">
-        <v>0.4621544348094972</v>
+        <v>0.6778064840116724</v>
       </c>
       <c r="N62" t="n">
-        <v>0.5483919014242704</v>
+        <v>0.7567529330841716</v>
       </c>
       <c r="O62" t="n">
-        <v>0.6346293680390437</v>
+        <v>0.8356993821566707</v>
       </c>
       <c r="P62" t="n">
-        <v>0.7208668346538168</v>
+        <v>0.9146458312291698</v>
       </c>
       <c r="Q62" t="n">
-        <v>0.80710430126859</v>
+        <v>0.9935954239146859</v>
       </c>
       <c r="R62" t="n">
-        <v>0.8933417678833632</v>
+        <v>1.0726112981446034</v>
       </c>
       <c r="S62" t="n">
-        <v>0.9795792344981364</v>
+        <v>1.1517873431097931</v>
       </c>
       <c r="T62" t="n">
-        <v>1.0658167011129096</v>
+        <v>1.2311768210931544</v>
       </c>
       <c r="U62" t="n">
-        <v>1.1520541677276828</v>
+        <v>1.310789655615685</v>
       </c>
       <c r="V62" t="n">
-        <v>1.238291634342456</v>
+        <v>1.3905924314364824</v>
       </c>
       <c r="W62" t="n">
-        <v>1.324529100957229</v>
+        <v>1.4705083945527413</v>
       </c>
       <c r="X62" t="n">
-        <v>1.4107665675720025</v>
+        <v>1.5504174521997574</v>
       </c>
       <c r="Y62" t="n">
-        <v>1.4970132947563326</v>
+        <v>1.6301561728509228</v>
       </c>
       <c r="Z62" t="n">
-        <v>1.5835194340002752</v>
+        <v>1.7095170182146422</v>
       </c>
       <c r="AA62" t="n">
-        <v>1.66821477227021</v>
+        <v>1.7858522143420097</v>
       </c>
       <c r="AB62" t="n">
-        <v>1.742633463122703</v>
+        <v>1.8504158510875461</v>
       </c>
       <c r="AC62" t="n">
-        <v>1.8006746152979383</v>
+        <v>1.897146091121979</v>
       </c>
       <c r="AD62" t="n">
-        <v>1.8404759856287032</v>
+        <v>1.9245388628411995</v>
       </c>
       <c r="AE62" t="n">
-        <v>1.8644139790404308</v>
+        <v>1.9356478603663072</v>
       </c>
       <c r="AF62" t="n">
-        <v>1.8791036485509867</v>
+        <v>1.9380845435434084</v>
       </c>
       <c r="AG62" t="n">
-        <v>1.8953986952710014</v>
+        <v>1.9440181379439283</v>
       </c>
       <c r="AH62" t="n">
-        <v>1.9283914684034855</v>
+        <v>1.9701756348642754</v>
       </c>
       <c r="AI62" t="n">
-        <v>1.9974129652440868</v>
+        <v>2.037841791326004</v>
       </c>
       <c r="AJ62" t="n">
-        <v>2.1260328311812344</v>
+        <v>2.1728591300760476</v>
       </c>
     </row>
     <row r="63">
@@ -37799,106 +37799,106 @@
         <v>5</v>
       </c>
       <c r="C66" t="n">
-        <v>0.9034020175724111</v>
+        <v>-0.8952015895929948</v>
       </c>
       <c r="D66" t="n">
-        <v>0.8127705759531599</v>
+        <v>-0.9405879571547956</v>
       </c>
       <c r="E66" t="n">
-        <v>0.7221775996584676</v>
+        <v>-0.985935859392038</v>
       </c>
       <c r="F66" t="n">
-        <v>0.6316276084337614</v>
+        <v>-1.0312407765592941</v>
       </c>
       <c r="G66" t="n">
-        <v>0.5411131338235219</v>
+        <v>-1.0765101771120835</v>
       </c>
       <c r="H66" t="n">
-        <v>0.45100800393286267</v>
+        <v>-1.1213702329452926</v>
       </c>
       <c r="I66" t="n">
-        <v>0.3803320164403377</v>
+        <v>-1.1468011463803673</v>
       </c>
       <c r="J66" t="n">
-        <v>0.3103093272290983</v>
+        <v>-1.1715787615341566</v>
       </c>
       <c r="K66" t="n">
-        <v>0.24025236352926843</v>
+        <v>-1.1963906511765368</v>
       </c>
       <c r="L66" t="n">
-        <v>0.17015304659403868</v>
+        <v>-1.2212448940543161</v>
       </c>
       <c r="M66" t="n">
-        <v>0.10000090373293852</v>
+        <v>-1.2461519628579667</v>
       </c>
       <c r="N66" t="n">
-        <v>0.02978755889363675</v>
+        <v>-1.2711202336398184</v>
       </c>
       <c r="O66" t="n">
-        <v>-0.040495222083278146</v>
+        <v>-1.2961579405592834</v>
       </c>
       <c r="P66" t="n">
-        <v>-0.11085520284745193</v>
+        <v>-1.3212728472660067</v>
       </c>
       <c r="Q66" t="n">
-        <v>-0.18129753402257162</v>
+        <v>-1.3464896123608467</v>
       </c>
       <c r="R66" t="n">
-        <v>-0.2518318899591214</v>
+        <v>-1.3722097183835766</v>
       </c>
       <c r="S66" t="n">
-        <v>-0.32246697082235165</v>
+        <v>-1.3990245034329756</v>
       </c>
       <c r="T66" t="n">
-        <v>-0.39320764752554593</v>
+        <v>-1.4272693623746102</v>
       </c>
       <c r="U66" t="n">
-        <v>-0.4640609812710356</v>
+        <v>-1.4570129377250627</v>
       </c>
       <c r="V66" t="n">
-        <v>-0.5350480902990336</v>
+        <v>-1.488068986400759</v>
       </c>
       <c r="W66" t="n">
-        <v>-0.6071328977152995</v>
+        <v>-1.5209251275456377</v>
       </c>
       <c r="X66" t="n">
-        <v>-0.6908474460315885</v>
+        <v>-1.5653681570716014</v>
       </c>
       <c r="Y66" t="n">
-        <v>-0.8094535553992721</v>
+        <v>-1.6435882385834848</v>
       </c>
       <c r="Z66" t="n">
-        <v>-0.9720563851252099</v>
+        <v>-1.7618502957219913</v>
       </c>
       <c r="AA66" t="n">
-        <v>-1.1570476930888083</v>
+        <v>-1.8949619794523325</v>
       </c>
       <c r="AB66" t="n">
-        <v>-1.2764988634195846</v>
+        <v>-1.9532567130684682</v>
       </c>
       <c r="AC66" t="n">
-        <v>-1.3706406449776243</v>
+        <v>-1.9772075981568897</v>
       </c>
       <c r="AD66" t="n">
-        <v>-1.3687949312817378</v>
+        <v>-1.8983591945246152</v>
       </c>
       <c r="AE66" t="n">
-        <v>-1.4082109481475509</v>
+        <v>-1.8581637078372775</v>
       </c>
       <c r="AF66" t="n">
-        <v>-1.4718847616135076</v>
+        <v>-1.8458004975452074</v>
       </c>
       <c r="AG66" t="n">
-        <v>-1.5061189195776563</v>
+        <v>-1.8157357185200944</v>
       </c>
       <c r="AH66" t="n">
-        <v>-1.4986596650683521</v>
+        <v>-1.7658595343259929</v>
       </c>
       <c r="AI66" t="n">
-        <v>-1.4356888481979548</v>
+        <v>-1.6944780291724308</v>
       </c>
       <c r="AJ66" t="n">
-        <v>-1.3014979466502647</v>
+        <v>-1.5999872284024053</v>
       </c>
     </row>
     <row r="67">
@@ -37919,106 +37919,106 @@
         <v>5</v>
       </c>
       <c r="C69" t="n">
-        <v>0.8631950089945386</v>
+        <v>-0.9065523757083752</v>
       </c>
       <c r="D69" t="n">
-        <v>0.7811400679525167</v>
+        <v>-0.9440913444471745</v>
       </c>
       <c r="E69" t="n">
-        <v>0.6991614361713617</v>
+        <v>-0.9815540039251068</v>
       </c>
       <c r="F69" t="n">
-        <v>0.6172404098145444</v>
+        <v>-1.0189590579787013</v>
       </c>
       <c r="G69" t="n">
-        <v>0.5353685028954066</v>
+        <v>-1.0563149925946167</v>
       </c>
       <c r="H69" t="n">
-        <v>0.4539150540235981</v>
+        <v>-1.0932524691632026</v>
       </c>
       <c r="I69" t="n">
-        <v>0.39189637654582316</v>
+        <v>-1.1107551743377546</v>
       </c>
       <c r="J69" t="n">
-        <v>0.33053643324358783</v>
+        <v>-1.1275991453367673</v>
       </c>
       <c r="K69" t="n">
-        <v>0.26914435264280234</v>
+        <v>-1.1444752536343303</v>
       </c>
       <c r="L69" t="n">
-        <v>0.20770814639434704</v>
+        <v>-1.161395487579563</v>
       </c>
       <c r="M69" t="n">
-        <v>0.14621634721388874</v>
+        <v>-1.1783713144567989</v>
       </c>
       <c r="N69" t="n">
-        <v>0.08465731373401983</v>
+        <v>-1.195414375633445</v>
       </c>
       <c r="O69" t="n">
-        <v>0.023020691198251772</v>
+        <v>-1.2125350258659906</v>
       </c>
       <c r="P69" t="n">
-        <v>-0.03870391046311436</v>
+        <v>-1.2297436552241339</v>
       </c>
       <c r="Q69" t="n">
-        <v>-0.1005250842447642</v>
+        <v>-1.2470680503184295</v>
       </c>
       <c r="R69" t="n">
-        <v>-0.16245423046889207</v>
+        <v>-1.2649051058672232</v>
       </c>
       <c r="S69" t="n">
-        <v>-0.22450150624050963</v>
+        <v>-1.2838382279899676</v>
       </c>
       <c r="T69" t="n">
-        <v>-0.286676782657859</v>
+        <v>-1.3042024855088985</v>
       </c>
       <c r="U69" t="n">
-        <v>-0.34898997256550424</v>
+        <v>-1.3260683802307311</v>
       </c>
       <c r="V69" t="n">
-        <v>-0.4114595672895337</v>
+        <v>-1.3492503836818566</v>
       </c>
       <c r="W69" t="n">
-        <v>-0.47505740174902145</v>
+        <v>-1.3742517022198086</v>
       </c>
       <c r="X69" t="n">
-        <v>-0.5503187643036245</v>
+        <v>-1.410874386880862</v>
       </c>
       <c r="Y69" t="n">
-        <v>-0.6605015175678474</v>
+        <v>-1.481321912942601</v>
       </c>
       <c r="Z69" t="n">
-        <v>-0.8146916511577333</v>
+        <v>-1.5918858033330778</v>
       </c>
       <c r="AA69" t="n">
-        <v>-0.9914862493851164</v>
+        <v>-1.7176367915414608</v>
       </c>
       <c r="AB69" t="n">
-        <v>-1.1037699063461945</v>
+        <v>-1.7697495171985935</v>
       </c>
       <c r="AC69" t="n">
-        <v>-1.1924467278588744</v>
+        <v>-1.789366533455736</v>
       </c>
       <c r="AD69" t="n">
-        <v>-1.1870265241422064</v>
+        <v>-1.7081844996638345</v>
       </c>
       <c r="AE69" t="n">
-        <v>-1.2245512687557372</v>
+        <v>-1.6673806403128766</v>
       </c>
       <c r="AF69" t="n">
-        <v>-1.2873080953710547</v>
+        <v>-1.6553257418035123</v>
       </c>
       <c r="AG69" t="n">
-        <v>-1.3205565818283942</v>
+        <v>-1.62531143650354</v>
       </c>
       <c r="AH69" t="n">
-        <v>-1.3106604256442989</v>
+        <v>-1.57368187825586</v>
       </c>
       <c r="AI69" t="n">
-        <v>-1.2420751399250496</v>
+        <v>-1.4968214382913336</v>
       </c>
       <c r="AJ69" t="n">
-        <v>-1.0970353677991218</v>
+        <v>-1.3908420196617812</v>
       </c>
     </row>
     <row r="70">
@@ -38039,106 +38039,106 @@
         <v>5</v>
       </c>
       <c r="C72" t="n">
-        <v>0.8310294021322413</v>
+        <v>-0.9156330046006795</v>
       </c>
       <c r="D72" t="n">
-        <v>0.7558356615520021</v>
+        <v>-0.9468940542810773</v>
       </c>
       <c r="E72" t="n">
-        <v>0.6807485053816772</v>
+        <v>-0.9780485195515621</v>
       </c>
       <c r="F72" t="n">
-        <v>0.6057306509191711</v>
+        <v>-1.0091336831142272</v>
       </c>
       <c r="G72" t="n">
-        <v>0.530772798152914</v>
+        <v>-1.0401588449806436</v>
       </c>
       <c r="H72" t="n">
-        <v>0.4562406940961864</v>
+        <v>-1.0707582581375306</v>
       </c>
       <c r="I72" t="n">
-        <v>0.4011478646302112</v>
+        <v>-1.081918396703665</v>
       </c>
       <c r="J72" t="n">
-        <v>0.34671811805517927</v>
+        <v>-1.092415452378856</v>
       </c>
       <c r="K72" t="n">
-        <v>0.29225794393362914</v>
+        <v>-1.102942935600566</v>
       </c>
       <c r="L72" t="n">
-        <v>0.2377522262345933</v>
+        <v>-1.1135159623997606</v>
       </c>
       <c r="M72" t="n">
-        <v>0.18318870199864848</v>
+        <v>-1.1241467957358648</v>
       </c>
       <c r="N72" t="n">
-        <v>0.12855311760632576</v>
+        <v>-1.134849689228347</v>
       </c>
       <c r="O72" t="n">
-        <v>0.07383342182347513</v>
+        <v>-1.145636694111357</v>
       </c>
       <c r="P72" t="n">
-        <v>0.019017123444355077</v>
+        <v>-1.156520301590636</v>
       </c>
       <c r="Q72" t="n">
-        <v>-0.03590712442251898</v>
+        <v>-1.1675308006844967</v>
       </c>
       <c r="R72" t="n">
-        <v>-0.09095210287670924</v>
+        <v>-1.1790614158541413</v>
       </c>
       <c r="S72" t="n">
-        <v>-0.14612913457503668</v>
+        <v>-1.1916892076355619</v>
       </c>
       <c r="T72" t="n">
-        <v>-0.2014520907637104</v>
+        <v>-1.2057489840163305</v>
       </c>
       <c r="U72" t="n">
-        <v>-0.2569331656010799</v>
+        <v>-1.2213127342352665</v>
       </c>
       <c r="V72" t="n">
-        <v>-0.3125887488819348</v>
+        <v>-1.2381955015067354</v>
       </c>
       <c r="W72" t="n">
-        <v>-0.36939700497600014</v>
+        <v>-1.2569129619591461</v>
       </c>
       <c r="X72" t="n">
-        <v>-0.43789581892125473</v>
+        <v>-1.2872793707282715</v>
       </c>
       <c r="Y72" t="n">
-        <v>-0.5413398873027089</v>
+        <v>-1.3515088524298953</v>
       </c>
       <c r="Z72" t="n">
-        <v>-0.6887998639837534</v>
+        <v>-1.4559142094219488</v>
       </c>
       <c r="AA72" t="n">
-        <v>-0.8590370944221641</v>
+        <v>-1.5757766412127638</v>
       </c>
       <c r="AB72" t="n">
-        <v>-0.9655867406874844</v>
+        <v>-1.6229437605026957</v>
       </c>
       <c r="AC72" t="n">
-        <v>-1.049891594163876</v>
+        <v>-1.6390936816948143</v>
       </c>
       <c r="AD72" t="n">
-        <v>-1.0416117984305828</v>
+        <v>-1.5560447437752112</v>
       </c>
       <c r="AE72" t="n">
-        <v>-1.0776235252422879</v>
+        <v>-1.5147541862933571</v>
       </c>
       <c r="AF72" t="n">
-        <v>-1.1396467623770943</v>
+        <v>-1.5029459372101583</v>
       </c>
       <c r="AG72" t="n">
-        <v>-1.1721067116289863</v>
+        <v>-1.472972010890298</v>
       </c>
       <c r="AH72" t="n">
-        <v>-1.1602610341050577</v>
+        <v>-1.4199397533997553</v>
       </c>
       <c r="AI72" t="n">
-        <v>-1.087184173306727</v>
+        <v>-1.3386961655864575</v>
       </c>
       <c r="AJ72" t="n">
-        <v>-0.9334653047182091</v>
+        <v>-1.2235258526692838</v>
       </c>
     </row>
   </sheetData>

--- a/JPADSandBox_v2/out/ATR-72/AERODYNAMIC_AND_STABILITY_CRUISE/Aerodynamic_and_Stability_CRUISE.xlsx
+++ b/JPADSandBox_v2/out/ATR-72/AERODYNAMIC_AND_STABILITY_CRUISE/Aerodynamic_and_Stability_CRUISE.xlsx
@@ -35189,106 +35189,106 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.186955579098393</v>
+        <v>-0.2581980580118683</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.10704536974151237</v>
+        <v>-0.1762976077874291</v>
       </c>
       <c r="E6" t="n">
-        <v>-0.027135160384631762</v>
+        <v>-0.09439715756298993</v>
       </c>
       <c r="F6" t="n">
-        <v>0.05277504897224886</v>
+        <v>-0.01249670733855076</v>
       </c>
       <c r="G6" t="n">
-        <v>0.13268525832912947</v>
+        <v>0.06940374288588842</v>
       </c>
       <c r="H6" t="n">
-        <v>0.21259546768601012</v>
+        <v>0.15130419311032758</v>
       </c>
       <c r="I6" t="n">
-        <v>0.29250567704289077</v>
+        <v>0.2332046433347668</v>
       </c>
       <c r="J6" t="n">
-        <v>0.3724158863997713</v>
+        <v>0.3151050935592059</v>
       </c>
       <c r="K6" t="n">
-        <v>0.45232609575665195</v>
+        <v>0.3970055437836451</v>
       </c>
       <c r="L6" t="n">
-        <v>0.5322363051135326</v>
+        <v>0.4789059940080843</v>
       </c>
       <c r="M6" t="n">
-        <v>0.6121465144704132</v>
+        <v>0.5608064442325235</v>
       </c>
       <c r="N6" t="n">
-        <v>0.6920567238272939</v>
+        <v>0.6427068944569627</v>
       </c>
       <c r="O6" t="n">
-        <v>0.7719669331841745</v>
+        <v>0.724607344681402</v>
       </c>
       <c r="P6" t="n">
-        <v>0.8518771425410552</v>
+        <v>0.8065077949058411</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.9317873518979358</v>
+        <v>0.8884082451302804</v>
       </c>
       <c r="R6" t="n">
-        <v>1.0116977685249442</v>
+        <v>0.9703086953547195</v>
       </c>
       <c r="S6" t="n">
-        <v>1.091652804733644</v>
+        <v>1.0522091455791587</v>
       </c>
       <c r="T6" t="n">
-        <v>1.1717721755378383</v>
+        <v>1.1341095958035978</v>
       </c>
       <c r="U6" t="n">
-        <v>1.2521337595591233</v>
+        <v>1.2160157287502524</v>
       </c>
       <c r="V6" t="n">
-        <v>1.3327570725769333</v>
+        <v>1.2980477636752046</v>
       </c>
       <c r="W6" t="n">
-        <v>1.4136032675285373</v>
+        <v>1.3803739193261386</v>
       </c>
       <c r="X6" t="n">
-        <v>1.4945751345090426</v>
+        <v>1.463058094358339</v>
       </c>
       <c r="Y6" t="n">
-        <v>1.575517100771391</v>
+        <v>1.546053678391627</v>
       </c>
       <c r="Z6" t="n">
-        <v>1.6562144627232755</v>
+        <v>1.6292027840072854</v>
       </c>
       <c r="AA6" t="n">
-        <v>1.7339972570348157</v>
+        <v>1.7098401178557248</v>
       </c>
       <c r="AB6" t="n">
-        <v>1.8000823600992957</v>
+        <v>1.7791350801172288</v>
       </c>
       <c r="AC6" t="n">
-        <v>1.8483556970459438</v>
+        <v>1.8308739735147292</v>
       </c>
       <c r="AD6" t="n">
-        <v>1.8772459346488912</v>
+        <v>1.8633336962227653</v>
       </c>
       <c r="AE6" t="n">
-        <v>1.8897244813272143</v>
+        <v>1.8792817418675307</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.8933054871447341</v>
+        <v>1.885976199526664</v>
       </c>
       <c r="AG6" t="n">
-        <v>1.9000458438103294</v>
+        <v>1.8951657537295743</v>
       </c>
       <c r="AH6" t="n">
-        <v>1.926545184677597</v>
+        <v>1.9230896844570884</v>
       </c>
       <c r="AI6" t="n">
-        <v>1.9939458847450218</v>
+        <v>1.9904778671416283</v>
       </c>
       <c r="AJ6" t="n">
-        <v>2.1279330606562032</v>
+        <v>2.1225507726674335</v>
       </c>
     </row>
     <row r="7">
@@ -35419,106 +35419,106 @@
         <v>5</v>
       </c>
       <c r="C10" t="n">
-        <v>-0.42372169672024607</v>
+        <v>0.01937194426159472</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.47508876658973476</v>
+        <v>-0.04434574675545527</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.5264173711346648</v>
+        <v>-0.1080249724479466</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.5777029906096087</v>
+        <v>-0.1716612130704518</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.628953093470086</v>
+        <v>-0.23526193707849027</v>
       </c>
       <c r="H10" t="n">
-        <v>-0.679793851610983</v>
+        <v>-0.2984533163669487</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.7112054673537456</v>
+        <v>-0.3422155532572726</v>
       </c>
       <c r="J10" t="n">
-        <v>-0.7419637848152227</v>
+        <v>-0.38532449186631107</v>
       </c>
       <c r="K10" t="n">
-        <v>-0.7727563767652905</v>
+        <v>-0.42846770496394004</v>
       </c>
       <c r="L10" t="n">
-        <v>-0.8035913219507578</v>
+        <v>-0.47165327129696877</v>
       </c>
       <c r="M10" t="n">
-        <v>-0.8344790930620956</v>
+        <v>-0.514891663555868</v>
       </c>
       <c r="N10" t="n">
-        <v>-0.8654280661516355</v>
+        <v>-0.558191257792969</v>
       </c>
       <c r="O10" t="n">
-        <v>-0.8964464753787877</v>
+        <v>-0.6015602881676829</v>
       </c>
       <c r="P10" t="n">
-        <v>-0.9275420843931991</v>
+        <v>-0.6450065183296554</v>
       </c>
       <c r="Q10" t="n">
-        <v>-0.9587200438185567</v>
+        <v>-0.6885350989025741</v>
       </c>
       <c r="R10" t="n">
-        <v>-0.9899913142390191</v>
+        <v>-0.7321557042369233</v>
       </c>
       <c r="S10" t="n">
-        <v>-1.021640200468171</v>
+        <v>-0.7758770344979522</v>
       </c>
       <c r="T10" t="n">
-        <v>-1.0544144758514915</v>
+        <v>-0.8197039605989457</v>
       </c>
       <c r="U10" t="n">
-        <v>-1.0888044844775735</v>
+        <v>-0.863678808393018</v>
       </c>
       <c r="V10" t="n">
-        <v>-1.1249524515350982</v>
+        <v>-0.9085687276740065</v>
       </c>
       <c r="W10" t="n">
-        <v>-1.1635812311404847</v>
+        <v>-0.9563815383223945</v>
       </c>
       <c r="X10" t="n">
-        <v>-1.2146196208783606</v>
+        <v>-1.0180458117807394</v>
       </c>
       <c r="Y10" t="n">
-        <v>-1.3003065527265145</v>
+        <v>-1.116476655928256</v>
       </c>
       <c r="Z10" t="n">
-        <v>-1.426862485398845</v>
+        <v>-1.2582471074238035</v>
       </c>
       <c r="AA10" t="n">
-        <v>-1.5689573716339889</v>
+        <v>-1.4180560989944608</v>
       </c>
       <c r="AB10" t="n">
-        <v>-1.6366937031995699</v>
+        <v>-1.5057115044398242</v>
       </c>
       <c r="AC10" t="n">
-        <v>-1.67022041685598</v>
+        <v>-1.5607440445957532</v>
       </c>
       <c r="AD10" t="n">
-        <v>-1.600664674284372</v>
+        <v>-1.5133390672623706</v>
       </c>
       <c r="AE10" t="n">
-        <v>-1.5689680497247505</v>
+        <v>-1.503172734842188</v>
       </c>
       <c r="AF10" t="n">
-        <v>-1.563706037902051</v>
+        <v>-1.517231532266118</v>
       </c>
       <c r="AG10" t="n">
-        <v>-1.5386476956628121</v>
+        <v>-1.507371908630233</v>
       </c>
       <c r="AH10" t="n">
-        <v>-1.4908928552461516</v>
+        <v>-1.468457490466656</v>
       </c>
       <c r="AI10" t="n">
-        <v>-1.4178640362369221</v>
+        <v>-1.395350993696765</v>
       </c>
       <c r="AJ10" t="n">
-        <v>-1.3169804660536704</v>
+        <v>-1.28258824411912</v>
       </c>
     </row>
     <row r="11">
@@ -35539,106 +35539,106 @@
         <v>5</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.44260224007413396</v>
+        <v>-0.00663284698364075</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.4860255350921828</v>
+        <v>-0.062207739062495104</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.5293725208493649</v>
+        <v>-0.1177063218804826</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.5726619011822089</v>
+        <v>-0.17314729927413214</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.6159021620773741</v>
+        <v>-0.22853915723010268</v>
       </c>
       <c r="H13" t="n">
-        <v>-0.6587239649252096</v>
+        <v>-0.28351255713874357</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.6821109963790114</v>
+        <v>-0.3190511856533509</v>
       </c>
       <c r="J13" t="n">
-        <v>-0.7048392936572737</v>
+        <v>-0.3539310799924186</v>
       </c>
       <c r="K13" t="n">
-        <v>-0.7275997282340864</v>
+        <v>-0.3888431116300366</v>
       </c>
       <c r="L13" t="n">
-        <v>-0.7504042884585687</v>
+        <v>-0.4237992689153244</v>
       </c>
       <c r="M13" t="n">
-        <v>-0.7732644416150537</v>
+        <v>-0.4588110191326151</v>
       </c>
       <c r="N13" t="n">
-        <v>-0.7961918290709497</v>
+        <v>-0.49389000364931657</v>
       </c>
       <c r="O13" t="n">
-        <v>-0.8191968055827447</v>
+        <v>-0.5290465772219171</v>
       </c>
       <c r="P13" t="n">
-        <v>-0.8422897612201375</v>
+        <v>-0.5642911299201152</v>
       </c>
       <c r="Q13" t="n">
-        <v>-0.8654792889778147</v>
+        <v>-0.5996322547385978</v>
       </c>
       <c r="R13" t="n">
-        <v>-0.8887780546846316</v>
+        <v>-0.6350813519995582</v>
       </c>
       <c r="S13" t="n">
-        <v>-0.912467378862778</v>
+        <v>-0.6706485788080078</v>
       </c>
       <c r="T13" t="n">
-        <v>-0.9372880635413119</v>
+        <v>-0.7063438062621898</v>
       </c>
       <c r="U13" t="n">
-        <v>-0.9637255165888979</v>
+        <v>-0.7422116435852298</v>
       </c>
       <c r="V13" t="n">
-        <v>-0.9919173847021504</v>
+        <v>-0.7790045917312317</v>
       </c>
       <c r="W13" t="n">
-        <v>-1.022598318517076</v>
+        <v>-0.8187215605192255</v>
       </c>
       <c r="X13" t="n">
-        <v>-1.0657100824566927</v>
+        <v>-0.8722879773741419</v>
       </c>
       <c r="Y13" t="n">
-        <v>-1.1435041342935839</v>
+        <v>-0.9626205797333017</v>
       </c>
       <c r="Z13" t="n">
-        <v>-1.2622282485590683</v>
+        <v>-1.0963140384556258</v>
       </c>
       <c r="AA13" t="n">
-        <v>-1.396817679453836</v>
+        <v>-1.2483321207322176</v>
       </c>
       <c r="AB13" t="n">
-        <v>-1.4582198564285207</v>
+        <v>-1.3293323856669819</v>
       </c>
       <c r="AC13" t="n">
-        <v>-1.4872583915624298</v>
+        <v>-1.3795301916553238</v>
       </c>
       <c r="AD13" t="n">
-        <v>-1.415219272242822</v>
+        <v>-1.329284889063433</v>
       </c>
       <c r="AE13" t="n">
-        <v>-1.382777320104259</v>
+        <v>-1.3180262791676642</v>
       </c>
       <c r="AF13" t="n">
-        <v>-1.377709187800224</v>
+        <v>-1.3319676109260976</v>
       </c>
       <c r="AG13" t="n">
-        <v>-1.3526206430596175</v>
+        <v>-1.3218328650351139</v>
       </c>
       <c r="AH13" t="n">
-        <v>-1.303078244194687</v>
+        <v>-1.2809884294372424</v>
       </c>
       <c r="AI13" t="n">
-        <v>-1.2245970360139227</v>
+        <v>-1.2024307952341053</v>
       </c>
       <c r="AJ13" t="n">
-        <v>-1.1123278642550307</v>
+        <v>-1.0784738711193569</v>
       </c>
     </row>
     <row r="14">
@@ -35659,106 +35659,106 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>-0.45770667475724414</v>
+        <v>-0.027436679979828904</v>
       </c>
       <c r="D16" t="n">
-        <v>-0.4947749498941413</v>
+        <v>-0.07649733290812682</v>
       </c>
       <c r="E16" t="n">
-        <v>-0.531736640621125</v>
+        <v>-0.12545140142651134</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.5686290296402894</v>
+        <v>-0.17433616823707637</v>
       </c>
       <c r="G16" t="n">
-        <v>-0.6054614169632049</v>
+        <v>-0.2231609333513927</v>
       </c>
       <c r="H16" t="n">
-        <v>-0.641868055576591</v>
+        <v>-0.2715599497561796</v>
       </c>
       <c r="I16" t="n">
-        <v>-0.6588354195992244</v>
+        <v>-0.30051969157021374</v>
       </c>
       <c r="J16" t="n">
-        <v>-0.6751397007309149</v>
+        <v>-0.32881635049330493</v>
       </c>
       <c r="K16" t="n">
-        <v>-0.6914744094091234</v>
+        <v>-0.3571434369629143</v>
       </c>
       <c r="L16" t="n">
-        <v>-0.7078546616648177</v>
+        <v>-0.38551606701000923</v>
       </c>
       <c r="M16" t="n">
-        <v>-0.7242927204574207</v>
+        <v>-0.41394650359401325</v>
       </c>
       <c r="N16" t="n">
-        <v>-0.740802839406402</v>
+        <v>-0.4424490003343952</v>
       </c>
       <c r="O16" t="n">
-        <v>-0.7573970697459109</v>
+        <v>-0.4710356084653051</v>
       </c>
       <c r="P16" t="n">
-        <v>-0.7740879026816891</v>
+        <v>-0.4997188191924839</v>
       </c>
       <c r="Q16" t="n">
-        <v>-0.7908866851052219</v>
+        <v>-0.5285099794074174</v>
       </c>
       <c r="R16" t="n">
-        <v>-0.8078074470411221</v>
+        <v>-0.5574218702096669</v>
       </c>
       <c r="S16" t="n">
-        <v>-0.8251291215784643</v>
+        <v>-0.5864658142560533</v>
       </c>
       <c r="T16" t="n">
-        <v>-0.8435869336931688</v>
+        <v>-0.6156556827927863</v>
       </c>
       <c r="U16" t="n">
-        <v>-0.8636623422779585</v>
+        <v>-0.6450379117389998</v>
       </c>
       <c r="V16" t="n">
-        <v>-0.8854893312357934</v>
+        <v>-0.675353282977013</v>
       </c>
       <c r="W16" t="n">
-        <v>-0.90981198841835</v>
+        <v>-0.7085935782766912</v>
       </c>
       <c r="X16" t="n">
-        <v>-0.9465824517193595</v>
+        <v>-0.7556817098488651</v>
       </c>
       <c r="Y16" t="n">
-        <v>-1.0180621995472405</v>
+        <v>-0.8395357187773396</v>
       </c>
       <c r="Z16" t="n">
-        <v>-1.1305208590872486</v>
+        <v>-0.9667675832810851</v>
       </c>
       <c r="AA16" t="n">
-        <v>-1.2591059257097152</v>
+        <v>-1.1125529381224237</v>
       </c>
       <c r="AB16" t="n">
-        <v>-1.3154407790116829</v>
+        <v>-1.1882290906487092</v>
       </c>
       <c r="AC16" t="n">
-        <v>-1.340888771327591</v>
+        <v>-1.2345591093029822</v>
       </c>
       <c r="AD16" t="n">
-        <v>-1.2668629506095834</v>
+        <v>-1.1820415465042842</v>
       </c>
       <c r="AE16" t="n">
-        <v>-1.2338247364078667</v>
+        <v>-1.1699091146280465</v>
       </c>
       <c r="AF16" t="n">
-        <v>-1.2289117077187637</v>
+        <v>-1.183756473854083</v>
       </c>
       <c r="AG16" t="n">
-        <v>-1.2037990009770634</v>
+        <v>-1.1734016301590207</v>
       </c>
       <c r="AH16" t="n">
-        <v>-1.1528265553535164</v>
+        <v>-1.1310131806137127</v>
       </c>
       <c r="AI16" t="n">
-        <v>-1.0699834358355256</v>
+        <v>-1.0480946364639787</v>
       </c>
       <c r="AJ16" t="n">
-        <v>-0.9486057828161205</v>
+        <v>-0.9151823727195485</v>
       </c>
     </row>
     <row r="17">
@@ -35784,106 +35784,106 @@
         <v>5</v>
       </c>
       <c r="C20" t="n">
-        <v>-0.1520759780249906</v>
+        <v>-0.2930776590852707</v>
       </c>
       <c r="D20" t="n">
-        <v>-0.0729983496577026</v>
+        <v>-0.21034462787123887</v>
       </c>
       <c r="E20" t="n">
-        <v>0.006079278709585363</v>
+        <v>-0.12761159665720706</v>
       </c>
       <c r="F20" t="n">
-        <v>0.08515690707687332</v>
+        <v>-0.04487856544317523</v>
       </c>
       <c r="G20" t="n">
-        <v>0.16423453544416128</v>
+        <v>0.037854465770856605</v>
       </c>
       <c r="H20" t="n">
-        <v>0.24331216381144927</v>
+        <v>0.12058749698488842</v>
       </c>
       <c r="I20" t="n">
-        <v>0.32238979217873726</v>
+        <v>0.20332052819892027</v>
       </c>
       <c r="J20" t="n">
-        <v>0.40146742054602513</v>
+        <v>0.286053559412952</v>
       </c>
       <c r="K20" t="n">
-        <v>0.4805450489133132</v>
+        <v>0.3687865906269839</v>
       </c>
       <c r="L20" t="n">
-        <v>0.5596226772806011</v>
+        <v>0.45151962184101574</v>
       </c>
       <c r="M20" t="n">
-        <v>0.6387003056478892</v>
+        <v>0.5342526530550475</v>
       </c>
       <c r="N20" t="n">
-        <v>0.7177779340151771</v>
+        <v>0.6169856842690794</v>
       </c>
       <c r="O20" t="n">
-        <v>0.7968555623824652</v>
+        <v>0.6997187154831113</v>
       </c>
       <c r="P20" t="n">
-        <v>0.8759331907497532</v>
+        <v>0.7824517466971431</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.9550151212034692</v>
+        <v>0.865184777911175</v>
       </c>
       <c r="R20" t="n">
-        <v>1.0341696177367081</v>
+        <v>0.9479178091252067</v>
       </c>
       <c r="S20" t="n">
-        <v>1.1134896977213764</v>
+        <v>1.0306508403392387</v>
       </c>
       <c r="T20" t="n">
-        <v>1.1930267516051387</v>
+        <v>1.1133838715532705</v>
       </c>
       <c r="U20" t="n">
-        <v>1.2727886784794045</v>
+        <v>1.1961169027673022</v>
       </c>
       <c r="V20" t="n">
-        <v>1.3527398860793294</v>
+        <v>1.2788627662688565</v>
       </c>
       <c r="W20" t="n">
-        <v>1.4328012907838146</v>
+        <v>1.3617848143917655</v>
       </c>
       <c r="X20" t="n">
-        <v>1.5128503176155064</v>
+        <v>1.4450628695449468</v>
       </c>
       <c r="Y20" t="n">
-        <v>1.592720900240796</v>
+        <v>1.5287402231274478</v>
       </c>
       <c r="Z20" t="n">
-        <v>1.6722027129667345</v>
+        <v>1.6127197201473424</v>
       </c>
       <c r="AA20" t="n">
-        <v>1.7486450418487072</v>
+        <v>1.6943676303294166</v>
       </c>
       <c r="AB20" t="n">
-        <v>1.8132988841511732</v>
+        <v>1.7648557475759015</v>
       </c>
       <c r="AC20" t="n">
-        <v>1.8600991573604466</v>
+        <v>1.8179435989792627</v>
       </c>
       <c r="AD20" t="n">
-        <v>1.8875383920936508</v>
+        <v>1.851852137731134</v>
       </c>
       <c r="AE20" t="n">
-        <v>1.8986667320987636</v>
+        <v>1.8692637431223924</v>
       </c>
       <c r="AF20" t="n">
-        <v>1.901091934254417</v>
+        <v>1.877322220542934</v>
       </c>
       <c r="AG20" t="n">
-        <v>1.9069793685702103</v>
+        <v>1.8876328014819936</v>
       </c>
       <c r="AH20" t="n">
-        <v>1.9330520181863684</v>
+        <v>1.9162621435278129</v>
       </c>
       <c r="AI20" t="n">
-        <v>2.0005904793739133</v>
+        <v>1.9837383303677947</v>
       </c>
       <c r="AJ20" t="n">
-        <v>2.135432961534891</v>
+        <v>2.1150508717887404</v>
       </c>
     </row>
     <row r="21">
@@ -36014,106 +36014,106 @@
         <v>5</v>
       </c>
       <c r="C24" t="n">
-        <v>-0.6411452281280793</v>
+        <v>0.23759067354238889</v>
       </c>
       <c r="D24" t="n">
-        <v>-0.6873456407628913</v>
+        <v>0.1687063252906622</v>
       </c>
       <c r="E24" t="n">
-        <v>-0.7335075880731448</v>
+        <v>0.09986044236349423</v>
       </c>
       <c r="F24" t="n">
-        <v>-0.7796265503134121</v>
+        <v>0.031057544506312373</v>
       </c>
       <c r="G24" t="n">
-        <v>-0.8257099959392126</v>
+        <v>-0.03770983673640271</v>
       </c>
       <c r="H24" t="n">
-        <v>-0.871384096845433</v>
+        <v>-0.10606787325953773</v>
       </c>
       <c r="I24" t="n">
-        <v>-0.8976290553535191</v>
+        <v>-0.1549967673845382</v>
       </c>
       <c r="J24" t="n">
-        <v>-0.9232207155803195</v>
+        <v>-0.2032723632282533</v>
       </c>
       <c r="K24" t="n">
-        <v>-0.9488466502957108</v>
+        <v>-0.2515822335605589</v>
       </c>
       <c r="L24" t="n">
-        <v>-0.9745149382465013</v>
+        <v>-0.29993445712826416</v>
       </c>
       <c r="M24" t="n">
-        <v>-1.0002360521231628</v>
+        <v>-0.3483395066218401</v>
       </c>
       <c r="N24" t="n">
-        <v>-1.0260183679780257</v>
+        <v>-0.39680575809361746</v>
       </c>
       <c r="O24" t="n">
-        <v>-1.051870119970502</v>
+        <v>-0.44534144570300793</v>
       </c>
       <c r="P24" t="n">
-        <v>-1.0777990717502364</v>
+        <v>-0.4939543330996573</v>
       </c>
       <c r="Q24" t="n">
-        <v>-1.103837070930454</v>
+        <v>-0.5426495709072526</v>
       </c>
       <c r="R24" t="n">
-        <v>-1.1304174102942</v>
+        <v>-0.5914368334762785</v>
       </c>
       <c r="S24" t="n">
-        <v>-1.1581260177881876</v>
+        <v>-0.640324820971984</v>
       </c>
       <c r="T24" t="n">
-        <v>-1.1872866724337854</v>
+        <v>-0.6893184043076541</v>
       </c>
       <c r="U24" t="n">
-        <v>-1.217955453965206</v>
+        <v>-0.7384246446856193</v>
       </c>
       <c r="V24" t="n">
-        <v>-1.249932609578332</v>
+        <v>-0.787744292276192</v>
       </c>
       <c r="W24" t="n">
-        <v>-1.283691301758394</v>
+        <v>-0.8392549679850408</v>
       </c>
       <c r="X24" t="n">
-        <v>-1.3290029228204088</v>
+        <v>-0.9046046186762953</v>
       </c>
       <c r="Y24" t="n">
-        <v>-1.4080412858341576</v>
+        <v>-1.007266245916213</v>
       </c>
       <c r="Z24" t="n">
-        <v>-1.527054016967123</v>
+        <v>-1.15418976697489</v>
       </c>
       <c r="AA24" t="n">
-        <v>-1.660830522773118</v>
+        <v>-1.320269982114947</v>
       </c>
       <c r="AB24" t="n">
-        <v>-1.719685035196534</v>
+        <v>-1.4153296195957519</v>
       </c>
       <c r="AC24" t="n">
-        <v>-1.7440705175361315</v>
+        <v>-1.4787332416372576</v>
       </c>
       <c r="AD24" t="n">
-        <v>-1.6655104443730169</v>
+        <v>-1.4403190243478443</v>
       </c>
       <c r="AE24" t="n">
-        <v>-1.6254349892087436</v>
+        <v>-1.4392349453626077</v>
       </c>
       <c r="AF24" t="n">
-        <v>-1.6130005323913914</v>
+        <v>-1.4617582917692986</v>
       </c>
       <c r="AG24" t="n">
-        <v>-1.5826493027522386</v>
+        <v>-1.4588553017450288</v>
       </c>
       <c r="AH24" t="n">
-        <v>-1.532246590876735</v>
+        <v>-1.4243183778272994</v>
       </c>
       <c r="AI24" t="n">
-        <v>-1.460072661057655</v>
+        <v>-1.351757998867062</v>
       </c>
       <c r="AJ24" t="n">
-        <v>-1.3644967717830632</v>
+        <v>-1.2342767405167356</v>
       </c>
     </row>
     <row r="25">
@@ -36134,106 +36134,106 @@
         <v>5</v>
       </c>
       <c r="C27" t="n">
-        <v>-0.656537811374627</v>
+        <v>0.20809792218981316</v>
       </c>
       <c r="D27" t="n">
-        <v>-0.6948777072569585</v>
+        <v>0.14743963097524138</v>
       </c>
       <c r="E27" t="n">
-        <v>-0.7331412938784232</v>
+        <v>0.08685764902153648</v>
       </c>
       <c r="F27" t="n">
-        <v>-0.77134727507555</v>
+        <v>0.0263332724921696</v>
       </c>
       <c r="G27" t="n">
-        <v>-0.8095041368349978</v>
+        <v>-0.03414198459951828</v>
       </c>
       <c r="H27" t="n">
-        <v>-0.8472425405471158</v>
+        <v>-0.09419878364387654</v>
       </c>
       <c r="I27" t="n">
-        <v>-0.8655461728652003</v>
+        <v>-0.13482081129420118</v>
       </c>
       <c r="J27" t="n">
-        <v>-0.8831910710077451</v>
+        <v>-0.17478410476898626</v>
       </c>
       <c r="K27" t="n">
-        <v>-0.9008681064488404</v>
+        <v>-0.21477953554232165</v>
       </c>
       <c r="L27" t="n">
-        <v>-0.9185892675376053</v>
+        <v>-0.25481909196332664</v>
       </c>
       <c r="M27" t="n">
-        <v>-0.9363660215583732</v>
+        <v>-0.2949142413163347</v>
       </c>
       <c r="N27" t="n">
-        <v>-0.9542100098785519</v>
+        <v>-0.33507662496875346</v>
       </c>
       <c r="O27" t="n">
-        <v>-0.9721315872546298</v>
+        <v>-0.37531659767707115</v>
       </c>
       <c r="P27" t="n">
-        <v>-0.9901411437563054</v>
+        <v>-0.41564454951098695</v>
       </c>
       <c r="Q27" t="n">
-        <v>-1.0082735391591584</v>
+        <v>-0.45606907346518666</v>
       </c>
       <c r="R27" t="n">
-        <v>-1.026956965818636</v>
+        <v>-0.49660156986186454</v>
       </c>
       <c r="S27" t="n">
-        <v>-1.0467695068840213</v>
+        <v>-0.5372521958060317</v>
       </c>
       <c r="T27" t="n">
-        <v>-1.0680348025168758</v>
+        <v>-0.578030822395931</v>
       </c>
       <c r="U27" t="n">
-        <v>-1.0908109941845021</v>
+        <v>-0.6189473624761259</v>
       </c>
       <c r="V27" t="n">
-        <v>-1.114899261395145</v>
+        <v>-0.6600986560740519</v>
       </c>
       <c r="W27" t="n">
-        <v>-1.1407885868094574</v>
+        <v>-0.7034539006753091</v>
       </c>
       <c r="X27" t="n">
-        <v>-1.1782658660880945</v>
+        <v>-0.7606463067510372</v>
       </c>
       <c r="Y27" t="n">
-        <v>-1.2495184874542864</v>
+        <v>-0.8551415152476766</v>
       </c>
       <c r="Z27" t="n">
-        <v>-1.3608209551030008</v>
+        <v>-0.9939050043927067</v>
       </c>
       <c r="AA27" t="n">
-        <v>-1.487226052111576</v>
+        <v>-1.1520932526053345</v>
       </c>
       <c r="AB27" t="n">
-        <v>-1.539889536020297</v>
+        <v>-1.2403784340770425</v>
       </c>
       <c r="AC27" t="n">
-        <v>-1.559934146211131</v>
+        <v>-1.2988124261503753</v>
       </c>
       <c r="AD27" t="n">
-        <v>-1.4790357965869907</v>
+        <v>-1.2574130019980698</v>
       </c>
       <c r="AE27" t="n">
-        <v>-1.4383500345110969</v>
+        <v>-1.255090289562598</v>
       </c>
       <c r="AF27" t="n">
-        <v>-1.4262250375785959</v>
+        <v>-1.2773597683276512</v>
       </c>
       <c r="AG27" t="n">
-        <v>-1.395928897673056</v>
+        <v>-1.2740695533746682</v>
       </c>
       <c r="AH27" t="n">
-        <v>-1.3437812964743931</v>
+        <v>-1.2375320708908129</v>
       </c>
       <c r="AI27" t="n">
-        <v>-1.2661412013717666</v>
+        <v>-1.159511754081786</v>
       </c>
       <c r="AJ27" t="n">
-        <v>-1.1590941798965546</v>
+        <v>-1.030912357604842</v>
       </c>
     </row>
     <row r="28">
@@ -36254,106 +36254,106 @@
         <v>5</v>
       </c>
       <c r="C30" t="n">
-        <v>-0.6688518779718648</v>
+        <v>0.18450372110775265</v>
       </c>
       <c r="D30" t="n">
-        <v>-0.7009033604522121</v>
+        <v>0.13042627552290492</v>
       </c>
       <c r="E30" t="n">
-        <v>-0.7328482585226459</v>
+        <v>0.07645541434797043</v>
       </c>
       <c r="F30" t="n">
-        <v>-0.7647238548852603</v>
+        <v>0.022553854880855373</v>
       </c>
       <c r="G30" t="n">
-        <v>-0.796539449551626</v>
+        <v>-0.03128770289001087</v>
       </c>
       <c r="H30" t="n">
-        <v>-0.8279292955084621</v>
+        <v>-0.08470351195134768</v>
       </c>
       <c r="I30" t="n">
-        <v>-0.8398798668745455</v>
+        <v>-0.11868004642193179</v>
       </c>
       <c r="J30" t="n">
-        <v>-0.851167355349686</v>
+        <v>-0.1519934980015729</v>
       </c>
       <c r="K30" t="n">
-        <v>-0.8624852713713447</v>
+        <v>-0.18533737712773218</v>
       </c>
       <c r="L30" t="n">
-        <v>-0.8738487309704888</v>
+        <v>-0.21872679983137702</v>
       </c>
       <c r="M30" t="n">
-        <v>-0.8852699971065421</v>
+        <v>-0.252174029071931</v>
       </c>
       <c r="N30" t="n">
-        <v>-0.8967633233989735</v>
+        <v>-0.28569331846886276</v>
       </c>
       <c r="O30" t="n">
-        <v>-0.9083407610819326</v>
+        <v>-0.3192967192563224</v>
       </c>
       <c r="P30" t="n">
-        <v>-0.9200148013611609</v>
+        <v>-0.3529967226400514</v>
       </c>
       <c r="Q30" t="n">
-        <v>-0.9318227137421229</v>
+        <v>-0.38680467551153475</v>
       </c>
       <c r="R30" t="n">
-        <v>-0.9441886102381856</v>
+        <v>-0.4207333589703343</v>
       </c>
       <c r="S30" t="n">
-        <v>-0.9576842981606889</v>
+        <v>-0.45479409567327045</v>
       </c>
       <c r="T30" t="n">
-        <v>-0.9726333065833489</v>
+        <v>-0.48900075686655353</v>
       </c>
       <c r="U30" t="n">
-        <v>-0.9890954263599402</v>
+        <v>-0.5233655367085323</v>
       </c>
       <c r="V30" t="n">
-        <v>-1.006872582848596</v>
+        <v>-0.5579821471123412</v>
       </c>
       <c r="W30" t="n">
-        <v>-1.0264664148503093</v>
+        <v>-0.5948130468275248</v>
       </c>
       <c r="X30" t="n">
-        <v>-1.0576762207022445</v>
+        <v>-0.6454796572108317</v>
       </c>
       <c r="Y30" t="n">
-        <v>-1.1227002487503908</v>
+        <v>-0.7334417307128489</v>
       </c>
       <c r="Z30" t="n">
-        <v>-1.227834505611704</v>
+        <v>-0.8656771943269612</v>
       </c>
       <c r="AA30" t="n">
-        <v>-1.3483424755823443</v>
+        <v>-1.0175518689976457</v>
       </c>
       <c r="AB30" t="n">
-        <v>-1.396053136679309</v>
+        <v>-1.1004174856620756</v>
       </c>
       <c r="AC30" t="n">
-        <v>-1.412625049151132</v>
+        <v>-1.1548757737608708</v>
       </c>
       <c r="AD30" t="n">
-        <v>-1.3298560783581717</v>
+        <v>-1.1110881841182518</v>
       </c>
       <c r="AE30" t="n">
-        <v>-1.288682070752981</v>
+        <v>-1.1077745649225914</v>
       </c>
       <c r="AF30" t="n">
-        <v>-1.2768046417283605</v>
+        <v>-1.129840949574335</v>
       </c>
       <c r="AG30" t="n">
-        <v>-1.2465525736097116</v>
+        <v>-1.126240954678381</v>
       </c>
       <c r="AH30" t="n">
-        <v>-1.1930090609525208</v>
+        <v>-1.0881030253416255</v>
       </c>
       <c r="AI30" t="n">
-        <v>-1.1109960336230578</v>
+        <v>-1.0057147582535668</v>
       </c>
       <c r="AJ30" t="n">
-        <v>-0.9947721063873496</v>
+        <v>-0.8682208512753289</v>
       </c>
     </row>
     <row r="31">
@@ -36379,106 +36379,106 @@
         <v>5</v>
       </c>
       <c r="C34" t="n">
-        <v>-0.12326657628229143</v>
+        <v>-0.32188706082796986</v>
       </c>
       <c r="D34" t="n">
-        <v>-0.044756104435859964</v>
+        <v>-0.2385868730930815</v>
       </c>
       <c r="E34" t="n">
-        <v>0.03375436741057145</v>
+        <v>-0.15528668535819315</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1122648392570029</v>
+        <v>-0.07198649762330481</v>
       </c>
       <c r="G34" t="n">
-        <v>0.19077531110343432</v>
+        <v>0.01131369011158355</v>
       </c>
       <c r="H34" t="n">
-        <v>0.26928578294986577</v>
+        <v>0.09461387784647188</v>
       </c>
       <c r="I34" t="n">
-        <v>0.3477962547962973</v>
+        <v>0.17791406558136028</v>
       </c>
       <c r="J34" t="n">
-        <v>0.4263067266427286</v>
+        <v>0.26121425331624853</v>
       </c>
       <c r="K34" t="n">
-        <v>0.5048171984891601</v>
+        <v>0.34451444105113693</v>
       </c>
       <c r="L34" t="n">
-        <v>0.5833276703355916</v>
+        <v>0.4278146287860253</v>
       </c>
       <c r="M34" t="n">
-        <v>0.661838142182023</v>
+        <v>0.5111148165209137</v>
       </c>
       <c r="N34" t="n">
-        <v>0.7403486140284545</v>
+        <v>0.5944150042558021</v>
       </c>
       <c r="O34" t="n">
-        <v>0.818859085874886</v>
+        <v>0.6777151919906905</v>
       </c>
       <c r="P34" t="n">
-        <v>0.897373662889515</v>
+        <v>0.7610153797255789</v>
       </c>
       <c r="Q34" t="n">
-        <v>0.9759526955073328</v>
+        <v>0.8443155674604673</v>
       </c>
       <c r="R34" t="n">
-        <v>1.0546772579339208</v>
+        <v>0.9276157551953557</v>
       </c>
       <c r="S34" t="n">
-        <v>1.13359441371446</v>
+        <v>1.0109159429302441</v>
       </c>
       <c r="T34" t="n">
-        <v>1.2127158509146108</v>
+        <v>1.0942161306651323</v>
       </c>
       <c r="U34" t="n">
-        <v>1.2920178821205142</v>
+        <v>1.1775163184000208</v>
       </c>
       <c r="V34" t="n">
-        <v>1.3714414444387906</v>
+        <v>1.260816600994954</v>
       </c>
       <c r="W34" t="n">
-        <v>1.4508920994965404</v>
+        <v>1.3441938774232907</v>
       </c>
       <c r="X34" t="n">
-        <v>1.5302400334413442</v>
+        <v>1.4278800513457166</v>
       </c>
       <c r="Y34" t="n">
-        <v>1.6093200569412622</v>
+        <v>1.511993536762982</v>
       </c>
       <c r="Z34" t="n">
-        <v>1.6879308371817467</v>
+        <v>1.5964905652809778</v>
       </c>
       <c r="AA34" t="n">
-        <v>1.7634387689733217</v>
+        <v>1.6787690572184044</v>
       </c>
       <c r="AB34" t="n">
-        <v>1.8271200742123175</v>
+        <v>1.7500107210675127</v>
       </c>
       <c r="AC34" t="n">
-        <v>1.872943010893654</v>
+        <v>1.8039632625068807</v>
       </c>
       <c r="AD34" t="n">
-        <v>1.8994415660197954</v>
+        <v>1.8388140773103716</v>
       </c>
       <c r="AE34" t="n">
-        <v>1.9097154556007943</v>
+        <v>1.857190251347189</v>
       </c>
       <c r="AF34" t="n">
-        <v>1.9114301246540921</v>
+        <v>1.8661585605816564</v>
       </c>
       <c r="AG34" t="n">
-        <v>1.9168167472048312</v>
+        <v>1.8772254710735403</v>
       </c>
       <c r="AH34" t="n">
-        <v>1.9426722262855158</v>
+        <v>1.9063371389777175</v>
       </c>
       <c r="AI34" t="n">
-        <v>2.0103591939361793</v>
+        <v>1.973879410544328</v>
       </c>
       <c r="AJ34" t="n">
-        <v>2.1458060112046153</v>
+        <v>2.104677822119022</v>
       </c>
     </row>
     <row r="35">
@@ -36609,106 +36609,106 @@
         <v>5</v>
       </c>
       <c r="C38" t="n">
-        <v>-0.8210319837545976</v>
+        <v>0.41880732905989343</v>
       </c>
       <c r="D38" t="n">
-        <v>-0.8637128548933795</v>
+        <v>0.34640343931213624</v>
       </c>
       <c r="E38" t="n">
-        <v>-0.9063552607076024</v>
+        <v>0.274038014888938</v>
       </c>
       <c r="F38" t="n">
-        <v>-0.9489546814518393</v>
+        <v>0.20171557553572572</v>
       </c>
       <c r="G38" t="n">
-        <v>-0.9915185855816092</v>
+        <v>0.12942865279698024</v>
       </c>
       <c r="H38" t="n">
-        <v>-1.0336731449917993</v>
+        <v>0.0575510747778149</v>
       </c>
       <c r="I38" t="n">
-        <v>-1.0563985620038547</v>
+        <v>0.005102639156783967</v>
       </c>
       <c r="J38" t="n">
-        <v>-1.078470680734625</v>
+        <v>-0.04669249818296148</v>
       </c>
       <c r="K38" t="n">
-        <v>-1.1005770739539855</v>
+        <v>-0.09852191001129759</v>
       </c>
       <c r="L38" t="n">
-        <v>-1.122725820408746</v>
+        <v>-0.1503936750750332</v>
       </c>
       <c r="M38" t="n">
-        <v>-1.1449273927893768</v>
+        <v>-0.20231826606463968</v>
       </c>
       <c r="N38" t="n">
-        <v>-1.1671901671482092</v>
+        <v>-0.25430405903244757</v>
       </c>
       <c r="O38" t="n">
-        <v>-1.1895223776446548</v>
+        <v>-0.30635928813786856</v>
       </c>
       <c r="P38" t="n">
-        <v>-1.211957262923865</v>
+        <v>-0.3584917170305484</v>
       </c>
       <c r="Q38" t="n">
-        <v>-1.23487448373582</v>
+        <v>-0.41070649633417433</v>
       </c>
       <c r="R38" t="n">
-        <v>-1.2587868278050192</v>
+        <v>-0.46301330039923067</v>
       </c>
       <c r="S38" t="n">
-        <v>-1.283995052416965</v>
+        <v>-0.5154208293909669</v>
       </c>
       <c r="T38" t="n">
-        <v>-1.3105765598419632</v>
+        <v>-0.567933954222667</v>
       </c>
       <c r="U38" t="n">
-        <v>-1.3383914168761348</v>
+        <v>-0.620559736096663</v>
       </c>
       <c r="V38" t="n">
-        <v>-1.3670942215902495</v>
+        <v>-0.6733198819158235</v>
       </c>
       <c r="W38" t="n">
-        <v>-1.3970628511573957</v>
+        <v>-0.7276555183757202</v>
       </c>
       <c r="X38" t="n">
-        <v>-1.4380237763934183</v>
+        <v>-0.795537787296412</v>
       </c>
       <c r="Y38" t="n">
-        <v>-1.512156252681912</v>
+        <v>-0.9009058703977117</v>
       </c>
       <c r="Z38" t="n">
-        <v>-1.6257637123171356</v>
+        <v>-1.0510409803495548</v>
       </c>
       <c r="AA38" t="n">
-        <v>-1.7537417317926571</v>
+        <v>-1.2210343280605835</v>
       </c>
       <c r="AB38" t="n">
-        <v>-1.8065610768055989</v>
+        <v>-1.3207701676824142</v>
       </c>
       <c r="AC38" t="n">
-        <v>-1.8248816082204238</v>
+        <v>-1.3895397025733993</v>
       </c>
       <c r="AD38" t="n">
-        <v>-1.7404840619969146</v>
+        <v>-1.3569728652266195</v>
       </c>
       <c r="AE38" t="n">
-        <v>-1.6951062368282757</v>
+        <v>-1.3618745049080527</v>
       </c>
       <c r="AF38" t="n">
-        <v>-1.6782625020672124</v>
+        <v>-1.3900438955825316</v>
       </c>
       <c r="AG38" t="n">
-        <v>-1.6448034393626025</v>
+        <v>-1.391834377550472</v>
       </c>
       <c r="AH38" t="n">
-        <v>-1.5930530559304714</v>
+        <v>-1.3602905707188968</v>
       </c>
       <c r="AI38" t="n">
-        <v>-1.5218006965071362</v>
+        <v>-1.288140286554488</v>
       </c>
       <c r="AJ38" t="n">
-        <v>-1.4299750638371838</v>
+        <v>-1.167468548571665</v>
       </c>
     </row>
     <row r="39">
@@ -36729,106 +36729,106 @@
         <v>5</v>
       </c>
       <c r="C41" t="n">
-        <v>-0.8335436268268754</v>
+        <v>0.3864336375330476</v>
       </c>
       <c r="D41" t="n">
-        <v>-0.8684206968652621</v>
+        <v>0.3223125204745312</v>
       </c>
       <c r="E41" t="n">
-        <v>-0.9032214576427823</v>
+        <v>0.25826771267688164</v>
       </c>
       <c r="F41" t="n">
-        <v>-0.9379646129959641</v>
+        <v>0.19428051030356996</v>
       </c>
       <c r="G41" t="n">
-        <v>-0.9726586489114669</v>
+        <v>0.13034242736793733</v>
       </c>
       <c r="H41" t="n">
-        <v>-1.0069342267796402</v>
+        <v>0.06682280247963446</v>
       </c>
       <c r="I41" t="n">
-        <v>-1.0217750332537798</v>
+        <v>0.022737948985364964</v>
       </c>
       <c r="J41" t="n">
-        <v>-1.0359571055523802</v>
+        <v>-0.020688170333364814</v>
       </c>
       <c r="K41" t="n">
-        <v>-1.0501713151495307</v>
+        <v>-0.06414642695064504</v>
       </c>
       <c r="L41" t="n">
-        <v>-1.0644296503943507</v>
+        <v>-0.10764880921559472</v>
       </c>
       <c r="M41" t="n">
-        <v>-1.0787435785711739</v>
+        <v>-0.15120678441254778</v>
       </c>
       <c r="N41" t="n">
-        <v>-1.0931247410474079</v>
+        <v>-0.19483199390891126</v>
       </c>
       <c r="O41" t="n">
-        <v>-1.107583492579541</v>
+        <v>-0.23853479246117396</v>
       </c>
       <c r="P41" t="n">
-        <v>-1.1221552877159577</v>
+        <v>-0.2823255701390346</v>
       </c>
       <c r="Q41" t="n">
-        <v>-1.1372171945341383</v>
+        <v>-0.32621291993717916</v>
       </c>
       <c r="R41" t="n">
-        <v>-1.1532756193097338</v>
+        <v>-0.3702082421778019</v>
       </c>
       <c r="S41" t="n">
-        <v>-1.1706280699134906</v>
+        <v>-0.4143216939659139</v>
       </c>
       <c r="T41" t="n">
-        <v>-1.1893557799941064</v>
+        <v>-0.4585631463997577</v>
       </c>
       <c r="U41" t="n">
-        <v>-1.2093240367313203</v>
+        <v>-0.502942512323898</v>
       </c>
       <c r="V41" t="n">
-        <v>-1.2301907175711166</v>
+        <v>-0.5474788622410738</v>
       </c>
       <c r="W41" t="n">
-        <v>-1.252351055337186</v>
+        <v>-0.5936135447628359</v>
       </c>
       <c r="X41" t="n">
-        <v>-1.2855477480785198</v>
+        <v>-0.6532977571910767</v>
       </c>
       <c r="Y41" t="n">
-        <v>-1.3519735386319947</v>
+        <v>-0.750455808365622</v>
       </c>
       <c r="Z41" t="n">
-        <v>-1.4579578380315117</v>
+        <v>-0.8923791332540081</v>
       </c>
       <c r="AA41" t="n">
-        <v>-1.5786578884186537</v>
+        <v>-1.054417455862072</v>
       </c>
       <c r="AB41" t="n">
-        <v>-1.6253834586232474</v>
+        <v>-1.1473034848145434</v>
       </c>
       <c r="AC41" t="n">
-        <v>-1.6394608515421025</v>
+        <v>-1.2110169207337553</v>
       </c>
       <c r="AD41" t="n">
-        <v>-1.5528190968182742</v>
+        <v>-1.1753706489189213</v>
       </c>
       <c r="AE41" t="n">
-        <v>-1.5069164097804255</v>
+        <v>-1.1789371982855634</v>
       </c>
       <c r="AF41" t="n">
-        <v>-1.4904531882144494</v>
+        <v>-1.2067617381370122</v>
       </c>
       <c r="AG41" t="n">
-        <v>-1.4570992964199574</v>
+        <v>-1.2080893622209565</v>
       </c>
       <c r="AH41" t="n">
-        <v>-1.403625740718214</v>
+        <v>-1.1744967642374198</v>
       </c>
       <c r="AI41" t="n">
-        <v>-1.3268923653650213</v>
+        <v>-1.0968799337515587</v>
       </c>
       <c r="AJ41" t="n">
-        <v>-1.2235351669837025</v>
+        <v>-0.965141470626743</v>
       </c>
     </row>
     <row r="42">
@@ -36849,106 +36849,106 @@
         <v>5</v>
       </c>
       <c r="C44" t="n">
-        <v>-0.8435529412846974</v>
+        <v>0.3605346843115714</v>
       </c>
       <c r="D44" t="n">
-        <v>-0.8721869704427683</v>
+        <v>0.30303978540444726</v>
       </c>
       <c r="E44" t="n">
-        <v>-0.900714415190926</v>
+        <v>0.2456514709072367</v>
       </c>
       <c r="F44" t="n">
-        <v>-0.929172558231264</v>
+        <v>0.18833245811784544</v>
       </c>
       <c r="G44" t="n">
-        <v>-0.9575706995753532</v>
+        <v>0.13107344702470286</v>
       </c>
       <c r="H44" t="n">
-        <v>-0.9855430922099132</v>
+        <v>0.07424018464108992</v>
       </c>
       <c r="I44" t="n">
-        <v>-0.9940762102537204</v>
+        <v>0.03684619684822954</v>
       </c>
       <c r="J44" t="n">
-        <v>-1.0019462454065848</v>
+        <v>1.1529194631224038E-4</v>
       </c>
       <c r="K44" t="n">
-        <v>-1.009846708105967</v>
+        <v>-0.03664604050212331</v>
       </c>
       <c r="L44" t="n">
-        <v>-1.0177927143828354</v>
+        <v>-0.07345291652804435</v>
       </c>
       <c r="M44" t="n">
-        <v>-1.0257965271966123</v>
+        <v>-0.11031759909087471</v>
       </c>
       <c r="N44" t="n">
-        <v>-1.0338724001667667</v>
+        <v>-0.14725434181008284</v>
       </c>
       <c r="O44" t="n">
-        <v>-1.0420323845274502</v>
+        <v>-0.1842751959198189</v>
       </c>
       <c r="P44" t="n">
-        <v>-1.0503137075496325</v>
+        <v>-0.22139265262582425</v>
       </c>
       <c r="Q44" t="n">
-        <v>-1.0590913631727936</v>
+        <v>-0.2586180588195837</v>
       </c>
       <c r="R44" t="n">
-        <v>-1.0688666525135064</v>
+        <v>-0.29596419560065973</v>
       </c>
       <c r="S44" t="n">
-        <v>-1.0799344839107117</v>
+        <v>-0.33344238562587236</v>
       </c>
       <c r="T44" t="n">
-        <v>-1.0923791561158214</v>
+        <v>-0.3710665001414314</v>
       </c>
       <c r="U44" t="n">
-        <v>-1.1060701326154696</v>
+        <v>-0.4088487333056866</v>
       </c>
       <c r="V44" t="n">
-        <v>-1.1206679143558107</v>
+        <v>-0.4468060465012751</v>
       </c>
       <c r="W44" t="n">
-        <v>-1.1365816186810203</v>
+        <v>-0.48637996587252963</v>
       </c>
       <c r="X44" t="n">
-        <v>-1.1635669254266028</v>
+        <v>-0.5395057331068098</v>
       </c>
       <c r="Y44" t="n">
-        <v>-1.2238273673920614</v>
+        <v>-0.6300957587399516</v>
       </c>
       <c r="Z44" t="n">
-        <v>-1.323713138603014</v>
+        <v>-0.7654496555775718</v>
       </c>
       <c r="AA44" t="n">
-        <v>-1.4385908137194525</v>
+        <v>-0.921123958103264</v>
       </c>
       <c r="AB44" t="n">
-        <v>-1.4804413640773677</v>
+        <v>-1.008530138520248</v>
       </c>
       <c r="AC44" t="n">
-        <v>-1.4911242461994467</v>
+        <v>-1.0681986952620415</v>
       </c>
       <c r="AD44" t="n">
-        <v>-1.4026871246753636</v>
+        <v>-1.0300888758727644</v>
       </c>
       <c r="AE44" t="n">
-        <v>-1.3563645481421474</v>
+        <v>-1.0325873529875733</v>
       </c>
       <c r="AF44" t="n">
-        <v>-1.3402057371322407</v>
+        <v>-1.0601360121805978</v>
       </c>
       <c r="AG44" t="n">
-        <v>-1.3069359820658435</v>
+        <v>-1.0610933499573454</v>
       </c>
       <c r="AH44" t="n">
-        <v>-1.2520838885484107</v>
+        <v>-1.02586171905224</v>
       </c>
       <c r="AI44" t="n">
-        <v>-1.1709657004513314</v>
+        <v>-0.9438716515092166</v>
       </c>
       <c r="AJ44" t="n">
-        <v>-1.0583832495009193</v>
+        <v>-0.8032798082708077</v>
       </c>
     </row>
     <row r="45">
@@ -36974,106 +36974,106 @@
         <v>5</v>
       </c>
       <c r="C48" t="n">
-        <v>-0.11852275184897333</v>
+        <v>-0.326630885261288</v>
       </c>
       <c r="D48" t="n">
-        <v>-0.03978052578869623</v>
+        <v>-0.2435624517402452</v>
       </c>
       <c r="E48" t="n">
-        <v>0.03896170027158082</v>
+        <v>-0.1604940182192025</v>
       </c>
       <c r="F48" t="n">
-        <v>0.11770392633185789</v>
+        <v>-0.0774255846981598</v>
       </c>
       <c r="G48" t="n">
-        <v>0.19644615239213498</v>
+        <v>0.005642848822882934</v>
       </c>
       <c r="H48" t="n">
-        <v>0.27518837845241206</v>
+        <v>0.08871128234392567</v>
       </c>
       <c r="I48" t="n">
-        <v>0.3539306045126891</v>
+        <v>0.1717797158649684</v>
       </c>
       <c r="J48" t="n">
-        <v>0.4326728305729661</v>
+        <v>0.2548481493860111</v>
       </c>
       <c r="K48" t="n">
-        <v>0.5114150566332433</v>
+        <v>0.3379165829070538</v>
       </c>
       <c r="L48" t="n">
-        <v>0.5901572826935203</v>
+        <v>0.42098501642809655</v>
       </c>
       <c r="M48" t="n">
-        <v>0.6688995087537974</v>
+        <v>0.5040534499491394</v>
       </c>
       <c r="N48" t="n">
-        <v>0.7476417348140745</v>
+        <v>0.5871218834701821</v>
       </c>
       <c r="O48" t="n">
-        <v>0.8263839608743517</v>
+        <v>0.6701903169912249</v>
       </c>
       <c r="P48" t="n">
-        <v>0.9051261880288781</v>
+        <v>0.7532587505122675</v>
       </c>
       <c r="Q48" t="n">
-        <v>0.9838908622839224</v>
+        <v>0.8363271840333104</v>
       </c>
       <c r="R48" t="n">
-        <v>1.0627669786291254</v>
+        <v>0.9193956175543531</v>
       </c>
       <c r="S48" t="n">
-        <v>1.1418251509969255</v>
+        <v>1.002464051075396</v>
       </c>
       <c r="T48" t="n">
-        <v>1.2210966983311398</v>
+        <v>1.0855324845964387</v>
       </c>
       <c r="U48" t="n">
-        <v>1.3005736445869651</v>
+        <v>1.1686009181174812</v>
       </c>
       <c r="V48" t="n">
-        <v>1.3802087187309766</v>
+        <v>1.2516732688671233</v>
       </c>
       <c r="W48" t="n">
-        <v>1.4599153547411292</v>
+        <v>1.334880302124441</v>
       </c>
       <c r="X48" t="n">
-        <v>1.5395676916067567</v>
+        <v>1.4184312783859934</v>
       </c>
       <c r="Y48" t="n">
-        <v>1.619000573328572</v>
+        <v>1.5023991388734919</v>
       </c>
       <c r="Z48" t="n">
-        <v>1.6980087809155786</v>
+        <v>1.586706673957675</v>
       </c>
       <c r="AA48" t="n">
-        <v>1.7739509034927514</v>
+        <v>1.668730394266002</v>
       </c>
       <c r="AB48" t="n">
-        <v>1.8380914377617714</v>
+        <v>1.7396426301433738</v>
       </c>
       <c r="AC48" t="n">
-        <v>1.884382997013807</v>
+        <v>1.7931937406649214</v>
       </c>
       <c r="AD48" t="n">
-        <v>1.9113400040384714</v>
+        <v>1.8275858065449688</v>
       </c>
       <c r="AE48" t="n">
-        <v>1.9220386911238634</v>
+        <v>1.8454726301370572</v>
       </c>
       <c r="AF48" t="n">
-        <v>1.9241171000563726</v>
+        <v>1.8539597354337671</v>
       </c>
       <c r="AG48" t="n">
-        <v>1.9297750821209865</v>
+        <v>1.8646043680670192</v>
       </c>
       <c r="AH48" t="n">
-        <v>1.955774298100954</v>
+        <v>1.8934154953077313</v>
       </c>
       <c r="AI48" t="n">
-        <v>2.023438218277954</v>
+        <v>1.9608538060660017</v>
       </c>
       <c r="AJ48" t="n">
-        <v>2.158652122432321</v>
+        <v>2.0918317108913214</v>
       </c>
     </row>
     <row r="49">
@@ -37204,106 +37204,106 @@
         <v>5</v>
       </c>
       <c r="C52" t="n">
-        <v>-0.8516117221056614</v>
+        <v>0.4512516693199687</v>
       </c>
       <c r="D52" t="n">
-        <v>-0.8957307651467562</v>
+        <v>0.3802859514745248</v>
       </c>
       <c r="E52" t="n">
-        <v>-0.9398113428632926</v>
+        <v>0.30935869895363965</v>
       </c>
       <c r="F52" t="n">
-        <v>-0.9838489355098426</v>
+        <v>0.23847443150274072</v>
       </c>
       <c r="G52" t="n">
-        <v>-1.0278510115419262</v>
+        <v>0.1676256806663084</v>
       </c>
       <c r="H52" t="n">
-        <v>-1.0714437428544292</v>
+        <v>0.09718627454945616</v>
       </c>
       <c r="I52" t="n">
-        <v>-1.0956073317687982</v>
+        <v>0.046176010830738634</v>
       </c>
       <c r="J52" t="n">
-        <v>-1.1191176224018815</v>
+        <v>-0.004180954606693599</v>
       </c>
       <c r="K52" t="n">
-        <v>-1.1426621875235556</v>
+        <v>-0.05457219453271643</v>
       </c>
       <c r="L52" t="n">
-        <v>-1.166249105880629</v>
+        <v>-0.10500578769413887</v>
       </c>
       <c r="M52" t="n">
-        <v>-1.1898888501635732</v>
+        <v>-0.155492206781432</v>
       </c>
       <c r="N52" t="n">
-        <v>-1.2135897964247189</v>
+        <v>-0.20603982784692673</v>
       </c>
       <c r="O52" t="n">
-        <v>-1.2373601788234778</v>
+        <v>-0.2566568850500344</v>
       </c>
       <c r="P52" t="n">
-        <v>-1.26120776779996</v>
+        <v>-0.30735114204040104</v>
       </c>
       <c r="Q52" t="n">
-        <v>-1.2852770047160822</v>
+        <v>-0.35812774944171377</v>
       </c>
       <c r="R52" t="n">
-        <v>-1.3101298304439353</v>
+        <v>-0.40899638160445667</v>
       </c>
       <c r="S52" t="n">
-        <v>-1.3362131463441624</v>
+        <v>-0.4599657386938797</v>
       </c>
       <c r="T52" t="n">
-        <v>-1.3637261758911543</v>
+        <v>-0.5110406916232667</v>
       </c>
       <c r="U52" t="n">
-        <v>-1.3926264842140645</v>
+        <v>-0.5622283015949492</v>
       </c>
       <c r="V52" t="n">
-        <v>-1.4226418448456388</v>
+        <v>-0.6135739955683345</v>
       </c>
       <c r="W52" t="n">
-        <v>-1.4541989875498884</v>
+        <v>-0.6668531725099446</v>
       </c>
       <c r="X52" t="n">
-        <v>-1.4970489128625286</v>
+        <v>-0.7338964600205433</v>
       </c>
       <c r="Y52" t="n">
-        <v>-1.5733710830159673</v>
+        <v>-0.8383608543440138</v>
       </c>
       <c r="Z52" t="n">
-        <v>-1.6894448142822203</v>
+        <v>-0.9873200455168182</v>
       </c>
       <c r="AA52" t="n">
-        <v>-1.8201172442615619</v>
+        <v>-1.1557323846567507</v>
       </c>
       <c r="AB52" t="n">
-        <v>-1.8757863768867675</v>
+        <v>-1.253423928967072</v>
       </c>
       <c r="AC52" t="n">
-        <v>-1.8970149883868945</v>
+        <v>-1.319702347700344</v>
       </c>
       <c r="AD52" t="n">
-        <v>-1.8154624072152687</v>
+        <v>-1.2842887020864544</v>
       </c>
       <c r="AE52" t="n">
-        <v>-1.7727207016875792</v>
+        <v>-1.2861536329705998</v>
       </c>
       <c r="AF52" t="n">
-        <v>-1.7581341879079702</v>
+        <v>-1.311336868739493</v>
       </c>
       <c r="AG52" t="n">
-        <v>-1.7263590714056936</v>
+        <v>-1.3105068669579647</v>
       </c>
       <c r="AH52" t="n">
-        <v>-1.6755006604060985</v>
+        <v>-1.2770980276399198</v>
       </c>
       <c r="AI52" t="n">
-        <v>-1.6041052777837765</v>
+        <v>-1.204302605201581</v>
       </c>
       <c r="AJ52" t="n">
-        <v>-1.5108342815505262</v>
+        <v>-1.0847447289493455</v>
       </c>
     </row>
     <row r="53">
@@ -37324,106 +37324,106 @@
         <v>5</v>
       </c>
       <c r="C55" t="n">
-        <v>-0.8636489827346072</v>
+        <v>0.4184035953497912</v>
       </c>
       <c r="D55" t="n">
-        <v>-0.8999410492539227</v>
+        <v>0.35569747477220337</v>
       </c>
       <c r="E55" t="n">
-        <v>-0.9361568065123714</v>
+        <v>0.2930676634554824</v>
       </c>
       <c r="F55" t="n">
-        <v>-0.9723149583464822</v>
+        <v>0.23049545756309953</v>
       </c>
       <c r="G55" t="n">
-        <v>-1.0084239907429136</v>
+        <v>0.1679723711083954</v>
       </c>
       <c r="H55" t="n">
-        <v>-1.0441145650920158</v>
+        <v>0.10586774270102106</v>
       </c>
       <c r="I55" t="n">
-        <v>-1.0603703680470842</v>
+        <v>0.06319788568768042</v>
       </c>
       <c r="J55" t="n">
-        <v>-1.075967436826613</v>
+        <v>0.021186762849879304</v>
       </c>
       <c r="K55" t="n">
-        <v>-1.0915966429046922</v>
+        <v>-0.020856497286472195</v>
       </c>
       <c r="L55" t="n">
-        <v>-1.1072699746304413</v>
+        <v>-0.0629438830704933</v>
       </c>
       <c r="M55" t="n">
-        <v>-1.122998899288193</v>
+        <v>-0.10508686178651758</v>
       </c>
       <c r="N55" t="n">
-        <v>-1.1387950582453554</v>
+        <v>-0.14729707480195242</v>
       </c>
       <c r="O55" t="n">
-        <v>-1.1546688062584174</v>
+        <v>-0.18958487687328637</v>
       </c>
       <c r="P55" t="n">
-        <v>-1.1706305400781163</v>
+        <v>-0.23196065807021835</v>
       </c>
       <c r="Q55" t="n">
-        <v>-1.1868258988367413</v>
+        <v>-0.27443301138743426</v>
       </c>
       <c r="R55" t="n">
-        <v>-1.2038096498791295</v>
+        <v>-0.3170133371471282</v>
       </c>
       <c r="S55" t="n">
-        <v>-1.2220230901124411</v>
+        <v>-0.3597117924543114</v>
       </c>
       <c r="T55" t="n">
-        <v>-1.2416673113016445</v>
+        <v>-0.40253824840722685</v>
       </c>
       <c r="U55" t="n">
-        <v>-1.2627035278226049</v>
+        <v>-0.44550261785043777</v>
       </c>
       <c r="V55" t="n">
-        <v>-1.2848616133972866</v>
+        <v>-0.4886473091063679</v>
       </c>
       <c r="W55" t="n">
-        <v>-1.3085848662052202</v>
+        <v>-0.5337425564269452</v>
       </c>
       <c r="X55" t="n">
-        <v>-1.3436401187310891</v>
+        <v>-0.5926013072111802</v>
       </c>
       <c r="Y55" t="n">
-        <v>-1.4122203173273191</v>
+        <v>-0.688870232100873</v>
       </c>
       <c r="Z55" t="n">
-        <v>-1.520631145623213</v>
+        <v>-0.8296365875536018</v>
       </c>
       <c r="AA55" t="n">
-        <v>-1.643982187435616</v>
+        <v>-0.9901193787534797</v>
       </c>
       <c r="AB55" t="n">
-        <v>-1.6935116223494708</v>
+        <v>-1.080994055191615</v>
       </c>
       <c r="AC55" t="n">
-        <v>-1.7104502330965576</v>
+        <v>-1.1422565180448956</v>
       </c>
       <c r="AD55" t="n">
-        <v>-1.6266075982347608</v>
+        <v>-1.1038093128552968</v>
       </c>
       <c r="AE55" t="n">
-        <v>-1.583298551087422</v>
+        <v>-1.1043880884691233</v>
       </c>
       <c r="AF55" t="n">
-        <v>-1.5690561765149789</v>
+        <v>-1.1292745938087625</v>
       </c>
       <c r="AG55" t="n">
-        <v>-1.5373590949714329</v>
+        <v>-1.128023961929101</v>
       </c>
       <c r="AH55" t="n">
-        <v>-1.4847631380122979</v>
+        <v>-1.0925963855254415</v>
       </c>
       <c r="AI55" t="n">
-        <v>-1.4078890442074843</v>
+        <v>-1.0143448128464838</v>
       </c>
       <c r="AJ55" t="n">
-        <v>-1.303109773574275</v>
+        <v>-0.8837022621271938</v>
       </c>
     </row>
     <row r="56">
@@ -37444,106 +37444,106 @@
         <v>5</v>
       </c>
       <c r="C58" t="n">
-        <v>-0.8732787912377639</v>
+        <v>0.39212513617364936</v>
       </c>
       <c r="D58" t="n">
-        <v>-0.903309276539656</v>
+        <v>0.33602669341034636</v>
       </c>
       <c r="E58" t="n">
-        <v>-0.9332331774316345</v>
+        <v>0.2800348350569567</v>
       </c>
       <c r="F58" t="n">
-        <v>-0.9630877766157937</v>
+        <v>0.22411227841138653</v>
       </c>
       <c r="G58" t="n">
-        <v>-0.9928823741037041</v>
+        <v>0.16824972346206507</v>
       </c>
       <c r="H58" t="n">
-        <v>-1.022251222882085</v>
+        <v>0.11281291722227291</v>
       </c>
       <c r="I58" t="n">
-        <v>-1.0321807970697132</v>
+        <v>0.0768153855732337</v>
       </c>
       <c r="J58" t="n">
-        <v>-1.0414472883663985</v>
+        <v>0.04148093681513737</v>
       </c>
       <c r="K58" t="n">
-        <v>-1.0507442072096018</v>
+        <v>0.0061160605105228805</v>
       </c>
       <c r="L58" t="n">
-        <v>-1.0600866696302913</v>
+        <v>-0.02929435937157722</v>
       </c>
       <c r="M58" t="n">
-        <v>-1.0694869385878891</v>
+        <v>-0.06476258579058645</v>
       </c>
       <c r="N58" t="n">
-        <v>-1.0789592677018651</v>
+        <v>-0.10030287236597356</v>
       </c>
       <c r="O58" t="n">
-        <v>-1.0885157082063692</v>
+        <v>-0.1359272703318885</v>
       </c>
       <c r="P58" t="n">
-        <v>-1.0981687579006418</v>
+        <v>-0.17164827089407286</v>
       </c>
       <c r="Q58" t="n">
-        <v>-1.1080650141332695</v>
+        <v>-0.2074772209440114</v>
       </c>
       <c r="R58" t="n">
-        <v>-1.1187535054272857</v>
+        <v>-0.2434269015812663</v>
       </c>
       <c r="S58" t="n">
-        <v>-1.1306710451270652</v>
+        <v>-0.2795086354626579</v>
       </c>
       <c r="T58" t="n">
-        <v>-1.1440202196300375</v>
+        <v>-0.31573629383439583</v>
       </c>
       <c r="U58" t="n">
-        <v>-1.1587651627094382</v>
+        <v>-0.3521220708548297</v>
       </c>
       <c r="V58" t="n">
-        <v>-1.1746374282386063</v>
+        <v>-0.3887059599367957</v>
       </c>
       <c r="W58" t="n">
-        <v>-1.192093569129487</v>
+        <v>-0.42725406356054696</v>
       </c>
       <c r="X58" t="n">
-        <v>-1.220913083425939</v>
+        <v>-0.47956518496369105</v>
       </c>
       <c r="Y58" t="n">
-        <v>-1.283299704776401</v>
+        <v>-0.5692777343063615</v>
       </c>
       <c r="Z58" t="n">
-        <v>-1.3855802106960085</v>
+        <v>-0.70348982118303</v>
       </c>
       <c r="AA58" t="n">
-        <v>-1.5030741419748603</v>
+        <v>-0.857628974030864</v>
       </c>
       <c r="AB58" t="n">
-        <v>-1.5476918187196347</v>
+        <v>-0.9430501561712513</v>
       </c>
       <c r="AC58" t="n">
-        <v>-1.56119842886429</v>
+        <v>-1.0002998543205386</v>
       </c>
       <c r="AD58" t="n">
-        <v>-1.475523751050356</v>
+        <v>-0.959425801470372</v>
       </c>
       <c r="AE58" t="n">
-        <v>-1.4317608306072982</v>
+        <v>-0.9589756528679441</v>
       </c>
       <c r="AF58" t="n">
-        <v>-1.4177937674005876</v>
+        <v>-0.9836247738641793</v>
       </c>
       <c r="AG58" t="n">
-        <v>-1.3861591138240268</v>
+        <v>-0.982037637906012</v>
       </c>
       <c r="AH58" t="n">
-        <v>-1.3321731200972584</v>
+        <v>-0.9449950718338604</v>
       </c>
       <c r="AI58" t="n">
-        <v>-1.2509160573464522</v>
+        <v>-0.8623785789624075</v>
       </c>
       <c r="AJ58" t="n">
-        <v>-1.1369301671932754</v>
+        <v>-0.7228682886694744</v>
       </c>
     </row>
     <row r="59">
@@ -37569,106 +37569,106 @@
         <v>5</v>
       </c>
       <c r="C62" t="n">
-        <v>-0.11165800671331873</v>
+        <v>-0.3334956303969426</v>
       </c>
       <c r="D62" t="n">
-        <v>-0.03271155764081961</v>
+        <v>-0.2506314198881219</v>
       </c>
       <c r="E62" t="n">
-        <v>0.04623489143167949</v>
+        <v>-0.16776720937930117</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1251813405041786</v>
+        <v>-0.08490299887048047</v>
       </c>
       <c r="G62" t="n">
-        <v>0.2041277895766777</v>
+        <v>-0.002038788361659785</v>
       </c>
       <c r="H62" t="n">
-        <v>0.2830742386491768</v>
+        <v>0.0808254221471609</v>
       </c>
       <c r="I62" t="n">
-        <v>0.36202068772167595</v>
+        <v>0.1636896326559816</v>
       </c>
       <c r="J62" t="n">
-        <v>0.440967136794175</v>
+        <v>0.24655384316480225</v>
       </c>
       <c r="K62" t="n">
-        <v>0.5199135858666741</v>
+        <v>0.329418053673623</v>
       </c>
       <c r="L62" t="n">
-        <v>0.5988600349391733</v>
+        <v>0.4122822641824437</v>
       </c>
       <c r="M62" t="n">
-        <v>0.6778064840116724</v>
+        <v>0.4951464746912644</v>
       </c>
       <c r="N62" t="n">
-        <v>0.7567529330841716</v>
+        <v>0.5780106852000851</v>
       </c>
       <c r="O62" t="n">
-        <v>0.8356993821566707</v>
+        <v>0.6608748957089059</v>
       </c>
       <c r="P62" t="n">
-        <v>0.9146458312291698</v>
+        <v>0.7437391062177265</v>
       </c>
       <c r="Q62" t="n">
-        <v>0.9935954239146859</v>
+        <v>0.8266033167265473</v>
       </c>
       <c r="R62" t="n">
-        <v>1.0726112981446034</v>
+        <v>0.909467527235368</v>
       </c>
       <c r="S62" t="n">
-        <v>1.1517873431097931</v>
+        <v>0.9923317377441887</v>
       </c>
       <c r="T62" t="n">
-        <v>1.2311768210931544</v>
+        <v>1.0751959482530093</v>
       </c>
       <c r="U62" t="n">
-        <v>1.310789655615685</v>
+        <v>1.15806015876183</v>
       </c>
       <c r="V62" t="n">
-        <v>1.3905924314364824</v>
+        <v>1.2409430683213447</v>
       </c>
       <c r="W62" t="n">
-        <v>1.4705083945527413</v>
+        <v>1.3240214429755588</v>
       </c>
       <c r="X62" t="n">
-        <v>1.5504174521997574</v>
+        <v>1.4074653217712667</v>
       </c>
       <c r="Y62" t="n">
-        <v>1.6301561728509228</v>
+        <v>1.4913076864005639</v>
       </c>
       <c r="Z62" t="n">
-        <v>1.7095170182146422</v>
+        <v>1.5754422644264967</v>
       </c>
       <c r="AA62" t="n">
-        <v>1.7858522143420097</v>
+        <v>1.657227400390728</v>
       </c>
       <c r="AB62" t="n">
-        <v>1.8504158510875461</v>
+        <v>1.7278281552742865</v>
       </c>
       <c r="AC62" t="n">
-        <v>1.897146091121979</v>
+        <v>1.7809985155103396</v>
       </c>
       <c r="AD62" t="n">
-        <v>1.9245388628411995</v>
+        <v>1.8149550858931534</v>
       </c>
       <c r="AE62" t="n">
-        <v>1.9356478603663072</v>
+        <v>1.8323770895781308</v>
       </c>
       <c r="AF62" t="n">
-        <v>1.9380845435434084</v>
+        <v>1.840406368081627</v>
       </c>
       <c r="AG62" t="n">
-        <v>1.9440181379439283</v>
+        <v>1.8506473812812378</v>
       </c>
       <c r="AH62" t="n">
-        <v>1.9701756348642754</v>
+        <v>1.879167207415485</v>
       </c>
       <c r="AI62" t="n">
-        <v>2.037841791326004</v>
+        <v>1.9464955430839668</v>
       </c>
       <c r="AJ62" t="n">
-        <v>2.1728591300760476</v>
+        <v>2.0776247032475874</v>
       </c>
     </row>
     <row r="63">
@@ -37799,106 +37799,106 @@
         <v>5</v>
       </c>
       <c r="C66" t="n">
-        <v>-0.8952015895929948</v>
+        <v>0.4972408407343389</v>
       </c>
       <c r="D66" t="n">
-        <v>-0.9405879571547956</v>
+        <v>0.4275424474096011</v>
       </c>
       <c r="E66" t="n">
-        <v>-0.985935859392038</v>
+        <v>0.35788251940942195</v>
       </c>
       <c r="F66" t="n">
-        <v>-1.0312407765592941</v>
+        <v>0.288265576479229</v>
       </c>
       <c r="G66" t="n">
-        <v>-1.0765101771120835</v>
+        <v>0.21868415016350273</v>
       </c>
       <c r="H66" t="n">
-        <v>-1.1213702329452926</v>
+        <v>0.1495120685673566</v>
       </c>
       <c r="I66" t="n">
-        <v>-1.1468011463803673</v>
+        <v>0.09976912936934484</v>
       </c>
       <c r="J66" t="n">
-        <v>-1.1715787615341566</v>
+        <v>0.050679488452618604</v>
       </c>
       <c r="K66" t="n">
-        <v>-1.1963906511765368</v>
+        <v>0.0015555730473016671</v>
       </c>
       <c r="L66" t="n">
-        <v>-1.2212448940543161</v>
+        <v>-0.047610695593414805</v>
       </c>
       <c r="M66" t="n">
-        <v>-1.2461519628579667</v>
+        <v>-0.09682979016000179</v>
       </c>
       <c r="N66" t="n">
-        <v>-1.2711202336398184</v>
+        <v>-0.1461100867047905</v>
       </c>
       <c r="O66" t="n">
-        <v>-1.2961579405592834</v>
+        <v>-0.19545981938719215</v>
       </c>
       <c r="P66" t="n">
-        <v>-1.3212728472660067</v>
+        <v>-0.24488675185685274</v>
       </c>
       <c r="Q66" t="n">
-        <v>-1.3464896123608467</v>
+        <v>-0.29439603473745957</v>
       </c>
       <c r="R66" t="n">
-        <v>-1.3722097183835766</v>
+        <v>-0.3439973423794964</v>
       </c>
       <c r="S66" t="n">
-        <v>-1.3990245034329756</v>
+        <v>-0.3936993749482134</v>
       </c>
       <c r="T66" t="n">
-        <v>-1.4272693623746102</v>
+        <v>-0.4435070033568941</v>
       </c>
       <c r="U66" t="n">
-        <v>-1.4570129377250627</v>
+        <v>-0.4934272888078712</v>
       </c>
       <c r="V66" t="n">
-        <v>-1.488068986400759</v>
+        <v>-0.54359738820517</v>
       </c>
       <c r="W66" t="n">
-        <v>-1.5209251275456377</v>
+        <v>-0.596078162455825</v>
       </c>
       <c r="X66" t="n">
-        <v>-1.5653681570716014</v>
+        <v>-0.6624568468783922</v>
       </c>
       <c r="Y66" t="n">
-        <v>-1.6435882385834848</v>
+        <v>-0.7661424652127349</v>
       </c>
       <c r="Z66" t="n">
-        <v>-1.7618502957219913</v>
+        <v>-0.9140283555926237</v>
       </c>
       <c r="AA66" t="n">
-        <v>-1.8949619794523325</v>
+        <v>-1.0809601378342946</v>
       </c>
       <c r="AB66" t="n">
-        <v>-1.9532567130684682</v>
+        <v>-1.1767187584407754</v>
       </c>
       <c r="AC66" t="n">
-        <v>-1.9772075981568897</v>
+        <v>-1.2406343965656184</v>
       </c>
       <c r="AD66" t="n">
-        <v>-1.8983591945246152</v>
+        <v>-1.2025182439409088</v>
       </c>
       <c r="AE66" t="n">
-        <v>-1.8581637078372775</v>
+        <v>-1.2014986925153264</v>
       </c>
       <c r="AF66" t="n">
-        <v>-1.8458004975452074</v>
+        <v>-1.2238408423803184</v>
       </c>
       <c r="AG66" t="n">
-        <v>-1.8157357185200944</v>
+        <v>-1.2205061434066298</v>
       </c>
       <c r="AH66" t="n">
-        <v>-1.7658595343259929</v>
+        <v>-1.185289608515422</v>
       </c>
       <c r="AI66" t="n">
-        <v>-1.6944780291724308</v>
+        <v>-1.1118117256313216</v>
       </c>
       <c r="AJ66" t="n">
-        <v>-1.5999872284024053</v>
+        <v>-0.9931924781703803</v>
       </c>
     </row>
     <row r="67">
@@ -37919,106 +37919,106 @@
         <v>5</v>
       </c>
       <c r="C69" t="n">
-        <v>-0.9065523757083752</v>
+        <v>0.4637062922505959</v>
       </c>
       <c r="D69" t="n">
-        <v>-0.9440913444471745</v>
+        <v>0.4022470738924919</v>
       </c>
       <c r="E69" t="n">
-        <v>-0.9815540039251068</v>
+        <v>0.34086416479525483</v>
       </c>
       <c r="F69" t="n">
-        <v>-1.0189590579787013</v>
+        <v>0.2795388611223556</v>
       </c>
       <c r="G69" t="n">
-        <v>-1.0563149925946167</v>
+        <v>0.2182626768871354</v>
       </c>
       <c r="H69" t="n">
-        <v>-1.0932524691632026</v>
+        <v>0.15740495069924487</v>
       </c>
       <c r="I69" t="n">
-        <v>-1.1107551743377546</v>
+        <v>0.11598199590538794</v>
       </c>
       <c r="J69" t="n">
-        <v>-1.1275991453367673</v>
+        <v>0.0752177752870706</v>
       </c>
       <c r="K69" t="n">
-        <v>-1.1444752536343303</v>
+        <v>0.03442141737020285</v>
       </c>
       <c r="L69" t="n">
-        <v>-1.161395487579563</v>
+        <v>-0.006419066194334515</v>
       </c>
       <c r="M69" t="n">
-        <v>-1.1783713144567989</v>
+        <v>-0.04731514269087485</v>
       </c>
       <c r="N69" t="n">
-        <v>-1.195414375633445</v>
+        <v>-0.08827845348682593</v>
       </c>
       <c r="O69" t="n">
-        <v>-1.2125350258659906</v>
+        <v>-0.129319353338676</v>
       </c>
       <c r="P69" t="n">
-        <v>-1.2297436552241339</v>
+        <v>-0.1704482323161242</v>
       </c>
       <c r="Q69" t="n">
-        <v>-1.2470680503184295</v>
+        <v>-0.21167368341385634</v>
       </c>
       <c r="R69" t="n">
-        <v>-1.2649051058672232</v>
+        <v>-0.2530071069540664</v>
       </c>
       <c r="S69" t="n">
-        <v>-1.2838382279899676</v>
+        <v>-0.294458660041766</v>
       </c>
       <c r="T69" t="n">
-        <v>-1.3042024855088985</v>
+        <v>-0.33603821377519727</v>
       </c>
       <c r="U69" t="n">
-        <v>-1.3260683802307311</v>
+        <v>-0.377755680998925</v>
       </c>
       <c r="V69" t="n">
-        <v>-1.3492503836818566</v>
+        <v>-0.4197437217977812</v>
       </c>
       <c r="W69" t="n">
-        <v>-1.3742517022198086</v>
+        <v>-0.464053432287714</v>
       </c>
       <c r="X69" t="n">
-        <v>-1.410874386880862</v>
+        <v>-0.5222582897305019</v>
       </c>
       <c r="Y69" t="n">
-        <v>-1.481321912942601</v>
+        <v>-0.6177609882168867</v>
       </c>
       <c r="Z69" t="n">
-        <v>-1.5918858033330778</v>
+        <v>-0.7574713385825251</v>
       </c>
       <c r="AA69" t="n">
-        <v>-1.7176367915414608</v>
+        <v>-0.9164974313185508</v>
       </c>
       <c r="AB69" t="n">
-        <v>-1.7697495171985935</v>
+        <v>-1.0054703321522274</v>
       </c>
       <c r="AC69" t="n">
-        <v>-1.789366533455736</v>
+        <v>-1.0644080894256283</v>
       </c>
       <c r="AD69" t="n">
-        <v>-1.7081844996638345</v>
+        <v>-1.023301926774932</v>
       </c>
       <c r="AE69" t="n">
-        <v>-1.6673806403128766</v>
+        <v>-1.0210427020697428</v>
       </c>
       <c r="AF69" t="n">
-        <v>-1.6553257418035123</v>
+        <v>-1.0431339041848018</v>
       </c>
       <c r="AG69" t="n">
-        <v>-1.62531143650354</v>
+        <v>-1.0394189370563445</v>
       </c>
       <c r="AH69" t="n">
-        <v>-1.57368187825586</v>
+        <v>-1.0022127951901687</v>
       </c>
       <c r="AI69" t="n">
-        <v>-1.4968214382913336</v>
+        <v>-0.9232897595744279</v>
       </c>
       <c r="AJ69" t="n">
-        <v>-1.3908420196617812</v>
+        <v>-0.793570712112602</v>
       </c>
     </row>
     <row r="70">
@@ -38039,106 +38039,106 @@
         <v>5</v>
       </c>
       <c r="C72" t="n">
-        <v>-0.9156330046006795</v>
+        <v>0.43687865346360194</v>
       </c>
       <c r="D72" t="n">
-        <v>-0.9468940542810773</v>
+        <v>0.3820107750788047</v>
       </c>
       <c r="E72" t="n">
-        <v>-0.9780485195515621</v>
+        <v>0.32724948110392116</v>
       </c>
       <c r="F72" t="n">
-        <v>-1.0091336831142272</v>
+        <v>0.272557488836857</v>
       </c>
       <c r="G72" t="n">
-        <v>-1.0401588449806436</v>
+        <v>0.21792549826604152</v>
       </c>
       <c r="H72" t="n">
-        <v>-1.0707582581375306</v>
+        <v>0.16371925640475563</v>
       </c>
       <c r="I72" t="n">
-        <v>-1.081918396703665</v>
+        <v>0.12895228913422224</v>
       </c>
       <c r="J72" t="n">
-        <v>-1.092415452378856</v>
+        <v>0.09484840475463197</v>
       </c>
       <c r="K72" t="n">
-        <v>-1.102942935600566</v>
+        <v>0.06071409282852344</v>
       </c>
       <c r="L72" t="n">
-        <v>-1.1135159623997606</v>
+        <v>0.02653423732492933</v>
       </c>
       <c r="M72" t="n">
-        <v>-1.1241467957358648</v>
+        <v>-0.0077034247155737395</v>
       </c>
       <c r="N72" t="n">
-        <v>-1.134849689228347</v>
+        <v>-0.04201314691245482</v>
       </c>
       <c r="O72" t="n">
-        <v>-1.145636694111357</v>
+        <v>-0.07640698049986366</v>
       </c>
       <c r="P72" t="n">
-        <v>-1.156520301590636</v>
+        <v>-0.11089741668354192</v>
       </c>
       <c r="Q72" t="n">
-        <v>-1.1675308006844967</v>
+        <v>-0.14549580235497456</v>
       </c>
       <c r="R72" t="n">
-        <v>-1.1790614158541413</v>
+        <v>-0.1802149186137233</v>
       </c>
       <c r="S72" t="n">
-        <v>-1.1916892076355619</v>
+        <v>-0.21506608811660877</v>
       </c>
       <c r="T72" t="n">
-        <v>-1.2057489840163305</v>
+        <v>-0.2500631821098406</v>
       </c>
       <c r="U72" t="n">
-        <v>-1.2213127342352665</v>
+        <v>-0.2852183947517689</v>
       </c>
       <c r="V72" t="n">
-        <v>-1.2381955015067354</v>
+        <v>-0.3206607886718712</v>
       </c>
       <c r="W72" t="n">
-        <v>-1.2569129619591461</v>
+        <v>-0.3584336481532263</v>
       </c>
       <c r="X72" t="n">
-        <v>-1.2872793707282715</v>
+        <v>-0.410099444012191</v>
       </c>
       <c r="Y72" t="n">
-        <v>-1.3515088524298953</v>
+        <v>-0.49905580662021</v>
       </c>
       <c r="Z72" t="n">
-        <v>-1.4559142094219488</v>
+        <v>-0.6322257249744474</v>
       </c>
       <c r="AA72" t="n">
-        <v>-1.5757766412127638</v>
+        <v>-0.7849272661059572</v>
       </c>
       <c r="AB72" t="n">
-        <v>-1.6229437605026957</v>
+        <v>-0.8684715911213902</v>
       </c>
       <c r="AC72" t="n">
-        <v>-1.6390936816948143</v>
+        <v>-0.9234270437136376</v>
       </c>
       <c r="AD72" t="n">
-        <v>-1.5560447437752112</v>
+        <v>-0.8799288730421528</v>
       </c>
       <c r="AE72" t="n">
-        <v>-1.5147541862933571</v>
+        <v>-0.8766779097132771</v>
       </c>
       <c r="AF72" t="n">
-        <v>-1.5029459372101583</v>
+        <v>-0.8985683536283903</v>
       </c>
       <c r="AG72" t="n">
-        <v>-1.472972010890298</v>
+        <v>-0.8945491719761177</v>
       </c>
       <c r="AH72" t="n">
-        <v>-1.4199397533997553</v>
+        <v>-0.8557513445299669</v>
       </c>
       <c r="AI72" t="n">
-        <v>-1.3386961655864575</v>
+        <v>-0.7724721867289147</v>
       </c>
       <c r="AJ72" t="n">
-        <v>-1.2235258526692838</v>
+        <v>-0.6338732992663811</v>
       </c>
     </row>
   </sheetData>

--- a/JPADSandBox_v2/out/ATR-72/AERODYNAMIC_AND_STABILITY_CRUISE/Aerodynamic_and_Stability_CRUISE.xlsx
+++ b/JPADSandBox_v2/out/ATR-72/AERODYNAMIC_AND_STABILITY_CRUISE/Aerodynamic_and_Stability_CRUISE.xlsx
@@ -13,12 +13,13 @@
     <sheet name="NACELLE" r:id="rId7" sheetId="5"/>
     <sheet name="DOWNWASH" r:id="rId8" sheetId="6"/>
     <sheet name="TOTAL AIRCRAFT CURVES" r:id="rId9" sheetId="7"/>
+    <sheet name="DIRECTIONAL STABILITY AND CONTR" r:id="rId10" sheetId="8"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="978" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1112" uniqueCount="154">
   <si>
     <t>Description</t>
   </si>
@@ -424,6 +425,63 @@
   <si>
     <t>Delta elevator = -25.0 deg</t>
   </si>
+  <si>
+    <t>Beta</t>
+  </si>
+  <si>
+    <t>CN_beta_vertical_tail</t>
+  </si>
+  <si>
+    <t>CN_beta_fuselage</t>
+  </si>
+  <si>
+    <t>CN_beta_wing</t>
+  </si>
+  <si>
+    <t>CN_beta_total</t>
+  </si>
+  <si>
+    <t>Delta_rudder</t>
+  </si>
+  <si>
+    <t>CN_delta_rudder</t>
+  </si>
+  <si>
+    <t>CN_vertical_tail</t>
+  </si>
+  <si>
+    <t>CN_fuselage</t>
+  </si>
+  <si>
+    <t>CN_wing</t>
+  </si>
+  <si>
+    <t>CN_total</t>
+  </si>
+  <si>
+    <t>CN at delta rudder = 5.0 deg</t>
+  </si>
+  <si>
+    <t>CN at delta rudder = 10.0 deg</t>
+  </si>
+  <si>
+    <t>CN at delta rudder = 15.0 deg</t>
+  </si>
+  <si>
+    <t>CN at delta rudder = 20.0 deg</t>
+  </si>
+  <si>
+    <t>CN at delta rudder = 25.0 deg</t>
+  </si>
+  <si>
+    <t>CN at delta rudder = 30.0 deg</t>
+  </si>
+  <si>
+    <t>Delta_rudder equilibrium</t>
+  </si>
+  <si>
+    <t>Beta equilibrium</t>
+  </si>
 </sst>
 </file>
 
@@ -28431,64 +28489,64 @@
         <v>0.011007460270833446</v>
       </c>
       <c r="D81" t="n">
-        <v>0.011014674816127952</v>
+        <v>0.011015596254913803</v>
       </c>
       <c r="E81" t="n">
-        <v>0.011153301479691903</v>
+        <v>0.011157790053607444</v>
       </c>
       <c r="F81" t="n">
-        <v>0.011507407371283107</v>
+        <v>0.011505004516517954</v>
       </c>
       <c r="G81" t="n">
-        <v>0.01207319834368001</v>
+        <v>0.012080726732585794</v>
       </c>
       <c r="H81" t="n">
-        <v>0.012866756828015061</v>
+        <v>0.01286827000490336</v>
       </c>
       <c r="I81" t="n">
-        <v>0.013880730572166463</v>
+        <v>0.013886206631636493</v>
       </c>
       <c r="J81" t="n">
-        <v>0.015111482356988823</v>
+        <v>0.015107442156743167</v>
       </c>
       <c r="K81" t="n">
-        <v>0.016560395820907597</v>
+        <v>0.01656726878988513</v>
       </c>
       <c r="L81" t="n">
-        <v>0.018225811688808203</v>
+        <v>0.018226491320932</v>
       </c>
       <c r="M81" t="n">
-        <v>0.019846491256267033</v>
+        <v>0.020126679101991236</v>
       </c>
       <c r="N81" t="n">
-        <v>0.019846491256267033</v>
+        <v>0.022218083827798135</v>
       </c>
       <c r="O81" t="n">
-        <v>0.019846491256267033</v>
+        <v>0.02390297943807824</v>
       </c>
       <c r="P81" t="n">
-        <v>0.019846491256267033</v>
+        <v>0.02460163897229911</v>
       </c>
       <c r="Q81" t="n">
-        <v>0.019846491256267033</v>
+        <v>0.024775875079133976</v>
       </c>
       <c r="R81" t="n">
-        <v>0.019846491256267033</v>
+        <v>0.024823514855725193</v>
       </c>
       <c r="S81" t="n">
-        <v>0.019846491256267033</v>
+        <v>0.024823514855725193</v>
       </c>
       <c r="T81" t="n">
-        <v>0.019846491256267033</v>
+        <v>0.024823514855725193</v>
       </c>
       <c r="U81" t="n">
-        <v>0.019846491256267033</v>
+        <v>0.024823514855725193</v>
       </c>
       <c r="V81" t="n">
-        <v>0.019846491256267033</v>
+        <v>0.024823514855725193</v>
       </c>
       <c r="W81" t="n">
-        <v>0.019846491256267033</v>
+        <v>0.024823514855725193</v>
       </c>
     </row>
     <row r="82">
@@ -30142,7 +30200,7 @@
         <v>0.014056703249194172</v>
       </c>
       <c r="D104" t="n">
-        <v>0.013942804026955316</v>
+        <v>0.013942804026955314</v>
       </c>
       <c r="E104" t="n">
         <v>0.014093316727620554</v>
@@ -30151,7 +30209,7 @@
         <v>0.014250131476188359</v>
       </c>
       <c r="G104" t="n">
-        <v>0.014406202460146166</v>
+        <v>0.014406202460146164</v>
       </c>
       <c r="H104" t="n">
         <v>0.014559303935343364</v>
@@ -30256,22 +30314,22 @@
         <v>0.015169994044511465</v>
       </c>
       <c r="AP104" t="n">
-        <v>0.014861912825221675</v>
+        <v>0.014861912825221672</v>
       </c>
       <c r="AQ104" t="n">
         <v>0.014502504111675658</v>
       </c>
       <c r="AR104" t="n">
-        <v>0.01408459884263393</v>
+        <v>0.014084598842633928</v>
       </c>
       <c r="AS104" t="n">
-        <v>0.01360032553202283</v>
+        <v>0.013600325532022828</v>
       </c>
       <c r="AT104" t="n">
-        <v>0.01304198161626225</v>
+        <v>0.013041981616262249</v>
       </c>
       <c r="AU104" t="n">
-        <v>0.012405046911074176</v>
+        <v>0.012405046911074174</v>
       </c>
       <c r="AV104" t="n">
         <v>0.01169876963579465</v>
@@ -30300,7 +30358,7 @@
         <v>0.020527242558193815</v>
       </c>
       <c r="D105" t="n">
-        <v>0.020422143106090782</v>
+        <v>0.02042214310609078</v>
       </c>
       <c r="E105" t="n">
         <v>0.02059017869734793</v>
@@ -30414,7 +30472,7 @@
         <v>0.021780441740898025</v>
       </c>
       <c r="AP105" t="n">
-        <v>0.021421196693620807</v>
+        <v>0.021421196693620803</v>
       </c>
       <c r="AQ105" t="n">
         <v>0.021003555484096065</v>
@@ -30423,10 +30481,10 @@
         <v>0.020525420596251676</v>
       </c>
       <c r="AS105" t="n">
-        <v>0.019970278376471796</v>
+        <v>0.019970278376471792</v>
       </c>
       <c r="AT105" t="n">
-        <v>0.019328180323880867</v>
+        <v>0.019328180323880863</v>
       </c>
       <c r="AU105" t="n">
         <v>0.0185951816882596</v>
@@ -30572,7 +30630,7 @@
         <v>375.5576188007029</v>
       </c>
       <c r="AP106" t="n">
-        <v>364.5792173324164</v>
+        <v>364.5792173324163</v>
       </c>
       <c r="AQ106" t="n">
         <v>352.7804406861653</v>
@@ -30584,7 +30642,7 @@
         <v>326.50538924446846</v>
       </c>
       <c r="AT106" t="n">
-        <v>311.6908155083796</v>
+        <v>311.6908155083795</v>
       </c>
       <c r="AU106" t="n">
         <v>295.7174568208857</v>
@@ -30784,64 +30842,64 @@
         <v>0.0</v>
       </c>
       <c r="D116" t="n">
-        <v>0.002012055749872688</v>
+        <v>0.003018083624809071</v>
       </c>
       <c r="E116" t="n">
-        <v>0.004024111499745376</v>
+        <v>0.006036167249618142</v>
       </c>
       <c r="F116" t="n">
-        <v>0.006036167249618142</v>
+        <v>0.009054250874427128</v>
       </c>
       <c r="G116" t="n">
-        <v>0.008048222999490751</v>
+        <v>0.012072334499236287</v>
       </c>
       <c r="H116" t="n">
-        <v>0.010060278749363565</v>
+        <v>0.015090418124045386</v>
       </c>
       <c r="I116" t="n">
-        <v>0.012072334499236285</v>
+        <v>0.01810850174885426</v>
       </c>
       <c r="J116" t="n">
-        <v>0.014084390249108868</v>
+        <v>0.021126585373663354</v>
       </c>
       <c r="K116" t="n">
-        <v>0.016096445998981503</v>
+        <v>0.02414466899847257</v>
       </c>
       <c r="L116" t="n">
-        <v>0.018108501748854255</v>
+        <v>0.027162752623281633</v>
       </c>
       <c r="M116" t="n">
-        <v>0.020120557498727126</v>
+        <v>0.03018083624809081</v>
       </c>
       <c r="N116" t="n">
-        <v>0.02213261324859961</v>
+        <v>0.03319891987289961</v>
       </c>
       <c r="O116" t="n">
-        <v>0.02414466899847257</v>
+        <v>0.03621700787063129</v>
       </c>
       <c r="P116" t="n">
-        <v>0.026156724748345007</v>
+        <v>0.039232941484985004</v>
       </c>
       <c r="Q116" t="n">
-        <v>0.02816878049821772</v>
+        <v>0.04215708898473357</v>
       </c>
       <c r="R116" t="n">
-        <v>0.030180836248090807</v>
+        <v>0.04426426797954178</v>
       </c>
       <c r="S116" t="n">
-        <v>0.03219289199796299</v>
+        <v>0.045007760044895075</v>
       </c>
       <c r="T116" t="n">
-        <v>0.03420494774783617</v>
+        <v>0.04676058132799066</v>
       </c>
       <c r="U116" t="n">
-        <v>0.03621700349770851</v>
+        <v>0.04877197854580837</v>
       </c>
       <c r="V116" t="n">
-        <v>0.038229059247581194</v>
+        <v>0.05121616145746611</v>
       </c>
       <c r="W116" t="n">
-        <v>0.040226410825277024</v>
+        <v>0.05314948045510232</v>
       </c>
     </row>
     <row r="117">
@@ -38144,4 +38202,2879 @@
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="35"/>
+  <cols>
+    <col min="2" max="2" width="8.0" customWidth="true"/>
+    <col min="3" max="3" width="15.0" customWidth="true"/>
+    <col min="4" max="4" width="15.0" customWidth="true"/>
+    <col min="5" max="5" width="15.0" customWidth="true"/>
+    <col min="6" max="6" width="15.0" customWidth="true"/>
+    <col min="7" max="7" width="15.0" customWidth="true"/>
+    <col min="8" max="8" width="15.0" customWidth="true"/>
+    <col min="9" max="9" width="15.0" customWidth="true"/>
+    <col min="10" max="10" width="15.0" customWidth="true"/>
+    <col min="11" max="11" width="15.0" customWidth="true"/>
+    <col min="12" max="12" width="15.0" customWidth="true"/>
+    <col min="13" max="13" width="15.0" customWidth="true"/>
+    <col min="14" max="14" width="15.0" customWidth="true"/>
+    <col min="15" max="15" width="15.0" customWidth="true"/>
+    <col min="16" max="16" width="15.0" customWidth="true"/>
+    <col min="17" max="17" width="15.0" customWidth="true"/>
+    <col min="18" max="18" width="15.0" customWidth="true"/>
+    <col min="19" max="19" width="15.0" customWidth="true"/>
+    <col min="20" max="20" width="15.0" customWidth="true"/>
+    <col min="21" max="21" width="15.0" customWidth="true"/>
+    <col min="22" max="22" width="15.0" customWidth="true"/>
+    <col min="23" max="23" width="15.0" customWidth="true"/>
+    <col min="24" max="24" width="15.0" customWidth="true"/>
+    <col min="25" max="25" width="15.0" customWidth="true"/>
+    <col min="26" max="26" width="15.0" customWidth="true"/>
+    <col min="27" max="27" width="15.0" customWidth="true"/>
+    <col min="28" max="28" width="15.0" customWidth="true"/>
+    <col min="29" max="29" width="15.0" customWidth="true"/>
+    <col min="30" max="30" width="15.0" customWidth="true"/>
+    <col min="31" max="31" width="15.0" customWidth="true"/>
+    <col min="32" max="32" width="15.0" customWidth="true"/>
+    <col min="33" max="33" width="15.0" customWidth="true"/>
+    <col min="34" max="34" width="15.0" customWidth="true"/>
+    <col min="35" max="35" width="15.0" customWidth="true"/>
+    <col min="36" max="36" width="15.0" customWidth="true"/>
+    <col min="37" max="37" width="15.0" customWidth="true"/>
+    <col min="38" max="38" width="15.0" customWidth="true"/>
+    <col min="39" max="39" width="15.0" customWidth="true"/>
+    <col min="40" max="40" width="15.0" customWidth="true"/>
+    <col min="41" max="41" width="15.0" customWidth="true"/>
+    <col min="42" max="42" width="15.0" customWidth="true"/>
+    <col min="43" max="43" width="15.0" customWidth="true"/>
+    <col min="44" max="44" width="15.0" customWidth="true"/>
+    <col min="45" max="45" width="15.0" customWidth="true"/>
+    <col min="46" max="46" width="15.0" customWidth="true"/>
+    <col min="47" max="47" width="15.0" customWidth="true"/>
+    <col min="48" max="48" width="15.0" customWidth="true"/>
+    <col min="49" max="49" width="15.0" customWidth="true"/>
+    <col min="50" max="50" width="15.0" customWidth="true"/>
+    <col min="51" max="51" width="15.0" customWidth="true"/>
+    <col min="52" max="52" width="15.0" customWidth="true"/>
+    <col min="53" max="53" width="15.0" customWidth="true"/>
+    <col min="54" max="54" width="15.0" customWidth="true"/>
+    <col min="55" max="55" width="15.0" customWidth="true"/>
+    <col min="56" max="56" width="15.0" customWidth="true"/>
+    <col min="57" max="57" width="15.0" customWidth="true"/>
+    <col min="58" max="58" width="15.0" customWidth="true"/>
+    <col min="59" max="59" width="15.0" customWidth="true"/>
+    <col min="60" max="60" width="15.0" customWidth="true"/>
+    <col min="61" max="61" width="15.0" customWidth="true"/>
+    <col min="62" max="62" width="15.0" customWidth="true"/>
+    <col min="63" max="63" width="15.0" customWidth="true"/>
+    <col min="64" max="64" width="15.0" customWidth="true"/>
+    <col min="65" max="65" width="15.0" customWidth="true"/>
+    <col min="66" max="66" width="15.0" customWidth="true"/>
+    <col min="67" max="67" width="15.0" customWidth="true"/>
+    <col min="68" max="68" width="15.0" customWidth="true"/>
+    <col min="69" max="69" width="15.0" customWidth="true"/>
+    <col min="70" max="70" width="15.0" customWidth="true"/>
+    <col min="71" max="71" width="15.0" customWidth="true"/>
+    <col min="72" max="72" width="15.0" customWidth="true"/>
+    <col min="73" max="73" width="15.0" customWidth="true"/>
+    <col min="74" max="74" width="15.0" customWidth="true"/>
+    <col min="75" max="75" width="15.0" customWidth="true"/>
+    <col min="76" max="76" width="15.0" customWidth="true"/>
+    <col min="77" max="77" width="15.0" customWidth="true"/>
+    <col min="78" max="78" width="15.0" customWidth="true"/>
+    <col min="79" max="79" width="15.0" customWidth="true"/>
+    <col min="80" max="80" width="15.0" customWidth="true"/>
+    <col min="81" max="81" width="15.0" customWidth="true"/>
+    <col min="82" max="82" width="15.0" customWidth="true"/>
+    <col min="83" max="83" width="15.0" customWidth="true"/>
+    <col min="84" max="84" width="15.0" customWidth="true"/>
+    <col min="85" max="85" width="15.0" customWidth="true"/>
+    <col min="86" max="86" width="15.0" customWidth="true"/>
+    <col min="87" max="87" width="15.0" customWidth="true"/>
+    <col min="88" max="88" width="15.0" customWidth="true"/>
+    <col min="89" max="89" width="15.0" customWidth="true"/>
+    <col min="90" max="90" width="15.0" customWidth="true"/>
+    <col min="91" max="91" width="15.0" customWidth="true"/>
+    <col min="92" max="92" width="15.0" customWidth="true"/>
+    <col min="93" max="93" width="15.0" customWidth="true"/>
+    <col min="94" max="94" width="15.0" customWidth="true"/>
+    <col min="95" max="95" width="15.0" customWidth="true"/>
+    <col min="96" max="96" width="15.0" customWidth="true"/>
+    <col min="97" max="97" width="15.0" customWidth="true"/>
+    <col min="98" max="98" width="15.0" customWidth="true"/>
+    <col min="99" max="99" width="15.0" customWidth="true"/>
+    <col min="100" max="100" width="15.0" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="E2" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="G2" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="I2" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="K2" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="M2" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="O2" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="R2" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="S2" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="T2" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="U2" t="n">
+        <v>27.0</v>
+      </c>
+      <c r="V2" t="n">
+        <v>28.5</v>
+      </c>
+      <c r="W2" t="n">
+        <v>30.0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>136</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.005903859634584533</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>137</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" t="n">
+        <v>-0.0013880042832599049</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>138</v>
+      </c>
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" t="n">
+        <v>7.524524648928436E-6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>139</v>
+      </c>
+      <c r="B9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.004523379875973557</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>140</v>
+      </c>
+      <c r="B11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="D11" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>30.0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>141</v>
+      </c>
+      <c r="B12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.003921311210649493</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.0038238580997982806</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.0035141767723555154</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.0027736594912494833</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.002365614272090979</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0.0021509493677374027</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>142</v>
+      </c>
+      <c r="B14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.0088557894518768</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.0177115789037536</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.0265673683556304</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.0354231578075072</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0.044278947259384</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0.0531347367112608</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0.0619905261631376</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0.0708463156150144</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0.07970794714460118</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0.08855111227523763</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0.09712287925306981</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0.10513218643418482</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0.11228797217466978</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>0.11829917483061173</v>
+      </c>
+      <c r="R14" t="n">
+        <v>0.12287473275809775</v>
+      </c>
+      <c r="S14" t="n">
+        <v>0.12572358431321487</v>
+      </c>
+      <c r="T14" t="n">
+        <v>0.12655466785205025</v>
+      </c>
+      <c r="U14" t="n">
+        <v>0.1250769217306909</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0.1209992843052239</v>
+      </c>
+      <c r="W14" t="n">
+        <v>0.11403069393173645</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>143</v>
+      </c>
+      <c r="B15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" t="n">
+        <v>-3.2784661170598954E-4</v>
+      </c>
+      <c r="D15" t="n">
+        <v>-0.0024047521208548665</v>
+      </c>
+      <c r="E15" t="n">
+        <v>-0.004397336369795704</v>
+      </c>
+      <c r="F15" t="n">
+        <v>-0.006305599358528504</v>
+      </c>
+      <c r="G15" t="n">
+        <v>-0.008129541087053263</v>
+      </c>
+      <c r="H15" t="n">
+        <v>-0.009869161555369984</v>
+      </c>
+      <c r="I15" t="n">
+        <v>-0.011524460763478662</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-0.013095438711379307</v>
+      </c>
+      <c r="K15" t="n">
+        <v>-0.014582095399071909</v>
+      </c>
+      <c r="L15" t="n">
+        <v>-0.015984430826556477</v>
+      </c>
+      <c r="M15" t="n">
+        <v>-0.017302444993833</v>
+      </c>
+      <c r="N15" t="n">
+        <v>-0.018536137900901483</v>
+      </c>
+      <c r="O15" t="n">
+        <v>-0.019685509547761926</v>
+      </c>
+      <c r="P15" t="n">
+        <v>-0.020750559934414332</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>-0.0217312890608587</v>
+      </c>
+      <c r="R15" t="n">
+        <v>-0.022627696927095032</v>
+      </c>
+      <c r="S15" t="n">
+        <v>-0.02343978353312332</v>
+      </c>
+      <c r="T15" t="n">
+        <v>-0.024167548878943568</v>
+      </c>
+      <c r="U15" t="n">
+        <v>-0.024810992964555783</v>
+      </c>
+      <c r="V15" t="n">
+        <v>-0.025370115789959954</v>
+      </c>
+      <c r="W15" t="n">
+        <v>-0.025844917355156087</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>144</v>
+      </c>
+      <c r="B16" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D16" t="n">
+        <v>1.1286786973392655E-5</v>
+      </c>
+      <c r="E16" t="n">
+        <v>2.257357394678531E-5</v>
+      </c>
+      <c r="F16" t="n">
+        <v>3.3860360920177965E-5</v>
+      </c>
+      <c r="G16" t="n">
+        <v>4.514714789357062E-5</v>
+      </c>
+      <c r="H16" t="n">
+        <v>5.6433934866963275E-5</v>
+      </c>
+      <c r="I16" t="n">
+        <v>6.772072184035593E-5</v>
+      </c>
+      <c r="J16" t="n">
+        <v>7.900750881374858E-5</v>
+      </c>
+      <c r="K16" t="n">
+        <v>9.029429578714124E-5</v>
+      </c>
+      <c r="L16" t="n">
+        <v>1.0158108276053389E-4</v>
+      </c>
+      <c r="M16" t="n">
+        <v>1.1286786973392655E-4</v>
+      </c>
+      <c r="N16" t="n">
+        <v>1.241546567073192E-4</v>
+      </c>
+      <c r="O16" t="n">
+        <v>1.3544144368071186E-4</v>
+      </c>
+      <c r="P16" t="n">
+        <v>1.467282306541045E-4</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>1.5801501762749716E-4</v>
+      </c>
+      <c r="R16" t="n">
+        <v>1.6930180460088983E-4</v>
+      </c>
+      <c r="S16" t="n">
+        <v>1.8058859157428248E-4</v>
+      </c>
+      <c r="T16" t="n">
+        <v>1.9187537854767513E-4</v>
+      </c>
+      <c r="U16" t="n">
+        <v>2.0316216552106778E-4</v>
+      </c>
+      <c r="V16" t="n">
+        <v>2.1444895249446042E-4</v>
+      </c>
+      <c r="W16" t="n">
+        <v>2.257357394678531E-4</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>145</v>
+      </c>
+      <c r="B17" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" t="n">
+        <v>-3.2784661170598954E-4</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.006462324117995325</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.013336816107904678</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.020295629358022076</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.0273387638683475</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0.03446621963888098</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0.0416779966696225</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0.048974094960572034</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0.05635451451172962</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0.06382509740080525</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0.07136153515113855</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0.07871089600887564</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0.08558211833010361</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0.09168414047090956</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>0.09672590078738053</v>
+      </c>
+      <c r="R17" t="n">
+        <v>0.10041633763560362</v>
+      </c>
+      <c r="S17" t="n">
+        <v>0.10246438937166583</v>
+      </c>
+      <c r="T17" t="n">
+        <v>0.10257899435165435</v>
+      </c>
+      <c r="U17" t="n">
+        <v>0.1004690909316562</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0.09584361746775841</v>
+      </c>
+      <c r="W17" t="n">
+        <v>0.08841151231604821</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>146</v>
+      </c>
+      <c r="B19" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19" t="n">
+        <v>-0.02041511872609781</v>
+      </c>
+      <c r="D19" t="n">
+        <v>-0.01155932927422101</v>
+      </c>
+      <c r="E19" t="n">
+        <v>-0.0027035398223442114</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.006152249629532591</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.015008039081409387</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0.02386382853328619</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0.03271961798516299</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0.04157540743703979</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0.050431196888916584</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0.05929282841850337</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0.06813599354913982</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0.07670776052697201</v>
+      </c>
+      <c r="O19" t="n">
+        <v>0.08471706770808701</v>
+      </c>
+      <c r="P19" t="n">
+        <v>0.09187285344857196</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>0.09788405610451392</v>
+      </c>
+      <c r="R19" t="n">
+        <v>0.10245961403199993</v>
+      </c>
+      <c r="S19" t="n">
+        <v>0.10530846558711707</v>
+      </c>
+      <c r="T19" t="n">
+        <v>0.10613954912595244</v>
+      </c>
+      <c r="U19" t="n">
+        <v>0.1046618030045931</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0.10058416557912608</v>
+      </c>
+      <c r="W19" t="n">
+        <v>0.09361557520563865</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>147</v>
+      </c>
+      <c r="B20" t="s">
+        <v>5</v>
+      </c>
+      <c r="C20" t="n">
+        <v>-0.03981551726224898</v>
+      </c>
+      <c r="D20" t="n">
+        <v>-0.030959727810372182</v>
+      </c>
+      <c r="E20" t="n">
+        <v>-0.022103938358495383</v>
+      </c>
+      <c r="F20" t="n">
+        <v>-0.01324814890661858</v>
+      </c>
+      <c r="G20" t="n">
+        <v>-0.004392359454741784</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0.004463429997135018</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0.013319219449011821</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0.022175008900888617</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0.031030798352765412</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0.0398924298823522</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0.048735595012988644</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0.05730736199082083</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0.06531666917193583</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0.0724724549124208</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>0.07848365756836274</v>
+      </c>
+      <c r="R20" t="n">
+        <v>0.08305921549584877</v>
+      </c>
+      <c r="S20" t="n">
+        <v>0.08590806705096589</v>
+      </c>
+      <c r="T20" t="n">
+        <v>0.08673915058980126</v>
+      </c>
+      <c r="U20" t="n">
+        <v>0.08526140446844192</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0.08118376704297492</v>
+      </c>
+      <c r="W20" t="n">
+        <v>0.07421517666948747</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>148</v>
+      </c>
+      <c r="B21" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21" t="n">
+        <v>-0.05488648988427285</v>
+      </c>
+      <c r="D21" t="n">
+        <v>-0.04603070043239606</v>
+      </c>
+      <c r="E21" t="n">
+        <v>-0.037174910980519255</v>
+      </c>
+      <c r="F21" t="n">
+        <v>-0.028319121528642452</v>
+      </c>
+      <c r="G21" t="n">
+        <v>-0.019463332076765656</v>
+      </c>
+      <c r="H21" t="n">
+        <v>-0.010607542624888854</v>
+      </c>
+      <c r="I21" t="n">
+        <v>-0.0017517531730120509</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0.007104036278864745</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0.01595982573074154</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0.024821457260328326</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0.03366462239096477</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0.04223638936879696</v>
+      </c>
+      <c r="O21" t="n">
+        <v>0.05024569654991196</v>
+      </c>
+      <c r="P21" t="n">
+        <v>0.057401482290396925</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>0.06341268494633887</v>
+      </c>
+      <c r="R21" t="n">
+        <v>0.0679882428738249</v>
+      </c>
+      <c r="S21" t="n">
+        <v>0.07083709442894201</v>
+      </c>
+      <c r="T21" t="n">
+        <v>0.07166817796777739</v>
+      </c>
+      <c r="U21" t="n">
+        <v>0.07019043184641804</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0.06611279442095105</v>
+      </c>
+      <c r="W21" t="n">
+        <v>0.0591442040474636</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>149</v>
+      </c>
+      <c r="B22" t="s">
+        <v>5</v>
+      </c>
+      <c r="C22" t="n">
+        <v>-0.05776087107378294</v>
+      </c>
+      <c r="D22" t="n">
+        <v>-0.04890508162190614</v>
+      </c>
+      <c r="E22" t="n">
+        <v>-0.040049292170029345</v>
+      </c>
+      <c r="F22" t="n">
+        <v>-0.031193502718152542</v>
+      </c>
+      <c r="G22" t="n">
+        <v>-0.022337713266275747</v>
+      </c>
+      <c r="H22" t="n">
+        <v>-0.013481923814398944</v>
+      </c>
+      <c r="I22" t="n">
+        <v>-0.004626134362522141</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0.0042296550893546545</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0.01308544454123145</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0.021947076070818236</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0.030790241201454682</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0.03936200817928687</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0.04737131536040187</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0.054527101100886835</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>0.06053830375682878</v>
+      </c>
+      <c r="R22" t="n">
+        <v>0.06511386168431481</v>
+      </c>
+      <c r="S22" t="n">
+        <v>0.06796271323943193</v>
+      </c>
+      <c r="T22" t="n">
+        <v>0.0687937967782673</v>
+      </c>
+      <c r="U22" t="n">
+        <v>0.06731605065690796</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0.06323841323144096</v>
+      </c>
+      <c r="W22" t="n">
+        <v>0.05626982285795351</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>150</v>
+      </c>
+      <c r="B23" t="s">
+        <v>5</v>
+      </c>
+      <c r="C23" t="n">
+        <v>-0.061579269829095916</v>
+      </c>
+      <c r="D23" t="n">
+        <v>-0.05272348037721912</v>
+      </c>
+      <c r="E23" t="n">
+        <v>-0.04386769092534232</v>
+      </c>
+      <c r="F23" t="n">
+        <v>-0.035011901473465515</v>
+      </c>
+      <c r="G23" t="n">
+        <v>-0.02615611202158872</v>
+      </c>
+      <c r="H23" t="n">
+        <v>-0.017300322569711916</v>
+      </c>
+      <c r="I23" t="n">
+        <v>-0.008444533117835114</v>
+      </c>
+      <c r="J23" t="n">
+        <v>4.1125633404168194E-4</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0.009267045785918478</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0.018128677315505264</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0.02697184244614171</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0.035543609423973895</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0.0435529166050889</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0.05070870234557386</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>0.05671990500151581</v>
+      </c>
+      <c r="R23" t="n">
+        <v>0.061295462929001836</v>
+      </c>
+      <c r="S23" t="n">
+        <v>0.06414431448411895</v>
+      </c>
+      <c r="T23" t="n">
+        <v>0.06497539802295432</v>
+      </c>
+      <c r="U23" t="n">
+        <v>0.06349765190159498</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0.059420014476127984</v>
+      </c>
+      <c r="W23" t="n">
+        <v>0.05245142410264054</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>151</v>
+      </c>
+      <c r="B24" t="s">
+        <v>5</v>
+      </c>
+      <c r="C24" t="n">
+        <v>-0.07389512379491511</v>
+      </c>
+      <c r="D24" t="n">
+        <v>-0.06503933434303831</v>
+      </c>
+      <c r="E24" t="n">
+        <v>-0.056183544891161515</v>
+      </c>
+      <c r="F24" t="n">
+        <v>-0.04732775543928471</v>
+      </c>
+      <c r="G24" t="n">
+        <v>-0.038471965987407916</v>
+      </c>
+      <c r="H24" t="n">
+        <v>-0.029616176535531114</v>
+      </c>
+      <c r="I24" t="n">
+        <v>-0.02076038708365431</v>
+      </c>
+      <c r="J24" t="n">
+        <v>-0.011904597631777515</v>
+      </c>
+      <c r="K24" t="n">
+        <v>-0.0030488081799007194</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0.0058128233496860665</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0.014655988480322513</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0.023227755458154697</v>
+      </c>
+      <c r="O24" t="n">
+        <v>0.031237062639269703</v>
+      </c>
+      <c r="P24" t="n">
+        <v>0.038392848379754665</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>0.04440405103569661</v>
+      </c>
+      <c r="R24" t="n">
+        <v>0.04897960896318264</v>
+      </c>
+      <c r="S24" t="n">
+        <v>0.05182846051829976</v>
+      </c>
+      <c r="T24" t="n">
+        <v>0.05265954405713513</v>
+      </c>
+      <c r="U24" t="n">
+        <v>0.05118179793577579</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0.04710416051030879</v>
+      </c>
+      <c r="W24" t="n">
+        <v>0.04013557013682134</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>152</v>
+      </c>
+      <c r="B26" t="s">
+        <v>16</v>
+      </c>
+      <c r="C26" t="n">
+        <v>3.46673336668335</v>
+      </c>
+      <c r="D26" t="n">
+        <v>6.753376688344108</v>
+      </c>
+      <c r="E26" t="n">
+        <v>9.304652326163026</v>
+      </c>
+      <c r="F26" t="n">
+        <v>9.784892446223072</v>
+      </c>
+      <c r="G26" t="n">
+        <v>10.445222611305635</v>
+      </c>
+      <c r="H26" t="n">
+        <v>12.516258129064582</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>153</v>
+      </c>
+      <c r="B27" t="s">
+        <v>16</v>
+      </c>
+      <c r="C27" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="D27" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="E27" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="F27" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="G27" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="H27" t="n">
+        <v>30.0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>136</v>
+      </c>
+      <c r="B31" t="s">
+        <v>11</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0.00579552515353236</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>137</v>
+      </c>
+      <c r="B32" t="s">
+        <v>11</v>
+      </c>
+      <c r="C32" t="n">
+        <v>-0.001397595944776415</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>138</v>
+      </c>
+      <c r="B33" t="s">
+        <v>11</v>
+      </c>
+      <c r="C33" t="n">
+        <v>7.524524648928437E-6</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>139</v>
+      </c>
+      <c r="B34" t="s">
+        <v>11</v>
+      </c>
+      <c r="C34" t="n">
+        <v>0.0044054537334048734</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>140</v>
+      </c>
+      <c r="B36" t="s">
+        <v>16</v>
+      </c>
+      <c r="C36" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="D36" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="E36" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="F36" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="G36" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="H36" t="n">
+        <v>30.0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>141</v>
+      </c>
+      <c r="B37" t="s">
+        <v>11</v>
+      </c>
+      <c r="C37" t="n">
+        <v>0.0038493560421083493</v>
+      </c>
+      <c r="D37" t="n">
+        <v>0.003753691173668786</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0.0034496924281260935</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0.0027227634706463288</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0.0023222057884211894</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0.0021114799362220767</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>142</v>
+      </c>
+      <c r="B39" t="s">
+        <v>5</v>
+      </c>
+      <c r="C39" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D39" t="n">
+        <v>0.00869328773029854</v>
+      </c>
+      <c r="E39" t="n">
+        <v>0.01738657546059708</v>
+      </c>
+      <c r="F39" t="n">
+        <v>0.02607986319089562</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0.03477315092119416</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0.043466438651492696</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0.05215972638179124</v>
+      </c>
+      <c r="J39" t="n">
+        <v>0.06085301411208978</v>
+      </c>
+      <c r="K39" t="n">
+        <v>0.06954630184238832</v>
+      </c>
+      <c r="L39" t="n">
+        <v>0.07824532444960004</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0.0869262195120807</v>
+      </c>
+      <c r="N39" t="n">
+        <v>0.09534069651611277</v>
+      </c>
+      <c r="O39" t="n">
+        <v>0.10320303473272688</v>
+      </c>
+      <c r="P39" t="n">
+        <v>0.11022751343295387</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>0.11612841188782436</v>
+      </c>
+      <c r="R39" t="n">
+        <v>0.12062000936836909</v>
+      </c>
+      <c r="S39" t="n">
+        <v>0.12341658514561873</v>
+      </c>
+      <c r="T39" t="n">
+        <v>0.12423241849060412</v>
+      </c>
+      <c r="U39" t="n">
+        <v>0.12278178867435585</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0.11877897496790468</v>
+      </c>
+      <c r="W39" t="n">
+        <v>0.11193825664228124</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>143</v>
+      </c>
+      <c r="B40" t="s">
+        <v>5</v>
+      </c>
+      <c r="C40" t="n">
+        <v>-3.301121621561892E-4</v>
+      </c>
+      <c r="D40" t="n">
+        <v>-0.0024213699142237584</v>
+      </c>
+      <c r="E40" t="n">
+        <v>-0.0044277237126461606</v>
+      </c>
+      <c r="F40" t="n">
+        <v>-0.006349173557423396</v>
+      </c>
+      <c r="G40" t="n">
+        <v>-0.008185719448555463</v>
+      </c>
+      <c r="H40" t="n">
+        <v>-0.009937361386042363</v>
+      </c>
+      <c r="I40" t="n">
+        <v>-0.011604099369884095</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-0.013185933400080663</v>
+      </c>
+      <c r="K40" t="n">
+        <v>-0.014682863476632063</v>
+      </c>
+      <c r="L40" t="n">
+        <v>-0.016094889599538295</v>
+      </c>
+      <c r="M40" t="n">
+        <v>-0.01742201176879936</v>
+      </c>
+      <c r="N40" t="n">
+        <v>-0.01866422998441526</v>
+      </c>
+      <c r="O40" t="n">
+        <v>-0.019821544246385985</v>
+      </c>
+      <c r="P40" t="n">
+        <v>-0.020893954554711547</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>-0.021881460909391942</v>
+      </c>
+      <c r="R40" t="n">
+        <v>-0.022784063310427174</v>
+      </c>
+      <c r="S40" t="n">
+        <v>-0.02360176175781723</v>
+      </c>
+      <c r="T40" t="n">
+        <v>-0.024334556251562126</v>
+      </c>
+      <c r="U40" t="n">
+        <v>-0.024982446791661856</v>
+      </c>
+      <c r="V40" t="n">
+        <v>-0.025545433378116416</v>
+      </c>
+      <c r="W40" t="n">
+        <v>-0.02602351601092581</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>144</v>
+      </c>
+      <c r="B41" t="s">
+        <v>5</v>
+      </c>
+      <c r="C41" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D41" t="n">
+        <v>1.1286786973392655E-5</v>
+      </c>
+      <c r="E41" t="n">
+        <v>2.257357394678531E-5</v>
+      </c>
+      <c r="F41" t="n">
+        <v>3.3860360920177965E-5</v>
+      </c>
+      <c r="G41" t="n">
+        <v>4.514714789357062E-5</v>
+      </c>
+      <c r="H41" t="n">
+        <v>5.643393486696328E-5</v>
+      </c>
+      <c r="I41" t="n">
+        <v>6.772072184035593E-5</v>
+      </c>
+      <c r="J41" t="n">
+        <v>7.900750881374859E-5</v>
+      </c>
+      <c r="K41" t="n">
+        <v>9.029429578714124E-5</v>
+      </c>
+      <c r="L41" t="n">
+        <v>1.015810827605339E-4</v>
+      </c>
+      <c r="M41" t="n">
+        <v>1.1286786973392656E-4</v>
+      </c>
+      <c r="N41" t="n">
+        <v>1.241546567073192E-4</v>
+      </c>
+      <c r="O41" t="n">
+        <v>1.3544144368071186E-4</v>
+      </c>
+      <c r="P41" t="n">
+        <v>1.4672823065410454E-4</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>1.5801501762749718E-4</v>
+      </c>
+      <c r="R41" t="n">
+        <v>1.6930180460088983E-4</v>
+      </c>
+      <c r="S41" t="n">
+        <v>1.8058859157428248E-4</v>
+      </c>
+      <c r="T41" t="n">
+        <v>1.9187537854767516E-4</v>
+      </c>
+      <c r="U41" t="n">
+        <v>2.031621655210678E-4</v>
+      </c>
+      <c r="V41" t="n">
+        <v>2.1444895249446045E-4</v>
+      </c>
+      <c r="W41" t="n">
+        <v>2.2573573946785313E-4</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>145</v>
+      </c>
+      <c r="B42" t="s">
+        <v>5</v>
+      </c>
+      <c r="C42" t="n">
+        <v>-3.301121621561892E-4</v>
+      </c>
+      <c r="D42" t="n">
+        <v>0.006283204603048173</v>
+      </c>
+      <c r="E42" t="n">
+        <v>0.012981425321897702</v>
+      </c>
+      <c r="F42" t="n">
+        <v>0.019764549994392405</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0.02663257862053226</v>
+      </c>
+      <c r="H42" t="n">
+        <v>0.033585511200317296</v>
+      </c>
+      <c r="I42" t="n">
+        <v>0.040623347733747504</v>
+      </c>
+      <c r="J42" t="n">
+        <v>0.047746088220822866</v>
+      </c>
+      <c r="K42" t="n">
+        <v>0.05495373266154339</v>
+      </c>
+      <c r="L42" t="n">
+        <v>0.062252015932822286</v>
+      </c>
+      <c r="M42" t="n">
+        <v>0.06961707561301526</v>
+      </c>
+      <c r="N42" t="n">
+        <v>0.07680062118840482</v>
+      </c>
+      <c r="O42" t="n">
+        <v>0.0835169319300216</v>
+      </c>
+      <c r="P42" t="n">
+        <v>0.08948028710889643</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>0.09440496599605991</v>
+      </c>
+      <c r="R42" t="n">
+        <v>0.0980052478625428</v>
+      </c>
+      <c r="S42" t="n">
+        <v>0.09999541197937578</v>
+      </c>
+      <c r="T42" t="n">
+        <v>0.10008973761758967</v>
+      </c>
+      <c r="U42" t="n">
+        <v>0.09800250404821506</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0.09344799054228273</v>
+      </c>
+      <c r="W42" t="n">
+        <v>0.08614047637082328</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s">
+        <v>146</v>
+      </c>
+      <c r="B44" t="s">
+        <v>5</v>
+      </c>
+      <c r="C44" t="n">
+        <v>-0.020040505942308964</v>
+      </c>
+      <c r="D44" t="n">
+        <v>-0.011347218212010424</v>
+      </c>
+      <c r="E44" t="n">
+        <v>-0.0026539304817118844</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0.006039357248586657</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0.014732644978885195</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0.023425932709183733</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0.032119220439482274</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0.04081250816978081</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0.04950579590007935</v>
+      </c>
+      <c r="L44" t="n">
+        <v>0.058204818507291076</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0.06688571356977173</v>
+      </c>
+      <c r="N44" t="n">
+        <v>0.0753001905738038</v>
+      </c>
+      <c r="O44" t="n">
+        <v>0.08316252879041791</v>
+      </c>
+      <c r="P44" t="n">
+        <v>0.0901870074906449</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>0.09608790594551539</v>
+      </c>
+      <c r="R44" t="n">
+        <v>0.10057950342606012</v>
+      </c>
+      <c r="S44" t="n">
+        <v>0.10337607920330977</v>
+      </c>
+      <c r="T44" t="n">
+        <v>0.10419191254829516</v>
+      </c>
+      <c r="U44" t="n">
+        <v>0.10274128273204688</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0.09873846902559572</v>
+      </c>
+      <c r="W44" t="n">
+        <v>0.09189775069997227</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s">
+        <v>147</v>
+      </c>
+      <c r="B45" t="s">
+        <v>5</v>
+      </c>
+      <c r="C45" t="n">
+        <v>-0.039084911579288305</v>
+      </c>
+      <c r="D45" t="n">
+        <v>-0.030391623848989767</v>
+      </c>
+      <c r="E45" t="n">
+        <v>-0.021698336118691226</v>
+      </c>
+      <c r="F45" t="n">
+        <v>-0.013005048388392684</v>
+      </c>
+      <c r="G45" t="n">
+        <v>-0.0043117606580941464</v>
+      </c>
+      <c r="H45" t="n">
+        <v>0.004381527072204391</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0.013074814802502936</v>
+      </c>
+      <c r="J45" t="n">
+        <v>0.021768102532801474</v>
+      </c>
+      <c r="K45" t="n">
+        <v>0.030461390263100012</v>
+      </c>
+      <c r="L45" t="n">
+        <v>0.03916041287031174</v>
+      </c>
+      <c r="M45" t="n">
+        <v>0.04784130793279239</v>
+      </c>
+      <c r="N45" t="n">
+        <v>0.05625578493682446</v>
+      </c>
+      <c r="O45" t="n">
+        <v>0.06411812315343857</v>
+      </c>
+      <c r="P45" t="n">
+        <v>0.07114260185366555</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>0.07704350030853604</v>
+      </c>
+      <c r="R45" t="n">
+        <v>0.08153509778908077</v>
+      </c>
+      <c r="S45" t="n">
+        <v>0.08433167356633042</v>
+      </c>
+      <c r="T45" t="n">
+        <v>0.08514750691131581</v>
+      </c>
+      <c r="U45" t="n">
+        <v>0.08369687709506754</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0.07969406338861637</v>
+      </c>
+      <c r="W45" t="n">
+        <v>0.07285334506299293</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s">
+        <v>148</v>
+      </c>
+      <c r="B46" t="s">
+        <v>5</v>
+      </c>
+      <c r="C46" t="n">
+        <v>-0.05387933528263631</v>
+      </c>
+      <c r="D46" t="n">
+        <v>-0.04518604755233777</v>
+      </c>
+      <c r="E46" t="n">
+        <v>-0.03649275982203923</v>
+      </c>
+      <c r="F46" t="n">
+        <v>-0.02779947209174069</v>
+      </c>
+      <c r="G46" t="n">
+        <v>-0.019106184361442152</v>
+      </c>
+      <c r="H46" t="n">
+        <v>-0.010412896631143614</v>
+      </c>
+      <c r="I46" t="n">
+        <v>-0.0017196089008450696</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0.006973678829453468</v>
+      </c>
+      <c r="K46" t="n">
+        <v>0.015666966559752006</v>
+      </c>
+      <c r="L46" t="n">
+        <v>0.024365989166963732</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0.033046884229444386</v>
+      </c>
+      <c r="N46" t="n">
+        <v>0.041461361233476456</v>
+      </c>
+      <c r="O46" t="n">
+        <v>0.04932369945009057</v>
+      </c>
+      <c r="P46" t="n">
+        <v>0.056348178150317556</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>0.062249076605188046</v>
+      </c>
+      <c r="R46" t="n">
+        <v>0.06674067408573278</v>
+      </c>
+      <c r="S46" t="n">
+        <v>0.06953724986298243</v>
+      </c>
+      <c r="T46" t="n">
+        <v>0.07035308320796782</v>
+      </c>
+      <c r="U46" t="n">
+        <v>0.06890245339171955</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0.06489963968526838</v>
+      </c>
+      <c r="W46" t="n">
+        <v>0.05805892135964493</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s">
+        <v>149</v>
+      </c>
+      <c r="B47" t="s">
+        <v>5</v>
+      </c>
+      <c r="C47" t="n">
+        <v>-0.0567009722312963</v>
+      </c>
+      <c r="D47" t="n">
+        <v>-0.04800768450099776</v>
+      </c>
+      <c r="E47" t="n">
+        <v>-0.039314396770699214</v>
+      </c>
+      <c r="F47" t="n">
+        <v>-0.030621109040400676</v>
+      </c>
+      <c r="G47" t="n">
+        <v>-0.02192782131010214</v>
+      </c>
+      <c r="H47" t="n">
+        <v>-0.0132345335798036</v>
+      </c>
+      <c r="I47" t="n">
+        <v>-0.004541245849505056</v>
+      </c>
+      <c r="J47" t="n">
+        <v>0.004152041880793482</v>
+      </c>
+      <c r="K47" t="n">
+        <v>0.01284532961109202</v>
+      </c>
+      <c r="L47" t="n">
+        <v>0.021544352218303746</v>
+      </c>
+      <c r="M47" t="n">
+        <v>0.0302252472807844</v>
+      </c>
+      <c r="N47" t="n">
+        <v>0.03863972428481647</v>
+      </c>
+      <c r="O47" t="n">
+        <v>0.04650206250143058</v>
+      </c>
+      <c r="P47" t="n">
+        <v>0.05352654120165757</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>0.05942743965652806</v>
+      </c>
+      <c r="R47" t="n">
+        <v>0.06391903713707278</v>
+      </c>
+      <c r="S47" t="n">
+        <v>0.06671561291432243</v>
+      </c>
+      <c r="T47" t="n">
+        <v>0.06753144625930782</v>
+      </c>
+      <c r="U47" t="n">
+        <v>0.06608081644305955</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0.062078002736608386</v>
+      </c>
+      <c r="W47" t="n">
+        <v>0.055237284410984945</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s">
+        <v>150</v>
+      </c>
+      <c r="B48" t="s">
+        <v>5</v>
+      </c>
+      <c r="C48" t="n">
+        <v>-0.060449304238208976</v>
+      </c>
+      <c r="D48" t="n">
+        <v>-0.05175601650791044</v>
+      </c>
+      <c r="E48" t="n">
+        <v>-0.0430627287776119</v>
+      </c>
+      <c r="F48" t="n">
+        <v>-0.034369441047313355</v>
+      </c>
+      <c r="G48" t="n">
+        <v>-0.025676153317014817</v>
+      </c>
+      <c r="H48" t="n">
+        <v>-0.01698286558671628</v>
+      </c>
+      <c r="I48" t="n">
+        <v>-0.008289577856417735</v>
+      </c>
+      <c r="J48" t="n">
+        <v>4.0370987388080315E-4</v>
+      </c>
+      <c r="K48" t="n">
+        <v>0.009096997604179341</v>
+      </c>
+      <c r="L48" t="n">
+        <v>0.017796020211391067</v>
+      </c>
+      <c r="M48" t="n">
+        <v>0.02647691527387172</v>
+      </c>
+      <c r="N48" t="n">
+        <v>0.03489139227790379</v>
+      </c>
+      <c r="O48" t="n">
+        <v>0.0427537304945179</v>
+      </c>
+      <c r="P48" t="n">
+        <v>0.04977820919474489</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>0.05567910764961538</v>
+      </c>
+      <c r="R48" t="n">
+        <v>0.06017070513016011</v>
+      </c>
+      <c r="S48" t="n">
+        <v>0.06296728090740976</v>
+      </c>
+      <c r="T48" t="n">
+        <v>0.06378311425239515</v>
+      </c>
+      <c r="U48" t="n">
+        <v>0.062332484436146876</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0.05832967072969571</v>
+      </c>
+      <c r="W48" t="n">
+        <v>0.051488952404072266</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s">
+        <v>151</v>
+      </c>
+      <c r="B49" t="s">
+        <v>5</v>
+      </c>
+      <c r="C49" t="n">
+        <v>-0.07253916508585077</v>
+      </c>
+      <c r="D49" t="n">
+        <v>-0.06384587735555224</v>
+      </c>
+      <c r="E49" t="n">
+        <v>-0.0551525896252537</v>
+      </c>
+      <c r="F49" t="n">
+        <v>-0.04645930189495515</v>
+      </c>
+      <c r="G49" t="n">
+        <v>-0.037766014164656615</v>
+      </c>
+      <c r="H49" t="n">
+        <v>-0.029072726434358077</v>
+      </c>
+      <c r="I49" t="n">
+        <v>-0.020379438704059533</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-0.011686150973760995</v>
+      </c>
+      <c r="K49" t="n">
+        <v>-0.002992863243462457</v>
+      </c>
+      <c r="L49" t="n">
+        <v>0.005706159363749269</v>
+      </c>
+      <c r="M49" t="n">
+        <v>0.014387054426229923</v>
+      </c>
+      <c r="N49" t="n">
+        <v>0.022801531430261993</v>
+      </c>
+      <c r="O49" t="n">
+        <v>0.030663869646876105</v>
+      </c>
+      <c r="P49" t="n">
+        <v>0.03768834834710309</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>0.04358924680197358</v>
+      </c>
+      <c r="R49" t="n">
+        <v>0.04808084428251831</v>
+      </c>
+      <c r="S49" t="n">
+        <v>0.05087742005976796</v>
+      </c>
+      <c r="T49" t="n">
+        <v>0.05169325340475335</v>
+      </c>
+      <c r="U49" t="n">
+        <v>0.05024262358850508</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0.04623980988205391</v>
+      </c>
+      <c r="W49" t="n">
+        <v>0.03939909155643047</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s">
+        <v>152</v>
+      </c>
+      <c r="B51" t="s">
+        <v>16</v>
+      </c>
+      <c r="C51" t="n">
+        <v>3.46673336668335</v>
+      </c>
+      <c r="D51" t="n">
+        <v>6.753376688344108</v>
+      </c>
+      <c r="E51" t="n">
+        <v>9.304652326163026</v>
+      </c>
+      <c r="F51" t="n">
+        <v>9.784892446223072</v>
+      </c>
+      <c r="G51" t="n">
+        <v>10.445222611305635</v>
+      </c>
+      <c r="H51" t="n">
+        <v>12.516258129064582</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s">
+        <v>153</v>
+      </c>
+      <c r="B52" t="s">
+        <v>16</v>
+      </c>
+      <c r="C52" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="D52" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="E52" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="F52" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="G52" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="H52" t="n">
+        <v>30.0</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s">
+        <v>136</v>
+      </c>
+      <c r="B56" t="s">
+        <v>11</v>
+      </c>
+      <c r="C56" t="n">
+        <v>0.005708857568690621</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s">
+        <v>137</v>
+      </c>
+      <c r="B57" t="s">
+        <v>11</v>
+      </c>
+      <c r="C57" t="n">
+        <v>-0.0014052692739896233</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s">
+        <v>138</v>
+      </c>
+      <c r="B58" t="s">
+        <v>11</v>
+      </c>
+      <c r="C58" t="n">
+        <v>7.524524648928437E-6</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s">
+        <v>139</v>
+      </c>
+      <c r="B59" t="s">
+        <v>11</v>
+      </c>
+      <c r="C59" t="n">
+        <v>0.004311112819349926</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s">
+        <v>140</v>
+      </c>
+      <c r="B61" t="s">
+        <v>16</v>
+      </c>
+      <c r="C61" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="D61" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="E61" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="F61" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="G61" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="H61" t="n">
+        <v>30.0</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s">
+        <v>141</v>
+      </c>
+      <c r="B62" t="s">
+        <v>11</v>
+      </c>
+      <c r="C62" t="n">
+        <v>0.0037917919072754346</v>
+      </c>
+      <c r="D62" t="n">
+        <v>0.0036975576327651907</v>
+      </c>
+      <c r="E62" t="n">
+        <v>0.003398104952742556</v>
+      </c>
+      <c r="F62" t="n">
+        <v>0.0026820466541638047</v>
+      </c>
+      <c r="G62" t="n">
+        <v>0.002287479001485358</v>
+      </c>
+      <c r="H62" t="n">
+        <v>0.0020799043910098157</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s">
+        <v>142</v>
+      </c>
+      <c r="B64" t="s">
+        <v>5</v>
+      </c>
+      <c r="C64" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D64" t="n">
+        <v>0.008563286353035932</v>
+      </c>
+      <c r="E64" t="n">
+        <v>0.017126572706071864</v>
+      </c>
+      <c r="F64" t="n">
+        <v>0.025689859059107794</v>
+      </c>
+      <c r="G64" t="n">
+        <v>0.03425314541214373</v>
+      </c>
+      <c r="H64" t="n">
+        <v>0.04281643176517966</v>
+      </c>
+      <c r="I64" t="n">
+        <v>0.05137971811821559</v>
+      </c>
+      <c r="J64" t="n">
+        <v>0.05994300447125152</v>
+      </c>
+      <c r="K64" t="n">
+        <v>0.06850629082428746</v>
+      </c>
+      <c r="L64" t="n">
+        <v>0.07707522629359914</v>
+      </c>
+      <c r="M64" t="n">
+        <v>0.08562630530155518</v>
+      </c>
+      <c r="N64" t="n">
+        <v>0.09391495032654709</v>
+      </c>
+      <c r="O64" t="n">
+        <v>0.10165971337156053</v>
+      </c>
+      <c r="P64" t="n">
+        <v>0.10857914643958107</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>0.11439180153359439</v>
+      </c>
+      <c r="R64" t="n">
+        <v>0.11881623065658607</v>
+      </c>
+      <c r="S64" t="n">
+        <v>0.12157098581154176</v>
+      </c>
+      <c r="T64" t="n">
+        <v>0.1223746190014471</v>
+      </c>
+      <c r="U64" t="n">
+        <v>0.12094568222928763</v>
+      </c>
+      <c r="V64" t="n">
+        <v>0.11700272749804912</v>
+      </c>
+      <c r="W64" t="n">
+        <v>0.11026430681071707</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s">
+        <v>143</v>
+      </c>
+      <c r="B65" t="s">
+        <v>5</v>
+      </c>
+      <c r="C65" t="n">
+        <v>-3.3192460251634903E-4</v>
+      </c>
+      <c r="D65" t="n">
+        <v>-0.002434664148918872</v>
+      </c>
+      <c r="E65" t="n">
+        <v>-0.004452033586926526</v>
+      </c>
+      <c r="F65" t="n">
+        <v>-0.00638403291653931</v>
+      </c>
+      <c r="G65" t="n">
+        <v>-0.008230662137757224</v>
+      </c>
+      <c r="H65" t="n">
+        <v>-0.00999192125058027</v>
+      </c>
+      <c r="I65" t="n">
+        <v>-0.011667810255008442</v>
+      </c>
+      <c r="J65" t="n">
+        <v>-0.01325832915104175</v>
+      </c>
+      <c r="K65" t="n">
+        <v>-0.014763477938680186</v>
+      </c>
+      <c r="L65" t="n">
+        <v>-0.016183256617923754</v>
+      </c>
+      <c r="M65" t="n">
+        <v>-0.01751766518877245</v>
+      </c>
+      <c r="N65" t="n">
+        <v>-0.018766703651226277</v>
+      </c>
+      <c r="O65" t="n">
+        <v>-0.019930372005285232</v>
+      </c>
+      <c r="P65" t="n">
+        <v>-0.02100867025094932</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>-0.022001598388218538</v>
+      </c>
+      <c r="R65" t="n">
+        <v>-0.02290915641709289</v>
+      </c>
+      <c r="S65" t="n">
+        <v>-0.023731344337572364</v>
+      </c>
+      <c r="T65" t="n">
+        <v>-0.024468162149656976</v>
+      </c>
+      <c r="U65" t="n">
+        <v>-0.025119609853346717</v>
+      </c>
+      <c r="V65" t="n">
+        <v>-0.025685687448641588</v>
+      </c>
+      <c r="W65" t="n">
+        <v>-0.02616639493554159</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s">
+        <v>144</v>
+      </c>
+      <c r="B66" t="s">
+        <v>5</v>
+      </c>
+      <c r="C66" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D66" t="n">
+        <v>1.1286786973392655E-5</v>
+      </c>
+      <c r="E66" t="n">
+        <v>2.257357394678531E-5</v>
+      </c>
+      <c r="F66" t="n">
+        <v>3.3860360920177965E-5</v>
+      </c>
+      <c r="G66" t="n">
+        <v>4.514714789357062E-5</v>
+      </c>
+      <c r="H66" t="n">
+        <v>5.643393486696328E-5</v>
+      </c>
+      <c r="I66" t="n">
+        <v>6.772072184035593E-5</v>
+      </c>
+      <c r="J66" t="n">
+        <v>7.900750881374859E-5</v>
+      </c>
+      <c r="K66" t="n">
+        <v>9.029429578714124E-5</v>
+      </c>
+      <c r="L66" t="n">
+        <v>1.015810827605339E-4</v>
+      </c>
+      <c r="M66" t="n">
+        <v>1.1286786973392656E-4</v>
+      </c>
+      <c r="N66" t="n">
+        <v>1.241546567073192E-4</v>
+      </c>
+      <c r="O66" t="n">
+        <v>1.3544144368071186E-4</v>
+      </c>
+      <c r="P66" t="n">
+        <v>1.4672823065410454E-4</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>1.5801501762749718E-4</v>
+      </c>
+      <c r="R66" t="n">
+        <v>1.6930180460088983E-4</v>
+      </c>
+      <c r="S66" t="n">
+        <v>1.8058859157428248E-4</v>
+      </c>
+      <c r="T66" t="n">
+        <v>1.9187537854767516E-4</v>
+      </c>
+      <c r="U66" t="n">
+        <v>2.031621655210678E-4</v>
+      </c>
+      <c r="V66" t="n">
+        <v>2.1444895249446045E-4</v>
+      </c>
+      <c r="W66" t="n">
+        <v>2.2573573946785313E-4</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s">
+        <v>145</v>
+      </c>
+      <c r="B67" t="s">
+        <v>5</v>
+      </c>
+      <c r="C67" t="n">
+        <v>-3.3192460251634903E-4</v>
+      </c>
+      <c r="D67" t="n">
+        <v>0.006139908991090452</v>
+      </c>
+      <c r="E67" t="n">
+        <v>0.012697112693092122</v>
+      </c>
+      <c r="F67" t="n">
+        <v>0.019339686503488662</v>
+      </c>
+      <c r="G67" t="n">
+        <v>0.026067630422280073</v>
+      </c>
+      <c r="H67" t="n">
+        <v>0.03288094444946635</v>
+      </c>
+      <c r="I67" t="n">
+        <v>0.03977962858504751</v>
+      </c>
+      <c r="J67" t="n">
+        <v>0.04676368282902352</v>
+      </c>
+      <c r="K67" t="n">
+        <v>0.053833107181394405</v>
+      </c>
+      <c r="L67" t="n">
+        <v>0.060993550758435926</v>
+      </c>
+      <c r="M67" t="n">
+        <v>0.06822150798251667</v>
+      </c>
+      <c r="N67" t="n">
+        <v>0.07527240133202813</v>
+      </c>
+      <c r="O67" t="n">
+        <v>0.08186478280995602</v>
+      </c>
+      <c r="P67" t="n">
+        <v>0.08771720441928585</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>0.09254821816300335</v>
+      </c>
+      <c r="R67" t="n">
+        <v>0.09607637604409408</v>
+      </c>
+      <c r="S67" t="n">
+        <v>0.09802023006554368</v>
+      </c>
+      <c r="T67" t="n">
+        <v>0.09809833223033779</v>
+      </c>
+      <c r="U67" t="n">
+        <v>0.09602923454146198</v>
+      </c>
+      <c r="V67" t="n">
+        <v>0.091531489001902</v>
+      </c>
+      <c r="W67" t="n">
+        <v>0.08432364761464334</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s">
+        <v>146</v>
+      </c>
+      <c r="B69" t="s">
+        <v>5</v>
+      </c>
+      <c r="C69" t="n">
+        <v>-0.019740815715277884</v>
+      </c>
+      <c r="D69" t="n">
+        <v>-0.011177529362241952</v>
+      </c>
+      <c r="E69" t="n">
+        <v>-0.00261424300920602</v>
+      </c>
+      <c r="F69" t="n">
+        <v>0.00594904334382991</v>
+      </c>
+      <c r="G69" t="n">
+        <v>0.014512329696865844</v>
+      </c>
+      <c r="H69" t="n">
+        <v>0.023075616049901774</v>
+      </c>
+      <c r="I69" t="n">
+        <v>0.03163890240293771</v>
+      </c>
+      <c r="J69" t="n">
+        <v>0.04020218875597363</v>
+      </c>
+      <c r="K69" t="n">
+        <v>0.04876547510900957</v>
+      </c>
+      <c r="L69" t="n">
+        <v>0.057334410578321254</v>
+      </c>
+      <c r="M69" t="n">
+        <v>0.0658854895862773</v>
+      </c>
+      <c r="N69" t="n">
+        <v>0.0741741346112692</v>
+      </c>
+      <c r="O69" t="n">
+        <v>0.08191889765628264</v>
+      </c>
+      <c r="P69" t="n">
+        <v>0.08883833072430318</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>0.0946509858183165</v>
+      </c>
+      <c r="R69" t="n">
+        <v>0.09907541494130818</v>
+      </c>
+      <c r="S69" t="n">
+        <v>0.10183017009626387</v>
+      </c>
+      <c r="T69" t="n">
+        <v>0.10263380328616921</v>
+      </c>
+      <c r="U69" t="n">
+        <v>0.10120486651400974</v>
+      </c>
+      <c r="V69" t="n">
+        <v>0.09726191178277123</v>
+      </c>
+      <c r="W69" t="n">
+        <v>0.09052349109543918</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s">
+        <v>147</v>
+      </c>
+      <c r="B70" t="s">
+        <v>5</v>
+      </c>
+      <c r="C70" t="n">
+        <v>-0.03850042703291977</v>
+      </c>
+      <c r="D70" t="n">
+        <v>-0.029937140679883838</v>
+      </c>
+      <c r="E70" t="n">
+        <v>-0.021373854326847904</v>
+      </c>
+      <c r="F70" t="n">
+        <v>-0.012810567973811974</v>
+      </c>
+      <c r="G70" t="n">
+        <v>-0.00424728162077604</v>
+      </c>
+      <c r="H70" t="n">
+        <v>0.00431600473225989</v>
+      </c>
+      <c r="I70" t="n">
+        <v>0.01287929108529582</v>
+      </c>
+      <c r="J70" t="n">
+        <v>0.02144257743833175</v>
+      </c>
+      <c r="K70" t="n">
+        <v>0.030005863791367687</v>
+      </c>
+      <c r="L70" t="n">
+        <v>0.038574799260679374</v>
+      </c>
+      <c r="M70" t="n">
+        <v>0.047125878268635416</v>
+      </c>
+      <c r="N70" t="n">
+        <v>0.055414523293627324</v>
+      </c>
+      <c r="O70" t="n">
+        <v>0.06315928633864076</v>
+      </c>
+      <c r="P70" t="n">
+        <v>0.0700787194066613</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>0.07589137450067462</v>
+      </c>
+      <c r="R70" t="n">
+        <v>0.0803158036236663</v>
+      </c>
+      <c r="S70" t="n">
+        <v>0.08307055877862199</v>
+      </c>
+      <c r="T70" t="n">
+        <v>0.08387419196852733</v>
+      </c>
+      <c r="U70" t="n">
+        <v>0.08244525519636786</v>
+      </c>
+      <c r="V70" t="n">
+        <v>0.07850230046512935</v>
+      </c>
+      <c r="W70" t="n">
+        <v>0.0717638797777973</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s">
+        <v>148</v>
+      </c>
+      <c r="B71" t="s">
+        <v>5</v>
+      </c>
+      <c r="C71" t="n">
+        <v>-0.05307361160132707</v>
+      </c>
+      <c r="D71" t="n">
+        <v>-0.04451032524829114</v>
+      </c>
+      <c r="E71" t="n">
+        <v>-0.035947038895255204</v>
+      </c>
+      <c r="F71" t="n">
+        <v>-0.027383752542219277</v>
+      </c>
+      <c r="G71" t="n">
+        <v>-0.018820466189183344</v>
+      </c>
+      <c r="H71" t="n">
+        <v>-0.010257179836147413</v>
+      </c>
+      <c r="I71" t="n">
+        <v>-0.0016938934831114832</v>
+      </c>
+      <c r="J71" t="n">
+        <v>0.006869392869924447</v>
+      </c>
+      <c r="K71" t="n">
+        <v>0.015432679222960384</v>
+      </c>
+      <c r="L71" t="n">
+        <v>0.02400161469227207</v>
+      </c>
+      <c r="M71" t="n">
+        <v>0.03255269370022811</v>
+      </c>
+      <c r="N71" t="n">
+        <v>0.04084133872522002</v>
+      </c>
+      <c r="O71" t="n">
+        <v>0.04858610177023346</v>
+      </c>
+      <c r="P71" t="n">
+        <v>0.055505534838253996</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>0.06131818993226732</v>
+      </c>
+      <c r="R71" t="n">
+        <v>0.065742619055259</v>
+      </c>
+      <c r="S71" t="n">
+        <v>0.06849737421021468</v>
+      </c>
+      <c r="T71" t="n">
+        <v>0.06930100740012002</v>
+      </c>
+      <c r="U71" t="n">
+        <v>0.06787207062796055</v>
+      </c>
+      <c r="V71" t="n">
+        <v>0.06392911589672204</v>
+      </c>
+      <c r="W71" t="n">
+        <v>0.05719069520939</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s">
+        <v>149</v>
+      </c>
+      <c r="B72" t="s">
+        <v>5</v>
+      </c>
+      <c r="C72" t="n">
+        <v>-0.05585305315730698</v>
+      </c>
+      <c r="D72" t="n">
+        <v>-0.04728976680427105</v>
+      </c>
+      <c r="E72" t="n">
+        <v>-0.03872648045123511</v>
+      </c>
+      <c r="F72" t="n">
+        <v>-0.030163194098199186</v>
+      </c>
+      <c r="G72" t="n">
+        <v>-0.021599907745163252</v>
+      </c>
+      <c r="H72" t="n">
+        <v>-0.013036621392127322</v>
+      </c>
+      <c r="I72" t="n">
+        <v>-0.004473335039091392</v>
+      </c>
+      <c r="J72" t="n">
+        <v>0.004089951313944538</v>
+      </c>
+      <c r="K72" t="n">
+        <v>0.012653237666980476</v>
+      </c>
+      <c r="L72" t="n">
+        <v>0.021222173136292162</v>
+      </c>
+      <c r="M72" t="n">
+        <v>0.029773252144248204</v>
+      </c>
+      <c r="N72" t="n">
+        <v>0.03806189716924011</v>
+      </c>
+      <c r="O72" t="n">
+        <v>0.04580666021425355</v>
+      </c>
+      <c r="P72" t="n">
+        <v>0.05272609328227409</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>0.05853874837628741</v>
+      </c>
+      <c r="R72" t="n">
+        <v>0.0629631774992791</v>
+      </c>
+      <c r="S72" t="n">
+        <v>0.06571793265423478</v>
+      </c>
+      <c r="T72" t="n">
+        <v>0.06652156584414012</v>
+      </c>
+      <c r="U72" t="n">
+        <v>0.06509262907198066</v>
+      </c>
+      <c r="V72" t="n">
+        <v>0.06114967434074214</v>
+      </c>
+      <c r="W72" t="n">
+        <v>0.05441125365341009</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s">
+        <v>150</v>
+      </c>
+      <c r="B73" t="s">
+        <v>5</v>
+      </c>
+      <c r="C73" t="n">
+        <v>-0.05954533176549942</v>
+      </c>
+      <c r="D73" t="n">
+        <v>-0.05098204541246349</v>
+      </c>
+      <c r="E73" t="n">
+        <v>-0.04241875905942756</v>
+      </c>
+      <c r="F73" t="n">
+        <v>-0.03385547270639162</v>
+      </c>
+      <c r="G73" t="n">
+        <v>-0.025292186353355693</v>
+      </c>
+      <c r="H73" t="n">
+        <v>-0.016728900000319763</v>
+      </c>
+      <c r="I73" t="n">
+        <v>-0.008165613647283833</v>
+      </c>
+      <c r="J73" t="n">
+        <v>3.9767270575209734E-4</v>
+      </c>
+      <c r="K73" t="n">
+        <v>0.008960959058788034</v>
+      </c>
+      <c r="L73" t="n">
+        <v>0.01752989452809972</v>
+      </c>
+      <c r="M73" t="n">
+        <v>0.026080973536055763</v>
+      </c>
+      <c r="N73" t="n">
+        <v>0.03436961856104767</v>
+      </c>
+      <c r="O73" t="n">
+        <v>0.04211438160606111</v>
+      </c>
+      <c r="P73" t="n">
+        <v>0.04903381467408165</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>0.05484646976809497</v>
+      </c>
+      <c r="R73" t="n">
+        <v>0.05927089889108665</v>
+      </c>
+      <c r="S73" t="n">
+        <v>0.062025654046042336</v>
+      </c>
+      <c r="T73" t="n">
+        <v>0.06282928723594768</v>
+      </c>
+      <c r="U73" t="n">
+        <v>0.06140035046378821</v>
+      </c>
+      <c r="V73" t="n">
+        <v>0.057457395732549696</v>
+      </c>
+      <c r="W73" t="n">
+        <v>0.05071897504521765</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s">
+        <v>151</v>
+      </c>
+      <c r="B74" t="s">
+        <v>5</v>
+      </c>
+      <c r="C74" t="n">
+        <v>-0.07145439811859931</v>
+      </c>
+      <c r="D74" t="n">
+        <v>-0.06289111176556338</v>
+      </c>
+      <c r="E74" t="n">
+        <v>-0.05432782541252745</v>
+      </c>
+      <c r="F74" t="n">
+        <v>-0.045764539059491516</v>
+      </c>
+      <c r="G74" t="n">
+        <v>-0.037201252706455586</v>
+      </c>
+      <c r="H74" t="n">
+        <v>-0.028637966353419655</v>
+      </c>
+      <c r="I74" t="n">
+        <v>-0.020074680000383725</v>
+      </c>
+      <c r="J74" t="n">
+        <v>-0.011511393647347795</v>
+      </c>
+      <c r="K74" t="n">
+        <v>-0.002948107294311858</v>
+      </c>
+      <c r="L74" t="n">
+        <v>0.0056208281749998285</v>
+      </c>
+      <c r="M74" t="n">
+        <v>0.01417190718295587</v>
+      </c>
+      <c r="N74" t="n">
+        <v>0.02246055220794778</v>
+      </c>
+      <c r="O74" t="n">
+        <v>0.030205315252961218</v>
+      </c>
+      <c r="P74" t="n">
+        <v>0.037124748320981754</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>0.04293740341499508</v>
+      </c>
+      <c r="R74" t="n">
+        <v>0.04736183253798676</v>
+      </c>
+      <c r="S74" t="n">
+        <v>0.050116587692942444</v>
+      </c>
+      <c r="T74" t="n">
+        <v>0.05092022088284778</v>
+      </c>
+      <c r="U74" t="n">
+        <v>0.049491284110688316</v>
+      </c>
+      <c r="V74" t="n">
+        <v>0.0455483293794498</v>
+      </c>
+      <c r="W74" t="n">
+        <v>0.038809908692117756</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s">
+        <v>152</v>
+      </c>
+      <c r="B76" t="s">
+        <v>16</v>
+      </c>
+      <c r="C76" t="n">
+        <v>3.46673336668335</v>
+      </c>
+      <c r="D76" t="n">
+        <v>6.753376688344108</v>
+      </c>
+      <c r="E76" t="n">
+        <v>9.304652326163026</v>
+      </c>
+      <c r="F76" t="n">
+        <v>9.784892446223072</v>
+      </c>
+      <c r="G76" t="n">
+        <v>10.445222611305635</v>
+      </c>
+      <c r="H76" t="n">
+        <v>12.516258129064582</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s">
+        <v>153</v>
+      </c>
+      <c r="B77" t="s">
+        <v>16</v>
+      </c>
+      <c r="C77" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="D77" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="E77" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="F77" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="G77" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="H77" t="n">
+        <v>30.0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
 </file>
--- a/JPADSandBox_v2/out/ATR-72/AERODYNAMIC_AND_STABILITY_CRUISE/Aerodynamic_and_Stability_CRUISE.xlsx
+++ b/JPADSandBox_v2/out/ATR-72/AERODYNAMIC_AND_STABILITY_CRUISE/Aerodynamic_and_Stability_CRUISE.xlsx
@@ -2024,151 +2024,151 @@
         <v>5</v>
       </c>
       <c r="C33" t="n">
-        <v>0.1633807745371182</v>
+        <v>0.12577643256313986</v>
       </c>
       <c r="D33" t="n">
-        <v>0.16336134932336047</v>
+        <v>0.1256931610615536</v>
       </c>
       <c r="E33" t="n">
-        <v>0.1633029139069547</v>
+        <v>0.12544230906691956</v>
       </c>
       <c r="F33" t="n">
-        <v>0.16320498553390325</v>
+        <v>0.12502073168914007</v>
       </c>
       <c r="G33" t="n">
-        <v>0.1630667480724874</v>
+        <v>0.12442307713507278</v>
       </c>
       <c r="H33" t="n">
-        <v>0.16288703431104623</v>
+        <v>0.12364161309074359</v>
       </c>
       <c r="I33" t="n">
-        <v>0.162664300423909</v>
+        <v>0.12266596616355507</v>
       </c>
       <c r="J33" t="n">
-        <v>0.16239659194777856</v>
+        <v>0.12148275381408286</v>
       </c>
       <c r="K33" t="n">
-        <v>0.16208150064041627</v>
+        <v>0.12007507700274889</v>
       </c>
       <c r="L33" t="n">
-        <v>0.1617161119786597</v>
+        <v>0.11842182448696237</v>
       </c>
       <c r="M33" t="n">
-        <v>0.16129694419099744</v>
+        <v>0.11649671137342865</v>
       </c>
       <c r="N33" t="n">
-        <v>0.16081988235955597</v>
+        <v>0.11426692504857491</v>
       </c>
       <c r="O33" t="n">
-        <v>0.16028011649769375</v>
+        <v>0.11169115846535976</v>
       </c>
       <c r="P33" t="n">
-        <v>0.15967210196115927</v>
+        <v>0.10871661835268023</v>
       </c>
       <c r="Q33" t="n">
-        <v>0.15898957276056477</v>
+        <v>0.10527414844272767</v>
       </c>
       <c r="R33" t="n">
-        <v>0.15822563752998944</v>
+        <v>0.10126939205781313</v>
       </c>
       <c r="S33" t="n">
-        <v>0.15737289577869845</v>
+        <v>0.09656379691568528</v>
       </c>
       <c r="T33" t="n">
-        <v>0.1566554650326877</v>
+        <v>0.091052958908486</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1553703602088008</v>
+        <v>0.08361773397552419</v>
       </c>
       <c r="V33" t="n">
-        <v>0.1542062527932182</v>
+        <v>0.07522635135267644</v>
       </c>
       <c r="W33" t="n">
-        <v>0.15295058886927876</v>
+        <v>0.06612771692280814</v>
       </c>
       <c r="X33" t="n">
-        <v>0.15160327800405293</v>
+        <v>0.05651997921370139</v>
       </c>
       <c r="Y33" t="n">
-        <v>0.15016837818893447</v>
+        <v>0.04654295833779627</v>
       </c>
       <c r="Z33" t="n">
-        <v>0.14864941776966079</v>
+        <v>0.036304980607922505</v>
       </c>
       <c r="AA33" t="n">
-        <v>0.14704918373154896</v>
+        <v>0.02589474588516505</v>
       </c>
       <c r="AB33" t="n">
-        <v>0.14536887790370073</v>
+        <v>0.015384615058809933</v>
       </c>
       <c r="AC33" t="n">
-        <v>0.14360942009244093</v>
+        <v>0.004841888133044703</v>
       </c>
       <c r="AD33" t="n">
-        <v>0.1417714371707437</v>
+        <v>-0.005671242303009772</v>
       </c>
       <c r="AE33" t="n">
-        <v>0.1398537898673206</v>
+        <v>-0.01610099014620897</v>
       </c>
       <c r="AF33" t="n">
-        <v>0.13785419495551002</v>
+        <v>-0.026396952149895285</v>
       </c>
       <c r="AG33" t="n">
-        <v>0.13576910312584298</v>
+        <v>-0.036510826717071496</v>
       </c>
       <c r="AH33" t="n">
-        <v>0.13359352706418642</v>
+        <v>-0.04639523913578027</v>
       </c>
       <c r="AI33" t="n">
-        <v>0.1313208048665334</v>
+        <v>-0.05600258475069249</v>
       </c>
       <c r="AJ33" t="n">
-        <v>0.12894227893751004</v>
+        <v>-0.06528380867323305</v>
       </c>
       <c r="AK33" t="n">
-        <v>0.12644686252375725</v>
+        <v>-0.0741870352469772</v>
       </c>
       <c r="AL33" t="n">
-        <v>0.12382045379788635</v>
+        <v>-0.08265594264845338</v>
       </c>
       <c r="AM33" t="n">
-        <v>0.12104513865422835</v>
+        <v>-0.0906277445200564</v>
       </c>
       <c r="AN33" t="n">
-        <v>0.11809809408449178</v>
+        <v>-0.09803058416213661</v>
       </c>
       <c r="AO33" t="n">
-        <v>0.11495005700805491</v>
+        <v>-0.10478005378178545</v>
       </c>
       <c r="AP33" t="n">
-        <v>0.11156314556177743</v>
+        <v>-0.11077439581996845</v>
       </c>
       <c r="AQ33" t="n">
-        <v>0.10788768578547142</v>
+        <v>-0.11588767581436887</v>
       </c>
       <c r="AR33" t="n">
-        <v>0.10385745503267133</v>
+        <v>-0.11995973634369778</v>
       </c>
       <c r="AS33" t="n">
-        <v>0.09938229322508003</v>
+        <v>-0.1227808337171114</v>
       </c>
       <c r="AT33" t="n">
-        <v>0.09433609397427703</v>
+        <v>-0.12406702131604261</v>
       </c>
       <c r="AU33" t="n">
-        <v>0.08853609503828919</v>
+        <v>-0.1234182842924007</v>
       </c>
       <c r="AV33" t="n">
-        <v>0.08170414881001493</v>
+        <v>-0.12024136210098571</v>
       </c>
       <c r="AW33" t="n">
-        <v>0.07338524083555709</v>
+        <v>-0.1135898591490424</v>
       </c>
       <c r="AX33" t="n">
-        <v>0.06274094177026501</v>
+        <v>-0.10176571688804001</v>
       </c>
       <c r="AY33" t="n">
-        <v>0.04781469556084017</v>
+        <v>-0.08092744532459523</v>
       </c>
       <c r="AZ33" t="n">
         <v>0.0</v>
@@ -3935,151 +3935,151 @@
         <v>5</v>
       </c>
       <c r="C48" t="n">
-        <v>0.6960077005666004</v>
+        <v>0.12577643256313986</v>
       </c>
       <c r="D48" t="n">
-        <v>0.6959249484900552</v>
+        <v>0.1256931610615536</v>
       </c>
       <c r="E48" t="n">
-        <v>0.6956760116128766</v>
+        <v>0.12544230906691956</v>
       </c>
       <c r="F48" t="n">
-        <v>0.6952588333864855</v>
+        <v>0.12502073168914007</v>
       </c>
       <c r="G48" t="n">
-        <v>0.6946699370617819</v>
+        <v>0.12442307713507278</v>
       </c>
       <c r="H48" t="n">
-        <v>0.6939043502770743</v>
+        <v>0.12364161309074359</v>
       </c>
       <c r="I48" t="n">
-        <v>0.692955496282081</v>
+        <v>0.12266596616355507</v>
       </c>
       <c r="J48" t="n">
-        <v>0.6918150489961528</v>
+        <v>0.12148275381408286</v>
       </c>
       <c r="K48" t="n">
-        <v>0.6904727492247934</v>
+        <v>0.12007507700274889</v>
       </c>
       <c r="L48" t="n">
-        <v>0.6889161809994142</v>
+        <v>0.11842182448696237</v>
       </c>
       <c r="M48" t="n">
-        <v>0.6871305118540147</v>
+        <v>0.11649671137342865</v>
       </c>
       <c r="N48" t="n">
-        <v>0.6850982120973856</v>
+        <v>0.11426692504857491</v>
       </c>
       <c r="O48" t="n">
-        <v>0.6827987910215367</v>
+        <v>0.11169115846535976</v>
       </c>
       <c r="P48" t="n">
-        <v>0.680208628251876</v>
+        <v>0.10871661835268023</v>
       </c>
       <c r="Q48" t="n">
-        <v>0.677301030458799</v>
+        <v>0.10527414844272767</v>
       </c>
       <c r="R48" t="n">
-        <v>0.6740466401872329</v>
+        <v>0.10126939205781313</v>
       </c>
       <c r="S48" t="n">
-        <v>0.6704139310929423</v>
+        <v>0.09656379691568528</v>
       </c>
       <c r="T48" t="n">
-        <v>0.6673576515198932</v>
+        <v>0.091052958908486</v>
       </c>
       <c r="U48" t="n">
-        <v>0.6618830609140239</v>
+        <v>0.08361773397552419</v>
       </c>
       <c r="V48" t="n">
-        <v>0.6569239234155779</v>
+        <v>0.07522635135267644</v>
       </c>
       <c r="W48" t="n">
-        <v>0.6515747520527813</v>
+        <v>0.06612771692280814</v>
       </c>
       <c r="X48" t="n">
-        <v>0.6458351615782534</v>
+        <v>0.05651997921370139</v>
       </c>
       <c r="Y48" t="n">
-        <v>0.6397224391744487</v>
+        <v>0.04654295833779627</v>
       </c>
       <c r="Z48" t="n">
-        <v>0.6332516157151674</v>
+        <v>0.036304980607922505</v>
       </c>
       <c r="AA48" t="n">
-        <v>0.6264345638534038</v>
+        <v>0.02589474588516505</v>
       </c>
       <c r="AB48" t="n">
-        <v>0.619276403422333</v>
+        <v>0.015384615058809933</v>
       </c>
       <c r="AC48" t="n">
-        <v>0.6117810528284314</v>
+        <v>0.004841888133044703</v>
       </c>
       <c r="AD48" t="n">
-        <v>0.6039511825720594</v>
+        <v>-0.005671242303009772</v>
       </c>
       <c r="AE48" t="n">
-        <v>0.595781939318472</v>
+        <v>-0.01610099014620897</v>
       </c>
       <c r="AF48" t="n">
-        <v>0.5872635964438166</v>
+        <v>-0.026396952149895285</v>
       </c>
       <c r="AG48" t="n">
-        <v>0.5783810337680775</v>
+        <v>-0.036510826717071496</v>
       </c>
       <c r="AH48" t="n">
-        <v>0.569113005162072</v>
+        <v>-0.04639523913578027</v>
       </c>
       <c r="AI48" t="n">
-        <v>0.559431130686347</v>
+        <v>-0.05600258475069249</v>
       </c>
       <c r="AJ48" t="n">
-        <v>0.5492985286878083</v>
+        <v>-0.06528380867323305</v>
       </c>
       <c r="AK48" t="n">
-        <v>0.5386679692170693</v>
+        <v>-0.0741870352469772</v>
       </c>
       <c r="AL48" t="n">
-        <v>0.5274793780060136</v>
+        <v>-0.08265594264845338</v>
       </c>
       <c r="AM48" t="n">
-        <v>0.5156564403503581</v>
+        <v>-0.0906277445200564</v>
       </c>
       <c r="AN48" t="n">
-        <v>0.5031019294523599</v>
+        <v>-0.09803058416213661</v>
       </c>
       <c r="AO48" t="n">
-        <v>0.48969118358537017</v>
+        <v>-0.10478005378178545</v>
       </c>
       <c r="AP48" t="n">
-        <v>0.475262824713741</v>
+        <v>-0.11077439581996845</v>
       </c>
       <c r="AQ48" t="n">
-        <v>0.4596052400641432</v>
+        <v>-0.11588767581436887</v>
       </c>
       <c r="AR48" t="n">
-        <v>0.4424363188923814</v>
+        <v>-0.11995973634369778</v>
       </c>
       <c r="AS48" t="n">
-        <v>0.4233719761740313</v>
+        <v>-0.1227808337171114</v>
       </c>
       <c r="AT48" t="n">
-        <v>0.40187499437122814</v>
+        <v>-0.12406702131604261</v>
       </c>
       <c r="AU48" t="n">
-        <v>0.3771668000676904</v>
+        <v>-0.1234182842924007</v>
       </c>
       <c r="AV48" t="n">
-        <v>0.34806247492167697</v>
+        <v>-0.12024136210098571</v>
       </c>
       <c r="AW48" t="n">
-        <v>0.31262364176072793</v>
+        <v>-0.1135898591490424</v>
       </c>
       <c r="AX48" t="n">
-        <v>0.2672785628335007</v>
+        <v>-0.10176571688804001</v>
       </c>
       <c r="AY48" t="n">
-        <v>0.2036922422780639</v>
+        <v>-0.08092744532459523</v>
       </c>
       <c r="AZ48" t="n">
         <v>0.0</v>
@@ -5846,151 +5846,151 @@
         <v>5</v>
       </c>
       <c r="C63" t="n">
-        <v>2.8265154046845296</v>
+        <v>0.12577643256313986</v>
       </c>
       <c r="D63" t="n">
-        <v>2.8261793451568344</v>
+        <v>0.1256931610615536</v>
       </c>
       <c r="E63" t="n">
-        <v>2.825168402436564</v>
+        <v>0.12544230906691956</v>
       </c>
       <c r="F63" t="n">
-        <v>2.8234742247968154</v>
+        <v>0.12502073168914007</v>
       </c>
       <c r="G63" t="n">
-        <v>2.8210826930189588</v>
+        <v>0.12442307713507278</v>
       </c>
       <c r="H63" t="n">
-        <v>2.8179736141411866</v>
+        <v>0.12364161309074359</v>
       </c>
       <c r="I63" t="n">
-        <v>2.81412027971477</v>
+        <v>0.12266596616355507</v>
       </c>
       <c r="J63" t="n">
-        <v>2.8094888771896507</v>
+        <v>0.12148275381408286</v>
       </c>
       <c r="K63" t="n">
-        <v>2.8040377435623016</v>
+        <v>0.12007507700274889</v>
       </c>
       <c r="L63" t="n">
-        <v>2.7977164570824327</v>
+        <v>0.11842182448696237</v>
       </c>
       <c r="M63" t="n">
-        <v>2.7904647825060844</v>
+        <v>0.11649671137342865</v>
       </c>
       <c r="N63" t="n">
-        <v>2.7822115310487057</v>
+        <v>0.11426692504857491</v>
       </c>
       <c r="O63" t="n">
-        <v>2.7728734891169102</v>
+        <v>0.11169115846535976</v>
       </c>
       <c r="P63" t="n">
-        <v>2.762354733414743</v>
+        <v>0.10871661835268023</v>
       </c>
       <c r="Q63" t="n">
-        <v>2.7505468612517365</v>
+        <v>0.10527414844272767</v>
       </c>
       <c r="R63" t="n">
-        <v>2.7373306508162076</v>
+        <v>0.10126939205781313</v>
       </c>
       <c r="S63" t="n">
-        <v>2.7225780723499184</v>
+        <v>0.09656379691568528</v>
       </c>
       <c r="T63" t="n">
-        <v>2.710166397468716</v>
+        <v>0.091052958908486</v>
       </c>
       <c r="U63" t="n">
-        <v>2.6879338637349166</v>
+        <v>0.08361773397552419</v>
       </c>
       <c r="V63" t="n">
-        <v>2.6677946059050175</v>
+        <v>0.07522635135267644</v>
       </c>
       <c r="W63" t="n">
-        <v>2.646071404786792</v>
+        <v>0.06612771692280814</v>
       </c>
       <c r="X63" t="n">
-        <v>2.6227626958750556</v>
+        <v>0.05651997921370139</v>
       </c>
       <c r="Y63" t="n">
-        <v>2.5979386831165066</v>
+        <v>0.04654295833779627</v>
       </c>
       <c r="Z63" t="n">
-        <v>2.571660407497195</v>
+        <v>0.036304980607922505</v>
       </c>
       <c r="AA63" t="n">
-        <v>2.5439760843408235</v>
+        <v>0.02589474588516505</v>
       </c>
       <c r="AB63" t="n">
-        <v>2.5149065054968633</v>
+        <v>0.015384615058809933</v>
       </c>
       <c r="AC63" t="n">
-        <v>2.484467583772394</v>
+        <v>0.004841888133044703</v>
       </c>
       <c r="AD63" t="n">
-        <v>2.4526701641773228</v>
+        <v>-0.005671242303009772</v>
       </c>
       <c r="AE63" t="n">
-        <v>2.419494537123078</v>
+        <v>-0.01610099014620897</v>
       </c>
       <c r="AF63" t="n">
-        <v>2.3849012023970433</v>
+        <v>-0.026396952149895285</v>
       </c>
       <c r="AG63" t="n">
-        <v>2.348828756337015</v>
+        <v>-0.036510826717071496</v>
       </c>
       <c r="AH63" t="n">
-        <v>2.3111909175536147</v>
+        <v>-0.04639523913578027</v>
       </c>
       <c r="AI63" t="n">
-        <v>2.2718724339656013</v>
+        <v>-0.05600258475069249</v>
       </c>
       <c r="AJ63" t="n">
-        <v>2.230723527689002</v>
+        <v>-0.06528380867323305</v>
       </c>
       <c r="AK63" t="n">
-        <v>2.187552395990318</v>
+        <v>-0.0741870352469772</v>
       </c>
       <c r="AL63" t="n">
-        <v>2.142115074838524</v>
+        <v>-0.08265594264845338</v>
       </c>
       <c r="AM63" t="n">
-        <v>2.094101647134877</v>
+        <v>-0.0906277445200564</v>
       </c>
       <c r="AN63" t="n">
-        <v>2.0431172709238323</v>
+        <v>-0.09803058416213661</v>
       </c>
       <c r="AO63" t="n">
-        <v>1.988655689894632</v>
+        <v>-0.10478005378178545</v>
       </c>
       <c r="AP63" t="n">
-        <v>1.9300615413215958</v>
+        <v>-0.11077439581996845</v>
       </c>
       <c r="AQ63" t="n">
-        <v>1.8664754571788307</v>
+        <v>-0.11588767581436887</v>
       </c>
       <c r="AR63" t="n">
-        <v>1.7967517743312216</v>
+        <v>-0.11995973634369778</v>
       </c>
       <c r="AS63" t="n">
-        <v>1.719330707969837</v>
+        <v>-0.1227808337171114</v>
       </c>
       <c r="AT63" t="n">
-        <v>1.6320305959590335</v>
+        <v>-0.12406702131604261</v>
       </c>
       <c r="AU63" t="n">
-        <v>1.5316896201852956</v>
+        <v>-0.1234182842924007</v>
       </c>
       <c r="AV63" t="n">
-        <v>1.4134957793683254</v>
+        <v>-0.12024136210098571</v>
       </c>
       <c r="AW63" t="n">
-        <v>1.2695772454614114</v>
+        <v>-0.1135898591490424</v>
       </c>
       <c r="AX63" t="n">
-        <v>1.0854290470864436</v>
+        <v>-0.10176571688804001</v>
       </c>
       <c r="AY63" t="n">
-        <v>0.8272024291469591</v>
+        <v>-0.08092744532459523</v>
       </c>
       <c r="AZ63" t="n">
         <v>0.0</v>
@@ -22248,106 +22248,67 @@
         <v>16</v>
       </c>
       <c r="C19" t="n">
-        <v>-8.412089163711062</v>
+        <v>0.0</v>
       </c>
       <c r="D19" t="n">
-        <v>-7.584261225938263</v>
+        <v>1.5</v>
       </c>
       <c r="E19" t="n">
-        <v>-6.756433288165464</v>
+        <v>3.0</v>
       </c>
       <c r="F19" t="n">
-        <v>-5.928605350392665</v>
+        <v>4.5</v>
       </c>
       <c r="G19" t="n">
-        <v>-5.100777412619864</v>
+        <v>6.0</v>
       </c>
       <c r="H19" t="n">
-        <v>-4.272949474847065</v>
+        <v>7.5</v>
       </c>
       <c r="I19" t="n">
-        <v>-3.4451215370742663</v>
+        <v>9.0</v>
       </c>
       <c r="J19" t="n">
-        <v>-2.628526773994257</v>
+        <v>10.5</v>
       </c>
       <c r="K19" t="n">
-        <v>-1.7894656615286664</v>
+        <v>12.0</v>
       </c>
       <c r="L19" t="n">
-        <v>-0.9616377237558669</v>
+        <v>13.5</v>
       </c>
       <c r="M19" t="n">
-        <v>-0.1399001318812103</v>
+        <v>15.0</v>
       </c>
       <c r="N19" t="n">
-        <v>0.6754953384575861</v>
+        <v>16.5</v>
       </c>
       <c r="O19" t="n">
-        <v>1.4846915891005237</v>
+        <v>18.0</v>
       </c>
       <c r="P19" t="n">
-        <v>2.287568707402156</v>
+        <v>19.5</v>
       </c>
       <c r="Q19" t="n">
-        <v>3.0841989383444135</v>
+        <v>21.0</v>
       </c>
       <c r="R19" t="n">
-        <v>3.8745963745564653</v>
+        <v>22.5</v>
       </c>
       <c r="S19" t="n">
-        <v>4.658762640691005</v>
+        <v>24.0</v>
       </c>
       <c r="T19" t="n">
-        <v>5.436843823895224</v>
+        <v>25.5</v>
       </c>
       <c r="U19" t="n">
-        <v>6.20877308062048</v>
+        <v>27.0</v>
       </c>
       <c r="V19" t="n">
-        <v>6.974822424603595</v>
+        <v>28.5</v>
       </c>
       <c r="W19" t="n">
-        <v>7.734860743482393</v>
-      </c>
-      <c r="X19" t="n">
-        <v>8.489276174585186</v>
-      </c>
-      <c r="Y19" t="n">
-        <v>9.23787962406169</v>
-      </c>
-      <c r="Z19" t="n">
-        <v>9.98121054574716</v>
-      </c>
-      <c r="AA19" t="n">
-        <v>10.728454924194153</v>
-      </c>
-      <c r="AB19" t="n">
-        <v>11.495476275790523</v>
-      </c>
-      <c r="AC19" t="n">
-        <v>12.311523034492076</v>
-      </c>
-      <c r="AD19" t="n">
-        <v>13.167163537458038</v>
-      </c>
-      <c r="AE19" t="n">
-        <v>14.067075647555562</v>
-      </c>
-      <c r="AF19" t="n">
-        <v>14.982322827119383</v>
-      </c>
-      <c r="AG19" t="n">
-        <v>15.876018343750708</v>
-      </c>
-      <c r="AH19" t="n">
-        <v>16.70155163761588</v>
-      </c>
-      <c r="AI19" t="n">
-        <v>17.38675267920177</v>
-      </c>
-      <c r="AJ19" t="n">
-        <v>18.000423132823144</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="20">
@@ -30729,106 +30690,67 @@
         <v>16</v>
       </c>
       <c r="C115" t="n">
-        <v>-8.412089163711062</v>
+        <v>0.0</v>
       </c>
       <c r="D115" t="n">
-        <v>-7.584261225938263</v>
+        <v>1.5</v>
       </c>
       <c r="E115" t="n">
-        <v>-6.756433288165464</v>
+        <v>3.0</v>
       </c>
       <c r="F115" t="n">
-        <v>-5.928605350392665</v>
+        <v>4.5</v>
       </c>
       <c r="G115" t="n">
-        <v>-5.100777412619864</v>
+        <v>6.0</v>
       </c>
       <c r="H115" t="n">
-        <v>-4.272949474847065</v>
+        <v>7.5</v>
       </c>
       <c r="I115" t="n">
-        <v>-3.4451215370742663</v>
+        <v>9.0</v>
       </c>
       <c r="J115" t="n">
-        <v>-2.628526773994257</v>
+        <v>10.5</v>
       </c>
       <c r="K115" t="n">
-        <v>-1.7894656615286664</v>
+        <v>12.0</v>
       </c>
       <c r="L115" t="n">
-        <v>-0.9616377237558669</v>
+        <v>13.5</v>
       </c>
       <c r="M115" t="n">
-        <v>-0.1399001318812103</v>
+        <v>15.0</v>
       </c>
       <c r="N115" t="n">
-        <v>0.6754953384575861</v>
+        <v>16.5</v>
       </c>
       <c r="O115" t="n">
-        <v>1.4846915891005237</v>
+        <v>18.0</v>
       </c>
       <c r="P115" t="n">
-        <v>2.287568707402156</v>
+        <v>19.5</v>
       </c>
       <c r="Q115" t="n">
-        <v>3.0841989383444135</v>
+        <v>21.0</v>
       </c>
       <c r="R115" t="n">
-        <v>3.8745963745564653</v>
+        <v>22.5</v>
       </c>
       <c r="S115" t="n">
-        <v>4.658762640691005</v>
+        <v>24.0</v>
       </c>
       <c r="T115" t="n">
-        <v>5.436843823895224</v>
+        <v>25.5</v>
       </c>
       <c r="U115" t="n">
-        <v>6.20877308062048</v>
+        <v>27.0</v>
       </c>
       <c r="V115" t="n">
-        <v>6.974822424603595</v>
+        <v>28.5</v>
       </c>
       <c r="W115" t="n">
-        <v>7.734860743482393</v>
-      </c>
-      <c r="X115" t="n">
-        <v>8.489276174585186</v>
-      </c>
-      <c r="Y115" t="n">
-        <v>9.23787962406169</v>
-      </c>
-      <c r="Z115" t="n">
-        <v>9.98121054574716</v>
-      </c>
-      <c r="AA115" t="n">
-        <v>10.728454924194153</v>
-      </c>
-      <c r="AB115" t="n">
-        <v>11.495476275790523</v>
-      </c>
-      <c r="AC115" t="n">
-        <v>12.311523034492076</v>
-      </c>
-      <c r="AD115" t="n">
-        <v>13.167163537458038</v>
-      </c>
-      <c r="AE115" t="n">
-        <v>14.067075647555562</v>
-      </c>
-      <c r="AF115" t="n">
-        <v>14.982322827119383</v>
-      </c>
-      <c r="AG115" t="n">
-        <v>15.876018343750708</v>
-      </c>
-      <c r="AH115" t="n">
-        <v>16.70155163761588</v>
-      </c>
-      <c r="AI115" t="n">
-        <v>17.38675267920177</v>
-      </c>
-      <c r="AJ115" t="n">
-        <v>18.000423132823144</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="116">

--- a/JPADSandBox_v2/out/ATR-72/AERODYNAMIC_AND_STABILITY_CRUISE/Aerodynamic_and_Stability_CRUISE.xlsx
+++ b/JPADSandBox_v2/out/ATR-72/AERODYNAMIC_AND_STABILITY_CRUISE/Aerodynamic_and_Stability_CRUISE.xlsx
@@ -41659,7 +41659,9 @@
       <c r="AD5" t="n">
         <v>0.15030190874802452</v>
       </c>
-      <c r="AE5"/>
+      <c r="AE5" t="n">
+        <v>0.16846527343320006</v>
+      </c>
       <c r="AF5"/>
       <c r="AG5"/>
       <c r="AH5"/>
@@ -41757,7 +41759,9 @@
       <c r="AD6" t="n">
         <v>1.5900791573454172</v>
       </c>
-      <c r="AE6"/>
+      <c r="AE6" t="n">
+        <v>1.595623552089584</v>
+      </c>
       <c r="AF6"/>
       <c r="AG6"/>
       <c r="AH6"/>
@@ -41772,90 +41776,92 @@
         <v>5</v>
       </c>
       <c r="C7" t="n">
-        <v>0.006483815156628115</v>
+        <v>0.006465296638109597</v>
       </c>
       <c r="D7" t="n">
-        <v>0.006324086087120257</v>
+        <v>0.006305567568601738</v>
       </c>
       <c r="E7" t="n">
-        <v>0.006178459567271028</v>
+        <v>0.006159941048752509</v>
       </c>
       <c r="F7" t="n">
-        <v>0.006048261776671065</v>
+        <v>0.006029743258152547</v>
       </c>
       <c r="G7" t="n">
-        <v>0.00593441110153579</v>
+        <v>0.0059158925830172715</v>
       </c>
       <c r="H7" t="n">
-        <v>0.005831050592521181</v>
+        <v>0.005812532074002663</v>
       </c>
       <c r="I7" t="n">
-        <v>0.005747844561940559</v>
+        <v>0.005731047981596286</v>
       </c>
       <c r="J7" t="n">
-        <v>0.005674203022702891</v>
+        <v>0.0056753047332882625</v>
       </c>
       <c r="K7" t="n">
-        <v>0.005633667815117801</v>
+        <v>0.005652709589876821</v>
       </c>
       <c r="L7" t="n">
-        <v>0.005601386685543474</v>
+        <v>0.005638117858927829</v>
       </c>
       <c r="M7" t="n">
-        <v>0.005619202837904212</v>
+        <v>0.005643497699168478</v>
       </c>
       <c r="N7" t="n">
-        <v>0.005698005968160438</v>
+        <v>0.0056612374455055296</v>
       </c>
       <c r="O7" t="n">
-        <v>0.005791139812746698</v>
+        <v>0.005785739154430761</v>
       </c>
       <c r="P7" t="n">
-        <v>0.005899506352206386</v>
+        <v>0.005928431367615053</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.006030913732052163</v>
+        <v>0.006081987452863874</v>
       </c>
       <c r="R7" t="n">
-        <v>0.006259195754639152</v>
+        <v>0.006261039094241171</v>
       </c>
       <c r="S7" t="n">
-        <v>0.006498678553347965</v>
+        <v>0.006456325357252018</v>
       </c>
       <c r="T7" t="n">
-        <v>0.006756945611857708</v>
+        <v>0.006770164338760925</v>
       </c>
       <c r="U7" t="n">
-        <v>0.007021465934465147</v>
+        <v>0.007090435548855109</v>
       </c>
       <c r="V7" t="n">
-        <v>0.007403417890822009</v>
+        <v>0.007428023246517743</v>
       </c>
       <c r="W7" t="n">
-        <v>0.007793665238312172</v>
+        <v>0.007772687007240325</v>
       </c>
       <c r="X7" t="n">
-        <v>0.008201586903647513</v>
+        <v>0.008196806958608832</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.008646151278651523</v>
+        <v>0.008726511477374124</v>
       </c>
       <c r="Z7" t="n">
-        <v>0.009257337845329875</v>
+        <v>0.009277719815556414</v>
       </c>
       <c r="AA7" t="n">
-        <v>0.009885173906589734</v>
+        <v>0.009844917747540533</v>
       </c>
       <c r="AB7" t="n">
-        <v>0.010777515566369494</v>
+        <v>0.011066693018866028</v>
       </c>
       <c r="AC7" t="n">
-        <v>0.01527132170878991</v>
+        <v>0.015246375590081133</v>
       </c>
       <c r="AD7" t="n">
-        <v>0.01722782601988602</v>
-      </c>
-      <c r="AE7"/>
+        <v>0.018527850899671648</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>0.02184365382899632</v>
+      </c>
       <c r="AF7"/>
       <c r="AG7"/>
       <c r="AH7"/>
@@ -41870,90 +41876,92 @@
         <v>5</v>
       </c>
       <c r="C8" t="n">
-        <v>0.10058034362818456</v>
+        <v>0.10057681139225588</v>
       </c>
       <c r="D8" t="n">
-        <v>0.08793158332595706</v>
+        <v>0.08792805109002838</v>
       </c>
       <c r="E8" t="n">
-        <v>0.07633391985483297</v>
+        <v>0.07633038761890429</v>
       </c>
       <c r="F8" t="n">
-        <v>0.06607586484052413</v>
+        <v>0.06607233260459545</v>
       </c>
       <c r="G8" t="n">
-        <v>0.05699416911833546</v>
+        <v>0.05699063688240677</v>
       </c>
       <c r="H8" t="n">
-        <v>0.048980064814899776</v>
+        <v>0.048976532578971096</v>
       </c>
       <c r="I8" t="n">
-        <v>0.042134044161377164</v>
+        <v>0.04213084036921033</v>
       </c>
       <c r="J8" t="n">
-        <v>0.036731487956106625</v>
+        <v>0.03673169809719911</v>
       </c>
       <c r="K8" t="n">
-        <v>0.032560681117183694</v>
+        <v>0.03256431315939498</v>
       </c>
       <c r="L8" t="n">
-        <v>0.029527462465724866</v>
+        <v>0.029534468596922735</v>
       </c>
       <c r="M8" t="n">
-        <v>0.027774404145604985</v>
+        <v>0.027779038165424343</v>
       </c>
       <c r="N8" t="n">
-        <v>0.027491426850084252</v>
+        <v>0.02748441359485888</v>
       </c>
       <c r="O8" t="n">
-        <v>0.028471960575222447</v>
+        <v>0.028470930449657973</v>
       </c>
       <c r="P8" t="n">
-        <v>0.03067389105282095</v>
+        <v>0.030679408231668814</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.03423362804425261</v>
+        <v>0.03424336988356239</v>
       </c>
       <c r="R8" t="n">
-        <v>0.03928099132025033</v>
+        <v>0.03928134292021036</v>
       </c>
       <c r="S8" t="n">
-        <v>0.04560679893484217</v>
+        <v>0.045598720454871164</v>
       </c>
       <c r="T8" t="n">
-        <v>0.05322488283094747</v>
+        <v>0.053227404180700814</v>
       </c>
       <c r="U8" t="n">
-        <v>0.06227937657952461</v>
+        <v>0.06229253189482113</v>
       </c>
       <c r="V8" t="n">
-        <v>0.07282395533467295</v>
+        <v>0.07282864857842998</v>
       </c>
       <c r="W8" t="n">
-        <v>0.08468732305617283</v>
+        <v>0.08468332165285117</v>
       </c>
       <c r="X8" t="n">
-        <v>0.09791258912361338</v>
+        <v>0.09791167739335883</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.11264519996763234</v>
+        <v>0.11266052793141518</v>
       </c>
       <c r="Z8" t="n">
-        <v>0.12889852594901513</v>
+        <v>0.12890241362110183</v>
       </c>
       <c r="AA8" t="n">
-        <v>0.14650022063745713</v>
+        <v>0.1464925421478845</v>
       </c>
       <c r="AB8" t="n">
-        <v>0.16559735741126752</v>
+        <v>0.16565251533259104</v>
       </c>
       <c r="AC8" t="n">
-        <v>0.18694408211018168</v>
+        <v>0.18693932386903533</v>
       </c>
       <c r="AD8" t="n">
-        <v>0.20930765959347603</v>
-      </c>
-      <c r="AE8"/>
+        <v>0.20955562730125815</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>0.23357537729156702</v>
+      </c>
       <c r="AF8"/>
       <c r="AG8"/>
       <c r="AH8"/>
@@ -41971,87 +41979,89 @@
         <v>5.0</v>
       </c>
       <c r="D9" t="n">
-        <v>4.557489422510196</v>
+        <v>4.557550255582836</v>
       </c>
       <c r="E9" t="n">
-        <v>3.881974866768208</v>
+        <v>3.8821285645725165</v>
       </c>
       <c r="F9" t="n">
-        <v>3.1936548595988627</v>
+        <v>3.19390318253334</v>
       </c>
       <c r="G9" t="n">
-        <v>2.490836651527113</v>
+        <v>2.491181592696903</v>
       </c>
       <c r="H9" t="n">
-        <v>1.7723370650865085</v>
+        <v>1.7727807802512223</v>
       </c>
       <c r="I9" t="n">
-        <v>1.0394425249639552</v>
+        <v>1.0393636871842382</v>
       </c>
       <c r="J9" t="n">
-        <v>0.29375128875867396</v>
+        <v>0.29360156511570557</v>
       </c>
       <c r="K9" t="n">
-        <v>-0.4536803338379123</v>
+        <v>-0.4539011087863227</v>
       </c>
       <c r="L9" t="n">
-        <v>-1.190668551344534</v>
+        <v>-1.1909593848419355</v>
       </c>
       <c r="M9" t="n">
-        <v>-1.9724877182710538</v>
+        <v>-1.9725191824902186</v>
       </c>
       <c r="N9" t="n">
-        <v>-2.755111754613191</v>
+        <v>-2.7543636736453463</v>
       </c>
       <c r="O9" t="n">
-        <v>-3.5397104770000327</v>
+        <v>-3.5404038937634565</v>
       </c>
       <c r="P9" t="n">
-        <v>-4.3267614480183365</v>
+        <v>-4.328969532078613</v>
       </c>
       <c r="Q9" t="n">
-        <v>-5.116871411678847</v>
+        <v>-5.119528352108544</v>
       </c>
       <c r="R9" t="n">
-        <v>-5.9145163890923165</v>
+        <v>-5.911394068650861</v>
       </c>
       <c r="S9" t="n">
-        <v>-6.715206150765871</v>
+        <v>-6.707838932773502</v>
       </c>
       <c r="T9" t="n">
-        <v>-7.519018668252798</v>
+        <v>-7.53717881377902</v>
       </c>
       <c r="U9" t="n">
-        <v>-8.32541979321519</v>
+        <v>-8.369189510887757</v>
       </c>
       <c r="V9" t="n">
-        <v>-9.189252854596532</v>
+        <v>-9.203943193994139</v>
       </c>
       <c r="W9" t="n">
-        <v>-10.05798356538724</v>
+        <v>-10.042904194909909</v>
       </c>
       <c r="X9" t="n">
-        <v>-10.930952978984475</v>
+        <v>-10.942441572933912</v>
       </c>
       <c r="Y9" t="n">
-        <v>-11.839240369562614</v>
+        <v>-11.93382533567021</v>
       </c>
       <c r="Z9" t="n">
-        <v>-12.918500340230871</v>
+        <v>-12.930823787630516</v>
       </c>
       <c r="AA9" t="n">
-        <v>-14.009634694554425</v>
+        <v>-13.93879155416198</v>
       </c>
       <c r="AB9" t="n">
-        <v>-15.538814665876409</v>
+        <v>-16.05902073402806</v>
       </c>
       <c r="AC9" t="n">
-        <v>-22.68339757548582</v>
+        <v>-22.666293049130026</v>
       </c>
       <c r="AD9" t="n">
-        <v>-25.0</v>
-      </c>
-      <c r="AE9"/>
+        <v>-26.58781474784614</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>-30.0</v>
+      </c>
       <c r="AF9"/>
       <c r="AG9"/>
       <c r="AH9"/>
@@ -42149,7 +42159,9 @@
       <c r="AD10" t="n">
         <v>3.744437196044017</v>
       </c>
-      <c r="AE10"/>
+      <c r="AE10" t="n">
+        <v>7.0959070605473284</v>
+      </c>
       <c r="AF10"/>
       <c r="AG10"/>
       <c r="AH10"/>
@@ -42247,7 +42259,9 @@
       <c r="AD11" t="n">
         <v>-3.494437196044017</v>
       </c>
-      <c r="AE11"/>
+      <c r="AE11" t="n">
+        <v>-6.8459070605473284</v>
+      </c>
       <c r="AF11"/>
       <c r="AG11"/>
       <c r="AH11"/>
@@ -42262,90 +42276,92 @@
         <v>5</v>
       </c>
       <c r="C12" t="n">
-        <v>-7.9334488575851205</v>
+        <v>-7.933727478598306</v>
       </c>
       <c r="D12" t="n">
-        <v>-7.989984688083442</v>
+        <v>-7.990305660863289</v>
       </c>
       <c r="E12" t="n">
-        <v>-7.955842837282651</v>
+        <v>-7.956210998833894</v>
       </c>
       <c r="F12" t="n">
-        <v>-7.750490382339318</v>
+        <v>-7.750904724614128</v>
       </c>
       <c r="G12" t="n">
-        <v>-7.317294015711553</v>
+        <v>-7.317747535977985</v>
       </c>
       <c r="H12" t="n">
-        <v>-6.5756812223134045</v>
+        <v>-6.57615546694131</v>
       </c>
       <c r="I12" t="n">
-        <v>-5.392757438563067</v>
+        <v>-5.393167524711075</v>
       </c>
       <c r="J12" t="n">
-        <v>-3.6059509917978443</v>
+        <v>-3.6059303622457106</v>
       </c>
       <c r="K12" t="n">
-        <v>-1.1606428242815434</v>
+        <v>-1.1605133726419716</v>
       </c>
       <c r="L12" t="n">
-        <v>1.93484515986575</v>
+        <v>1.9343861782188279</v>
       </c>
       <c r="M12" t="n">
-        <v>5.459814745772282</v>
+        <v>5.45890395506775</v>
       </c>
       <c r="N12" t="n">
-        <v>8.950437373928507</v>
+        <v>8.952721275728537</v>
       </c>
       <c r="O12" t="n">
-        <v>11.954568421585686</v>
+        <v>11.955000957732162</v>
       </c>
       <c r="P12" t="n">
-        <v>14.167391485668784</v>
+        <v>14.16484371707938</v>
       </c>
       <c r="Q12" t="n">
-        <v>15.442852960542629</v>
+        <v>15.43845964900414</v>
       </c>
       <c r="R12" t="n">
-        <v>15.851533811206732</v>
+        <v>15.851391927089738</v>
       </c>
       <c r="S12" t="n">
-        <v>15.711563631035387</v>
+        <v>15.714347164231942</v>
       </c>
       <c r="T12" t="n">
-        <v>15.224751880729555</v>
+        <v>15.22403069349546</v>
       </c>
       <c r="U12" t="n">
-        <v>14.515507671835824</v>
+        <v>14.512442198747744</v>
       </c>
       <c r="V12" t="n">
-        <v>13.698774688237089</v>
+        <v>13.69789190803947</v>
       </c>
       <c r="W12" t="n">
-        <v>12.883542939419328</v>
+        <v>12.884151704528046</v>
       </c>
       <c r="X12" t="n">
-        <v>12.09691455578096</v>
+        <v>12.097027199372416</v>
       </c>
       <c r="Y12" t="n">
-        <v>11.342776270378348</v>
+        <v>11.341233035431188</v>
       </c>
       <c r="Z12" t="n">
-        <v>10.634486470840853</v>
+        <v>10.634165736767319</v>
       </c>
       <c r="AA12" t="n">
-        <v>9.948358267511333</v>
+        <v>9.948879716344848</v>
       </c>
       <c r="AB12" t="n">
-        <v>9.213055757701847</v>
+        <v>9.209988052972992</v>
       </c>
       <c r="AC12" t="n">
-        <v>8.395510606209118</v>
+        <v>8.395724300488013</v>
       </c>
       <c r="AD12" t="n">
-        <v>7.59685125921201</v>
-      </c>
-      <c r="AE12"/>
+        <v>7.587861885758438</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>6.831300330504453</v>
+      </c>
       <c r="AF12"/>
       <c r="AG12"/>
       <c r="AH12"/>
@@ -42360,7 +42376,7 @@
         <v>5</v>
       </c>
       <c r="C13" t="n">
-        <v>15.851533811206732</v>
+        <v>15.851391927089738</v>
       </c>
     </row>
   </sheetData>
